--- a/ETL/Data/data.xlsx
+++ b/ETL/Data/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galigaribaldi/Documents/PPropios/API Tren/Apimetro/ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55789506-1252-5640-A80A-03AD85954682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D7F9D-9CDC-874E-9E9A-70E0D29267D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68800" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="676">
   <si>
     <t>SISTEMA</t>
   </si>
@@ -1935,16 +1935,139 @@
   </si>
   <si>
     <t>PINK</t>
+  </si>
+  <si>
+    <t>LINEA_ID</t>
+  </si>
+  <si>
+    <t>ANIO_INAUGURACION</t>
+  </si>
+  <si>
+    <t>AZUL</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>VERDE_OLIVO</t>
+  </si>
+  <si>
+    <t>OLIVE_GREEN</t>
+  </si>
+  <si>
+    <t>TAM_KM</t>
+  </si>
+  <si>
+    <t>CIAN</t>
+  </si>
+  <si>
+    <t>CYAN</t>
+  </si>
+  <si>
+    <t>AFLUENCIA</t>
+  </si>
+  <si>
+    <t>BAJA</t>
+  </si>
+  <si>
+    <t>AMARILLO</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>ROJO</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>NARANJA</t>
+  </si>
+  <si>
+    <t>ORANGE</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>VERDE</t>
+  </si>
+  <si>
+    <t>CAFÉ</t>
+  </si>
+  <si>
+    <t>BROWN</t>
+  </si>
+  <si>
+    <t>DORADO</t>
+  </si>
+  <si>
+    <t>GOLDEN</t>
+  </si>
+  <si>
+    <t>LINEA 1</t>
+  </si>
+  <si>
+    <t>LINEA 2</t>
+  </si>
+  <si>
+    <t>LINEA 3</t>
+  </si>
+  <si>
+    <t>LINEA 4</t>
+  </si>
+  <si>
+    <t>LINEA 5</t>
+  </si>
+  <si>
+    <t>LINEA 6</t>
+  </si>
+  <si>
+    <t>LINEA 7</t>
+  </si>
+  <si>
+    <t>LINEA 8</t>
+  </si>
+  <si>
+    <t>LINEA 9</t>
+  </si>
+  <si>
+    <t>LINEA 12</t>
+  </si>
+  <si>
+    <t>LINEA A</t>
+  </si>
+  <si>
+    <t>MORADA</t>
+  </si>
+  <si>
+    <t>PURPLE</t>
+  </si>
+  <si>
+    <t>LINEA B</t>
+  </si>
+  <si>
+    <t>VERDE_GRIS</t>
+  </si>
+  <si>
+    <t>GREEN_GREY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -9115,6 +9238,12 @@
   </sheetData>
   <autoFilter ref="A1:K196" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="14">
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M66"/>
     <mergeCell ref="N65:N66"/>
     <mergeCell ref="O65:O66"/>
     <mergeCell ref="M8:M9"/>
@@ -9123,12 +9252,6 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9137,49 +9260,321 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D61F9FF-1099-874D-861D-4522CE1B5818}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>637</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E1" t="s">
         <v>633</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D2">
         <v>1969</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>635</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>636</v>
       </c>
+      <c r="G2">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D3">
+        <v>1970</v>
+      </c>
+      <c r="E3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G3">
+        <v>23.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D4">
+        <v>1970</v>
+      </c>
+      <c r="E4" t="s">
+        <v>641</v>
+      </c>
+      <c r="F4" t="s">
+        <v>642</v>
+      </c>
+      <c r="G4">
+        <v>23.61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D5">
+        <v>1981</v>
+      </c>
+      <c r="E5" t="s">
+        <v>644</v>
+      </c>
+      <c r="F5" t="s">
+        <v>645</v>
+      </c>
+      <c r="G5">
+        <v>10.75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D6">
+        <v>1981</v>
+      </c>
+      <c r="E6" t="s">
+        <v>648</v>
+      </c>
+      <c r="F6" t="s">
+        <v>649</v>
+      </c>
+      <c r="G6">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>665</v>
+      </c>
+      <c r="D7">
+        <v>1983</v>
+      </c>
+      <c r="E7" t="s">
+        <v>650</v>
+      </c>
+      <c r="F7" t="s">
+        <v>651</v>
+      </c>
+      <c r="G7">
+        <v>13.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>666</v>
+      </c>
+      <c r="D8">
+        <v>1984</v>
+      </c>
+      <c r="E8" t="s">
+        <v>652</v>
+      </c>
+      <c r="F8" t="s">
+        <v>653</v>
+      </c>
+      <c r="G8">
+        <v>18.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>667</v>
+      </c>
+      <c r="D9">
+        <v>1994</v>
+      </c>
+      <c r="E9" t="s">
+        <v>655</v>
+      </c>
+      <c r="F9" t="s">
+        <v>654</v>
+      </c>
+      <c r="G9">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>668</v>
+      </c>
+      <c r="D10">
+        <v>1987</v>
+      </c>
+      <c r="E10" t="s">
+        <v>656</v>
+      </c>
+      <c r="F10" t="s">
+        <v>657</v>
+      </c>
+      <c r="G10">
+        <v>15.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>670</v>
+      </c>
+      <c r="D11">
+        <v>1991</v>
+      </c>
+      <c r="E11" t="s">
+        <v>671</v>
+      </c>
+      <c r="F11" t="s">
+        <v>672</v>
+      </c>
+      <c r="G11">
+        <v>17.190000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>673</v>
+      </c>
+      <c r="D12">
+        <v>1999</v>
+      </c>
+      <c r="E12" t="s">
+        <v>674</v>
+      </c>
+      <c r="F12" t="s">
+        <v>675</v>
+      </c>
+      <c r="G12">
+        <v>23.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>669</v>
+      </c>
+      <c r="D13">
+        <v>2012</v>
+      </c>
+      <c r="E13" t="s">
+        <v>658</v>
+      </c>
+      <c r="F13" t="s">
+        <v>659</v>
+      </c>
+      <c r="G13">
+        <v>24.5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ETL/Data/data.xlsx
+++ b/ETL/Data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galigaribaldi/Documents/PPropios/API Tren/Apimetro/ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6D7F9D-9CDC-874E-9E9A-70E0D29267D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7F2969-0E38-3B4C-A832-7A51331B84AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68800" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estacion" sheetId="1" r:id="rId1"/>
@@ -2073,12 +2073,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2093,11 +2099,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2396,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5321,7 +5328,7 @@
       <c r="B76" t="s">
         <v>273</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D76" t="s">
@@ -5647,6 +5654,12 @@
       <c r="I84" t="s">
         <v>257</v>
       </c>
+      <c r="J84">
+        <v>19.451496997171599</v>
+      </c>
+      <c r="K84">
+        <v>-99.105312472692304</v>
+      </c>
       <c r="L84" t="s">
         <v>624</v>
       </c>
@@ -5679,6 +5692,12 @@
       <c r="I85" t="s">
         <v>257</v>
       </c>
+      <c r="J85">
+        <v>19.451456531243299</v>
+      </c>
+      <c r="K85">
+        <v>-99.096032029588301</v>
+      </c>
       <c r="L85" t="s">
         <v>624</v>
       </c>
@@ -5711,6 +5730,12 @@
       <c r="I86" t="s">
         <v>257</v>
       </c>
+      <c r="J86">
+        <v>19.445123493266401</v>
+      </c>
+      <c r="K86">
+        <v>-99.086891061182001</v>
+      </c>
       <c r="L86" t="s">
         <v>624</v>
       </c>
@@ -5743,6 +5768,12 @@
       <c r="I87" t="s">
         <v>257</v>
       </c>
+      <c r="J87">
+        <v>19.4340754936451</v>
+      </c>
+      <c r="K87">
+        <v>-99.088049775440595</v>
+      </c>
       <c r="L87" t="s">
         <v>624</v>
       </c>
@@ -5775,6 +5806,12 @@
       <c r="I88" t="s">
         <v>257</v>
       </c>
+      <c r="J88">
+        <v>19.424382581898598</v>
+      </c>
+      <c r="K88">
+        <v>-99.088350182887993</v>
+      </c>
       <c r="L88" t="s">
         <v>624</v>
       </c>
@@ -5807,6 +5844,12 @@
       <c r="I89" t="s">
         <v>257</v>
       </c>
+      <c r="J89">
+        <v>19.414982535867502</v>
+      </c>
+      <c r="K89">
+        <v>-99.074252492364394</v>
+      </c>
       <c r="L89" t="s">
         <v>624</v>
       </c>
@@ -5839,6 +5882,12 @@
       <c r="I90" t="s">
         <v>230</v>
       </c>
+      <c r="J90">
+        <v>19.504796752747598</v>
+      </c>
+      <c r="K90">
+        <v>-99.200129689884406</v>
+      </c>
       <c r="L90" t="s">
         <v>624</v>
       </c>
@@ -5871,6 +5920,12 @@
       <c r="I91" t="s">
         <v>230</v>
       </c>
+      <c r="J91">
+        <v>19.495018094547</v>
+      </c>
+      <c r="K91">
+        <v>99.196174565068603</v>
+      </c>
       <c r="L91" t="s">
         <v>624</v>
       </c>
@@ -5903,6 +5958,12 @@
       <c r="I92" t="s">
         <v>230</v>
       </c>
+      <c r="J92">
+        <v>19.490833602788602</v>
+      </c>
+      <c r="K92">
+        <v>-99.186415994946699</v>
+      </c>
       <c r="L92" t="s">
         <v>624</v>
       </c>
@@ -5935,6 +5996,12 @@
       <c r="I93" t="s">
         <v>230</v>
       </c>
+      <c r="J93">
+        <v>19.4909228323321</v>
+      </c>
+      <c r="K93">
+        <v>-99.1741714610489</v>
+      </c>
       <c r="L93" t="s">
         <v>624</v>
       </c>
@@ -5967,6 +6034,12 @@
       <c r="I94" t="s">
         <v>230</v>
       </c>
+      <c r="J94">
+        <v>19.4887666332097</v>
+      </c>
+      <c r="K94">
+        <v>-99.163075521691496</v>
+      </c>
       <c r="L94" t="s">
         <v>624</v>
       </c>
@@ -5999,6 +6072,12 @@
       <c r="I95" t="s">
         <v>230</v>
       </c>
+      <c r="J95">
+        <v>19.4897375885317</v>
+      </c>
+      <c r="K95">
+        <v>-99.156058862939105</v>
+      </c>
       <c r="L95" t="s">
         <v>624</v>
       </c>
@@ -6031,6 +6110,12 @@
       <c r="I96" t="s">
         <v>230</v>
       </c>
+      <c r="J96">
+        <v>19.489449011825702</v>
+      </c>
+      <c r="K96">
+        <v>-99.144741693501302</v>
+      </c>
       <c r="L96" t="s">
         <v>624</v>
       </c>
@@ -6063,6 +6148,12 @@
       <c r="I97" t="s">
         <v>338</v>
       </c>
+      <c r="J97">
+        <v>19.4880229167035</v>
+      </c>
+      <c r="K97">
+        <v>-99.134838977928595</v>
+      </c>
       <c r="L97" t="s">
         <v>624</v>
       </c>
@@ -6095,6 +6186,12 @@
       <c r="I98" t="s">
         <v>338</v>
       </c>
+      <c r="J98">
+        <v>19.485099888113599</v>
+      </c>
+      <c r="K98">
+        <v>-99.125483432861898</v>
+      </c>
       <c r="L98" t="s">
         <v>624</v>
       </c>
@@ -6127,6 +6224,12 @@
       <c r="I99" t="s">
         <v>338</v>
       </c>
+      <c r="J99">
+        <v>19.481741880142099</v>
+      </c>
+      <c r="K99">
+        <v>-99.118445316418402</v>
+      </c>
       <c r="L99" t="s">
         <v>624</v>
       </c>
@@ -6159,6 +6262,12 @@
       <c r="I100" t="s">
         <v>338</v>
       </c>
+      <c r="J100">
+        <v>19.485018973092298</v>
+      </c>
+      <c r="K100">
+        <v>-99.104358354649506</v>
+      </c>
       <c r="L100" t="s">
         <v>624</v>
       </c>
@@ -6191,6 +6300,12 @@
       <c r="I101" t="s">
         <v>348</v>
       </c>
+      <c r="J101">
+        <v>19.5048169790382</v>
+      </c>
+      <c r="K101">
+        <v>-99.200022401527207</v>
+      </c>
       <c r="L101" t="s">
         <v>624</v>
       </c>
@@ -6223,6 +6338,12 @@
       <c r="I102" t="s">
         <v>348</v>
       </c>
+      <c r="J102">
+        <v>19.490594873112201</v>
+      </c>
+      <c r="K102">
+        <v>-99.195268082156502</v>
+      </c>
       <c r="L102" t="s">
         <v>624</v>
       </c>
@@ -6255,6 +6376,12 @@
       <c r="I103" t="s">
         <v>348</v>
       </c>
+      <c r="J103">
+        <v>19.479074578846902</v>
+      </c>
+      <c r="K103">
+        <v>-99.189689087335694</v>
+      </c>
       <c r="L103" t="s">
         <v>624</v>
       </c>
@@ -6287,6 +6414,12 @@
       <c r="I104" t="s">
         <v>348</v>
       </c>
+      <c r="J104">
+        <v>19.469687815794501</v>
+      </c>
+      <c r="K104">
+        <v>-99.190204071434295</v>
+      </c>
       <c r="L104" t="s">
         <v>624</v>
       </c>
@@ -6319,6 +6452,12 @@
       <c r="I105" t="s">
         <v>14</v>
       </c>
+      <c r="J105">
+        <v>19.459228450539701</v>
+      </c>
+      <c r="K105">
+        <v>-99.187658545638399</v>
+      </c>
       <c r="L105" t="s">
         <v>624</v>
       </c>
@@ -6350,6 +6489,12 @@
       </c>
       <c r="I106" t="s">
         <v>14</v>
+      </c>
+      <c r="J106">
+        <v>19.445075560350499</v>
+      </c>
+      <c r="K106">
+        <v>-99.191810605151304</v>
       </c>
       <c r="L106" t="s">
         <v>624</v>
@@ -9238,12 +9383,6 @@
   </sheetData>
   <autoFilter ref="A1:K196" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="14">
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M66"/>
     <mergeCell ref="N65:N66"/>
     <mergeCell ref="O65:O66"/>
     <mergeCell ref="M8:M9"/>
@@ -9252,6 +9391,12 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9262,7 +9407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D61F9FF-1099-874D-861D-4522CE1B5818}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>

--- a/ETL/Data/data.xlsx
+++ b/ETL/Data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galigaribaldi/Documents/PPropios/API Tren/Apimetro/ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC52AB2-1A31-044C-85E7-4733CE267F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7FD1ED-BDE9-1A42-8F1D-F65AAC1C66FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68800" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2404,7 +2404,7 @@
   <dimension ref="A1:O196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ETL/Data/data.xlsx
+++ b/ETL/Data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galigaribaldi/Documents/PPropios/API Tren/Apimetro/ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7FD1ED-BDE9-1A42-8F1D-F65AAC1C66FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4460F33-C24E-DB45-AA7C-051A55EDF558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68800" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2097,13 +2097,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2404,7 +2404,7 @@
   <dimension ref="A1:O196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H213" sqref="H213"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2720,7 +2720,7 @@
       <c r="L8" t="s">
         <v>619</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       <c r="L9" t="s">
         <v>619</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2800,7 +2800,7 @@
       <c r="L10" t="s">
         <v>619</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       <c r="L11" t="s">
         <v>619</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2880,7 +2880,7 @@
       <c r="L12" t="s">
         <v>619</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       <c r="L13" t="s">
         <v>619</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3112,7 +3112,7 @@
       <c r="L18" t="s">
         <v>619</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="L19" t="s">
         <v>619</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -3192,10 +3192,10 @@
       <c r="L20" t="s">
         <v>619</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -3236,8 +3236,8 @@
       <c r="L21" t="s">
         <v>619</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -4302,7 +4302,7 @@
       <c r="L49" t="s">
         <v>619</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
       <c r="L50" t="s">
         <v>619</v>
       </c>
-      <c r="M50" s="3"/>
+      <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -4572,7 +4572,7 @@
       <c r="L56" t="s">
         <v>619</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="M56" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       <c r="L57" t="s">
         <v>619</v>
       </c>
-      <c r="M57" s="3"/>
+      <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -4842,7 +4842,7 @@
       <c r="L63" t="s">
         <v>619</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="M63" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       <c r="L64" t="s">
         <v>619</v>
       </c>
-      <c r="M64" s="3"/>
+      <c r="M64" s="2"/>
     </row>
     <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -4922,13 +4922,13 @@
       <c r="L65" t="s">
         <v>619</v>
       </c>
-      <c r="M65" s="3" t="s">
+      <c r="M65" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="N65" s="3" t="s">
+      <c r="N65" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="O65" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -4969,9 +4969,9 @@
       <c r="L66" t="s">
         <v>619</v>
       </c>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -5162,7 +5162,7 @@
       <c r="L71" t="s">
         <v>619</v>
       </c>
-      <c r="M71" s="3" t="s">
+      <c r="M71" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       <c r="L72" t="s">
         <v>619</v>
       </c>
-      <c r="M72" s="3"/>
+      <c r="M72" s="2"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -5318,7 +5318,7 @@
       <c r="L75" t="s">
         <v>619</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="M75" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       <c r="L76" t="s">
         <v>619</v>
       </c>
-      <c r="M76" s="3"/>
+      <c r="M76" s="2"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -5474,7 +5474,7 @@
       <c r="L79" t="s">
         <v>619</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="M79" s="3" t="s">
         <v>626</v>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
       <c r="L80" t="s">
         <v>619</v>
       </c>
-      <c r="M80" s="4"/>
+      <c r="M80" s="3"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -5554,7 +5554,7 @@
       <c r="L81" t="s">
         <v>619</v>
       </c>
-      <c r="M81" s="4"/>
+      <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -5593,7 +5593,7 @@
       <c r="L82" t="s">
         <v>619</v>
       </c>
-      <c r="M82" s="4" t="s">
+      <c r="M82" s="3" t="s">
         <v>626</v>
       </c>
     </row>
@@ -5634,7 +5634,7 @@
       <c r="L83" t="s">
         <v>619</v>
       </c>
-      <c r="M83" s="4"/>
+      <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -5673,7 +5673,7 @@
       <c r="L84" t="s">
         <v>619</v>
       </c>
-      <c r="M84" s="4"/>
+      <c r="M84" s="3"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -5712,7 +5712,7 @@
       <c r="L85" t="s">
         <v>619</v>
       </c>
-      <c r="M85" s="4"/>
+      <c r="M85" s="3"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -5751,7 +5751,7 @@
       <c r="L86" t="s">
         <v>619</v>
       </c>
-      <c r="M86" s="4"/>
+      <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -5790,7 +5790,7 @@
       <c r="L87" t="s">
         <v>619</v>
       </c>
-      <c r="M87" s="3" t="s">
+      <c r="M87" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       <c r="L88" t="s">
         <v>619</v>
       </c>
-      <c r="M88" s="3"/>
+      <c r="M88" s="2"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -5908,7 +5908,7 @@
       <c r="L90" t="s">
         <v>619</v>
       </c>
-      <c r="M90" s="3" t="s">
+      <c r="M90" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
       <c r="L91" t="s">
         <v>619</v>
       </c>
-      <c r="M91" s="3"/>
+      <c r="M91" s="2"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -5988,7 +5988,7 @@
       <c r="L92" t="s">
         <v>619</v>
       </c>
-      <c r="M92" s="3" t="s">
+      <c r="M92" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       <c r="L93" t="s">
         <v>619</v>
       </c>
-      <c r="M93" s="3"/>
+      <c r="M93" s="2"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -6068,7 +6068,7 @@
       <c r="L94" t="s">
         <v>619</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="M94" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6109,7 +6109,7 @@
       <c r="L95" t="s">
         <v>619</v>
       </c>
-      <c r="M95" s="3"/>
+      <c r="M95" s="2"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -6148,7 +6148,7 @@
       <c r="L96" t="s">
         <v>619</v>
       </c>
-      <c r="M96" s="3" t="s">
+      <c r="M96" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6189,7 +6189,7 @@
       <c r="L97" t="s">
         <v>619</v>
       </c>
-      <c r="M97" s="3"/>
+      <c r="M97" s="2"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -6228,7 +6228,7 @@
       <c r="L98" t="s">
         <v>619</v>
       </c>
-      <c r="M98" s="3" t="s">
+      <c r="M98" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6269,7 +6269,7 @@
       <c r="L99" t="s">
         <v>619</v>
       </c>
-      <c r="M99" s="3"/>
+      <c r="M99" s="2"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -6308,7 +6308,7 @@
       <c r="L100" t="s">
         <v>619</v>
       </c>
-      <c r="M100" s="3"/>
+      <c r="M100" s="2"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
@@ -6347,7 +6347,7 @@
       <c r="L101" t="s">
         <v>619</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="M101" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6388,8 +6388,8 @@
       <c r="L102" t="s">
         <v>619</v>
       </c>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3" t="s">
+      <c r="M102" s="2"/>
+      <c r="N102" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
       <c r="L103" t="s">
         <v>619</v>
       </c>
-      <c r="N103" s="3"/>
+      <c r="N103" s="2"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -6469,7 +6469,7 @@
       <c r="L104" t="s">
         <v>619</v>
       </c>
-      <c r="M104" s="3" t="s">
+      <c r="M104" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       <c r="L105" t="s">
         <v>619</v>
       </c>
-      <c r="M105" s="3"/>
+      <c r="M105" s="2"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -6549,7 +6549,7 @@
       <c r="L106" t="s">
         <v>619</v>
       </c>
-      <c r="M106" s="3" t="s">
+      <c r="M106" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6590,7 +6590,7 @@
       <c r="L107" t="s">
         <v>619</v>
       </c>
-      <c r="M107" s="3"/>
+      <c r="M107" s="2"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -6667,7 +6667,7 @@
       <c r="L109" t="s">
         <v>619</v>
       </c>
-      <c r="M109" s="3" t="s">
+      <c r="M109" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       <c r="L110" t="s">
         <v>619</v>
       </c>
-      <c r="M110" s="3"/>
+      <c r="M110" s="2"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -7089,7 +7089,7 @@
       <c r="L120" t="s">
         <v>619</v>
       </c>
-      <c r="M120" s="3" t="s">
+      <c r="M120" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -7130,7 +7130,7 @@
       <c r="L121" t="s">
         <v>619</v>
       </c>
-      <c r="M121" s="3"/>
+      <c r="M121" s="2"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -7169,7 +7169,7 @@
       <c r="L122" t="s">
         <v>619</v>
       </c>
-      <c r="M122" s="3" t="s">
+      <c r="M122" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -7210,7 +7210,7 @@
       <c r="L123" t="s">
         <v>619</v>
       </c>
-      <c r="M123" s="3"/>
+      <c r="M123" s="2"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -7249,7 +7249,7 @@
       <c r="L124" t="s">
         <v>619</v>
       </c>
-      <c r="M124" s="3" t="s">
+      <c r="M124" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -7290,7 +7290,7 @@
       <c r="L125" t="s">
         <v>619</v>
       </c>
-      <c r="M125" s="3"/>
+      <c r="M125" s="2"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -7405,7 +7405,7 @@
       <c r="L128" t="s">
         <v>619</v>
       </c>
-      <c r="M128" s="3" t="s">
+      <c r="M128" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
       <c r="L129" t="s">
         <v>619</v>
       </c>
-      <c r="M129" s="3"/>
+      <c r="M129" s="2"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -7485,7 +7485,7 @@
       <c r="L130" t="s">
         <v>619</v>
       </c>
-      <c r="M130" s="3" t="s">
+      <c r="M130" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
       <c r="L131" t="s">
         <v>619</v>
       </c>
-      <c r="M131" s="3"/>
+      <c r="M131" s="2"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -7641,7 +7641,7 @@
       <c r="L134" t="s">
         <v>619</v>
       </c>
-      <c r="M134" s="3" t="s">
+      <c r="M134" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -7682,7 +7682,7 @@
       <c r="L135" t="s">
         <v>619</v>
       </c>
-      <c r="M135" s="3"/>
+      <c r="M135" s="2"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -8028,7 +8028,7 @@
       <c r="L144" t="s">
         <v>619</v>
       </c>
-      <c r="M144" s="3" t="s">
+      <c r="M144" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       <c r="L145" t="s">
         <v>619</v>
       </c>
-      <c r="M145" s="3"/>
+      <c r="M145" s="2"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
@@ -8146,7 +8146,7 @@
       <c r="L147" t="s">
         <v>619</v>
       </c>
-      <c r="M147" s="3" t="s">
+      <c r="M147" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -8187,8 +8187,8 @@
       <c r="L148" t="s">
         <v>619</v>
       </c>
-      <c r="M148" s="3"/>
-      <c r="N148" s="3" t="s">
+      <c r="M148" s="2"/>
+      <c r="N148" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -8229,7 +8229,7 @@
       <c r="L149" t="s">
         <v>619</v>
       </c>
-      <c r="N149" s="3"/>
+      <c r="N149" s="2"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -8306,7 +8306,7 @@
       <c r="L151" t="s">
         <v>619</v>
       </c>
-      <c r="M151" s="3" t="s">
+      <c r="M151" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -8347,7 +8347,7 @@
       <c r="L152" t="s">
         <v>619</v>
       </c>
-      <c r="M152" s="3"/>
+      <c r="M152" s="2"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -8424,7 +8424,7 @@
       <c r="L154" t="s">
         <v>619</v>
       </c>
-      <c r="M154" s="3" t="s">
+      <c r="M154" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -8465,7 +8465,7 @@
       <c r="L155" t="s">
         <v>619</v>
       </c>
-      <c r="M155" s="3"/>
+      <c r="M155" s="2"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
@@ -8542,7 +8542,7 @@
       <c r="L157" t="s">
         <v>619</v>
       </c>
-      <c r="M157" s="3" t="s">
+      <c r="M157" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -8583,7 +8583,7 @@
       <c r="L158" t="s">
         <v>619</v>
       </c>
-      <c r="M158" s="3"/>
+      <c r="M158" s="2"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -8660,10 +8660,10 @@
       <c r="L160" t="s">
         <v>619</v>
       </c>
-      <c r="M160" s="3" t="s">
+      <c r="M160" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="N160" s="3" t="s">
+      <c r="N160" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -8704,8 +8704,8 @@
       <c r="L161" t="s">
         <v>619</v>
       </c>
-      <c r="M161" s="3"/>
-      <c r="N161" s="3"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
@@ -8744,7 +8744,7 @@
       <c r="L162" t="s">
         <v>619</v>
       </c>
-      <c r="M162" s="3" t="s">
+      <c r="M162" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -8785,7 +8785,7 @@
       <c r="L163" t="s">
         <v>619</v>
       </c>
-      <c r="M163" s="3"/>
+      <c r="M163" s="2"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -8900,7 +8900,7 @@
       <c r="L166" t="s">
         <v>619</v>
       </c>
-      <c r="M166" s="3" t="s">
+      <c r="M166" s="2" t="s">
         <v>626</v>
       </c>
     </row>
@@ -8941,7 +8941,7 @@
       <c r="L167" t="s">
         <v>619</v>
       </c>
-      <c r="M167" s="3"/>
+      <c r="M167" s="2"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
@@ -9474,7 +9474,7 @@
       <c r="L181" t="s">
         <v>619</v>
       </c>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="4" t="s">
         <v>671</v>
       </c>
     </row>
@@ -9515,7 +9515,7 @@
       <c r="L182" t="s">
         <v>619</v>
       </c>
-      <c r="M182" s="2"/>
+      <c r="M182" s="4"/>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
@@ -9554,7 +9554,7 @@
       <c r="L183" t="s">
         <v>619</v>
       </c>
-      <c r="M183" s="2"/>
+      <c r="M183" s="4"/>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
@@ -9745,7 +9745,7 @@
       <c r="L188" t="s">
         <v>619</v>
       </c>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="4" t="s">
         <v>671</v>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       <c r="L189" t="s">
         <v>620</v>
       </c>
-      <c r="M189" s="2"/>
+      <c r="M189" s="4"/>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
@@ -9825,7 +9825,7 @@
       <c r="L190" t="s">
         <v>620</v>
       </c>
-      <c r="M190" s="2"/>
+      <c r="M190" s="4"/>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
@@ -10058,6 +10058,43 @@
   </sheetData>
   <autoFilter ref="A1:K196" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="45">
+    <mergeCell ref="M188:M190"/>
+    <mergeCell ref="M160:M161"/>
+    <mergeCell ref="N160:N161"/>
+    <mergeCell ref="M162:M163"/>
+    <mergeCell ref="M166:M167"/>
+    <mergeCell ref="M181:M183"/>
+    <mergeCell ref="M147:M148"/>
+    <mergeCell ref="N148:N149"/>
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="M154:M155"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="M124:M125"/>
+    <mergeCell ref="M128:M129"/>
+    <mergeCell ref="M130:M131"/>
+    <mergeCell ref="M134:M135"/>
+    <mergeCell ref="M144:M145"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="M120:M121"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="M98:M100"/>
+    <mergeCell ref="M101:M102"/>
+    <mergeCell ref="N102:N103"/>
+    <mergeCell ref="M79:M81"/>
+    <mergeCell ref="M82:M86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="M71:M72"/>
+    <mergeCell ref="M75:M76"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="M65:M66"/>
     <mergeCell ref="N65:N66"/>
     <mergeCell ref="O65:O66"/>
     <mergeCell ref="M8:M9"/>
@@ -10066,43 +10103,6 @@
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="M79:M81"/>
-    <mergeCell ref="M82:M86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="M98:M100"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="M120:M121"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="M124:M125"/>
-    <mergeCell ref="M128:M129"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="M134:M135"/>
-    <mergeCell ref="M144:M145"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="N148:N149"/>
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="M154:M155"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="M188:M190"/>
-    <mergeCell ref="M160:M161"/>
-    <mergeCell ref="N160:N161"/>
-    <mergeCell ref="M162:M163"/>
-    <mergeCell ref="M166:M167"/>
-    <mergeCell ref="M181:M183"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/ETL/Data/data.xlsx
+++ b/ETL/Data/data.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galigaribaldi/Documents/PPropios/API Tren/Apimetro/ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4460F33-C24E-DB45-AA7C-051A55EDF558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A85984F2-515D-1B46-AA24-14177C5AE9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75360" yWindow="2480" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estacion" sheetId="1" r:id="rId1"/>
-    <sheet name="Linea" sheetId="2" r:id="rId2"/>
+    <sheet name="Opcionales" sheetId="3" r:id="rId2"/>
+    <sheet name="Linea" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estacion!$A$1:$K$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estacion!$A$1:$K$322</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="915">
   <si>
     <t>SISTEMA</t>
   </si>
@@ -2046,6 +2048,729 @@
   </si>
   <si>
     <t>ESTACION_ID_OFICIAL</t>
+  </si>
+  <si>
+    <t>STC7001</t>
+  </si>
+  <si>
+    <t>Vaqueritos</t>
+  </si>
+  <si>
+    <t>Xochimilco</t>
+  </si>
+  <si>
+    <t>CDCapital</t>
+  </si>
+  <si>
+    <t>Coapa</t>
+  </si>
+  <si>
+    <t>Tepepan</t>
+  </si>
+  <si>
+    <t>Tlalpan</t>
+  </si>
+  <si>
+    <t>ESCA</t>
+  </si>
+  <si>
+    <t>Huipulco</t>
+  </si>
+  <si>
+    <t>Imán/Circuito Azteca</t>
+  </si>
+  <si>
+    <t>Gran Sur</t>
+  </si>
+  <si>
+    <t>Santa Ursula</t>
+  </si>
+  <si>
+    <t>Cuicuilco</t>
+  </si>
+  <si>
+    <t>Sta Teresa</t>
+  </si>
+  <si>
+    <t>Ángeles</t>
+  </si>
+  <si>
+    <t>Suiza</t>
+  </si>
+  <si>
+    <t>Luis Cabrera</t>
+  </si>
+  <si>
+    <t>Tarasquillo</t>
+  </si>
+  <si>
+    <t>Glorieta monumental</t>
+  </si>
+  <si>
+    <t>Parque el Batàn</t>
+  </si>
+  <si>
+    <t>Toluca</t>
+  </si>
+  <si>
+    <t>Desierto de los Leones</t>
+  </si>
+  <si>
+    <t>Romulo O'Farril</t>
+  </si>
+  <si>
+    <t>Barranca del Muerto/Periférico</t>
+  </si>
+  <si>
+    <t>Rosa Trepadora</t>
+  </si>
+  <si>
+    <t>Celini</t>
+  </si>
+  <si>
+    <t>San Pedro de Los Pinos/Periférico</t>
+  </si>
+  <si>
+    <t>11 de abril</t>
+  </si>
+  <si>
+    <t>Miguel Alemán Valdés</t>
+  </si>
+  <si>
+    <t>Parque Lira</t>
+  </si>
+  <si>
+    <t>Constituyentes/Periférico</t>
+  </si>
+  <si>
+    <t>Paseo de la Reforma</t>
+  </si>
+  <si>
+    <t>Los Pinos</t>
+  </si>
+  <si>
+    <t>Alencastre</t>
+  </si>
+  <si>
+    <t>Presidente Masaryk</t>
+  </si>
+  <si>
+    <t>Homero</t>
+  </si>
+  <si>
+    <t>Hipódromo las Américas</t>
+  </si>
+  <si>
+    <t>Cuatro Caminos/Periférico</t>
+  </si>
+  <si>
+    <t>Las torres</t>
+  </si>
+  <si>
+    <t>Gustavo Baz Prada</t>
+  </si>
+  <si>
+    <t>Naucalpan</t>
+  </si>
+  <si>
+    <t>Parque Naucalli</t>
+  </si>
+  <si>
+    <t>Ciudad Satélite</t>
+  </si>
+  <si>
+    <t>Viveros de Atizapán</t>
+  </si>
+  <si>
+    <t>Presidente Juárez</t>
+  </si>
+  <si>
+    <t>Tlanepantla</t>
+  </si>
+  <si>
+    <t>Av de las Granjas</t>
+  </si>
+  <si>
+    <t>El Heraldo</t>
+  </si>
+  <si>
+    <t>Vaso Regulador de Carretas</t>
+  </si>
+  <si>
+    <t>Progreso Nacional</t>
+  </si>
+  <si>
+    <t>Justo Sierra - Cien Mateos</t>
+  </si>
+  <si>
+    <t>Río San Joaquín</t>
+  </si>
+  <si>
+    <t>Acueducto</t>
+  </si>
+  <si>
+    <t>La Presa</t>
+  </si>
+  <si>
+    <t>Hermilo Mena</t>
+  </si>
+  <si>
+    <t>Gran Canal de Desague</t>
+  </si>
+  <si>
+    <t>Parque Orizaba</t>
+  </si>
+  <si>
+    <t>Valle de Santiago</t>
+  </si>
+  <si>
+    <t>Río de los Remedios Metrobus/Periférico</t>
+  </si>
+  <si>
+    <t>Río de los Remedios Metro/Periférico</t>
+  </si>
+  <si>
+    <t>Valle de San Lorenzo</t>
+  </si>
+  <si>
+    <t>Pirules</t>
+  </si>
+  <si>
+    <t>Alameda Oriente</t>
+  </si>
+  <si>
+    <t>Av Pantitlán</t>
+  </si>
+  <si>
+    <t>Valesquillo</t>
+  </si>
+  <si>
+    <t>Canal de San Juan/Periférico</t>
+  </si>
+  <si>
+    <t>Constitución de Apatzingán</t>
+  </si>
+  <si>
+    <t>Canal de Tezontle</t>
+  </si>
+  <si>
+    <t>Leyes de Reforma</t>
+  </si>
+  <si>
+    <t>Luis Méndez</t>
+  </si>
+  <si>
+    <t>Revolución Social</t>
+  </si>
+  <si>
+    <t>Constitución de 1917/Periférico</t>
+  </si>
+  <si>
+    <t>Periférico Oriente/Periférico</t>
+  </si>
+  <si>
+    <t>Base Canal de Chalco</t>
+  </si>
+  <si>
+    <t>Cuemanco</t>
+  </si>
+  <si>
+    <t>Canal Nacional</t>
+  </si>
+  <si>
+    <t>Muyuguarda/Cafetales</t>
+  </si>
+  <si>
+    <t>STCLB22</t>
+  </si>
+  <si>
+    <t>STCLB24</t>
+  </si>
+  <si>
+    <t>STCLB26</t>
+  </si>
+  <si>
+    <t>STCLB27</t>
+  </si>
+  <si>
+    <t>STCLB28</t>
+  </si>
+  <si>
+    <t>STCLB31</t>
+  </si>
+  <si>
+    <t>STCLB33</t>
+  </si>
+  <si>
+    <t>STCLB34</t>
+  </si>
+  <si>
+    <t>STCLB36</t>
+  </si>
+  <si>
+    <t>STCLB37</t>
+  </si>
+  <si>
+    <t>STCLB40</t>
+  </si>
+  <si>
+    <t>STCLB42</t>
+  </si>
+  <si>
+    <t>STCLB45</t>
+  </si>
+  <si>
+    <t>STC7005</t>
+  </si>
+  <si>
+    <t>STCLB47</t>
+  </si>
+  <si>
+    <t>STCLB48</t>
+  </si>
+  <si>
+    <t>STCLB50</t>
+  </si>
+  <si>
+    <t>STC7006</t>
+  </si>
+  <si>
+    <t>STCLB52</t>
+  </si>
+  <si>
+    <t>STCLB53</t>
+  </si>
+  <si>
+    <t>STCLB55</t>
+  </si>
+  <si>
+    <t>STCLB57</t>
+  </si>
+  <si>
+    <t>STCLB58</t>
+  </si>
+  <si>
+    <t>STCLB60</t>
+  </si>
+  <si>
+    <t>STCLB62</t>
+  </si>
+  <si>
+    <t>STCLB63</t>
+  </si>
+  <si>
+    <t>STC7008</t>
+  </si>
+  <si>
+    <t>STCLB65</t>
+  </si>
+  <si>
+    <t>STCLB67</t>
+  </si>
+  <si>
+    <t>STCLB68</t>
+  </si>
+  <si>
+    <t>STCLB69</t>
+  </si>
+  <si>
+    <t>STC7009</t>
+  </si>
+  <si>
+    <t>STCLB70</t>
+  </si>
+  <si>
+    <t>STCLB71</t>
+  </si>
+  <si>
+    <t>STCLB72</t>
+  </si>
+  <si>
+    <t>STCLB73</t>
+  </si>
+  <si>
+    <t>STCLB74</t>
+  </si>
+  <si>
+    <t>STCLB75</t>
+  </si>
+  <si>
+    <t>STC7010</t>
+  </si>
+  <si>
+    <t>STCLB76</t>
+  </si>
+  <si>
+    <t>STCLB78</t>
+  </si>
+  <si>
+    <t>STCLB79</t>
+  </si>
+  <si>
+    <t>STCLB81</t>
+  </si>
+  <si>
+    <t>STC7011</t>
+  </si>
+  <si>
+    <t>STCLB82</t>
+  </si>
+  <si>
+    <t>STCLB83</t>
+  </si>
+  <si>
+    <t>STCLB84</t>
+  </si>
+  <si>
+    <t>STCLB85</t>
+  </si>
+  <si>
+    <t>STCLB87</t>
+  </si>
+  <si>
+    <t>STC7012</t>
+  </si>
+  <si>
+    <t>STCLB90</t>
+  </si>
+  <si>
+    <t>STCLB93</t>
+  </si>
+  <si>
+    <t>STC7013</t>
+  </si>
+  <si>
+    <t>STCLB94</t>
+  </si>
+  <si>
+    <t>STCLB95</t>
+  </si>
+  <si>
+    <t>STCLB96</t>
+  </si>
+  <si>
+    <t>STCLB97</t>
+  </si>
+  <si>
+    <t>STCLB98</t>
+  </si>
+  <si>
+    <t>STCLB99</t>
+  </si>
+  <si>
+    <t>STC7014</t>
+  </si>
+  <si>
+    <t>STCLB102</t>
+  </si>
+  <si>
+    <t>STCLB104</t>
+  </si>
+  <si>
+    <t>STCLB105</t>
+  </si>
+  <si>
+    <t>STCLB106</t>
+  </si>
+  <si>
+    <t>STCLB107</t>
+  </si>
+  <si>
+    <t>STCLB108</t>
+  </si>
+  <si>
+    <t>STCLB109</t>
+  </si>
+  <si>
+    <t>STCLB111</t>
+  </si>
+  <si>
+    <t>STC7016</t>
+  </si>
+  <si>
+    <t>STCLB112</t>
+  </si>
+  <si>
+    <t>STCLB113</t>
+  </si>
+  <si>
+    <t>STCLB114</t>
+  </si>
+  <si>
+    <t>STCLB116</t>
+  </si>
+  <si>
+    <t>STCLB118</t>
+  </si>
+  <si>
+    <t>STCLB120</t>
+  </si>
+  <si>
+    <t>STCLB122</t>
+  </si>
+  <si>
+    <t>STC7018</t>
+  </si>
+  <si>
+    <t>STCLB125</t>
+  </si>
+  <si>
+    <t>STCLB126</t>
+  </si>
+  <si>
+    <t>STCLB128</t>
+  </si>
+  <si>
+    <t>STC7019</t>
+  </si>
+  <si>
+    <t>STCLB131</t>
+  </si>
+  <si>
+    <t>STCLB132</t>
+  </si>
+  <si>
+    <t>STCLB134</t>
+  </si>
+  <si>
+    <t>STC7020</t>
+  </si>
+  <si>
+    <t>STCLB137</t>
+  </si>
+  <si>
+    <t>STCLB138</t>
+  </si>
+  <si>
+    <t>STCLB139</t>
+  </si>
+  <si>
+    <t>STCLB141</t>
+  </si>
+  <si>
+    <t>NEGRO</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>Zona de Hospitales</t>
+  </si>
+  <si>
+    <t>Periférico Sur</t>
+  </si>
+  <si>
+    <t>Jardines del Pedregal</t>
+  </si>
+  <si>
+    <t>Ajusco</t>
+  </si>
+  <si>
+    <t>San Antonio Elevado</t>
+  </si>
+  <si>
+    <t>Prepa 8</t>
+  </si>
+  <si>
+    <t>Distribuidor Víal San antonio</t>
+  </si>
+  <si>
+    <t>Lomas Verdes</t>
+  </si>
+  <si>
+    <t>Circunvalación</t>
+  </si>
+  <si>
+    <t>Constituyentes de 1857</t>
+  </si>
+  <si>
+    <t>Colonias de Aragón</t>
+  </si>
+  <si>
+    <t>5 de mayo</t>
+  </si>
+  <si>
+    <t>Ejército Nacional</t>
+  </si>
+  <si>
+    <t>Ciudad Nezahualcoyotl</t>
+  </si>
+  <si>
+    <t>Periférico Interior Sur</t>
+  </si>
+  <si>
+    <t>Periférico Interior Poniente</t>
+  </si>
+  <si>
+    <t>Periférico Interior Oriente</t>
+  </si>
+  <si>
+    <t>Periférico Interior Norte</t>
+  </si>
+  <si>
+    <t>DARK_RED</t>
+  </si>
+  <si>
+    <t>ROJO_OBSCURO</t>
+  </si>
+  <si>
+    <t>DARK_PURPLE</t>
+  </si>
+  <si>
+    <t>MORADO_OBSCURO</t>
+  </si>
+  <si>
+    <t>Magdalena Contreras</t>
+  </si>
+  <si>
+    <t>Jerarquía</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>STC Anillar</t>
+  </si>
+  <si>
+    <t>Periférico Exterior</t>
+  </si>
+  <si>
+    <t>GRIS</t>
+  </si>
+  <si>
+    <t>GRAY</t>
+  </si>
+  <si>
+    <t>Milpa Alta</t>
+  </si>
+  <si>
+    <t>Distrito 7 Villa Alta</t>
+  </si>
+  <si>
+    <t>Distrito 7 Tecoxpa</t>
+  </si>
+  <si>
+    <t>Distrito 7 Tecomitl</t>
+  </si>
+  <si>
+    <t>Distrito 10 La Cruz</t>
+  </si>
+  <si>
+    <t>Distrito 10 Los Olivos</t>
+  </si>
+  <si>
+    <t>Distrito 10 Santa Cecilia</t>
+  </si>
+  <si>
+    <t>Distrito 7 Mirador</t>
+  </si>
+  <si>
+    <t>Distrito 7 Oztotepec</t>
+  </si>
+  <si>
+    <t>Distrito 7 San Isidro</t>
+  </si>
+  <si>
+    <t>Distrito 10 Paradero</t>
+  </si>
+  <si>
+    <t>Distrito 10 Tláhuac</t>
+  </si>
+  <si>
+    <t>Distrito 10 SFT</t>
+  </si>
+  <si>
+    <t>Distrito 10 Santa Catarina</t>
+  </si>
+  <si>
+    <t>Distrito 10 San Rafael</t>
+  </si>
+  <si>
+    <t>Distrito 10 Samuel Ramírez</t>
+  </si>
+  <si>
+    <t>San Isidro</t>
+  </si>
+  <si>
+    <t>Periférico Exterior/La Paz</t>
+  </si>
+  <si>
+    <t>Ancón</t>
+  </si>
+  <si>
+    <t>Ferrocarriles</t>
+  </si>
+  <si>
+    <t>Río Bravo</t>
+  </si>
+  <si>
+    <t>La Laguna</t>
+  </si>
+  <si>
+    <t>Los Rosales</t>
+  </si>
+  <si>
+    <t>Las Torres</t>
+  </si>
+  <si>
+    <t>Gustavo Baz</t>
+  </si>
+  <si>
+    <t>Ciudad Jardín</t>
+  </si>
+  <si>
+    <t>Xochiaca</t>
+  </si>
+  <si>
+    <t>Periférico Exterior/alameda Oriente</t>
+  </si>
+  <si>
+    <t>Distrito 6 Tlalnepantla</t>
+  </si>
+  <si>
+    <t>Distrito 9 Topilejo</t>
+  </si>
+  <si>
+    <t>Distrio 9 Ocotla</t>
+  </si>
+  <si>
+    <t>Distrio 9 La venta</t>
+  </si>
+  <si>
+    <t>Distrio 9 El ajusco</t>
+  </si>
+  <si>
+    <t>Distrio 9 Temecatl</t>
+  </si>
+  <si>
+    <t>Distrito 9 Kilómetro 28 Sur</t>
+  </si>
+  <si>
+    <t>Distrito 9 Kilómetro 27 Sur</t>
+  </si>
+  <si>
+    <t>Distrito 9 San Miguel Xicalco</t>
+  </si>
+  <si>
+    <t>Distrito 9 San Andrés</t>
+  </si>
+  <si>
+    <t>Distrito 9 San Pedro Martir</t>
+  </si>
+  <si>
+    <t>Distrito 9 El caminero</t>
+  </si>
+  <si>
+    <t>FES Aragón</t>
+  </si>
+  <si>
+    <t>Peñòn Texcoco/Periférico</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Anillar</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2792,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2077,6 +2802,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2093,9 +2824,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2401,15 +3136,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O196"/>
+  <dimension ref="A1:P322"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
@@ -2417,7 +3152,7 @@
     <col min="11" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2454,8 +3189,11 @@
       <c r="L1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2492,8 +3230,11 @@
       <c r="L2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2530,8 +3271,11 @@
       <c r="L3" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2568,8 +3312,11 @@
       <c r="L4" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2606,8 +3353,11 @@
       <c r="L5" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2644,8 +3394,11 @@
       <c r="L6" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2682,8 +3435,11 @@
       <c r="L7" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2720,11 +3476,14 @@
       <c r="L8" t="s">
         <v>619</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" t="s">
+        <v>866</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2761,9 +3520,12 @@
       <c r="L9" t="s">
         <v>619</v>
       </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>866</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2800,11 +3562,14 @@
       <c r="L10" t="s">
         <v>619</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" t="s">
+        <v>866</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2841,9 +3606,12 @@
       <c r="L11" t="s">
         <v>619</v>
       </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>866</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2880,11 +3648,14 @@
       <c r="L12" t="s">
         <v>619</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" t="s">
+        <v>866</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2921,9 +3692,12 @@
       <c r="L13" t="s">
         <v>619</v>
       </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>866</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2960,8 +3734,11 @@
       <c r="L14" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2998,8 +3775,11 @@
       <c r="L15" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3036,8 +3816,11 @@
       <c r="L16" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3074,8 +3857,11 @@
       <c r="L17" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M17" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3112,11 +3898,14 @@
       <c r="L18" t="s">
         <v>619</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" t="s">
+        <v>866</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3153,9 +3942,12 @@
       <c r="L19" t="s">
         <v>619</v>
       </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M19" t="s">
+        <v>866</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3192,14 +3984,17 @@
       <c r="L20" t="s">
         <v>619</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" t="s">
+        <v>866</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3236,10 +4031,13 @@
       <c r="L21" t="s">
         <v>619</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M21" t="s">
+        <v>866</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3276,8 +4074,11 @@
       <c r="L22" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3314,8 +4115,11 @@
       <c r="L23" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M23" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -3352,8 +4156,11 @@
       <c r="L24" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3390,8 +4197,11 @@
       <c r="L25" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M25" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3428,8 +4238,11 @@
       <c r="L26" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M26" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3466,8 +4279,11 @@
       <c r="L27" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -3504,8 +4320,11 @@
       <c r="L28" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M28" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3542,8 +4361,11 @@
       <c r="L29" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M29" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -3580,8 +4402,11 @@
       <c r="L30" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M30" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -3618,8 +4443,11 @@
       <c r="L31" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M31" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -3656,8 +4484,11 @@
       <c r="L32" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3694,8 +4525,11 @@
       <c r="L33" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -3732,8 +4566,11 @@
       <c r="L34" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3770,8 +4607,11 @@
       <c r="L35" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -3808,8 +4648,11 @@
       <c r="L36" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3846,8 +4689,11 @@
       <c r="L37" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3884,8 +4730,11 @@
       <c r="L38" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3922,8 +4771,11 @@
       <c r="L39" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M39" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3960,8 +4812,11 @@
       <c r="L40" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3998,8 +4853,11 @@
       <c r="L41" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -4036,8 +4894,11 @@
       <c r="L42" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -4074,8 +4935,11 @@
       <c r="L43" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M43" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -4112,8 +4976,11 @@
       <c r="L44" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -4150,8 +5017,11 @@
       <c r="L45" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -4188,8 +5058,11 @@
       <c r="L46" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -4226,8 +5099,11 @@
       <c r="L47" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -4264,8 +5140,11 @@
       <c r="L48" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -4302,11 +5181,14 @@
       <c r="L49" t="s">
         <v>619</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M49" t="s">
+        <v>866</v>
+      </c>
+      <c r="N49" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -4343,9 +5225,12 @@
       <c r="L50" t="s">
         <v>619</v>
       </c>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M50" t="s">
+        <v>866</v>
+      </c>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -4382,8 +5267,11 @@
       <c r="L51" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M51" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -4420,8 +5308,11 @@
       <c r="L52" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M52" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -4458,8 +5349,11 @@
       <c r="L53" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M53" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -4496,8 +5390,11 @@
       <c r="L54" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M54" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -4534,8 +5431,11 @@
       <c r="L55" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M55" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -4572,11 +5472,14 @@
       <c r="L56" t="s">
         <v>619</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="M56" t="s">
+        <v>866</v>
+      </c>
+      <c r="N56" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -4613,9 +5516,12 @@
       <c r="L57" t="s">
         <v>619</v>
       </c>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M57" t="s">
+        <v>866</v>
+      </c>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -4652,8 +5558,11 @@
       <c r="L58" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M58" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -4690,8 +5599,11 @@
       <c r="L59" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M59" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -4728,8 +5640,11 @@
       <c r="L60" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M60" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -4766,8 +5681,11 @@
       <c r="L61" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M61" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -4804,8 +5722,11 @@
       <c r="L62" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M62" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -4842,11 +5763,14 @@
       <c r="L63" t="s">
         <v>619</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="M63" t="s">
+        <v>866</v>
+      </c>
+      <c r="N63" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -4883,9 +5807,12 @@
       <c r="L64" t="s">
         <v>619</v>
       </c>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M64" t="s">
+        <v>866</v>
+      </c>
+      <c r="N64" s="4"/>
+    </row>
+    <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -4922,17 +5849,20 @@
       <c r="L65" t="s">
         <v>619</v>
       </c>
-      <c r="M65" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="N65" s="2" t="s">
+      <c r="M65" t="s">
+        <v>866</v>
+      </c>
+      <c r="N65" s="4" t="s">
         <v>626</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -4969,11 +5899,14 @@
       <c r="L66" t="s">
         <v>619</v>
       </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="M66" t="s">
+        <v>866</v>
+      </c>
+      <c r="N66" s="4"/>
       <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="2"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -5010,8 +5943,11 @@
       <c r="L67" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M67" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -5048,8 +5984,11 @@
       <c r="L68" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M68" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -5086,8 +6025,11 @@
       <c r="L69" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M69" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -5124,8 +6066,11 @@
       <c r="L70" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M70" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -5162,11 +6107,14 @@
       <c r="L71" t="s">
         <v>619</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="M71" t="s">
+        <v>866</v>
+      </c>
+      <c r="N71" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -5203,9 +6151,12 @@
       <c r="L72" t="s">
         <v>619</v>
       </c>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M72" t="s">
+        <v>866</v>
+      </c>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -5242,8 +6193,11 @@
       <c r="L73" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M73" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -5280,8 +6234,11 @@
       <c r="L74" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M74" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -5318,11 +6275,14 @@
       <c r="L75" t="s">
         <v>619</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="M75" t="s">
+        <v>866</v>
+      </c>
+      <c r="N75" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -5359,9 +6319,12 @@
       <c r="L76" t="s">
         <v>619</v>
       </c>
-      <c r="M76" s="2"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M76" t="s">
+        <v>866</v>
+      </c>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -5398,8 +6361,11 @@
       <c r="L77" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M77" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -5436,8 +6402,11 @@
       <c r="L78" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M78" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -5474,11 +6443,14 @@
       <c r="L79" t="s">
         <v>619</v>
       </c>
-      <c r="M79" s="3" t="s">
+      <c r="M79" t="s">
+        <v>866</v>
+      </c>
+      <c r="N79" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -5515,9 +6487,12 @@
       <c r="L80" t="s">
         <v>619</v>
       </c>
-      <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M80" t="s">
+        <v>866</v>
+      </c>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -5554,9 +6529,12 @@
       <c r="L81" t="s">
         <v>619</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M81" t="s">
+        <v>866</v>
+      </c>
+      <c r="N81" s="5"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -5593,11 +6571,14 @@
       <c r="L82" t="s">
         <v>619</v>
       </c>
-      <c r="M82" s="3" t="s">
+      <c r="M82" t="s">
+        <v>866</v>
+      </c>
+      <c r="N82" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -5634,9 +6615,12 @@
       <c r="L83" t="s">
         <v>619</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M83" t="s">
+        <v>866</v>
+      </c>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -5673,9 +6657,12 @@
       <c r="L84" t="s">
         <v>619</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M84" t="s">
+        <v>866</v>
+      </c>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -5712,9 +6699,12 @@
       <c r="L85" t="s">
         <v>619</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M85" t="s">
+        <v>866</v>
+      </c>
+      <c r="N85" s="5"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -5751,9 +6741,12 @@
       <c r="L86" t="s">
         <v>619</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M86" t="s">
+        <v>866</v>
+      </c>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -5790,11 +6783,14 @@
       <c r="L87" t="s">
         <v>619</v>
       </c>
-      <c r="M87" s="2" t="s">
+      <c r="M87" t="s">
+        <v>866</v>
+      </c>
+      <c r="N87" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5831,9 +6827,12 @@
       <c r="L88" t="s">
         <v>619</v>
       </c>
-      <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M88" t="s">
+        <v>866</v>
+      </c>
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -5870,8 +6869,11 @@
       <c r="L89" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M89" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -5908,11 +6910,14 @@
       <c r="L90" t="s">
         <v>619</v>
       </c>
-      <c r="M90" s="2" t="s">
+      <c r="M90" t="s">
+        <v>866</v>
+      </c>
+      <c r="N90" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -5941,17 +6946,20 @@
         <v>227</v>
       </c>
       <c r="J91">
-        <v>19.495018094547</v>
+        <v>19.4950681881798</v>
       </c>
       <c r="K91">
-        <v>99.196174565068603</v>
+        <v>-99.196144217139505</v>
       </c>
       <c r="L91" t="s">
         <v>619</v>
       </c>
-      <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M91" t="s">
+        <v>866</v>
+      </c>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -5988,11 +6996,14 @@
       <c r="L92" t="s">
         <v>619</v>
       </c>
-      <c r="M92" s="2" t="s">
+      <c r="M92" t="s">
+        <v>866</v>
+      </c>
+      <c r="N92" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -6029,9 +7040,12 @@
       <c r="L93" t="s">
         <v>619</v>
       </c>
-      <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M93" t="s">
+        <v>866</v>
+      </c>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -6068,11 +7082,14 @@
       <c r="L94" t="s">
         <v>619</v>
       </c>
-      <c r="M94" s="2" t="s">
+      <c r="M94" t="s">
+        <v>866</v>
+      </c>
+      <c r="N94" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -6109,9 +7126,12 @@
       <c r="L95" t="s">
         <v>619</v>
       </c>
-      <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M95" t="s">
+        <v>866</v>
+      </c>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -6148,11 +7168,14 @@
       <c r="L96" t="s">
         <v>619</v>
       </c>
-      <c r="M96" s="2" t="s">
+      <c r="M96" t="s">
+        <v>866</v>
+      </c>
+      <c r="N96" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -6189,9 +7212,12 @@
       <c r="L97" t="s">
         <v>619</v>
       </c>
-      <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M97" t="s">
+        <v>866</v>
+      </c>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -6228,11 +7254,14 @@
       <c r="L98" t="s">
         <v>619</v>
       </c>
-      <c r="M98" s="2" t="s">
+      <c r="M98" t="s">
+        <v>866</v>
+      </c>
+      <c r="N98" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -6269,9 +7298,12 @@
       <c r="L99" t="s">
         <v>619</v>
       </c>
-      <c r="M99" s="2"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M99" t="s">
+        <v>866</v>
+      </c>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -6308,9 +7340,12 @@
       <c r="L100" t="s">
         <v>619</v>
       </c>
-      <c r="M100" s="2"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M100" t="s">
+        <v>866</v>
+      </c>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -6347,11 +7382,14 @@
       <c r="L101" t="s">
         <v>619</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="M101" t="s">
+        <v>866</v>
+      </c>
+      <c r="N101" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -6388,12 +7426,15 @@
       <c r="L102" t="s">
         <v>619</v>
       </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2" t="s">
+      <c r="M102" t="s">
+        <v>866</v>
+      </c>
+      <c r="N102" s="4"/>
+      <c r="O102" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -6430,9 +7471,12 @@
       <c r="L103" t="s">
         <v>619</v>
       </c>
-      <c r="N103" s="2"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M103" t="s">
+        <v>866</v>
+      </c>
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -6469,11 +7513,14 @@
       <c r="L104" t="s">
         <v>619</v>
       </c>
-      <c r="M104" s="2" t="s">
+      <c r="M104" t="s">
+        <v>866</v>
+      </c>
+      <c r="N104" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -6510,9 +7557,12 @@
       <c r="L105" t="s">
         <v>619</v>
       </c>
-      <c r="M105" s="2"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M105" t="s">
+        <v>866</v>
+      </c>
+      <c r="N105" s="4"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -6549,11 +7599,14 @@
       <c r="L106" t="s">
         <v>619</v>
       </c>
-      <c r="M106" s="2" t="s">
+      <c r="M106" t="s">
+        <v>866</v>
+      </c>
+      <c r="N106" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -6590,9 +7643,12 @@
       <c r="L107" t="s">
         <v>619</v>
       </c>
-      <c r="M107" s="2"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M107" t="s">
+        <v>866</v>
+      </c>
+      <c r="N107" s="4"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -6629,8 +7685,11 @@
       <c r="L108" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M108" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -6667,11 +7726,14 @@
       <c r="L109" t="s">
         <v>619</v>
       </c>
-      <c r="M109" s="2" t="s">
+      <c r="M109" t="s">
+        <v>866</v>
+      </c>
+      <c r="N109" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -6708,9 +7770,12 @@
       <c r="L110" t="s">
         <v>619</v>
       </c>
-      <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M110" t="s">
+        <v>866</v>
+      </c>
+      <c r="N110" s="4"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -6747,8 +7812,11 @@
       <c r="L111" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M111" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -6785,8 +7853,11 @@
       <c r="L112" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M112" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -6823,8 +7894,11 @@
       <c r="L113" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M113" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -6861,8 +7935,11 @@
       <c r="L114" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M114" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -6899,8 +7976,11 @@
       <c r="L115" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M115" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -6937,8 +8017,11 @@
       <c r="L116" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M116" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -6975,8 +8058,11 @@
       <c r="L117" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M117" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -7013,8 +8099,11 @@
       <c r="L118" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M118" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -7051,8 +8140,11 @@
       <c r="L119" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M119" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -7089,11 +8181,14 @@
       <c r="L120" t="s">
         <v>619</v>
       </c>
-      <c r="M120" s="2" t="s">
+      <c r="M120" t="s">
+        <v>866</v>
+      </c>
+      <c r="N120" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -7130,9 +8225,12 @@
       <c r="L121" t="s">
         <v>619</v>
       </c>
-      <c r="M121" s="2"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M121" t="s">
+        <v>866</v>
+      </c>
+      <c r="N121" s="4"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -7169,11 +8267,14 @@
       <c r="L122" t="s">
         <v>619</v>
       </c>
-      <c r="M122" s="2" t="s">
+      <c r="M122" t="s">
+        <v>866</v>
+      </c>
+      <c r="N122" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -7210,9 +8311,12 @@
       <c r="L123" t="s">
         <v>619</v>
       </c>
-      <c r="M123" s="2"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M123" t="s">
+        <v>866</v>
+      </c>
+      <c r="N123" s="4"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -7249,11 +8353,14 @@
       <c r="L124" t="s">
         <v>619</v>
       </c>
-      <c r="M124" s="2" t="s">
+      <c r="M124" t="s">
+        <v>866</v>
+      </c>
+      <c r="N124" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -7290,9 +8397,12 @@
       <c r="L125" t="s">
         <v>619</v>
       </c>
-      <c r="M125" s="2"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M125" t="s">
+        <v>866</v>
+      </c>
+      <c r="N125" s="4"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -7329,8 +8439,11 @@
       <c r="L126" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M126" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -7367,8 +8480,11 @@
       <c r="L127" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M127" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -7405,11 +8521,14 @@
       <c r="L128" t="s">
         <v>619</v>
       </c>
-      <c r="M128" s="2" t="s">
+      <c r="M128" t="s">
+        <v>866</v>
+      </c>
+      <c r="N128" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -7446,9 +8565,12 @@
       <c r="L129" t="s">
         <v>619</v>
       </c>
-      <c r="M129" s="2"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M129" t="s">
+        <v>866</v>
+      </c>
+      <c r="N129" s="4"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -7485,11 +8607,14 @@
       <c r="L130" t="s">
         <v>619</v>
       </c>
-      <c r="M130" s="2" t="s">
+      <c r="M130" t="s">
+        <v>866</v>
+      </c>
+      <c r="N130" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -7526,9 +8651,12 @@
       <c r="L131" t="s">
         <v>619</v>
       </c>
-      <c r="M131" s="2"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M131" t="s">
+        <v>866</v>
+      </c>
+      <c r="N131" s="4"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -7565,8 +8693,11 @@
       <c r="L132" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M132" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -7603,8 +8734,11 @@
       <c r="L133" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M133" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -7641,11 +8775,14 @@
       <c r="L134" t="s">
         <v>619</v>
       </c>
-      <c r="M134" s="2" t="s">
+      <c r="M134" t="s">
+        <v>866</v>
+      </c>
+      <c r="N134" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -7682,9 +8819,12 @@
       <c r="L135" t="s">
         <v>619</v>
       </c>
-      <c r="M135" s="2"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M135" t="s">
+        <v>866</v>
+      </c>
+      <c r="N135" s="4"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -7721,8 +8861,11 @@
       <c r="L136" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M136" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -7759,8 +8902,11 @@
       <c r="L137" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M137" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -7797,8 +8943,11 @@
       <c r="L138" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M138" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -7836,10 +8985,13 @@
         <v>619</v>
       </c>
       <c r="M139" t="s">
+        <v>866</v>
+      </c>
+      <c r="N139" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -7876,8 +9028,11 @@
       <c r="L140" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M140" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -7914,8 +9069,11 @@
       <c r="L141" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M141" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -7952,8 +9110,11 @@
       <c r="L142" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M142" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -7990,8 +9151,11 @@
       <c r="L143" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M143" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -8028,11 +9192,14 @@
       <c r="L144" t="s">
         <v>619</v>
       </c>
-      <c r="M144" s="2" t="s">
+      <c r="M144" t="s">
+        <v>866</v>
+      </c>
+      <c r="N144" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -8069,9 +9236,12 @@
       <c r="L145" t="s">
         <v>619</v>
       </c>
-      <c r="M145" s="2"/>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M145" t="s">
+        <v>866</v>
+      </c>
+      <c r="N145" s="4"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -8108,8 +9278,11 @@
       <c r="L146" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M146" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -8146,11 +9319,14 @@
       <c r="L147" t="s">
         <v>619</v>
       </c>
-      <c r="M147" s="2" t="s">
+      <c r="M147" t="s">
+        <v>866</v>
+      </c>
+      <c r="N147" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -8187,12 +9363,15 @@
       <c r="L148" t="s">
         <v>619</v>
       </c>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2" t="s">
+      <c r="M148" t="s">
+        <v>866</v>
+      </c>
+      <c r="N148" s="4"/>
+      <c r="O148" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -8229,9 +9408,12 @@
       <c r="L149" t="s">
         <v>619</v>
       </c>
-      <c r="N149" s="2"/>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M149" t="s">
+        <v>866</v>
+      </c>
+      <c r="O149" s="2"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -8268,8 +9450,11 @@
       <c r="L150" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M150" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -8306,11 +9491,14 @@
       <c r="L151" t="s">
         <v>619</v>
       </c>
-      <c r="M151" s="2" t="s">
+      <c r="M151" t="s">
+        <v>866</v>
+      </c>
+      <c r="N151" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -8347,9 +9535,12 @@
       <c r="L152" t="s">
         <v>619</v>
       </c>
-      <c r="M152" s="2"/>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M152" t="s">
+        <v>866</v>
+      </c>
+      <c r="N152" s="4"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -8386,8 +9577,11 @@
       <c r="L153" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M153" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -8424,11 +9618,14 @@
       <c r="L154" t="s">
         <v>619</v>
       </c>
-      <c r="M154" s="2" t="s">
+      <c r="M154" t="s">
+        <v>866</v>
+      </c>
+      <c r="N154" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -8465,9 +9662,12 @@
       <c r="L155" t="s">
         <v>619</v>
       </c>
-      <c r="M155" s="2"/>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M155" t="s">
+        <v>866</v>
+      </c>
+      <c r="N155" s="4"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -8504,8 +9704,11 @@
       <c r="L156" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M156" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -8542,11 +9745,14 @@
       <c r="L157" t="s">
         <v>619</v>
       </c>
-      <c r="M157" s="2" t="s">
+      <c r="M157" t="s">
+        <v>866</v>
+      </c>
+      <c r="N157" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -8583,9 +9789,12 @@
       <c r="L158" t="s">
         <v>619</v>
       </c>
-      <c r="M158" s="2"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M158" t="s">
+        <v>866</v>
+      </c>
+      <c r="N158" s="4"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -8622,8 +9831,11 @@
       <c r="L159" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M159" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -8660,14 +9872,17 @@
       <c r="L160" t="s">
         <v>619</v>
       </c>
-      <c r="M160" s="2" t="s">
+      <c r="M160" t="s">
+        <v>866</v>
+      </c>
+      <c r="N160" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="N160" s="2" t="s">
+      <c r="O160" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -8704,10 +9919,13 @@
       <c r="L161" t="s">
         <v>619</v>
       </c>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M161" t="s">
+        <v>866</v>
+      </c>
+      <c r="N161" s="4"/>
+      <c r="O161" s="2"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -8744,11 +9962,14 @@
       <c r="L162" t="s">
         <v>619</v>
       </c>
-      <c r="M162" s="2" t="s">
+      <c r="M162" t="s">
+        <v>866</v>
+      </c>
+      <c r="N162" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -8785,9 +10006,12 @@
       <c r="L163" t="s">
         <v>619</v>
       </c>
-      <c r="M163" s="2"/>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M163" t="s">
+        <v>866</v>
+      </c>
+      <c r="N163" s="4"/>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -8824,8 +10048,11 @@
       <c r="L164" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M164" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -8862,8 +10089,11 @@
       <c r="L165" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M165" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -8900,11 +10130,14 @@
       <c r="L166" t="s">
         <v>619</v>
       </c>
-      <c r="M166" s="2" t="s">
+      <c r="M166" t="s">
+        <v>866</v>
+      </c>
+      <c r="N166" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -8941,9 +10174,12 @@
       <c r="L167" t="s">
         <v>619</v>
       </c>
-      <c r="M167" s="2"/>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M167" t="s">
+        <v>866</v>
+      </c>
+      <c r="N167" s="4"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -8980,8 +10216,11 @@
       <c r="L168" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M168" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -9018,8 +10257,11 @@
       <c r="L169" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M169" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -9056,8 +10298,11 @@
       <c r="L170" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M170" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -9094,8 +10339,11 @@
       <c r="L171" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M171" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -9132,8 +10380,11 @@
       <c r="L172" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M172" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -9170,8 +10421,11 @@
       <c r="L173" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M173" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -9208,8 +10462,11 @@
       <c r="L174" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M174" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -9246,8 +10503,11 @@
       <c r="L175" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M175" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -9284,8 +10544,11 @@
       <c r="L176" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M176" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -9322,8 +10585,11 @@
       <c r="L177" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M177" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -9360,8 +10626,11 @@
       <c r="L178" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M178" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -9398,8 +10667,11 @@
       <c r="L179" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M179" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -9436,8 +10708,11 @@
       <c r="L180" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M180" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -9474,11 +10749,14 @@
       <c r="L181" t="s">
         <v>619</v>
       </c>
-      <c r="M181" s="4" t="s">
+      <c r="M181" t="s">
+        <v>866</v>
+      </c>
+      <c r="N181" s="6" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -9515,9 +10793,12 @@
       <c r="L182" t="s">
         <v>619</v>
       </c>
-      <c r="M182" s="4"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M182" t="s">
+        <v>866</v>
+      </c>
+      <c r="N182" s="6"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -9554,9 +10835,12 @@
       <c r="L183" t="s">
         <v>619</v>
       </c>
-      <c r="M183" s="4"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M183" t="s">
+        <v>866</v>
+      </c>
+      <c r="N183" s="6"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -9593,8 +10877,11 @@
       <c r="L184" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M184" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -9631,8 +10918,11 @@
       <c r="L185" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M185" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -9669,8 +10959,11 @@
       <c r="L186" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M186" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -9707,8 +11000,11 @@
       <c r="L187" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M187" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -9745,11 +11041,14 @@
       <c r="L188" t="s">
         <v>619</v>
       </c>
-      <c r="M188" s="4" t="s">
+      <c r="M188" t="s">
+        <v>866</v>
+      </c>
+      <c r="N188" s="6" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -9786,9 +11085,12 @@
       <c r="L189" t="s">
         <v>620</v>
       </c>
-      <c r="M189" s="4"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M189" t="s">
+        <v>866</v>
+      </c>
+      <c r="N189" s="6"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -9825,9 +11127,12 @@
       <c r="L190" t="s">
         <v>620</v>
       </c>
-      <c r="M190" s="4"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M190" t="s">
+        <v>866</v>
+      </c>
+      <c r="N190" s="6"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -9864,8 +11169,11 @@
       <c r="L191" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M191" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -9902,8 +11210,11 @@
       <c r="L192" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -9940,8 +11251,11 @@
       <c r="L193" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -9978,8 +11292,11 @@
       <c r="L194" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -10016,8 +11333,11 @@
       <c r="L195" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -10054,70 +11374,4637 @@
       <c r="L196" t="s">
         <v>620</v>
       </c>
+      <c r="M196" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>867</v>
+      </c>
+      <c r="B197" t="s">
+        <v>747</v>
+      </c>
+      <c r="C197">
+        <v>71</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>836</v>
+      </c>
+      <c r="F197">
+        <v>7101</v>
+      </c>
+      <c r="G197" t="s">
+        <v>16</v>
+      </c>
+      <c r="H197" t="s">
+        <v>417</v>
+      </c>
+      <c r="I197">
+        <v>1967</v>
+      </c>
+      <c r="J197">
+        <v>19.3058906418396</v>
+      </c>
+      <c r="K197">
+        <v>-99.086843224604493</v>
+      </c>
+      <c r="L197" t="s">
+        <v>677</v>
+      </c>
+      <c r="M197" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>867</v>
+      </c>
+      <c r="B198" t="s">
+        <v>748</v>
+      </c>
+      <c r="C198">
+        <v>71</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198" t="s">
+        <v>837</v>
+      </c>
+      <c r="F198">
+        <v>7102</v>
+      </c>
+      <c r="G198" t="s">
+        <v>16</v>
+      </c>
+      <c r="H198" t="s">
+        <v>676</v>
+      </c>
+      <c r="I198">
+        <v>1967</v>
+      </c>
+      <c r="J198">
+        <v>19.298486668976398</v>
+      </c>
+      <c r="K198">
+        <v>-99.094240781767397</v>
+      </c>
+      <c r="L198" t="s">
+        <v>677</v>
+      </c>
+      <c r="M198" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>867</v>
+      </c>
+      <c r="B199" t="s">
+        <v>749</v>
+      </c>
+      <c r="C199">
+        <v>71</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+      <c r="E199" t="s">
+        <v>838</v>
+      </c>
+      <c r="F199">
+        <v>7103</v>
+      </c>
+      <c r="G199" t="s">
+        <v>16</v>
+      </c>
+      <c r="H199" t="s">
+        <v>680</v>
+      </c>
+      <c r="I199">
+        <v>1967</v>
+      </c>
+      <c r="J199">
+        <v>19.295137390085099</v>
+      </c>
+      <c r="K199">
+        <v>-99.102215069612797</v>
+      </c>
+      <c r="L199" t="s">
+        <v>677</v>
+      </c>
+      <c r="M199" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>867</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C200">
+        <v>71</v>
+      </c>
+      <c r="D200">
+        <v>4</v>
+      </c>
+      <c r="E200" t="s">
+        <v>839</v>
+      </c>
+      <c r="F200">
+        <v>7104</v>
+      </c>
+      <c r="G200" t="s">
+        <v>38</v>
+      </c>
+      <c r="H200" t="s">
+        <v>680</v>
+      </c>
+      <c r="I200">
+        <v>1967</v>
+      </c>
+      <c r="J200">
+        <v>19.289618298350501</v>
+      </c>
+      <c r="K200">
+        <v>-99.115187193073496</v>
+      </c>
+      <c r="L200" t="s">
+        <v>677</v>
+      </c>
+      <c r="M200" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>867</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C201">
+        <v>71</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+      <c r="E201" t="s">
+        <v>674</v>
+      </c>
+      <c r="F201">
+        <v>7105</v>
+      </c>
+      <c r="G201" t="s">
+        <v>38</v>
+      </c>
+      <c r="H201" t="s">
+        <v>680</v>
+      </c>
+      <c r="I201">
+        <v>1967</v>
+      </c>
+      <c r="J201">
+        <v>19.284843403838501</v>
+      </c>
+      <c r="K201">
+        <v>-99.126320188275599</v>
+      </c>
+      <c r="L201" t="s">
+        <v>677</v>
+      </c>
+      <c r="M201" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>867</v>
+      </c>
+      <c r="B202" t="s">
+        <v>678</v>
+      </c>
+      <c r="C202">
+        <v>71</v>
+      </c>
+      <c r="D202">
+        <v>6</v>
+      </c>
+      <c r="E202" t="s">
+        <v>751</v>
+      </c>
+      <c r="F202">
+        <v>7106</v>
+      </c>
+      <c r="G202" t="s">
+        <v>16</v>
+      </c>
+      <c r="H202" t="s">
+        <v>680</v>
+      </c>
+      <c r="I202">
+        <v>1967</v>
+      </c>
+      <c r="J202">
+        <v>19.283742659959401</v>
+      </c>
+      <c r="K202">
+        <v>-99.131535929078595</v>
+      </c>
+      <c r="L202" t="s">
+        <v>677</v>
+      </c>
+      <c r="M202" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>867</v>
+      </c>
+      <c r="B203" t="s">
+        <v>679</v>
+      </c>
+      <c r="C203">
+        <v>71</v>
+      </c>
+      <c r="D203">
+        <v>7</v>
+      </c>
+      <c r="E203" t="s">
+        <v>752</v>
+      </c>
+      <c r="F203">
+        <v>7107</v>
+      </c>
+      <c r="G203" t="s">
+        <v>16</v>
+      </c>
+      <c r="H203" t="s">
+        <v>680</v>
+      </c>
+      <c r="I203">
+        <v>1967</v>
+      </c>
+      <c r="J203">
+        <v>19.282690238163799</v>
+      </c>
+      <c r="K203">
+        <v>-99.141309524004498</v>
+      </c>
+      <c r="L203" t="s">
+        <v>677</v>
+      </c>
+      <c r="M203" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>867</v>
+      </c>
+      <c r="B204" t="s">
+        <v>681</v>
+      </c>
+      <c r="C204">
+        <v>71</v>
+      </c>
+      <c r="D204">
+        <v>8</v>
+      </c>
+      <c r="E204" t="s">
+        <v>753</v>
+      </c>
+      <c r="F204">
+        <v>7108</v>
+      </c>
+      <c r="G204" t="s">
+        <v>16</v>
+      </c>
+      <c r="H204" t="s">
+        <v>680</v>
+      </c>
+      <c r="I204">
+        <v>1967</v>
+      </c>
+      <c r="J204">
+        <v>19.285517186521801</v>
+      </c>
+      <c r="K204">
+        <v>-99.147153433192301</v>
+      </c>
+      <c r="L204" t="s">
+        <v>677</v>
+      </c>
+      <c r="M204" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>867</v>
+      </c>
+      <c r="B205" t="s">
+        <v>842</v>
+      </c>
+      <c r="C205">
+        <v>71</v>
+      </c>
+      <c r="D205">
+        <v>9</v>
+      </c>
+      <c r="E205" t="s">
+        <v>754</v>
+      </c>
+      <c r="F205">
+        <v>7109</v>
+      </c>
+      <c r="G205" t="s">
+        <v>16</v>
+      </c>
+      <c r="H205" t="s">
+        <v>680</v>
+      </c>
+      <c r="I205">
+        <v>1967</v>
+      </c>
+      <c r="J205">
+        <v>19.290400734483299</v>
+      </c>
+      <c r="K205">
+        <v>-99.152082688174602</v>
+      </c>
+      <c r="L205" t="s">
+        <v>677</v>
+      </c>
+      <c r="M205" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>867</v>
+      </c>
+      <c r="B206" t="s">
+        <v>682</v>
+      </c>
+      <c r="C206">
+        <v>71</v>
+      </c>
+      <c r="D206">
+        <v>10</v>
+      </c>
+      <c r="E206" t="s">
+        <v>755</v>
+      </c>
+      <c r="F206">
+        <v>7110</v>
+      </c>
+      <c r="G206" t="s">
+        <v>16</v>
+      </c>
+      <c r="H206" t="s">
+        <v>680</v>
+      </c>
+      <c r="I206">
+        <v>1967</v>
+      </c>
+      <c r="J206">
+        <v>19.294732603611699</v>
+      </c>
+      <c r="K206">
+        <v>-99.154638074917003</v>
+      </c>
+      <c r="L206" t="s">
+        <v>677</v>
+      </c>
+      <c r="M206" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>867</v>
+      </c>
+      <c r="B207" t="s">
+        <v>683</v>
+      </c>
+      <c r="C207">
+        <v>71</v>
+      </c>
+      <c r="D207">
+        <v>11</v>
+      </c>
+      <c r="E207" t="s">
+        <v>756</v>
+      </c>
+      <c r="F207">
+        <v>7111</v>
+      </c>
+      <c r="G207" t="s">
+        <v>16</v>
+      </c>
+      <c r="H207" t="s">
+        <v>170</v>
+      </c>
+      <c r="I207">
+        <v>1967</v>
+      </c>
+      <c r="J207">
+        <v>19.3010375800792</v>
+      </c>
+      <c r="K207">
+        <v>-99.160595818785694</v>
+      </c>
+      <c r="L207" t="s">
+        <v>677</v>
+      </c>
+      <c r="M207" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>867</v>
+      </c>
+      <c r="B208" t="s">
+        <v>684</v>
+      </c>
+      <c r="C208">
+        <v>71</v>
+      </c>
+      <c r="D208">
+        <v>12</v>
+      </c>
+      <c r="E208" t="s">
+        <v>757</v>
+      </c>
+      <c r="F208">
+        <v>7112</v>
+      </c>
+      <c r="G208" t="s">
+        <v>16</v>
+      </c>
+      <c r="H208" t="s">
+        <v>170</v>
+      </c>
+      <c r="I208">
+        <v>1967</v>
+      </c>
+      <c r="J208">
+        <v>19.302104802628602</v>
+      </c>
+      <c r="K208">
+        <v>-99.165564430135007</v>
+      </c>
+      <c r="L208" t="s">
+        <v>677</v>
+      </c>
+      <c r="M208" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>867</v>
+      </c>
+      <c r="B209" t="s">
+        <v>685</v>
+      </c>
+      <c r="C209">
+        <v>71</v>
+      </c>
+      <c r="D209">
+        <v>13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>758</v>
+      </c>
+      <c r="F209">
+        <v>7113</v>
+      </c>
+      <c r="G209" t="s">
+        <v>16</v>
+      </c>
+      <c r="H209" t="s">
+        <v>170</v>
+      </c>
+      <c r="I209">
+        <v>1967</v>
+      </c>
+      <c r="J209">
+        <v>19.3030265199362</v>
+      </c>
+      <c r="K209">
+        <v>-99.172806229797402</v>
+      </c>
+      <c r="L209" t="s">
+        <v>677</v>
+      </c>
+      <c r="M209" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>867</v>
+      </c>
+      <c r="B210" t="s">
+        <v>686</v>
+      </c>
+      <c r="C210">
+        <v>71</v>
+      </c>
+      <c r="D210">
+        <v>14</v>
+      </c>
+      <c r="E210" t="s">
+        <v>759</v>
+      </c>
+      <c r="F210">
+        <v>7114</v>
+      </c>
+      <c r="G210" t="s">
+        <v>16</v>
+      </c>
+      <c r="H210" t="s">
+        <v>680</v>
+      </c>
+      <c r="I210">
+        <v>1967</v>
+      </c>
+      <c r="J210">
+        <v>19.303174614077101</v>
+      </c>
+      <c r="K210">
+        <v>-99.181406533057896</v>
+      </c>
+      <c r="L210" t="s">
+        <v>677</v>
+      </c>
+      <c r="M210" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>867</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C211">
+        <v>71</v>
+      </c>
+      <c r="D211">
+        <v>15</v>
+      </c>
+      <c r="E211" t="s">
+        <v>760</v>
+      </c>
+      <c r="F211">
+        <v>7115</v>
+      </c>
+      <c r="G211" t="s">
+        <v>38</v>
+      </c>
+      <c r="H211" t="s">
+        <v>170</v>
+      </c>
+      <c r="I211">
+        <v>1967</v>
+      </c>
+      <c r="J211">
+        <v>19.3031599255714</v>
+      </c>
+      <c r="K211">
+        <v>-99.185859752788303</v>
+      </c>
+      <c r="L211" t="s">
+        <v>677</v>
+      </c>
+      <c r="M211" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>867</v>
+      </c>
+      <c r="B212" t="s">
+        <v>844</v>
+      </c>
+      <c r="C212">
+        <v>71</v>
+      </c>
+      <c r="D212">
+        <v>16</v>
+      </c>
+      <c r="E212" t="s">
+        <v>761</v>
+      </c>
+      <c r="F212">
+        <v>7116</v>
+      </c>
+      <c r="G212" t="s">
+        <v>16</v>
+      </c>
+      <c r="H212" t="s">
+        <v>170</v>
+      </c>
+      <c r="I212">
+        <v>1967</v>
+      </c>
+      <c r="J212">
+        <v>19.304247670835998</v>
+      </c>
+      <c r="K212">
+        <v>-99.199755776483201</v>
+      </c>
+      <c r="L212" t="s">
+        <v>677</v>
+      </c>
+      <c r="M212" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>867</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C213">
+        <v>71</v>
+      </c>
+      <c r="D213">
+        <v>17</v>
+      </c>
+      <c r="E213" t="s">
+        <v>762</v>
+      </c>
+      <c r="F213">
+        <v>7117</v>
+      </c>
+      <c r="G213" t="s">
+        <v>38</v>
+      </c>
+      <c r="H213" t="s">
+        <v>170</v>
+      </c>
+      <c r="I213">
+        <v>1967</v>
+      </c>
+      <c r="J213">
+        <v>19.305818198780699</v>
+      </c>
+      <c r="K213">
+        <v>-99.204757323956002</v>
+      </c>
+      <c r="L213" t="s">
+        <v>677</v>
+      </c>
+      <c r="M213" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>867</v>
+      </c>
+      <c r="B214" t="s">
+        <v>687</v>
+      </c>
+      <c r="C214">
+        <v>71</v>
+      </c>
+      <c r="D214">
+        <v>18</v>
+      </c>
+      <c r="E214" t="s">
+        <v>763</v>
+      </c>
+      <c r="F214">
+        <v>7118</v>
+      </c>
+      <c r="G214" t="s">
+        <v>16</v>
+      </c>
+      <c r="H214" t="s">
+        <v>680</v>
+      </c>
+      <c r="I214">
+        <v>1967</v>
+      </c>
+      <c r="J214">
+        <v>19.3075696512559</v>
+      </c>
+      <c r="K214">
+        <v>-99.215830905193201</v>
+      </c>
+      <c r="L214" t="s">
+        <v>677</v>
+      </c>
+      <c r="M214" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>867</v>
+      </c>
+      <c r="B215" t="s">
+        <v>688</v>
+      </c>
+      <c r="C215">
+        <v>71</v>
+      </c>
+      <c r="D215">
+        <v>19</v>
+      </c>
+      <c r="E215" t="s">
+        <v>764</v>
+      </c>
+      <c r="F215">
+        <v>7119</v>
+      </c>
+      <c r="G215" t="s">
+        <v>16</v>
+      </c>
+      <c r="H215" t="s">
+        <v>680</v>
+      </c>
+      <c r="I215">
+        <v>1967</v>
+      </c>
+      <c r="J215">
+        <v>19.312990572479801</v>
+      </c>
+      <c r="K215">
+        <v>-99.219919350413093</v>
+      </c>
+      <c r="L215" t="s">
+        <v>677</v>
+      </c>
+      <c r="M215" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>867</v>
+      </c>
+      <c r="B216" t="s">
+        <v>689</v>
+      </c>
+      <c r="C216">
+        <v>71</v>
+      </c>
+      <c r="D216">
+        <v>20</v>
+      </c>
+      <c r="E216" t="s">
+        <v>765</v>
+      </c>
+      <c r="F216">
+        <v>7120</v>
+      </c>
+      <c r="G216" t="s">
+        <v>16</v>
+      </c>
+      <c r="H216" t="s">
+        <v>864</v>
+      </c>
+      <c r="I216">
+        <v>1967</v>
+      </c>
+      <c r="J216">
+        <v>19.318655354511499</v>
+      </c>
+      <c r="K216">
+        <v>-99.221673835359397</v>
+      </c>
+      <c r="L216" t="s">
+        <v>677</v>
+      </c>
+      <c r="M216" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>867</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C217">
+        <v>71</v>
+      </c>
+      <c r="D217">
+        <v>21</v>
+      </c>
+      <c r="E217" t="s">
+        <v>766</v>
+      </c>
+      <c r="F217">
+        <v>7121</v>
+      </c>
+      <c r="G217" t="s">
+        <v>38</v>
+      </c>
+      <c r="H217" t="s">
+        <v>864</v>
+      </c>
+      <c r="I217">
+        <v>1967</v>
+      </c>
+      <c r="J217">
+        <v>19.320925949732999</v>
+      </c>
+      <c r="K217">
+        <v>-99.220328643836993</v>
+      </c>
+      <c r="L217" t="s">
+        <v>677</v>
+      </c>
+      <c r="M217" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>867</v>
+      </c>
+      <c r="B218" t="s">
+        <v>846</v>
+      </c>
+      <c r="C218">
+        <v>72</v>
+      </c>
+      <c r="D218">
+        <v>22</v>
+      </c>
+      <c r="E218" t="s">
+        <v>767</v>
+      </c>
+      <c r="F218" t="s">
+        <v>612</v>
+      </c>
+      <c r="G218" t="s">
+        <v>16</v>
+      </c>
+      <c r="H218" t="s">
+        <v>607</v>
+      </c>
+      <c r="I218" t="s">
+        <v>597</v>
+      </c>
+      <c r="J218">
+        <v>19.324062314384001</v>
+      </c>
+      <c r="K218">
+        <v>-99.215660380018903</v>
+      </c>
+      <c r="L218" t="s">
+        <v>677</v>
+      </c>
+      <c r="M218" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>867</v>
+      </c>
+      <c r="B219" t="s">
+        <v>691</v>
+      </c>
+      <c r="C219">
+        <v>72</v>
+      </c>
+      <c r="D219">
+        <v>23</v>
+      </c>
+      <c r="E219" t="s">
+        <v>768</v>
+      </c>
+      <c r="F219" t="s">
+        <v>618</v>
+      </c>
+      <c r="G219" t="s">
+        <v>16</v>
+      </c>
+      <c r="H219" t="s">
+        <v>607</v>
+      </c>
+      <c r="I219" t="s">
+        <v>597</v>
+      </c>
+      <c r="J219">
+        <v>19.3286106861771</v>
+      </c>
+      <c r="K219">
+        <v>-99.212048350663395</v>
+      </c>
+      <c r="L219" t="s">
+        <v>677</v>
+      </c>
+      <c r="M219" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>867</v>
+      </c>
+      <c r="B220" t="s">
+        <v>692</v>
+      </c>
+      <c r="C220">
+        <v>72</v>
+      </c>
+      <c r="D220">
+        <v>24</v>
+      </c>
+      <c r="E220" t="s">
+        <v>769</v>
+      </c>
+      <c r="F220">
+        <v>7004</v>
+      </c>
+      <c r="G220" t="s">
+        <v>16</v>
+      </c>
+      <c r="H220" t="s">
+        <v>676</v>
+      </c>
+      <c r="I220" t="s">
+        <v>597</v>
+      </c>
+      <c r="J220">
+        <v>19.330670786579802</v>
+      </c>
+      <c r="K220">
+        <v>-99.210965915338804</v>
+      </c>
+      <c r="L220" t="s">
+        <v>677</v>
+      </c>
+      <c r="M220" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>867</v>
+      </c>
+      <c r="B221" t="s">
+        <v>693</v>
+      </c>
+      <c r="C221">
+        <v>72</v>
+      </c>
+      <c r="D221">
+        <v>25</v>
+      </c>
+      <c r="E221" t="s">
+        <v>770</v>
+      </c>
+      <c r="F221" t="s">
+        <v>587</v>
+      </c>
+      <c r="G221" t="s">
+        <v>16</v>
+      </c>
+      <c r="H221" t="s">
+        <v>680</v>
+      </c>
+      <c r="I221" t="s">
+        <v>597</v>
+      </c>
+      <c r="J221">
+        <v>19.334297058048801</v>
+      </c>
+      <c r="K221">
+        <v>-99.208994308194207</v>
+      </c>
+      <c r="L221" t="s">
+        <v>677</v>
+      </c>
+      <c r="M221" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>867</v>
+      </c>
+      <c r="B222" t="s">
+        <v>694</v>
+      </c>
+      <c r="C222">
+        <v>72</v>
+      </c>
+      <c r="D222">
+        <v>26</v>
+      </c>
+      <c r="E222" t="s">
+        <v>771</v>
+      </c>
+      <c r="F222" t="s">
+        <v>593</v>
+      </c>
+      <c r="G222" t="s">
+        <v>38</v>
+      </c>
+      <c r="H222" t="s">
+        <v>680</v>
+      </c>
+      <c r="I222" t="s">
+        <v>597</v>
+      </c>
+      <c r="J222">
+        <v>19.340889452172501</v>
+      </c>
+      <c r="K222">
+        <v>-99.203232228858894</v>
+      </c>
+      <c r="L222" t="s">
+        <v>677</v>
+      </c>
+      <c r="M222" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>867</v>
+      </c>
+      <c r="B223" t="s">
+        <v>695</v>
+      </c>
+      <c r="C223">
+        <v>72</v>
+      </c>
+      <c r="D223">
+        <v>27</v>
+      </c>
+      <c r="E223" t="s">
+        <v>772</v>
+      </c>
+      <c r="F223" t="s">
+        <v>600</v>
+      </c>
+      <c r="G223" t="s">
+        <v>16</v>
+      </c>
+      <c r="H223" t="s">
+        <v>680</v>
+      </c>
+      <c r="I223" t="s">
+        <v>597</v>
+      </c>
+      <c r="J223">
+        <v>19.347926362907899</v>
+      </c>
+      <c r="K223">
+        <v>-99.202037870410194</v>
+      </c>
+      <c r="L223" t="s">
+        <v>677</v>
+      </c>
+      <c r="M223" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>867</v>
+      </c>
+      <c r="B224" t="s">
+        <v>696</v>
+      </c>
+      <c r="C224">
+        <v>72</v>
+      </c>
+      <c r="D224">
+        <v>28</v>
+      </c>
+      <c r="E224" t="s">
+        <v>773</v>
+      </c>
+      <c r="F224" t="s">
+        <v>606</v>
+      </c>
+      <c r="G224" t="s">
+        <v>16</v>
+      </c>
+      <c r="H224" t="s">
+        <v>680</v>
+      </c>
+      <c r="I224" t="s">
+        <v>597</v>
+      </c>
+      <c r="J224">
+        <v>19.355731680521199</v>
+      </c>
+      <c r="K224">
+        <v>-99.198882329518497</v>
+      </c>
+      <c r="L224" t="s">
+        <v>677</v>
+      </c>
+      <c r="M224" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>867</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C225">
+        <v>72</v>
+      </c>
+      <c r="D225">
+        <v>29</v>
+      </c>
+      <c r="E225" t="s">
+        <v>774</v>
+      </c>
+      <c r="F225" t="s">
+        <v>612</v>
+      </c>
+      <c r="G225" t="s">
+        <v>16</v>
+      </c>
+      <c r="H225" t="s">
+        <v>178</v>
+      </c>
+      <c r="I225" t="s">
+        <v>597</v>
+      </c>
+      <c r="J225">
+        <v>19.361795526286699</v>
+      </c>
+      <c r="K225">
+        <v>-99.191205459784399</v>
+      </c>
+      <c r="L225" t="s">
+        <v>677</v>
+      </c>
+      <c r="M225" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>867</v>
+      </c>
+      <c r="B226" t="s">
+        <v>847</v>
+      </c>
+      <c r="C226">
+        <v>72</v>
+      </c>
+      <c r="D226">
+        <v>30</v>
+      </c>
+      <c r="E226" t="s">
+        <v>775</v>
+      </c>
+      <c r="F226" t="s">
+        <v>618</v>
+      </c>
+      <c r="G226" t="s">
+        <v>16</v>
+      </c>
+      <c r="H226" t="s">
+        <v>594</v>
+      </c>
+      <c r="I226" t="s">
+        <v>597</v>
+      </c>
+      <c r="J226">
+        <v>19.366922941138</v>
+      </c>
+      <c r="K226">
+        <v>-99.191148873064805</v>
+      </c>
+      <c r="L226" t="s">
+        <v>677</v>
+      </c>
+      <c r="M226" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>867</v>
+      </c>
+      <c r="B227" t="s">
+        <v>698</v>
+      </c>
+      <c r="C227">
+        <v>72</v>
+      </c>
+      <c r="D227">
+        <v>31</v>
+      </c>
+      <c r="E227" t="s">
+        <v>776</v>
+      </c>
+      <c r="F227">
+        <v>7005</v>
+      </c>
+      <c r="G227" t="s">
+        <v>16</v>
+      </c>
+      <c r="H227" t="s">
+        <v>594</v>
+      </c>
+      <c r="I227" t="s">
+        <v>597</v>
+      </c>
+      <c r="J227">
+        <v>19.3721116793307</v>
+      </c>
+      <c r="K227">
+        <v>-99.191988389200802</v>
+      </c>
+      <c r="L227" t="s">
+        <v>677</v>
+      </c>
+      <c r="M227" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>867</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C228">
+        <v>72</v>
+      </c>
+      <c r="D228">
+        <v>32</v>
+      </c>
+      <c r="E228" t="s">
+        <v>777</v>
+      </c>
+      <c r="F228" t="s">
+        <v>587</v>
+      </c>
+      <c r="G228" t="s">
+        <v>16</v>
+      </c>
+      <c r="H228" t="s">
+        <v>607</v>
+      </c>
+      <c r="I228" t="s">
+        <v>597</v>
+      </c>
+      <c r="J228">
+        <v>19.376272946874899</v>
+      </c>
+      <c r="K228">
+        <v>-99.191521875240497</v>
+      </c>
+      <c r="L228" t="s">
+        <v>677</v>
+      </c>
+      <c r="M228" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>867</v>
+      </c>
+      <c r="B229" t="s">
+        <v>848</v>
+      </c>
+      <c r="C229">
+        <v>72</v>
+      </c>
+      <c r="D229">
+        <v>33</v>
+      </c>
+      <c r="E229" t="s">
+        <v>778</v>
+      </c>
+      <c r="F229" t="s">
+        <v>593</v>
+      </c>
+      <c r="G229" t="s">
+        <v>94</v>
+      </c>
+      <c r="H229" t="s">
+        <v>607</v>
+      </c>
+      <c r="I229" t="s">
+        <v>597</v>
+      </c>
+      <c r="J229">
+        <v>19.384772415634501</v>
+      </c>
+      <c r="K229">
+        <v>-99.191252619111594</v>
+      </c>
+      <c r="L229" t="s">
+        <v>677</v>
+      </c>
+      <c r="M229" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>867</v>
+      </c>
+      <c r="B230" t="s">
+        <v>700</v>
+      </c>
+      <c r="C230">
+        <v>72</v>
+      </c>
+      <c r="D230">
+        <v>34</v>
+      </c>
+      <c r="E230" t="s">
+        <v>779</v>
+      </c>
+      <c r="F230" t="s">
+        <v>600</v>
+      </c>
+      <c r="G230" t="s">
+        <v>38</v>
+      </c>
+      <c r="H230" t="s">
+        <v>607</v>
+      </c>
+      <c r="I230" t="s">
+        <v>597</v>
+      </c>
+      <c r="J230">
+        <v>19.390974520246299</v>
+      </c>
+      <c r="K230">
+        <v>-99.188913461021997</v>
+      </c>
+      <c r="L230" t="s">
+        <v>677</v>
+      </c>
+      <c r="M230" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>867</v>
+      </c>
+      <c r="B231" t="s">
+        <v>701</v>
+      </c>
+      <c r="C231">
+        <v>72</v>
+      </c>
+      <c r="D231">
+        <v>35</v>
+      </c>
+      <c r="E231" t="s">
+        <v>780</v>
+      </c>
+      <c r="F231" t="s">
+        <v>603</v>
+      </c>
+      <c r="G231" t="s">
+        <v>16</v>
+      </c>
+      <c r="H231" t="s">
+        <v>676</v>
+      </c>
+      <c r="I231" t="s">
+        <v>597</v>
+      </c>
+      <c r="J231">
+        <v>19.3955383249044</v>
+      </c>
+      <c r="K231">
+        <v>-99.188738239989505</v>
+      </c>
+      <c r="L231" t="s">
+        <v>677</v>
+      </c>
+      <c r="M231" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>867</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C232">
+        <v>72</v>
+      </c>
+      <c r="D232">
+        <v>36</v>
+      </c>
+      <c r="E232" t="s">
+        <v>781</v>
+      </c>
+      <c r="F232" t="s">
+        <v>606</v>
+      </c>
+      <c r="G232" t="s">
+        <v>16</v>
+      </c>
+      <c r="H232" t="s">
+        <v>680</v>
+      </c>
+      <c r="I232" t="s">
+        <v>597</v>
+      </c>
+      <c r="J232">
+        <v>19.400193507370702</v>
+      </c>
+      <c r="K232">
+        <v>-99.191752938434405</v>
+      </c>
+      <c r="L232" t="s">
+        <v>677</v>
+      </c>
+      <c r="M232" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>867</v>
+      </c>
+      <c r="B233" t="s">
+        <v>703</v>
+      </c>
+      <c r="C233">
+        <v>72</v>
+      </c>
+      <c r="D233">
+        <v>37</v>
+      </c>
+      <c r="E233" t="s">
+        <v>782</v>
+      </c>
+      <c r="F233" t="s">
+        <v>609</v>
+      </c>
+      <c r="G233" t="s">
+        <v>16</v>
+      </c>
+      <c r="H233" t="s">
+        <v>680</v>
+      </c>
+      <c r="I233" t="s">
+        <v>597</v>
+      </c>
+      <c r="J233">
+        <v>19.406424633025502</v>
+      </c>
+      <c r="K233">
+        <v>-99.191886443531601</v>
+      </c>
+      <c r="L233" t="s">
+        <v>677</v>
+      </c>
+      <c r="M233" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>867</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C234">
+        <v>72</v>
+      </c>
+      <c r="D234">
+        <v>38</v>
+      </c>
+      <c r="E234" t="s">
+        <v>783</v>
+      </c>
+      <c r="F234" t="s">
+        <v>612</v>
+      </c>
+      <c r="G234" t="s">
+        <v>16</v>
+      </c>
+      <c r="H234" t="s">
+        <v>680</v>
+      </c>
+      <c r="I234" t="s">
+        <v>597</v>
+      </c>
+      <c r="J234">
+        <v>19.411209876821701</v>
+      </c>
+      <c r="K234">
+        <v>-99.194115856023203</v>
+      </c>
+      <c r="L234" t="s">
+        <v>677</v>
+      </c>
+      <c r="M234" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>867</v>
+      </c>
+      <c r="B235" t="s">
+        <v>706</v>
+      </c>
+      <c r="C235">
+        <v>72</v>
+      </c>
+      <c r="D235">
+        <v>39</v>
+      </c>
+      <c r="E235" t="s">
+        <v>784</v>
+      </c>
+      <c r="F235" t="s">
+        <v>615</v>
+      </c>
+      <c r="G235" t="s">
+        <v>16</v>
+      </c>
+      <c r="H235" t="s">
+        <v>680</v>
+      </c>
+      <c r="I235" t="s">
+        <v>597</v>
+      </c>
+      <c r="J235">
+        <v>19.4179379699072</v>
+      </c>
+      <c r="K235">
+        <v>-99.1948212702859</v>
+      </c>
+      <c r="L235" t="s">
+        <v>677</v>
+      </c>
+      <c r="M235" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>867</v>
+      </c>
+      <c r="B236" t="s">
+        <v>707</v>
+      </c>
+      <c r="C236">
+        <v>72</v>
+      </c>
+      <c r="D236">
+        <v>40</v>
+      </c>
+      <c r="E236" t="s">
+        <v>785</v>
+      </c>
+      <c r="F236" t="s">
+        <v>618</v>
+      </c>
+      <c r="G236" t="s">
+        <v>16</v>
+      </c>
+      <c r="H236" t="s">
+        <v>680</v>
+      </c>
+      <c r="I236" t="s">
+        <v>597</v>
+      </c>
+      <c r="J236">
+        <v>19.4227045760294</v>
+      </c>
+      <c r="K236">
+        <v>-99.199047159816303</v>
+      </c>
+      <c r="L236" t="s">
+        <v>677</v>
+      </c>
+      <c r="M236" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>867</v>
+      </c>
+      <c r="B237" t="s">
+        <v>705</v>
+      </c>
+      <c r="C237">
+        <v>72</v>
+      </c>
+      <c r="D237">
+        <v>41</v>
+      </c>
+      <c r="E237" t="s">
+        <v>786</v>
+      </c>
+      <c r="F237">
+        <v>7006</v>
+      </c>
+      <c r="G237" t="s">
+        <v>16</v>
+      </c>
+      <c r="H237" t="s">
+        <v>680</v>
+      </c>
+      <c r="I237" t="s">
+        <v>597</v>
+      </c>
+      <c r="J237">
+        <v>19.427271778236001</v>
+      </c>
+      <c r="K237">
+        <v>-99.203382922479193</v>
+      </c>
+      <c r="L237" t="s">
+        <v>677</v>
+      </c>
+      <c r="M237" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>867</v>
+      </c>
+      <c r="B238" t="s">
+        <v>708</v>
+      </c>
+      <c r="C238">
+        <v>72</v>
+      </c>
+      <c r="D238">
+        <v>42</v>
+      </c>
+      <c r="E238" t="s">
+        <v>787</v>
+      </c>
+      <c r="F238" t="s">
+        <v>587</v>
+      </c>
+      <c r="G238" t="s">
+        <v>16</v>
+      </c>
+      <c r="H238" t="s">
+        <v>680</v>
+      </c>
+      <c r="I238" t="s">
+        <v>597</v>
+      </c>
+      <c r="J238">
+        <v>19.432035165080102</v>
+      </c>
+      <c r="K238">
+        <v>-99.208096784206802</v>
+      </c>
+      <c r="L238" t="s">
+        <v>677</v>
+      </c>
+      <c r="M238" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>867</v>
+      </c>
+      <c r="B239" t="s">
+        <v>709</v>
+      </c>
+      <c r="C239">
+        <v>72</v>
+      </c>
+      <c r="D239">
+        <v>43</v>
+      </c>
+      <c r="E239" t="s">
+        <v>788</v>
+      </c>
+      <c r="F239" t="s">
+        <v>590</v>
+      </c>
+      <c r="G239" t="s">
+        <v>16</v>
+      </c>
+      <c r="H239" t="s">
+        <v>680</v>
+      </c>
+      <c r="I239" t="s">
+        <v>597</v>
+      </c>
+      <c r="J239">
+        <v>19.4367463974964</v>
+      </c>
+      <c r="K239">
+        <v>-99.212946132646394</v>
+      </c>
+      <c r="L239" t="s">
+        <v>677</v>
+      </c>
+      <c r="M239" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>867</v>
+      </c>
+      <c r="B240" t="s">
+        <v>854</v>
+      </c>
+      <c r="C240">
+        <v>72</v>
+      </c>
+      <c r="D240">
+        <v>44</v>
+      </c>
+      <c r="E240" t="s">
+        <v>789</v>
+      </c>
+      <c r="F240" t="s">
+        <v>593</v>
+      </c>
+      <c r="G240" t="s">
+        <v>16</v>
+      </c>
+      <c r="H240" t="s">
+        <v>178</v>
+      </c>
+      <c r="I240" t="s">
+        <v>597</v>
+      </c>
+      <c r="J240">
+        <v>19.4392638928012</v>
+      </c>
+      <c r="K240">
+        <v>-99.214626690684995</v>
+      </c>
+      <c r="L240" t="s">
+        <v>677</v>
+      </c>
+      <c r="M240" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>867</v>
+      </c>
+      <c r="B241" t="s">
+        <v>710</v>
+      </c>
+      <c r="C241">
+        <v>72</v>
+      </c>
+      <c r="D241">
+        <v>45</v>
+      </c>
+      <c r="E241" t="s">
+        <v>790</v>
+      </c>
+      <c r="F241" t="s">
+        <v>596</v>
+      </c>
+      <c r="G241" t="s">
+        <v>94</v>
+      </c>
+      <c r="H241" t="s">
+        <v>594</v>
+      </c>
+      <c r="I241" t="s">
+        <v>597</v>
+      </c>
+      <c r="J241">
+        <v>19.442377242084302</v>
+      </c>
+      <c r="K241">
+        <v>-99.216389674010998</v>
+      </c>
+      <c r="L241" t="s">
+        <v>677</v>
+      </c>
+      <c r="M241" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>867</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C242">
+        <v>72</v>
+      </c>
+      <c r="D242">
+        <v>46</v>
+      </c>
+      <c r="E242" t="s">
+        <v>791</v>
+      </c>
+      <c r="F242" t="s">
+        <v>603</v>
+      </c>
+      <c r="G242" t="s">
+        <v>38</v>
+      </c>
+      <c r="H242" t="s">
+        <v>594</v>
+      </c>
+      <c r="I242" t="s">
+        <v>597</v>
+      </c>
+      <c r="J242">
+        <v>19.458780110878799</v>
+      </c>
+      <c r="K242">
+        <v>-99.220587639033297</v>
+      </c>
+      <c r="L242" t="s">
+        <v>677</v>
+      </c>
+      <c r="M242" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>867</v>
+      </c>
+      <c r="B243" t="s">
+        <v>712</v>
+      </c>
+      <c r="C243">
+        <v>72</v>
+      </c>
+      <c r="D243">
+        <v>47</v>
+      </c>
+      <c r="E243" t="s">
+        <v>792</v>
+      </c>
+      <c r="F243" t="s">
+        <v>606</v>
+      </c>
+      <c r="G243" t="s">
+        <v>16</v>
+      </c>
+      <c r="H243" t="s">
+        <v>607</v>
+      </c>
+      <c r="I243" t="s">
+        <v>597</v>
+      </c>
+      <c r="J243">
+        <v>19.466018989551198</v>
+      </c>
+      <c r="K243">
+        <v>-99.224501362291704</v>
+      </c>
+      <c r="L243" t="s">
+        <v>677</v>
+      </c>
+      <c r="M243" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>867</v>
+      </c>
+      <c r="B244" t="s">
+        <v>714</v>
+      </c>
+      <c r="C244">
+        <v>72</v>
+      </c>
+      <c r="D244">
+        <v>48</v>
+      </c>
+      <c r="E244" t="s">
+        <v>793</v>
+      </c>
+      <c r="F244" t="s">
+        <v>612</v>
+      </c>
+      <c r="G244" t="s">
+        <v>16</v>
+      </c>
+      <c r="H244" t="s">
+        <v>607</v>
+      </c>
+      <c r="I244" t="s">
+        <v>597</v>
+      </c>
+      <c r="J244">
+        <v>19.473756768179999</v>
+      </c>
+      <c r="K244">
+        <v>-99.228522358860801</v>
+      </c>
+      <c r="L244" t="s">
+        <v>677</v>
+      </c>
+      <c r="M244" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>867</v>
+      </c>
+      <c r="B245" t="s">
+        <v>713</v>
+      </c>
+      <c r="C245">
+        <v>72</v>
+      </c>
+      <c r="D245">
+        <v>49</v>
+      </c>
+      <c r="E245" t="s">
+        <v>794</v>
+      </c>
+      <c r="F245" t="s">
+        <v>615</v>
+      </c>
+      <c r="G245" t="s">
+        <v>16</v>
+      </c>
+      <c r="H245" t="s">
+        <v>607</v>
+      </c>
+      <c r="I245" t="s">
+        <v>597</v>
+      </c>
+      <c r="J245">
+        <v>19.479082934787101</v>
+      </c>
+      <c r="K245">
+        <v>-99.231934886999596</v>
+      </c>
+      <c r="L245" t="s">
+        <v>677</v>
+      </c>
+      <c r="M245" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>867</v>
+      </c>
+      <c r="B246" t="s">
+        <v>849</v>
+      </c>
+      <c r="C246">
+        <v>72</v>
+      </c>
+      <c r="D246">
+        <v>50</v>
+      </c>
+      <c r="E246" t="s">
+        <v>795</v>
+      </c>
+      <c r="F246" t="s">
+        <v>618</v>
+      </c>
+      <c r="G246" t="s">
+        <v>16</v>
+      </c>
+      <c r="H246" t="s">
+        <v>607</v>
+      </c>
+      <c r="I246" t="s">
+        <v>597</v>
+      </c>
+      <c r="J246">
+        <v>19.486174859181599</v>
+      </c>
+      <c r="K246">
+        <v>-99.235080884367903</v>
+      </c>
+      <c r="L246" t="s">
+        <v>677</v>
+      </c>
+      <c r="M246" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>867</v>
+      </c>
+      <c r="B247" t="s">
+        <v>715</v>
+      </c>
+      <c r="C247">
+        <v>72</v>
+      </c>
+      <c r="D247">
+        <v>51</v>
+      </c>
+      <c r="E247" t="s">
+        <v>796</v>
+      </c>
+      <c r="F247">
+        <v>7007</v>
+      </c>
+      <c r="G247" t="s">
+        <v>16</v>
+      </c>
+      <c r="H247" t="s">
+        <v>676</v>
+      </c>
+      <c r="I247" t="s">
+        <v>597</v>
+      </c>
+      <c r="J247">
+        <v>19.494230362985601</v>
+      </c>
+      <c r="K247">
+        <v>-99.237218851626196</v>
+      </c>
+      <c r="L247" t="s">
+        <v>677</v>
+      </c>
+      <c r="M247" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>867</v>
+      </c>
+      <c r="B248" t="s">
+        <v>716</v>
+      </c>
+      <c r="C248">
+        <v>73</v>
+      </c>
+      <c r="D248">
+        <v>52</v>
+      </c>
+      <c r="E248" t="s">
+        <v>797</v>
+      </c>
+      <c r="F248" t="s">
+        <v>587</v>
+      </c>
+      <c r="G248" t="s">
+        <v>16</v>
+      </c>
+      <c r="H248" t="s">
+        <v>680</v>
+      </c>
+      <c r="I248" t="s">
+        <v>597</v>
+      </c>
+      <c r="J248">
+        <v>19.509213820316301</v>
+      </c>
+      <c r="K248">
+        <v>-99.236813239680302</v>
+      </c>
+      <c r="L248" t="s">
+        <v>677</v>
+      </c>
+      <c r="M248" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>867</v>
+      </c>
+      <c r="B249" t="s">
+        <v>850</v>
+      </c>
+      <c r="C249">
+        <v>73</v>
+      </c>
+      <c r="D249">
+        <v>53</v>
+      </c>
+      <c r="E249" t="s">
+        <v>798</v>
+      </c>
+      <c r="F249" t="s">
+        <v>590</v>
+      </c>
+      <c r="G249" t="s">
+        <v>16</v>
+      </c>
+      <c r="H249" t="s">
+        <v>680</v>
+      </c>
+      <c r="I249" t="s">
+        <v>597</v>
+      </c>
+      <c r="J249">
+        <v>19.5193013624258</v>
+      </c>
+      <c r="K249">
+        <v>-99.230636205226304</v>
+      </c>
+      <c r="L249" t="s">
+        <v>677</v>
+      </c>
+      <c r="M249" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>867</v>
+      </c>
+      <c r="B250" t="s">
+        <v>717</v>
+      </c>
+      <c r="C250">
+        <v>73</v>
+      </c>
+      <c r="D250">
+        <v>54</v>
+      </c>
+      <c r="E250" t="s">
+        <v>799</v>
+      </c>
+      <c r="F250" t="s">
+        <v>596</v>
+      </c>
+      <c r="G250" t="s">
+        <v>16</v>
+      </c>
+      <c r="H250" t="s">
+        <v>680</v>
+      </c>
+      <c r="I250" t="s">
+        <v>597</v>
+      </c>
+      <c r="J250">
+        <v>19.518596386267799</v>
+      </c>
+      <c r="K250">
+        <v>-99.218504816883794</v>
+      </c>
+      <c r="L250" t="s">
+        <v>677</v>
+      </c>
+      <c r="M250" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>867</v>
+      </c>
+      <c r="B251" t="s">
+        <v>718</v>
+      </c>
+      <c r="C251">
+        <v>73</v>
+      </c>
+      <c r="D251">
+        <v>55</v>
+      </c>
+      <c r="E251" t="s">
+        <v>800</v>
+      </c>
+      <c r="F251" t="s">
+        <v>600</v>
+      </c>
+      <c r="G251" t="s">
+        <v>94</v>
+      </c>
+      <c r="H251" t="s">
+        <v>680</v>
+      </c>
+      <c r="I251" t="s">
+        <v>597</v>
+      </c>
+      <c r="J251">
+        <v>19.516841427315899</v>
+      </c>
+      <c r="K251">
+        <v>-99.211707309983197</v>
+      </c>
+      <c r="L251" t="s">
+        <v>677</v>
+      </c>
+      <c r="M251" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>867</v>
+      </c>
+      <c r="B252" t="s">
+        <v>719</v>
+      </c>
+      <c r="C252">
+        <v>73</v>
+      </c>
+      <c r="D252">
+        <v>56</v>
+      </c>
+      <c r="E252" t="s">
+        <v>801</v>
+      </c>
+      <c r="F252" t="s">
+        <v>609</v>
+      </c>
+      <c r="G252" t="s">
+        <v>16</v>
+      </c>
+      <c r="H252" t="s">
+        <v>680</v>
+      </c>
+      <c r="I252" t="s">
+        <v>597</v>
+      </c>
+      <c r="J252">
+        <v>19.517009411413401</v>
+      </c>
+      <c r="K252">
+        <v>-99.196497379625399</v>
+      </c>
+      <c r="L252" t="s">
+        <v>677</v>
+      </c>
+      <c r="M252" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>867</v>
+      </c>
+      <c r="B253" t="s">
+        <v>720</v>
+      </c>
+      <c r="C253">
+        <v>73</v>
+      </c>
+      <c r="D253">
+        <v>57</v>
+      </c>
+      <c r="E253" t="s">
+        <v>802</v>
+      </c>
+      <c r="F253" t="s">
+        <v>618</v>
+      </c>
+      <c r="G253" t="s">
+        <v>16</v>
+      </c>
+      <c r="H253" t="s">
+        <v>594</v>
+      </c>
+      <c r="I253" t="s">
+        <v>597</v>
+      </c>
+      <c r="J253">
+        <v>19.511604168288301</v>
+      </c>
+      <c r="K253">
+        <v>-99.179375332266304</v>
+      </c>
+      <c r="L253" t="s">
+        <v>677</v>
+      </c>
+      <c r="M253" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>867</v>
+      </c>
+      <c r="B254" t="s">
+        <v>721</v>
+      </c>
+      <c r="C254">
+        <v>73</v>
+      </c>
+      <c r="D254">
+        <v>58</v>
+      </c>
+      <c r="E254" t="s">
+        <v>803</v>
+      </c>
+      <c r="F254">
+        <v>7008</v>
+      </c>
+      <c r="G254" t="s">
+        <v>16</v>
+      </c>
+      <c r="H254" t="s">
+        <v>594</v>
+      </c>
+      <c r="I254" t="s">
+        <v>597</v>
+      </c>
+      <c r="J254">
+        <v>19.514511437411802</v>
+      </c>
+      <c r="K254">
+        <v>-99.172998550389707</v>
+      </c>
+      <c r="L254" t="s">
+        <v>677</v>
+      </c>
+      <c r="M254" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>867</v>
+      </c>
+      <c r="B255" t="s">
+        <v>722</v>
+      </c>
+      <c r="C255">
+        <v>73</v>
+      </c>
+      <c r="D255">
+        <v>59</v>
+      </c>
+      <c r="E255" t="s">
+        <v>804</v>
+      </c>
+      <c r="F255" t="s">
+        <v>587</v>
+      </c>
+      <c r="G255" t="s">
+        <v>16</v>
+      </c>
+      <c r="H255" t="s">
+        <v>607</v>
+      </c>
+      <c r="I255" t="s">
+        <v>597</v>
+      </c>
+      <c r="J255">
+        <v>19.5124915987051</v>
+      </c>
+      <c r="K255">
+        <v>-99.165593627839101</v>
+      </c>
+      <c r="L255" t="s">
+        <v>677</v>
+      </c>
+      <c r="M255" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>867</v>
+      </c>
+      <c r="B256" t="s">
+        <v>723</v>
+      </c>
+      <c r="C256">
+        <v>73</v>
+      </c>
+      <c r="D256">
+        <v>60</v>
+      </c>
+      <c r="E256" t="s">
+        <v>805</v>
+      </c>
+      <c r="F256" t="s">
+        <v>590</v>
+      </c>
+      <c r="G256" t="s">
+        <v>16</v>
+      </c>
+      <c r="H256" t="s">
+        <v>607</v>
+      </c>
+      <c r="I256" t="s">
+        <v>597</v>
+      </c>
+      <c r="J256">
+        <v>19.512747482632999</v>
+      </c>
+      <c r="K256">
+        <v>-99.160395164234899</v>
+      </c>
+      <c r="L256" t="s">
+        <v>677</v>
+      </c>
+      <c r="M256" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>867</v>
+      </c>
+      <c r="B257" t="s">
+        <v>724</v>
+      </c>
+      <c r="C257">
+        <v>73</v>
+      </c>
+      <c r="D257">
+        <v>61</v>
+      </c>
+      <c r="E257" t="s">
+        <v>806</v>
+      </c>
+      <c r="F257" t="s">
+        <v>593</v>
+      </c>
+      <c r="G257" t="s">
+        <v>16</v>
+      </c>
+      <c r="H257" t="s">
+        <v>607</v>
+      </c>
+      <c r="I257" t="s">
+        <v>597</v>
+      </c>
+      <c r="J257">
+        <v>19.5146094622948</v>
+      </c>
+      <c r="K257">
+        <v>-99.154068179484</v>
+      </c>
+      <c r="L257" t="s">
+        <v>677</v>
+      </c>
+      <c r="M257" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>867</v>
+      </c>
+      <c r="B258" t="s">
+        <v>725</v>
+      </c>
+      <c r="C258">
+        <v>73</v>
+      </c>
+      <c r="D258">
+        <v>62</v>
+      </c>
+      <c r="E258" t="s">
+        <v>807</v>
+      </c>
+      <c r="F258" t="s">
+        <v>596</v>
+      </c>
+      <c r="G258" t="s">
+        <v>16</v>
+      </c>
+      <c r="H258" t="s">
+        <v>607</v>
+      </c>
+      <c r="I258" t="s">
+        <v>597</v>
+      </c>
+      <c r="J258">
+        <v>19.518062429538901</v>
+      </c>
+      <c r="K258">
+        <v>-99.143054255863305</v>
+      </c>
+      <c r="L258" t="s">
+        <v>677</v>
+      </c>
+      <c r="M258" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>867</v>
+      </c>
+      <c r="B259" t="s">
+        <v>726</v>
+      </c>
+      <c r="C259">
+        <v>73</v>
+      </c>
+      <c r="D259">
+        <v>63</v>
+      </c>
+      <c r="E259" t="s">
+        <v>808</v>
+      </c>
+      <c r="F259" t="s">
+        <v>600</v>
+      </c>
+      <c r="G259" t="s">
+        <v>16</v>
+      </c>
+      <c r="H259" t="s">
+        <v>607</v>
+      </c>
+      <c r="I259" t="s">
+        <v>597</v>
+      </c>
+      <c r="J259">
+        <v>19.517955725322601</v>
+      </c>
+      <c r="K259">
+        <v>-99.134532655767401</v>
+      </c>
+      <c r="L259" t="s">
+        <v>677</v>
+      </c>
+      <c r="M259" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>867</v>
+      </c>
+      <c r="B260" t="s">
+        <v>727</v>
+      </c>
+      <c r="C260">
+        <v>73</v>
+      </c>
+      <c r="D260">
+        <v>64</v>
+      </c>
+      <c r="E260" t="s">
+        <v>809</v>
+      </c>
+      <c r="F260" t="s">
+        <v>603</v>
+      </c>
+      <c r="G260" t="s">
+        <v>94</v>
+      </c>
+      <c r="H260" t="s">
+        <v>676</v>
+      </c>
+      <c r="I260" t="s">
+        <v>597</v>
+      </c>
+      <c r="J260">
+        <v>19.5191546977744</v>
+      </c>
+      <c r="K260">
+        <v>-99.124252608889904</v>
+      </c>
+      <c r="L260" t="s">
+        <v>677</v>
+      </c>
+      <c r="M260" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>867</v>
+      </c>
+      <c r="B261" t="s">
+        <v>728</v>
+      </c>
+      <c r="C261">
+        <v>73</v>
+      </c>
+      <c r="D261">
+        <v>65</v>
+      </c>
+      <c r="E261" t="s">
+        <v>810</v>
+      </c>
+      <c r="F261" t="s">
+        <v>606</v>
+      </c>
+      <c r="G261" t="s">
+        <v>38</v>
+      </c>
+      <c r="H261" t="s">
+        <v>680</v>
+      </c>
+      <c r="I261" t="s">
+        <v>597</v>
+      </c>
+      <c r="J261">
+        <v>19.521458048703099</v>
+      </c>
+      <c r="K261">
+        <v>-99.114145246139003</v>
+      </c>
+      <c r="L261" t="s">
+        <v>677</v>
+      </c>
+      <c r="M261" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>867</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C262">
+        <v>73</v>
+      </c>
+      <c r="D262">
+        <v>66</v>
+      </c>
+      <c r="E262" t="s">
+        <v>811</v>
+      </c>
+      <c r="F262" t="s">
+        <v>615</v>
+      </c>
+      <c r="G262" t="s">
+        <v>16</v>
+      </c>
+      <c r="H262" t="s">
+        <v>680</v>
+      </c>
+      <c r="I262" t="s">
+        <v>597</v>
+      </c>
+      <c r="J262">
+        <v>19.514791576931302</v>
+      </c>
+      <c r="K262">
+        <v>-99.1012458364103</v>
+      </c>
+      <c r="L262" t="s">
+        <v>677</v>
+      </c>
+      <c r="M262" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>867</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C263">
+        <v>73</v>
+      </c>
+      <c r="D263">
+        <v>67</v>
+      </c>
+      <c r="E263" t="s">
+        <v>812</v>
+      </c>
+      <c r="F263">
+        <v>7009</v>
+      </c>
+      <c r="G263" t="s">
+        <v>16</v>
+      </c>
+      <c r="H263" t="s">
+        <v>680</v>
+      </c>
+      <c r="I263" t="s">
+        <v>597</v>
+      </c>
+      <c r="J263">
+        <v>19.5071286247817</v>
+      </c>
+      <c r="K263">
+        <v>-99.085931388194695</v>
+      </c>
+      <c r="L263" t="s">
+        <v>677</v>
+      </c>
+      <c r="M263" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>867</v>
+      </c>
+      <c r="B264" t="s">
+        <v>729</v>
+      </c>
+      <c r="C264">
+        <v>73</v>
+      </c>
+      <c r="D264">
+        <v>68</v>
+      </c>
+      <c r="E264" t="s">
+        <v>813</v>
+      </c>
+      <c r="F264" t="s">
+        <v>587</v>
+      </c>
+      <c r="G264" t="s">
+        <v>16</v>
+      </c>
+      <c r="H264" t="s">
+        <v>680</v>
+      </c>
+      <c r="I264" t="s">
+        <v>597</v>
+      </c>
+      <c r="J264">
+        <v>19.503819365520901</v>
+      </c>
+      <c r="K264">
+        <v>-99.077964988960403</v>
+      </c>
+      <c r="L264" t="s">
+        <v>677</v>
+      </c>
+      <c r="M264" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>867</v>
+      </c>
+      <c r="B265" t="s">
+        <v>730</v>
+      </c>
+      <c r="C265">
+        <v>73</v>
+      </c>
+      <c r="D265">
+        <v>69</v>
+      </c>
+      <c r="E265" t="s">
+        <v>814</v>
+      </c>
+      <c r="F265" t="s">
+        <v>593</v>
+      </c>
+      <c r="G265" t="s">
+        <v>16</v>
+      </c>
+      <c r="H265" t="s">
+        <v>178</v>
+      </c>
+      <c r="I265" t="s">
+        <v>597</v>
+      </c>
+      <c r="J265">
+        <v>19.4982680721875</v>
+      </c>
+      <c r="K265">
+        <v>-99.0642759104053</v>
+      </c>
+      <c r="L265" t="s">
+        <v>677</v>
+      </c>
+      <c r="M265" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>867</v>
+      </c>
+      <c r="B266" t="s">
+        <v>731</v>
+      </c>
+      <c r="C266">
+        <v>73</v>
+      </c>
+      <c r="D266">
+        <v>70</v>
+      </c>
+      <c r="E266" t="s">
+        <v>815</v>
+      </c>
+      <c r="F266" t="s">
+        <v>596</v>
+      </c>
+      <c r="G266" t="s">
+        <v>16</v>
+      </c>
+      <c r="H266" t="s">
+        <v>594</v>
+      </c>
+      <c r="I266" t="s">
+        <v>597</v>
+      </c>
+      <c r="J266">
+        <v>19.493863799214601</v>
+      </c>
+      <c r="K266">
+        <v>-99.053966727542999</v>
+      </c>
+      <c r="L266" t="s">
+        <v>677</v>
+      </c>
+      <c r="M266" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>867</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C267">
+        <v>73</v>
+      </c>
+      <c r="D267">
+        <v>71</v>
+      </c>
+      <c r="E267" t="s">
+        <v>816</v>
+      </c>
+      <c r="F267" t="s">
+        <v>600</v>
+      </c>
+      <c r="G267" t="s">
+        <v>16</v>
+      </c>
+      <c r="H267" t="s">
+        <v>594</v>
+      </c>
+      <c r="I267" t="s">
+        <v>597</v>
+      </c>
+      <c r="J267">
+        <v>19.4911807713892</v>
+      </c>
+      <c r="K267">
+        <v>-99.046602029454405</v>
+      </c>
+      <c r="L267" t="s">
+        <v>677</v>
+      </c>
+      <c r="M267" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>867</v>
+      </c>
+      <c r="B268" t="s">
+        <v>734</v>
+      </c>
+      <c r="C268">
+        <v>73</v>
+      </c>
+      <c r="D268">
+        <v>72</v>
+      </c>
+      <c r="E268" t="s">
+        <v>817</v>
+      </c>
+      <c r="F268" t="s">
+        <v>603</v>
+      </c>
+      <c r="G268" t="s">
+        <v>16</v>
+      </c>
+      <c r="H268" t="s">
+        <v>594</v>
+      </c>
+      <c r="I268" t="s">
+        <v>597</v>
+      </c>
+      <c r="J268">
+        <v>19.4873294113852</v>
+      </c>
+      <c r="K268">
+        <v>-99.038811528808594</v>
+      </c>
+      <c r="L268" t="s">
+        <v>677</v>
+      </c>
+      <c r="M268" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>867</v>
+      </c>
+      <c r="B269" t="s">
+        <v>852</v>
+      </c>
+      <c r="C269">
+        <v>73</v>
+      </c>
+      <c r="D269">
+        <v>73</v>
+      </c>
+      <c r="E269" t="s">
+        <v>818</v>
+      </c>
+      <c r="F269" t="s">
+        <v>609</v>
+      </c>
+      <c r="G269" t="s">
+        <v>38</v>
+      </c>
+      <c r="H269" t="s">
+        <v>607</v>
+      </c>
+      <c r="I269" t="s">
+        <v>597</v>
+      </c>
+      <c r="J269">
+        <v>19.479330952728201</v>
+      </c>
+      <c r="K269">
+        <v>-99.031662150457194</v>
+      </c>
+      <c r="L269" t="s">
+        <v>677</v>
+      </c>
+      <c r="M269" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>867</v>
+      </c>
+      <c r="B270" t="s">
+        <v>911</v>
+      </c>
+      <c r="C270">
+        <v>74</v>
+      </c>
+      <c r="D270">
+        <v>74</v>
+      </c>
+      <c r="E270" t="s">
+        <v>819</v>
+      </c>
+      <c r="F270" t="s">
+        <v>612</v>
+      </c>
+      <c r="G270" t="s">
+        <v>38</v>
+      </c>
+      <c r="H270" t="s">
+        <v>607</v>
+      </c>
+      <c r="I270" t="s">
+        <v>597</v>
+      </c>
+      <c r="J270">
+        <v>19.473040547188901</v>
+      </c>
+      <c r="K270">
+        <v>-99.035645701799197</v>
+      </c>
+      <c r="L270" t="s">
+        <v>677</v>
+      </c>
+      <c r="M270" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>867</v>
+      </c>
+      <c r="B271" t="s">
+        <v>735</v>
+      </c>
+      <c r="C271">
+        <v>74</v>
+      </c>
+      <c r="D271">
+        <v>75</v>
+      </c>
+      <c r="E271" t="s">
+        <v>820</v>
+      </c>
+      <c r="F271" t="s">
+        <v>615</v>
+      </c>
+      <c r="G271" t="s">
+        <v>16</v>
+      </c>
+      <c r="H271" t="s">
+        <v>607</v>
+      </c>
+      <c r="I271" t="s">
+        <v>597</v>
+      </c>
+      <c r="J271">
+        <v>19.466612377738699</v>
+      </c>
+      <c r="K271">
+        <v>-99.0373166530742</v>
+      </c>
+      <c r="L271" t="s">
+        <v>677</v>
+      </c>
+      <c r="M271" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>867</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C272">
+        <v>74</v>
+      </c>
+      <c r="D272">
+        <v>76</v>
+      </c>
+      <c r="E272" t="s">
+        <v>821</v>
+      </c>
+      <c r="F272" t="s">
+        <v>618</v>
+      </c>
+      <c r="G272" t="s">
+        <v>16</v>
+      </c>
+      <c r="H272" t="s">
+        <v>607</v>
+      </c>
+      <c r="I272" t="s">
+        <v>597</v>
+      </c>
+      <c r="J272">
+        <v>19.457169926331801</v>
+      </c>
+      <c r="K272">
+        <v>-99.038384743358307</v>
+      </c>
+      <c r="L272" t="s">
+        <v>677</v>
+      </c>
+      <c r="M272" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>867</v>
+      </c>
+      <c r="B273" t="s">
+        <v>736</v>
+      </c>
+      <c r="C273">
+        <v>74</v>
+      </c>
+      <c r="D273">
+        <v>77</v>
+      </c>
+      <c r="E273" t="s">
+        <v>822</v>
+      </c>
+      <c r="F273">
+        <v>7010</v>
+      </c>
+      <c r="G273" t="s">
+        <v>16</v>
+      </c>
+      <c r="H273" t="s">
+        <v>676</v>
+      </c>
+      <c r="I273" t="s">
+        <v>597</v>
+      </c>
+      <c r="J273">
+        <v>19.429710790780799</v>
+      </c>
+      <c r="K273">
+        <v>-99.052226970014402</v>
+      </c>
+      <c r="L273" t="s">
+        <v>677</v>
+      </c>
+      <c r="M273" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>867</v>
+      </c>
+      <c r="B274" t="s">
+        <v>855</v>
+      </c>
+      <c r="C274">
+        <v>74</v>
+      </c>
+      <c r="D274">
+        <v>78</v>
+      </c>
+      <c r="E274" t="s">
+        <v>823</v>
+      </c>
+      <c r="F274" t="s">
+        <v>590</v>
+      </c>
+      <c r="G274" t="s">
+        <v>16</v>
+      </c>
+      <c r="H274" t="s">
+        <v>680</v>
+      </c>
+      <c r="I274" t="s">
+        <v>597</v>
+      </c>
+      <c r="J274">
+        <v>19.422364593332301</v>
+      </c>
+      <c r="K274">
+        <v>-99.055499314247896</v>
+      </c>
+      <c r="L274" t="s">
+        <v>677</v>
+      </c>
+      <c r="M274" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>867</v>
+      </c>
+      <c r="B275" t="s">
+        <v>737</v>
+      </c>
+      <c r="C275">
+        <v>74</v>
+      </c>
+      <c r="D275">
+        <v>79</v>
+      </c>
+      <c r="E275" t="s">
+        <v>824</v>
+      </c>
+      <c r="F275" t="s">
+        <v>600</v>
+      </c>
+      <c r="G275" t="s">
+        <v>16</v>
+      </c>
+      <c r="H275" t="s">
+        <v>680</v>
+      </c>
+      <c r="I275" t="s">
+        <v>597</v>
+      </c>
+      <c r="J275">
+        <v>19.4119961559513</v>
+      </c>
+      <c r="K275">
+        <v>-99.056785753657607</v>
+      </c>
+      <c r="L275" t="s">
+        <v>677</v>
+      </c>
+      <c r="M275" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>867</v>
+      </c>
+      <c r="B276" t="s">
+        <v>738</v>
+      </c>
+      <c r="C276">
+        <v>74</v>
+      </c>
+      <c r="D276">
+        <v>80</v>
+      </c>
+      <c r="E276" t="s">
+        <v>825</v>
+      </c>
+      <c r="F276" t="s">
+        <v>606</v>
+      </c>
+      <c r="G276" t="s">
+        <v>16</v>
+      </c>
+      <c r="H276" t="s">
+        <v>680</v>
+      </c>
+      <c r="I276" t="s">
+        <v>597</v>
+      </c>
+      <c r="J276">
+        <v>19.404600095889499</v>
+      </c>
+      <c r="K276">
+        <v>-99.057587586537693</v>
+      </c>
+      <c r="L276" t="s">
+        <v>677</v>
+      </c>
+      <c r="M276" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>867</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C277">
+        <v>74</v>
+      </c>
+      <c r="D277">
+        <v>81</v>
+      </c>
+      <c r="E277" t="s">
+        <v>826</v>
+      </c>
+      <c r="F277" t="s">
+        <v>612</v>
+      </c>
+      <c r="G277" t="s">
+        <v>38</v>
+      </c>
+      <c r="H277" t="s">
+        <v>178</v>
+      </c>
+      <c r="I277" t="s">
+        <v>597</v>
+      </c>
+      <c r="J277">
+        <v>19.398359975190399</v>
+      </c>
+      <c r="K277">
+        <v>-99.057931890772807</v>
+      </c>
+      <c r="L277" t="s">
+        <v>677</v>
+      </c>
+      <c r="M277" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>867</v>
+      </c>
+      <c r="B278" t="s">
+        <v>740</v>
+      </c>
+      <c r="C278">
+        <v>74</v>
+      </c>
+      <c r="D278">
+        <v>82</v>
+      </c>
+      <c r="E278" t="s">
+        <v>827</v>
+      </c>
+      <c r="F278" t="s">
+        <v>618</v>
+      </c>
+      <c r="G278" t="s">
+        <v>16</v>
+      </c>
+      <c r="H278" t="s">
+        <v>594</v>
+      </c>
+      <c r="I278" t="s">
+        <v>597</v>
+      </c>
+      <c r="J278">
+        <v>19.389646028966901</v>
+      </c>
+      <c r="K278">
+        <v>-99.059975260856703</v>
+      </c>
+      <c r="L278" t="s">
+        <v>677</v>
+      </c>
+      <c r="M278" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>867</v>
+      </c>
+      <c r="B279" t="s">
+        <v>741</v>
+      </c>
+      <c r="C279">
+        <v>74</v>
+      </c>
+      <c r="D279">
+        <v>83</v>
+      </c>
+      <c r="E279" t="s">
+        <v>828</v>
+      </c>
+      <c r="F279" t="s">
+        <v>587</v>
+      </c>
+      <c r="G279" t="s">
+        <v>16</v>
+      </c>
+      <c r="H279" t="s">
+        <v>607</v>
+      </c>
+      <c r="I279" t="s">
+        <v>597</v>
+      </c>
+      <c r="J279">
+        <v>19.382069242510799</v>
+      </c>
+      <c r="K279">
+        <v>-99.060637255940307</v>
+      </c>
+      <c r="L279" t="s">
+        <v>677</v>
+      </c>
+      <c r="M279" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>867</v>
+      </c>
+      <c r="B280" t="s">
+        <v>742</v>
+      </c>
+      <c r="C280">
+        <v>74</v>
+      </c>
+      <c r="D280">
+        <v>84</v>
+      </c>
+      <c r="E280" t="s">
+        <v>829</v>
+      </c>
+      <c r="F280" t="s">
+        <v>590</v>
+      </c>
+      <c r="G280" t="s">
+        <v>16</v>
+      </c>
+      <c r="H280" t="s">
+        <v>607</v>
+      </c>
+      <c r="I280" t="s">
+        <v>597</v>
+      </c>
+      <c r="J280">
+        <v>19.376718384378599</v>
+      </c>
+      <c r="K280">
+        <v>-99.060125078803395</v>
+      </c>
+      <c r="L280" t="s">
+        <v>677</v>
+      </c>
+      <c r="M280" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>867</v>
+      </c>
+      <c r="B281" t="s">
+        <v>743</v>
+      </c>
+      <c r="C281">
+        <v>74</v>
+      </c>
+      <c r="D281">
+        <v>85</v>
+      </c>
+      <c r="E281" t="s">
+        <v>830</v>
+      </c>
+      <c r="F281" t="s">
+        <v>596</v>
+      </c>
+      <c r="G281" t="s">
+        <v>16</v>
+      </c>
+      <c r="H281" t="s">
+        <v>607</v>
+      </c>
+      <c r="I281" t="s">
+        <v>597</v>
+      </c>
+      <c r="J281">
+        <v>19.363381099195301</v>
+      </c>
+      <c r="K281">
+        <v>-99.057438561899602</v>
+      </c>
+      <c r="L281" t="s">
+        <v>677</v>
+      </c>
+      <c r="M281" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>867</v>
+      </c>
+      <c r="B282" t="s">
+        <v>744</v>
+      </c>
+      <c r="C282">
+        <v>74</v>
+      </c>
+      <c r="D282">
+        <v>86</v>
+      </c>
+      <c r="E282" t="s">
+        <v>831</v>
+      </c>
+      <c r="F282" t="s">
+        <v>603</v>
+      </c>
+      <c r="G282" t="s">
+        <v>16</v>
+      </c>
+      <c r="H282" t="s">
+        <v>676</v>
+      </c>
+      <c r="I282" t="s">
+        <v>597</v>
+      </c>
+      <c r="J282">
+        <v>19.3535104905475</v>
+      </c>
+      <c r="K282">
+        <v>-99.059656045022194</v>
+      </c>
+      <c r="L282" t="s">
+        <v>677</v>
+      </c>
+      <c r="M282" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>867</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C283">
+        <v>74</v>
+      </c>
+      <c r="D283">
+        <v>87</v>
+      </c>
+      <c r="E283" t="s">
+        <v>832</v>
+      </c>
+      <c r="F283" t="s">
+        <v>609</v>
+      </c>
+      <c r="G283" t="s">
+        <v>16</v>
+      </c>
+      <c r="H283" t="s">
+        <v>680</v>
+      </c>
+      <c r="I283" t="s">
+        <v>597</v>
+      </c>
+      <c r="J283">
+        <v>19.345085760201702</v>
+      </c>
+      <c r="K283">
+        <v>-99.062654986321107</v>
+      </c>
+      <c r="L283" t="s">
+        <v>677</v>
+      </c>
+      <c r="M283" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>867</v>
+      </c>
+      <c r="B284" t="s">
+        <v>853</v>
+      </c>
+      <c r="C284">
+        <v>74</v>
+      </c>
+      <c r="D284">
+        <v>88</v>
+      </c>
+      <c r="E284" t="s">
+        <v>833</v>
+      </c>
+      <c r="F284" t="s">
+        <v>612</v>
+      </c>
+      <c r="G284" t="s">
+        <v>94</v>
+      </c>
+      <c r="H284" t="s">
+        <v>680</v>
+      </c>
+      <c r="I284" t="s">
+        <v>597</v>
+      </c>
+      <c r="J284">
+        <v>19.339142895848902</v>
+      </c>
+      <c r="K284">
+        <v>-99.064254049158606</v>
+      </c>
+      <c r="L284" t="s">
+        <v>677</v>
+      </c>
+      <c r="M284" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>867</v>
+      </c>
+      <c r="B285" t="s">
+        <v>417</v>
+      </c>
+      <c r="C285">
+        <v>74</v>
+      </c>
+      <c r="D285">
+        <v>89</v>
+      </c>
+      <c r="E285" t="s">
+        <v>834</v>
+      </c>
+      <c r="F285" t="s">
+        <v>618</v>
+      </c>
+      <c r="G285" t="s">
+        <v>38</v>
+      </c>
+      <c r="H285" t="s">
+        <v>680</v>
+      </c>
+      <c r="I285" t="s">
+        <v>597</v>
+      </c>
+      <c r="J285">
+        <v>19.328377433760799</v>
+      </c>
+      <c r="K285">
+        <v>-99.067599524439004</v>
+      </c>
+      <c r="L285" t="s">
+        <v>677</v>
+      </c>
+      <c r="M285" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>867</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C286">
+        <v>74</v>
+      </c>
+      <c r="D286">
+        <v>90</v>
+      </c>
+      <c r="E286" t="s">
+        <v>835</v>
+      </c>
+      <c r="F286" t="s">
+        <v>587</v>
+      </c>
+      <c r="G286" t="s">
+        <v>16</v>
+      </c>
+      <c r="H286" t="s">
+        <v>680</v>
+      </c>
+      <c r="I286" t="s">
+        <v>597</v>
+      </c>
+      <c r="J286">
+        <v>19.3176186017939</v>
+      </c>
+      <c r="K286">
+        <v>-99.074517526082403</v>
+      </c>
+      <c r="L286" t="s">
+        <v>677</v>
+      </c>
+      <c r="M286" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
+        <v>910</v>
+      </c>
+      <c r="C287">
+        <v>75</v>
+      </c>
+      <c r="D287">
+        <v>91</v>
+      </c>
+      <c r="J287">
+        <v>19.2783759089616</v>
+      </c>
+      <c r="K287">
+        <v>-99.168866914789504</v>
+      </c>
+      <c r="M287" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
+        <v>909</v>
+      </c>
+      <c r="C288">
+        <v>75</v>
+      </c>
+      <c r="D288">
+        <v>92</v>
+      </c>
+      <c r="J288">
+        <v>19.263969947301199</v>
+      </c>
+      <c r="K288">
+        <v>-99.1724350156056</v>
+      </c>
+      <c r="M288" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
+        <v>908</v>
+      </c>
+      <c r="C289">
+        <v>75</v>
+      </c>
+      <c r="D289">
+        <v>93</v>
+      </c>
+      <c r="J289">
+        <v>19.245582183004</v>
+      </c>
+      <c r="K289">
+        <v>-99.170618648717195</v>
+      </c>
+      <c r="M289" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>907</v>
+      </c>
+      <c r="C290">
+        <v>75</v>
+      </c>
+      <c r="D290">
+        <v>94</v>
+      </c>
+      <c r="J290">
+        <v>19.2352868537847</v>
+      </c>
+      <c r="K290">
+        <v>-99.157516110653901</v>
+      </c>
+      <c r="M290" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>906</v>
+      </c>
+      <c r="C291">
+        <v>75</v>
+      </c>
+      <c r="D291">
+        <v>95</v>
+      </c>
+      <c r="J291">
+        <v>19.225200569254302</v>
+      </c>
+      <c r="K291">
+        <v>-99.152895625913402</v>
+      </c>
+      <c r="M291" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>905</v>
+      </c>
+      <c r="C292">
+        <v>75</v>
+      </c>
+      <c r="D292">
+        <v>96</v>
+      </c>
+      <c r="J292">
+        <v>19.2119252444861</v>
+      </c>
+      <c r="K292">
+        <v>-99.154679884943107</v>
+      </c>
+      <c r="M292" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
+        <v>900</v>
+      </c>
+      <c r="C293">
+        <v>75</v>
+      </c>
+      <c r="D293">
+        <v>97</v>
+      </c>
+      <c r="J293">
+        <v>19.200229103802599</v>
+      </c>
+      <c r="K293">
+        <v>-99.142195107405698</v>
+      </c>
+      <c r="M293" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>899</v>
+      </c>
+      <c r="C294">
+        <v>75</v>
+      </c>
+      <c r="D294">
+        <v>98</v>
+      </c>
+      <c r="J294">
+        <v>19.198808560435399</v>
+      </c>
+      <c r="K294">
+        <v>-99.122319491152496</v>
+      </c>
+      <c r="M294" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>867</v>
+      </c>
+      <c r="B295" t="s">
+        <v>880</v>
+      </c>
+      <c r="C295">
+        <v>75</v>
+      </c>
+      <c r="D295">
+        <v>99</v>
+      </c>
+      <c r="J295">
+        <v>19.199132533719698</v>
+      </c>
+      <c r="K295">
+        <v>-99.104677957666695</v>
+      </c>
+      <c r="M295" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>879</v>
+      </c>
+      <c r="C296">
+        <v>75</v>
+      </c>
+      <c r="D296">
+        <v>100</v>
+      </c>
+      <c r="J296">
+        <v>19.189068833842601</v>
+      </c>
+      <c r="K296">
+        <v>-99.078842008919196</v>
+      </c>
+      <c r="M296" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
+        <v>878</v>
+      </c>
+      <c r="C297">
+        <v>75</v>
+      </c>
+      <c r="D297">
+        <v>101</v>
+      </c>
+      <c r="J297">
+        <v>19.184082765174399</v>
+      </c>
+      <c r="K297">
+        <v>-99.043390933326606</v>
+      </c>
+      <c r="M297" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
+        <v>872</v>
+      </c>
+      <c r="C298">
+        <v>75</v>
+      </c>
+      <c r="D298">
+        <v>102</v>
+      </c>
+      <c r="E298" t="s">
+        <v>835</v>
+      </c>
+      <c r="F298" t="s">
+        <v>587</v>
+      </c>
+      <c r="G298" t="s">
+        <v>16</v>
+      </c>
+      <c r="H298" t="s">
+        <v>871</v>
+      </c>
+      <c r="I298">
+        <v>2000</v>
+      </c>
+      <c r="J298">
+        <v>19.192813674694701</v>
+      </c>
+      <c r="K298">
+        <v>-99.022856468650005</v>
+      </c>
+      <c r="L298" t="s">
+        <v>677</v>
+      </c>
+      <c r="M298" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
+        <v>873</v>
+      </c>
+      <c r="C299">
+        <v>75</v>
+      </c>
+      <c r="D299">
+        <v>103</v>
+      </c>
+      <c r="J299">
+        <v>19.200619215392599</v>
+      </c>
+      <c r="K299">
+        <v>-99.008349313466198</v>
+      </c>
+      <c r="M299" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
+        <v>874</v>
+      </c>
+      <c r="C300">
+        <v>75</v>
+      </c>
+      <c r="D300">
+        <v>104</v>
+      </c>
+      <c r="J300">
+        <v>19.217100508681501</v>
+      </c>
+      <c r="K300">
+        <v>-98.993008891107095</v>
+      </c>
+      <c r="M300" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
+        <v>875</v>
+      </c>
+      <c r="C301">
+        <v>75</v>
+      </c>
+      <c r="D301">
+        <v>105</v>
+      </c>
+      <c r="J301">
+        <v>19.236463090878601</v>
+      </c>
+      <c r="K301">
+        <v>-98.994704509379204</v>
+      </c>
+      <c r="M301" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
+        <v>876</v>
+      </c>
+      <c r="C302">
+        <v>75</v>
+      </c>
+      <c r="D302">
+        <v>106</v>
+      </c>
+      <c r="J302">
+        <v>19.2499098672765</v>
+      </c>
+      <c r="K302">
+        <v>-99.004720405672202</v>
+      </c>
+      <c r="M302" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
+        <v>881</v>
+      </c>
+      <c r="C303">
+        <v>75</v>
+      </c>
+      <c r="D303">
+        <v>107</v>
+      </c>
+      <c r="J303">
+        <v>19.266274022682701</v>
+      </c>
+      <c r="K303">
+        <v>-98.997791839983705</v>
+      </c>
+      <c r="M303" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
+        <v>885</v>
+      </c>
+      <c r="C304">
+        <v>75</v>
+      </c>
+      <c r="D304">
+        <v>108</v>
+      </c>
+      <c r="J304">
+        <v>19.277738697165599</v>
+      </c>
+      <c r="K304">
+        <v>-99.009759768554801</v>
+      </c>
+      <c r="M304" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="305" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
+        <v>882</v>
+      </c>
+      <c r="C305">
+        <v>75</v>
+      </c>
+      <c r="D305">
+        <v>109</v>
+      </c>
+      <c r="J305">
+        <v>19.286909975531401</v>
+      </c>
+      <c r="K305">
+        <v>-99.013966943203698</v>
+      </c>
+      <c r="M305" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="306" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>877</v>
+      </c>
+      <c r="C306">
+        <v>75</v>
+      </c>
+      <c r="D306">
+        <v>110</v>
+      </c>
+      <c r="E306">
+        <v>102</v>
+      </c>
+      <c r="J306">
+        <v>19.285926252752901</v>
+      </c>
+      <c r="K306">
+        <v>-99.014258995685907</v>
+      </c>
+      <c r="M306" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="307" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
+        <v>883</v>
+      </c>
+      <c r="C307">
+        <v>75</v>
+      </c>
+      <c r="D307">
+        <v>111</v>
+      </c>
+      <c r="J307">
+        <v>19.294279905064698</v>
+      </c>
+      <c r="K307">
+        <v>-98.997904044781507</v>
+      </c>
+      <c r="M307" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="308" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
+        <v>884</v>
+      </c>
+      <c r="C308">
+        <v>75</v>
+      </c>
+      <c r="D308">
+        <v>112</v>
+      </c>
+      <c r="J308">
+        <v>19.307844363033599</v>
+      </c>
+      <c r="K308">
+        <v>-98.964281356000001</v>
+      </c>
+      <c r="M308" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="309" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
+        <v>886</v>
+      </c>
+      <c r="C309">
+        <v>75</v>
+      </c>
+      <c r="D309">
+        <v>113</v>
+      </c>
+      <c r="J309">
+        <v>19.321866942561201</v>
+      </c>
+      <c r="K309">
+        <v>-98.959116036781097</v>
+      </c>
+      <c r="M309" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="310" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
+        <v>887</v>
+      </c>
+      <c r="C310">
+        <v>75</v>
+      </c>
+      <c r="D310">
+        <v>114</v>
+      </c>
+      <c r="J310">
+        <v>19.332924444968</v>
+      </c>
+      <c r="K310">
+        <v>-98.952320356305407</v>
+      </c>
+      <c r="M310" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="311" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
+        <v>888</v>
+      </c>
+      <c r="C311">
+        <v>75</v>
+      </c>
+      <c r="D311">
+        <v>115</v>
+      </c>
+      <c r="J311">
+        <v>19.3505435817377</v>
+      </c>
+      <c r="K311">
+        <v>-98.960969024347094</v>
+      </c>
+      <c r="M311" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="312" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
+        <v>889</v>
+      </c>
+      <c r="C312">
+        <v>75</v>
+      </c>
+      <c r="D312">
+        <v>116</v>
+      </c>
+      <c r="J312">
+        <v>19.3618964389536</v>
+      </c>
+      <c r="K312">
+        <v>-98.963931614591502</v>
+      </c>
+      <c r="M312" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="313" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
+        <v>890</v>
+      </c>
+      <c r="C313">
+        <v>75</v>
+      </c>
+      <c r="D313">
+        <v>117</v>
+      </c>
+      <c r="J313">
+        <v>19.366183425793398</v>
+      </c>
+      <c r="K313">
+        <v>-98.964001967767302</v>
+      </c>
+      <c r="M313" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="314" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
+        <v>891</v>
+      </c>
+      <c r="C314">
+        <v>75</v>
+      </c>
+      <c r="D314">
+        <v>118</v>
+      </c>
+      <c r="J314">
+        <v>19.370792000260401</v>
+      </c>
+      <c r="K314">
+        <v>-98.964890308535402</v>
+      </c>
+      <c r="M314" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="315" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
+        <v>892</v>
+      </c>
+      <c r="C315">
+        <v>75</v>
+      </c>
+      <c r="D315">
+        <v>119</v>
+      </c>
+      <c r="J315">
+        <v>19.376804340238301</v>
+      </c>
+      <c r="K315">
+        <v>-98.968382834599097</v>
+      </c>
+      <c r="M315" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="316" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
+        <v>893</v>
+      </c>
+      <c r="C316">
+        <v>75</v>
+      </c>
+      <c r="D316">
+        <v>120</v>
+      </c>
+      <c r="J316">
+        <v>19.385705175179101</v>
+      </c>
+      <c r="K316">
+        <v>-98.973523511177902</v>
+      </c>
+      <c r="M316" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="317" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B317" t="s">
+        <v>890</v>
+      </c>
+      <c r="C317">
+        <v>75</v>
+      </c>
+      <c r="D317">
+        <v>121</v>
+      </c>
+      <c r="J317">
+        <v>19.396066905660799</v>
+      </c>
+      <c r="K317">
+        <v>-98.979426763274503</v>
+      </c>
+      <c r="M317" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="318" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
+        <v>894</v>
+      </c>
+      <c r="C318">
+        <v>75</v>
+      </c>
+      <c r="D318">
+        <v>122</v>
+      </c>
+      <c r="J318">
+        <v>19.414264939337102</v>
+      </c>
+      <c r="K318">
+        <v>-98.989889007152897</v>
+      </c>
+      <c r="M318" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="319" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B319" t="s">
+        <v>895</v>
+      </c>
+      <c r="C319">
+        <v>75</v>
+      </c>
+      <c r="D319">
+        <v>123</v>
+      </c>
+      <c r="J319">
+        <v>19.419054886979001</v>
+      </c>
+      <c r="K319">
+        <v>-99.007483839675999</v>
+      </c>
+      <c r="M319" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="320" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
+        <v>896</v>
+      </c>
+      <c r="C320">
+        <v>75</v>
+      </c>
+      <c r="D320">
+        <v>124</v>
+      </c>
+      <c r="J320">
+        <v>19.4227212947136</v>
+      </c>
+      <c r="K320">
+        <v>-99.021729685917407</v>
+      </c>
+      <c r="M320" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="321" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
+        <v>897</v>
+      </c>
+      <c r="C321">
+        <v>75</v>
+      </c>
+      <c r="D321">
+        <v>125</v>
+      </c>
+      <c r="J321">
+        <v>19.425360205192099</v>
+      </c>
+      <c r="K321">
+        <v>-99.032278775773307</v>
+      </c>
+      <c r="M321" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="322" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>898</v>
+      </c>
+      <c r="C322">
+        <v>75</v>
+      </c>
+      <c r="D322">
+        <v>126</v>
+      </c>
+      <c r="J322">
+        <v>19.430861617669599</v>
+      </c>
+      <c r="K322">
+        <v>-99.053183219789801</v>
+      </c>
+      <c r="M322" t="s">
+        <v>914</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K196" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="45">
-    <mergeCell ref="M188:M190"/>
-    <mergeCell ref="M160:M161"/>
+  <autoFilter ref="A1:K322" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="39">
+    <mergeCell ref="N188:N190"/>
     <mergeCell ref="N160:N161"/>
-    <mergeCell ref="M162:M163"/>
-    <mergeCell ref="M166:M167"/>
-    <mergeCell ref="M181:M183"/>
-    <mergeCell ref="M147:M148"/>
-    <mergeCell ref="N148:N149"/>
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="M154:M155"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="M124:M125"/>
-    <mergeCell ref="M128:M129"/>
-    <mergeCell ref="M130:M131"/>
-    <mergeCell ref="M134:M135"/>
-    <mergeCell ref="M144:M145"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="M109:M110"/>
-    <mergeCell ref="M120:M121"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="M98:M100"/>
-    <mergeCell ref="M101:M102"/>
-    <mergeCell ref="N102:N103"/>
-    <mergeCell ref="M79:M81"/>
-    <mergeCell ref="M82:M86"/>
-    <mergeCell ref="M87:M88"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="M71:M72"/>
-    <mergeCell ref="M75:M76"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N162:N163"/>
+    <mergeCell ref="N166:N167"/>
+    <mergeCell ref="N181:N183"/>
+    <mergeCell ref="N147:N148"/>
+    <mergeCell ref="N151:N152"/>
+    <mergeCell ref="N154:N155"/>
+    <mergeCell ref="N157:N158"/>
+    <mergeCell ref="N124:N125"/>
+    <mergeCell ref="N128:N129"/>
+    <mergeCell ref="N130:N131"/>
+    <mergeCell ref="N134:N135"/>
+    <mergeCell ref="N144:N145"/>
+    <mergeCell ref="N104:N105"/>
+    <mergeCell ref="N106:N107"/>
+    <mergeCell ref="N109:N110"/>
+    <mergeCell ref="N120:N121"/>
+    <mergeCell ref="N122:N123"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="N101:N102"/>
+    <mergeCell ref="N79:N81"/>
+    <mergeCell ref="N82:N86"/>
+    <mergeCell ref="N87:N88"/>
+    <mergeCell ref="N90:N91"/>
+    <mergeCell ref="N92:N93"/>
+    <mergeCell ref="N71:N72"/>
+    <mergeCell ref="N75:N76"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="N63:N64"/>
     <mergeCell ref="N65:N66"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="N20:N21"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D61F9FF-1099-874D-861D-4522CE1B5818}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A14F07-4ABF-0449-8FED-10274A7ADC0A}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J2" sqref="J2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>622</v>
+      </c>
+      <c r="I1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J1" t="s">
+        <v>623</v>
+      </c>
+      <c r="K1" t="s">
+        <v>624</v>
+      </c>
+      <c r="L1" t="s">
+        <v>625</v>
+      </c>
+      <c r="M1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C2">
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <v>91</v>
+      </c>
+      <c r="J2">
+        <v>19.24522095</v>
+      </c>
+      <c r="K2">
+        <v>-99.241298909999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C3">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>92</v>
+      </c>
+      <c r="J3">
+        <v>19.22244967</v>
+      </c>
+      <c r="K3">
+        <v>-99.200923410000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C4">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>93</v>
+      </c>
+      <c r="J4">
+        <v>19.216584529999999</v>
+      </c>
+      <c r="K4">
+        <v>-99.181187019999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>901</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>94</v>
+      </c>
+      <c r="J5">
+        <v>19.208076049999999</v>
+      </c>
+      <c r="K5">
+        <v>-99.16069985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D61F9FF-1099-874D-861D-4522CE1B5818}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -10424,8 +16311,124 @@
         <v>24.5</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>867</v>
+      </c>
+      <c r="B14">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>856</v>
+      </c>
+      <c r="D14">
+        <v>2012</v>
+      </c>
+      <c r="E14" t="s">
+        <v>869</v>
+      </c>
+      <c r="F14" t="s">
+        <v>870</v>
+      </c>
+      <c r="G14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>867</v>
+      </c>
+      <c r="B15">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>857</v>
+      </c>
+      <c r="D15">
+        <v>2012</v>
+      </c>
+      <c r="E15" t="s">
+        <v>840</v>
+      </c>
+      <c r="F15" t="s">
+        <v>841</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>867</v>
+      </c>
+      <c r="B16">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>859</v>
+      </c>
+      <c r="D16">
+        <v>2012</v>
+      </c>
+      <c r="E16" t="s">
+        <v>861</v>
+      </c>
+      <c r="F16" t="s">
+        <v>860</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>867</v>
+      </c>
+      <c r="B17">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>858</v>
+      </c>
+      <c r="D17">
+        <v>2012</v>
+      </c>
+      <c r="E17" t="s">
+        <v>863</v>
+      </c>
+      <c r="F17" t="s">
+        <v>862</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>867</v>
+      </c>
+      <c r="B18">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>868</v>
+      </c>
+      <c r="D18">
+        <v>2012</v>
+      </c>
+      <c r="E18" t="s">
+        <v>841</v>
+      </c>
+      <c r="F18" t="s">
+        <v>841</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/ETL/Data/data.xlsx
+++ b/ETL/Data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galigaribaldi/Documents/PPropios/API Tren/Apimetro/ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A85984F2-515D-1B46-AA24-14177C5AE9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E762CC51-0BFB-F149-9769-446DE9C48BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75360" yWindow="2480" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estacion" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,14 @@
     <sheet name="Linea" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estacion!$A$1:$K$322</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estacion!$A$1:$K$340</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="952">
   <si>
     <t>SISTEMA</t>
   </si>
@@ -2767,10 +2766,121 @@
     <t>Peñòn Texcoco/Periférico</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
     <t>Anillar</t>
+  </si>
+  <si>
+    <t>Via</t>
+  </si>
+  <si>
+    <t>EXISTE</t>
+  </si>
+  <si>
+    <t>Manuel Ávila Camacho</t>
+  </si>
+  <si>
+    <t>Hospital General Santa Mónica</t>
+  </si>
+  <si>
+    <t>Belém de los Padres</t>
+  </si>
+  <si>
+    <t>Mario de Colín</t>
+  </si>
+  <si>
+    <t>Cumbres de Acutzingo</t>
+  </si>
+  <si>
+    <t>Valle Dorado</t>
+  </si>
+  <si>
+    <t>Radial Toltecas</t>
+  </si>
+  <si>
+    <t>Casa 29</t>
+  </si>
+  <si>
+    <t>Carretera a Querétaro</t>
+  </si>
+  <si>
+    <t>Fernando Montes de Oca</t>
+  </si>
+  <si>
+    <t>Agustín Melgar</t>
+  </si>
+  <si>
+    <t>San Rafael</t>
+  </si>
+  <si>
+    <t>Tlayacampa</t>
+  </si>
+  <si>
+    <t>Prolongación Norte 1</t>
+  </si>
+  <si>
+    <t>Vainilla</t>
+  </si>
+  <si>
+    <t>Tultilan</t>
+  </si>
+  <si>
+    <t>Periférico Exterior Lechería</t>
+  </si>
+  <si>
+    <t>Vidriería</t>
+  </si>
+  <si>
+    <t>Chilpan</t>
+  </si>
+  <si>
+    <t>Recursos Hidráulicos</t>
+  </si>
+  <si>
+    <t>Cocem</t>
+  </si>
+  <si>
+    <t>Periférico Exterior/Buenavista</t>
+  </si>
+  <si>
+    <t>Periférico Exterior/Tultitlán</t>
+  </si>
+  <si>
+    <t>Bello Horizonte</t>
+  </si>
+  <si>
+    <t>San Mateo</t>
+  </si>
+  <si>
+    <t>Mariscala Real del Bosque</t>
+  </si>
+  <si>
+    <t>Villas de San José</t>
+  </si>
+  <si>
+    <t>Coacoalco</t>
+  </si>
+  <si>
+    <t>Bosques del Valle</t>
+  </si>
+  <si>
+    <t>Héroes</t>
+  </si>
+  <si>
+    <t>Las Flores</t>
+  </si>
+  <si>
+    <t>Eje 8</t>
+  </si>
+  <si>
+    <t>Hispánoamericana</t>
+  </si>
+  <si>
+    <t>Periférico Exterior/Ecatepec</t>
+  </si>
+  <si>
+    <t>Parque Héroes Primera</t>
+  </si>
+  <si>
+    <t>Periférico Exterior/Circuito Exterior Mexiquense</t>
   </si>
 </sst>
 </file>
@@ -2812,10 +2922,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2824,7 +2943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2832,14 +2951,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3136,10 +3256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P322"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q359"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N331" sqref="N331:N359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3152,7 +3273,7 @@
     <col min="11" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3190,10 +3311,13 @@
         <v>625</v>
       </c>
       <c r="M1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>914</v>
+      </c>
+      <c r="N1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3233,8 +3357,11 @@
       <c r="M2" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3274,8 +3401,11 @@
       <c r="M3" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3315,8 +3445,11 @@
       <c r="M4" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3356,8 +3489,11 @@
       <c r="M5" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3397,8 +3533,11 @@
       <c r="M6" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3438,8 +3577,11 @@
       <c r="M7" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3479,11 +3621,14 @@
       <c r="M8" t="s">
         <v>866</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3523,9 +3668,12 @@
       <c r="M9" t="s">
         <v>866</v>
       </c>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -3565,11 +3713,14 @@
       <c r="M10" t="s">
         <v>866</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3609,9 +3760,12 @@
       <c r="M11" t="s">
         <v>866</v>
       </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3651,11 +3805,14 @@
       <c r="M12" t="s">
         <v>866</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3695,9 +3852,12 @@
       <c r="M13" t="s">
         <v>866</v>
       </c>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3737,8 +3897,11 @@
       <c r="M14" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3778,8 +3941,11 @@
       <c r="M15" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3819,8 +3985,11 @@
       <c r="M16" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3860,8 +4029,11 @@
       <c r="M17" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3901,11 +4073,14 @@
       <c r="M18" t="s">
         <v>866</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3945,9 +4120,12 @@
       <c r="M19" t="s">
         <v>866</v>
       </c>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3987,14 +4165,17 @@
       <c r="M20" t="s">
         <v>866</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4034,10 +4215,13 @@
       <c r="M21" t="s">
         <v>866</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -4077,8 +4261,11 @@
       <c r="M22" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -4118,8 +4305,11 @@
       <c r="M23" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -4159,8 +4349,11 @@
       <c r="M24" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -4200,8 +4393,11 @@
       <c r="M25" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4241,8 +4437,11 @@
       <c r="M26" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -4282,8 +4481,11 @@
       <c r="M27" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -4323,8 +4525,11 @@
       <c r="M28" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -4364,8 +4569,11 @@
       <c r="M29" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -4405,8 +4613,11 @@
       <c r="M30" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -4446,8 +4657,11 @@
       <c r="M31" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -4487,8 +4701,11 @@
       <c r="M32" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -4528,8 +4745,11 @@
       <c r="M33" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4569,8 +4789,11 @@
       <c r="M34" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -4610,8 +4833,11 @@
       <c r="M35" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -4651,8 +4877,11 @@
       <c r="M36" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -4692,8 +4921,11 @@
       <c r="M37" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -4733,8 +4965,11 @@
       <c r="M38" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -4774,8 +5009,11 @@
       <c r="M39" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -4815,8 +5053,11 @@
       <c r="M40" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -4856,8 +5097,11 @@
       <c r="M41" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -4897,8 +5141,11 @@
       <c r="M42" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -4938,8 +5185,11 @@
       <c r="M43" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -4979,8 +5229,11 @@
       <c r="M44" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -5020,8 +5273,11 @@
       <c r="M45" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -5061,8 +5317,11 @@
       <c r="M46" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -5102,8 +5361,11 @@
       <c r="M47" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -5143,8 +5405,11 @@
       <c r="M48" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -5184,11 +5449,14 @@
       <c r="M49" t="s">
         <v>866</v>
       </c>
-      <c r="N49" s="4" t="s">
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -5228,9 +5496,12 @@
       <c r="M50" t="s">
         <v>866</v>
       </c>
-      <c r="N50" s="4"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" s="5"/>
+    </row>
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -5270,8 +5541,11 @@
       <c r="M51" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -5311,8 +5585,11 @@
       <c r="M52" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -5352,8 +5629,11 @@
       <c r="M53" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -5393,8 +5673,11 @@
       <c r="M54" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -5434,8 +5717,11 @@
       <c r="M55" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -5475,11 +5761,14 @@
       <c r="M56" t="s">
         <v>866</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -5519,9 +5808,12 @@
       <c r="M57" t="s">
         <v>866</v>
       </c>
-      <c r="N57" s="4"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" s="5"/>
+    </row>
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -5561,8 +5853,11 @@
       <c r="M58" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -5602,8 +5897,11 @@
       <c r="M59" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -5643,8 +5941,11 @@
       <c r="M60" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -5684,8 +5985,11 @@
       <c r="M61" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -5725,8 +6029,11 @@
       <c r="M62" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -5766,11 +6073,14 @@
       <c r="M63" t="s">
         <v>866</v>
       </c>
-      <c r="N63" s="4" t="s">
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -5810,9 +6120,12 @@
       <c r="M64" t="s">
         <v>866</v>
       </c>
-      <c r="N64" s="4"/>
-    </row>
-    <row r="65" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" s="5"/>
+    </row>
+    <row r="65" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -5852,17 +6165,20 @@
       <c r="M65" t="s">
         <v>866</v>
       </c>
-      <c r="N65" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="O65" s="2" t="s">
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" s="5" t="s">
         <v>626</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -5902,11 +6218,14 @@
       <c r="M66" t="s">
         <v>866</v>
       </c>
-      <c r="N66" s="4"/>
-      <c r="O66" s="2"/>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" s="5"/>
       <c r="P66" s="2"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -5946,8 +6265,11 @@
       <c r="M67" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -5987,8 +6309,11 @@
       <c r="M68" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -6028,8 +6353,11 @@
       <c r="M69" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -6069,8 +6397,11 @@
       <c r="M70" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -6110,11 +6441,14 @@
       <c r="M71" t="s">
         <v>866</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -6154,9 +6488,12 @@
       <c r="M72" t="s">
         <v>866</v>
       </c>
-      <c r="N72" s="4"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" s="5"/>
+    </row>
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -6196,8 +6533,11 @@
       <c r="M73" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -6237,8 +6577,11 @@
       <c r="M74" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -6278,11 +6621,14 @@
       <c r="M75" t="s">
         <v>866</v>
       </c>
-      <c r="N75" s="4" t="s">
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -6322,9 +6668,12 @@
       <c r="M76" t="s">
         <v>866</v>
       </c>
-      <c r="N76" s="4"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" s="5"/>
+    </row>
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -6364,8 +6713,11 @@
       <c r="M77" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -6405,8 +6757,11 @@
       <c r="M78" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -6446,11 +6801,14 @@
       <c r="M79" t="s">
         <v>866</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" s="6" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -6490,9 +6848,12 @@
       <c r="M80" t="s">
         <v>866</v>
       </c>
-      <c r="N80" s="5"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80" s="6"/>
+    </row>
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -6532,9 +6893,12 @@
       <c r="M81" t="s">
         <v>866</v>
       </c>
-      <c r="N81" s="5"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -6574,11 +6938,14 @@
       <c r="M82" t="s">
         <v>866</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" s="6" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -6618,9 +6985,12 @@
       <c r="M83" t="s">
         <v>866</v>
       </c>
-      <c r="N83" s="5"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -6660,9 +7030,12 @@
       <c r="M84" t="s">
         <v>866</v>
       </c>
-      <c r="N84" s="5"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" s="6"/>
+    </row>
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -6702,9 +7075,12 @@
       <c r="M85" t="s">
         <v>866</v>
       </c>
-      <c r="N85" s="5"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85" s="6"/>
+    </row>
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -6744,9 +7120,12 @@
       <c r="M86" t="s">
         <v>866</v>
       </c>
-      <c r="N86" s="5"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" s="6"/>
+    </row>
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -6786,11 +7165,14 @@
       <c r="M87" t="s">
         <v>866</v>
       </c>
-      <c r="N87" s="4" t="s">
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -6830,9 +7212,12 @@
       <c r="M88" t="s">
         <v>866</v>
       </c>
-      <c r="N88" s="4"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88" s="5"/>
+    </row>
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -6872,8 +7257,11 @@
       <c r="M89" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -6913,11 +7301,14 @@
       <c r="M90" t="s">
         <v>866</v>
       </c>
-      <c r="N90" s="4" t="s">
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -6957,9 +7348,12 @@
       <c r="M91" t="s">
         <v>866</v>
       </c>
-      <c r="N91" s="4"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91" s="5"/>
+    </row>
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -6999,11 +7393,14 @@
       <c r="M92" t="s">
         <v>866</v>
       </c>
-      <c r="N92" s="4" t="s">
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -7043,9 +7440,12 @@
       <c r="M93" t="s">
         <v>866</v>
       </c>
-      <c r="N93" s="4"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93" s="5"/>
+    </row>
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -7085,11 +7485,14 @@
       <c r="M94" t="s">
         <v>866</v>
       </c>
-      <c r="N94" s="4" t="s">
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -7129,9 +7532,12 @@
       <c r="M95" t="s">
         <v>866</v>
       </c>
-      <c r="N95" s="4"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" s="5"/>
+    </row>
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -7171,11 +7577,14 @@
       <c r="M96" t="s">
         <v>866</v>
       </c>
-      <c r="N96" s="4" t="s">
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -7215,9 +7624,12 @@
       <c r="M97" t="s">
         <v>866</v>
       </c>
-      <c r="N97" s="4"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" s="5"/>
+    </row>
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -7257,11 +7669,14 @@
       <c r="M98" t="s">
         <v>866</v>
       </c>
-      <c r="N98" s="4" t="s">
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -7301,9 +7716,12 @@
       <c r="M99" t="s">
         <v>866</v>
       </c>
-      <c r="N99" s="4"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99" s="5"/>
+    </row>
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -7343,9 +7761,12 @@
       <c r="M100" t="s">
         <v>866</v>
       </c>
-      <c r="N100" s="4"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100" s="5"/>
+    </row>
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -7385,11 +7806,14 @@
       <c r="M101" t="s">
         <v>866</v>
       </c>
-      <c r="N101" s="4" t="s">
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -7429,12 +7853,15 @@
       <c r="M102" t="s">
         <v>866</v>
       </c>
-      <c r="N102" s="4"/>
-      <c r="O102" s="2" t="s">
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102" s="5"/>
+      <c r="P102" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -7474,9 +7901,12 @@
       <c r="M103" t="s">
         <v>866</v>
       </c>
-      <c r="O103" s="2"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="P103" s="2"/>
+    </row>
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -7516,11 +7946,14 @@
       <c r="M104" t="s">
         <v>866</v>
       </c>
-      <c r="N104" s="4" t="s">
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -7560,9 +7993,12 @@
       <c r="M105" t="s">
         <v>866</v>
       </c>
-      <c r="N105" s="4"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" s="5"/>
+    </row>
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -7602,11 +8038,14 @@
       <c r="M106" t="s">
         <v>866</v>
       </c>
-      <c r="N106" s="4" t="s">
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -7646,9 +8085,12 @@
       <c r="M107" t="s">
         <v>866</v>
       </c>
-      <c r="N107" s="4"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107" s="5"/>
+    </row>
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -7688,8 +8130,11 @@
       <c r="M108" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -7729,11 +8174,14 @@
       <c r="M109" t="s">
         <v>866</v>
       </c>
-      <c r="N109" s="4" t="s">
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -7773,9 +8221,12 @@
       <c r="M110" t="s">
         <v>866</v>
       </c>
-      <c r="N110" s="4"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" s="5"/>
+    </row>
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -7815,8 +8266,11 @@
       <c r="M111" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -7856,8 +8310,11 @@
       <c r="M112" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -7897,8 +8354,11 @@
       <c r="M113" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -7938,8 +8398,11 @@
       <c r="M114" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -7979,8 +8442,11 @@
       <c r="M115" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -8020,8 +8486,11 @@
       <c r="M116" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -8061,8 +8530,11 @@
       <c r="M117" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -8102,8 +8574,11 @@
       <c r="M118" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -8143,8 +8618,11 @@
       <c r="M119" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -8184,11 +8662,14 @@
       <c r="M120" t="s">
         <v>866</v>
       </c>
-      <c r="N120" s="4" t="s">
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -8228,9 +8709,12 @@
       <c r="M121" t="s">
         <v>866</v>
       </c>
-      <c r="N121" s="4"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" s="5"/>
+    </row>
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -8270,11 +8754,14 @@
       <c r="M122" t="s">
         <v>866</v>
       </c>
-      <c r="N122" s="4" t="s">
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -8314,9 +8801,12 @@
       <c r="M123" t="s">
         <v>866</v>
       </c>
-      <c r="N123" s="4"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" s="5"/>
+    </row>
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -8356,11 +8846,14 @@
       <c r="M124" t="s">
         <v>866</v>
       </c>
-      <c r="N124" s="4" t="s">
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -8400,9 +8893,12 @@
       <c r="M125" t="s">
         <v>866</v>
       </c>
-      <c r="N125" s="4"/>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" s="5"/>
+    </row>
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -8442,8 +8938,11 @@
       <c r="M126" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -8483,8 +8982,11 @@
       <c r="M127" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -8524,11 +9026,14 @@
       <c r="M128" t="s">
         <v>866</v>
       </c>
-      <c r="N128" s="4" t="s">
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -8568,9 +9073,12 @@
       <c r="M129" t="s">
         <v>866</v>
       </c>
-      <c r="N129" s="4"/>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" s="5"/>
+    </row>
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -8610,11 +9118,14 @@
       <c r="M130" t="s">
         <v>866</v>
       </c>
-      <c r="N130" s="4" t="s">
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -8654,9 +9165,12 @@
       <c r="M131" t="s">
         <v>866</v>
       </c>
-      <c r="N131" s="4"/>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" s="5"/>
+    </row>
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -8696,8 +9210,11 @@
       <c r="M132" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -8737,8 +9254,11 @@
       <c r="M133" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -8778,11 +9298,14 @@
       <c r="M134" t="s">
         <v>866</v>
       </c>
-      <c r="N134" s="4" t="s">
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -8822,9 +9345,12 @@
       <c r="M135" t="s">
         <v>866</v>
       </c>
-      <c r="N135" s="4"/>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" s="5"/>
+    </row>
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -8864,8 +9390,11 @@
       <c r="M136" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -8905,8 +9434,11 @@
       <c r="M137" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -8946,8 +9478,11 @@
       <c r="M138" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -8987,11 +9522,14 @@
       <c r="M139" t="s">
         <v>866</v>
       </c>
-      <c r="N139" t="s">
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -9031,8 +9569,11 @@
       <c r="M140" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -9072,8 +9613,11 @@
       <c r="M141" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -9113,8 +9657,11 @@
       <c r="M142" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -9154,8 +9701,11 @@
       <c r="M143" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -9195,11 +9745,14 @@
       <c r="M144" t="s">
         <v>866</v>
       </c>
-      <c r="N144" s="4" t="s">
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -9239,9 +9792,12 @@
       <c r="M145" t="s">
         <v>866</v>
       </c>
-      <c r="N145" s="4"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" s="5"/>
+    </row>
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -9281,8 +9837,11 @@
       <c r="M146" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -9322,11 +9881,14 @@
       <c r="M147" t="s">
         <v>866</v>
       </c>
-      <c r="N147" s="4" t="s">
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -9366,12 +9928,15 @@
       <c r="M148" t="s">
         <v>866</v>
       </c>
-      <c r="N148" s="4"/>
-      <c r="O148" s="2" t="s">
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" s="5"/>
+      <c r="P148" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -9411,9 +9976,12 @@
       <c r="M149" t="s">
         <v>866</v>
       </c>
-      <c r="O149" s="2"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="P149" s="2"/>
+    </row>
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -9453,8 +10021,11 @@
       <c r="M150" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -9494,11 +10065,14 @@
       <c r="M151" t="s">
         <v>866</v>
       </c>
-      <c r="N151" s="4" t="s">
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -9538,9 +10112,12 @@
       <c r="M152" t="s">
         <v>866</v>
       </c>
-      <c r="N152" s="4"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" s="5"/>
+    </row>
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -9580,8 +10157,11 @@
       <c r="M153" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -9621,11 +10201,14 @@
       <c r="M154" t="s">
         <v>866</v>
       </c>
-      <c r="N154" s="4" t="s">
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -9665,9 +10248,12 @@
       <c r="M155" t="s">
         <v>866</v>
       </c>
-      <c r="N155" s="4"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" s="5"/>
+    </row>
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -9707,8 +10293,11 @@
       <c r="M156" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -9748,11 +10337,14 @@
       <c r="M157" t="s">
         <v>866</v>
       </c>
-      <c r="N157" s="4" t="s">
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -9792,9 +10384,12 @@
       <c r="M158" t="s">
         <v>866</v>
       </c>
-      <c r="N158" s="4"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" s="5"/>
+    </row>
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -9834,8 +10429,11 @@
       <c r="M159" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -9875,14 +10473,17 @@
       <c r="M160" t="s">
         <v>866</v>
       </c>
-      <c r="N160" s="4" t="s">
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="O160" s="2" t="s">
+      <c r="P160" s="2" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -9922,10 +10523,13 @@
       <c r="M161" t="s">
         <v>866</v>
       </c>
-      <c r="N161" s="4"/>
-      <c r="O161" s="2"/>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161" s="5"/>
+      <c r="P161" s="2"/>
+    </row>
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -9965,11 +10569,14 @@
       <c r="M162" t="s">
         <v>866</v>
       </c>
-      <c r="N162" s="4" t="s">
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -10009,9 +10616,12 @@
       <c r="M163" t="s">
         <v>866</v>
       </c>
-      <c r="N163" s="4"/>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163" s="5"/>
+    </row>
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -10051,8 +10661,11 @@
       <c r="M164" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -10092,8 +10705,11 @@
       <c r="M165" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -10133,11 +10749,14 @@
       <c r="M166" t="s">
         <v>866</v>
       </c>
-      <c r="N166" s="4" t="s">
+      <c r="N166">
+        <v>1</v>
+      </c>
+      <c r="O166" s="5" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -10177,9 +10796,12 @@
       <c r="M167" t="s">
         <v>866</v>
       </c>
-      <c r="N167" s="4"/>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" s="5"/>
+    </row>
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -10219,8 +10841,11 @@
       <c r="M168" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -10260,8 +10885,11 @@
       <c r="M169" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -10301,8 +10929,11 @@
       <c r="M170" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -10342,8 +10973,11 @@
       <c r="M171" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -10383,8 +11017,11 @@
       <c r="M172" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -10424,8 +11061,11 @@
       <c r="M173" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -10465,8 +11105,11 @@
       <c r="M174" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -10506,8 +11149,11 @@
       <c r="M175" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -10547,8 +11193,11 @@
       <c r="M176" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -10588,8 +11237,11 @@
       <c r="M177" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -10629,8 +11281,11 @@
       <c r="M178" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -10670,8 +11325,11 @@
       <c r="M179" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -10711,8 +11369,11 @@
       <c r="M180" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -10752,11 +11413,14 @@
       <c r="M181" t="s">
         <v>866</v>
       </c>
-      <c r="N181" s="6" t="s">
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" s="4" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -10796,9 +11460,12 @@
       <c r="M182" t="s">
         <v>866</v>
       </c>
-      <c r="N182" s="6"/>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" s="4"/>
+    </row>
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -10838,9 +11505,12 @@
       <c r="M183" t="s">
         <v>866</v>
       </c>
-      <c r="N183" s="6"/>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" s="4"/>
+    </row>
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -10880,8 +11550,11 @@
       <c r="M184" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -10921,8 +11594,11 @@
       <c r="M185" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -10962,8 +11638,11 @@
       <c r="M186" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -11003,8 +11682,11 @@
       <c r="M187" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -11044,11 +11726,14 @@
       <c r="M188" t="s">
         <v>866</v>
       </c>
-      <c r="N188" s="6" t="s">
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" s="4" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -11088,9 +11773,12 @@
       <c r="M189" t="s">
         <v>866</v>
       </c>
-      <c r="N189" s="6"/>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189" s="4"/>
+    </row>
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -11130,9 +11818,12 @@
       <c r="M190" t="s">
         <v>866</v>
       </c>
-      <c r="N190" s="6"/>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" s="4"/>
+    </row>
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -11172,8 +11863,11 @@
       <c r="M191" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -11213,8 +11907,11 @@
       <c r="M192" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -11254,8 +11951,11 @@
       <c r="M193" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -11295,8 +11995,11 @@
       <c r="M194" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -11336,8 +12039,11 @@
       <c r="M195" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -11377,8 +12083,11 @@
       <c r="M196" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>867</v>
       </c>
@@ -11416,10 +12125,13 @@
         <v>677</v>
       </c>
       <c r="M197" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>867</v>
       </c>
@@ -11457,10 +12169,13 @@
         <v>677</v>
       </c>
       <c r="M198" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>867</v>
       </c>
@@ -11498,10 +12213,13 @@
         <v>677</v>
       </c>
       <c r="M199" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>867</v>
       </c>
@@ -11539,10 +12257,13 @@
         <v>677</v>
       </c>
       <c r="M200" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>867</v>
       </c>
@@ -11580,10 +12301,13 @@
         <v>677</v>
       </c>
       <c r="M201" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>867</v>
       </c>
@@ -11621,10 +12345,13 @@
         <v>677</v>
       </c>
       <c r="M202" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>867</v>
       </c>
@@ -11662,10 +12389,13 @@
         <v>677</v>
       </c>
       <c r="M203" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>867</v>
       </c>
@@ -11703,10 +12433,13 @@
         <v>677</v>
       </c>
       <c r="M204" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>867</v>
       </c>
@@ -11744,10 +12477,13 @@
         <v>677</v>
       </c>
       <c r="M205" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>867</v>
       </c>
@@ -11785,10 +12521,13 @@
         <v>677</v>
       </c>
       <c r="M206" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>867</v>
       </c>
@@ -11826,10 +12565,13 @@
         <v>677</v>
       </c>
       <c r="M207" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>867</v>
       </c>
@@ -11867,10 +12609,13 @@
         <v>677</v>
       </c>
       <c r="M208" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>867</v>
       </c>
@@ -11908,10 +12653,13 @@
         <v>677</v>
       </c>
       <c r="M209" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>867</v>
       </c>
@@ -11949,10 +12697,13 @@
         <v>677</v>
       </c>
       <c r="M210" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>867</v>
       </c>
@@ -11990,10 +12741,13 @@
         <v>677</v>
       </c>
       <c r="M211" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>867</v>
       </c>
@@ -12031,10 +12785,13 @@
         <v>677</v>
       </c>
       <c r="M212" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>867</v>
       </c>
@@ -12072,10 +12829,13 @@
         <v>677</v>
       </c>
       <c r="M213" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>867</v>
       </c>
@@ -12113,10 +12873,13 @@
         <v>677</v>
       </c>
       <c r="M214" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>867</v>
       </c>
@@ -12154,10 +12917,13 @@
         <v>677</v>
       </c>
       <c r="M215" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>867</v>
       </c>
@@ -12195,10 +12961,13 @@
         <v>677</v>
       </c>
       <c r="M216" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>867</v>
       </c>
@@ -12236,10 +13005,13 @@
         <v>677</v>
       </c>
       <c r="M217" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>867</v>
       </c>
@@ -12277,10 +13049,13 @@
         <v>677</v>
       </c>
       <c r="M218" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>867</v>
       </c>
@@ -12318,10 +13093,13 @@
         <v>677</v>
       </c>
       <c r="M219" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>867</v>
       </c>
@@ -12359,10 +13137,13 @@
         <v>677</v>
       </c>
       <c r="M220" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>867</v>
       </c>
@@ -12400,10 +13181,13 @@
         <v>677</v>
       </c>
       <c r="M221" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>867</v>
       </c>
@@ -12441,10 +13225,13 @@
         <v>677</v>
       </c>
       <c r="M222" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>867</v>
       </c>
@@ -12482,10 +13269,13 @@
         <v>677</v>
       </c>
       <c r="M223" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>867</v>
       </c>
@@ -12523,10 +13313,13 @@
         <v>677</v>
       </c>
       <c r="M224" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>867</v>
       </c>
@@ -12564,10 +13357,13 @@
         <v>677</v>
       </c>
       <c r="M225" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>867</v>
       </c>
@@ -12605,10 +13401,13 @@
         <v>677</v>
       </c>
       <c r="M226" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>867</v>
       </c>
@@ -12646,10 +13445,13 @@
         <v>677</v>
       </c>
       <c r="M227" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>867</v>
       </c>
@@ -12687,10 +13489,13 @@
         <v>677</v>
       </c>
       <c r="M228" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>867</v>
       </c>
@@ -12728,10 +13533,13 @@
         <v>677</v>
       </c>
       <c r="M229" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>867</v>
       </c>
@@ -12769,10 +13577,13 @@
         <v>677</v>
       </c>
       <c r="M230" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>867</v>
       </c>
@@ -12810,10 +13621,13 @@
         <v>677</v>
       </c>
       <c r="M231" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>867</v>
       </c>
@@ -12851,10 +13665,13 @@
         <v>677</v>
       </c>
       <c r="M232" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>867</v>
       </c>
@@ -12892,10 +13709,13 @@
         <v>677</v>
       </c>
       <c r="M233" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>867</v>
       </c>
@@ -12933,10 +13753,13 @@
         <v>677</v>
       </c>
       <c r="M234" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>867</v>
       </c>
@@ -12974,10 +13797,13 @@
         <v>677</v>
       </c>
       <c r="M235" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>867</v>
       </c>
@@ -13015,10 +13841,13 @@
         <v>677</v>
       </c>
       <c r="M236" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>867</v>
       </c>
@@ -13056,10 +13885,13 @@
         <v>677</v>
       </c>
       <c r="M237" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>867</v>
       </c>
@@ -13097,10 +13929,13 @@
         <v>677</v>
       </c>
       <c r="M238" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>867</v>
       </c>
@@ -13138,10 +13973,13 @@
         <v>677</v>
       </c>
       <c r="M239" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>867</v>
       </c>
@@ -13179,10 +14017,13 @@
         <v>677</v>
       </c>
       <c r="M240" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>867</v>
       </c>
@@ -13220,10 +14061,13 @@
         <v>677</v>
       </c>
       <c r="M241" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>867</v>
       </c>
@@ -13261,10 +14105,13 @@
         <v>677</v>
       </c>
       <c r="M242" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>867</v>
       </c>
@@ -13302,10 +14149,13 @@
         <v>677</v>
       </c>
       <c r="M243" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>867</v>
       </c>
@@ -13343,10 +14193,13 @@
         <v>677</v>
       </c>
       <c r="M244" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>867</v>
       </c>
@@ -13384,10 +14237,13 @@
         <v>677</v>
       </c>
       <c r="M245" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>867</v>
       </c>
@@ -13425,10 +14281,13 @@
         <v>677</v>
       </c>
       <c r="M246" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>867</v>
       </c>
@@ -13466,10 +14325,13 @@
         <v>677</v>
       </c>
       <c r="M247" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>867</v>
       </c>
@@ -13507,10 +14369,13 @@
         <v>677</v>
       </c>
       <c r="M248" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>867</v>
       </c>
@@ -13548,10 +14413,13 @@
         <v>677</v>
       </c>
       <c r="M249" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>867</v>
       </c>
@@ -13589,10 +14457,13 @@
         <v>677</v>
       </c>
       <c r="M250" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>867</v>
       </c>
@@ -13630,10 +14501,13 @@
         <v>677</v>
       </c>
       <c r="M251" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>867</v>
       </c>
@@ -13671,10 +14545,13 @@
         <v>677</v>
       </c>
       <c r="M252" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>867</v>
       </c>
@@ -13712,10 +14589,13 @@
         <v>677</v>
       </c>
       <c r="M253" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>867</v>
       </c>
@@ -13753,10 +14633,13 @@
         <v>677</v>
       </c>
       <c r="M254" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>867</v>
       </c>
@@ -13794,10 +14677,13 @@
         <v>677</v>
       </c>
       <c r="M255" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>867</v>
       </c>
@@ -13835,10 +14721,13 @@
         <v>677</v>
       </c>
       <c r="M256" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>867</v>
       </c>
@@ -13876,10 +14765,13 @@
         <v>677</v>
       </c>
       <c r="M257" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>867</v>
       </c>
@@ -13917,10 +14809,13 @@
         <v>677</v>
       </c>
       <c r="M258" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>867</v>
       </c>
@@ -13958,10 +14853,13 @@
         <v>677</v>
       </c>
       <c r="M259" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>867</v>
       </c>
@@ -13999,10 +14897,13 @@
         <v>677</v>
       </c>
       <c r="M260" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>867</v>
       </c>
@@ -14040,10 +14941,13 @@
         <v>677</v>
       </c>
       <c r="M261" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>867</v>
       </c>
@@ -14081,10 +14985,13 @@
         <v>677</v>
       </c>
       <c r="M262" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>867</v>
       </c>
@@ -14122,10 +15029,13 @@
         <v>677</v>
       </c>
       <c r="M263" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>867</v>
       </c>
@@ -14163,10 +15073,13 @@
         <v>677</v>
       </c>
       <c r="M264" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>867</v>
       </c>
@@ -14204,10 +15117,13 @@
         <v>677</v>
       </c>
       <c r="M265" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>867</v>
       </c>
@@ -14245,10 +15161,13 @@
         <v>677</v>
       </c>
       <c r="M266" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>867</v>
       </c>
@@ -14286,10 +15205,13 @@
         <v>677</v>
       </c>
       <c r="M267" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>867</v>
       </c>
@@ -14327,10 +15249,13 @@
         <v>677</v>
       </c>
       <c r="M268" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>867</v>
       </c>
@@ -14368,10 +15293,13 @@
         <v>677</v>
       </c>
       <c r="M269" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>867</v>
       </c>
@@ -14409,10 +15337,13 @@
         <v>677</v>
       </c>
       <c r="M270" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>867</v>
       </c>
@@ -14450,10 +15381,13 @@
         <v>677</v>
       </c>
       <c r="M271" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>867</v>
       </c>
@@ -14491,10 +15425,13 @@
         <v>677</v>
       </c>
       <c r="M272" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>867</v>
       </c>
@@ -14532,10 +15469,13 @@
         <v>677</v>
       </c>
       <c r="M273" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>867</v>
       </c>
@@ -14573,10 +15513,13 @@
         <v>677</v>
       </c>
       <c r="M274" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>867</v>
       </c>
@@ -14614,10 +15557,13 @@
         <v>677</v>
       </c>
       <c r="M275" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>867</v>
       </c>
@@ -14655,10 +15601,13 @@
         <v>677</v>
       </c>
       <c r="M276" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>867</v>
       </c>
@@ -14696,10 +15645,13 @@
         <v>677</v>
       </c>
       <c r="M277" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>867</v>
       </c>
@@ -14737,10 +15689,13 @@
         <v>677</v>
       </c>
       <c r="M278" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>867</v>
       </c>
@@ -14778,10 +15733,13 @@
         <v>677</v>
       </c>
       <c r="M279" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>867</v>
       </c>
@@ -14819,10 +15777,13 @@
         <v>677</v>
       </c>
       <c r="M280" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>867</v>
       </c>
@@ -14860,10 +15821,13 @@
         <v>677</v>
       </c>
       <c r="M281" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>867</v>
       </c>
@@ -14901,10 +15865,13 @@
         <v>677</v>
       </c>
       <c r="M282" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>867</v>
       </c>
@@ -14942,10 +15909,13 @@
         <v>677</v>
       </c>
       <c r="M283" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>867</v>
       </c>
@@ -14983,10 +15953,13 @@
         <v>677</v>
       </c>
       <c r="M284" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>867</v>
       </c>
@@ -15024,10 +15997,13 @@
         <v>677</v>
       </c>
       <c r="M285" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>867</v>
       </c>
@@ -15065,10 +16041,13 @@
         <v>677</v>
       </c>
       <c r="M286" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>910</v>
       </c>
@@ -15084,11 +16063,17 @@
       <c r="K287">
         <v>-99.168866914789504</v>
       </c>
+      <c r="L287" t="s">
+        <v>677</v>
+      </c>
       <c r="M287" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>909</v>
       </c>
@@ -15104,11 +16089,17 @@
       <c r="K288">
         <v>-99.1724350156056</v>
       </c>
+      <c r="L288" t="s">
+        <v>677</v>
+      </c>
       <c r="M288" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
         <v>908</v>
       </c>
@@ -15124,11 +16115,17 @@
       <c r="K289">
         <v>-99.170618648717195</v>
       </c>
+      <c r="L289" t="s">
+        <v>677</v>
+      </c>
       <c r="M289" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
         <v>907</v>
       </c>
@@ -15144,11 +16141,17 @@
       <c r="K290">
         <v>-99.157516110653901</v>
       </c>
+      <c r="L290" t="s">
+        <v>677</v>
+      </c>
       <c r="M290" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>906</v>
       </c>
@@ -15164,11 +16167,17 @@
       <c r="K291">
         <v>-99.152895625913402</v>
       </c>
+      <c r="L291" t="s">
+        <v>677</v>
+      </c>
       <c r="M291" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
         <v>905</v>
       </c>
@@ -15184,11 +16193,17 @@
       <c r="K292">
         <v>-99.154679884943107</v>
       </c>
+      <c r="L292" t="s">
+        <v>677</v>
+      </c>
       <c r="M292" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>900</v>
       </c>
@@ -15204,11 +16219,17 @@
       <c r="K293">
         <v>-99.142195107405698</v>
       </c>
+      <c r="L293" t="s">
+        <v>677</v>
+      </c>
       <c r="M293" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>899</v>
       </c>
@@ -15224,11 +16245,17 @@
       <c r="K294">
         <v>-99.122319491152496</v>
       </c>
+      <c r="L294" t="s">
+        <v>677</v>
+      </c>
       <c r="M294" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>867</v>
       </c>
@@ -15247,11 +16274,17 @@
       <c r="K295">
         <v>-99.104677957666695</v>
       </c>
+      <c r="L295" t="s">
+        <v>677</v>
+      </c>
       <c r="M295" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
         <v>879</v>
       </c>
@@ -15267,11 +16300,17 @@
       <c r="K296">
         <v>-99.078842008919196</v>
       </c>
+      <c r="L296" t="s">
+        <v>677</v>
+      </c>
       <c r="M296" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>878</v>
       </c>
@@ -15287,11 +16326,17 @@
       <c r="K297">
         <v>-99.043390933326606</v>
       </c>
+      <c r="L297" t="s">
+        <v>677</v>
+      </c>
       <c r="M297" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
         <v>872</v>
       </c>
@@ -15326,10 +16371,13 @@
         <v>677</v>
       </c>
       <c r="M298" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
         <v>873</v>
       </c>
@@ -15345,11 +16393,17 @@
       <c r="K299">
         <v>-99.008349313466198</v>
       </c>
+      <c r="L299" t="s">
+        <v>677</v>
+      </c>
       <c r="M299" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>874</v>
       </c>
@@ -15365,11 +16419,17 @@
       <c r="K300">
         <v>-98.993008891107095</v>
       </c>
+      <c r="L300" t="s">
+        <v>677</v>
+      </c>
       <c r="M300" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
         <v>875</v>
       </c>
@@ -15385,11 +16445,17 @@
       <c r="K301">
         <v>-98.994704509379204</v>
       </c>
+      <c r="L301" t="s">
+        <v>677</v>
+      </c>
       <c r="M301" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>876</v>
       </c>
@@ -15405,11 +16471,17 @@
       <c r="K302">
         <v>-99.004720405672202</v>
       </c>
+      <c r="L302" t="s">
+        <v>677</v>
+      </c>
       <c r="M302" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>881</v>
       </c>
@@ -15425,11 +16497,17 @@
       <c r="K303">
         <v>-98.997791839983705</v>
       </c>
+      <c r="L303" t="s">
+        <v>677</v>
+      </c>
       <c r="M303" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>885</v>
       </c>
@@ -15445,11 +16523,17 @@
       <c r="K304">
         <v>-99.009759768554801</v>
       </c>
+      <c r="L304" t="s">
+        <v>677</v>
+      </c>
       <c r="M304" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="305" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
         <v>882</v>
       </c>
@@ -15465,11 +16549,17 @@
       <c r="K305">
         <v>-99.013966943203698</v>
       </c>
+      <c r="L305" t="s">
+        <v>677</v>
+      </c>
       <c r="M305" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="306" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
         <v>877</v>
       </c>
@@ -15488,11 +16578,17 @@
       <c r="K306">
         <v>-99.014258995685907</v>
       </c>
+      <c r="L306" t="s">
+        <v>677</v>
+      </c>
       <c r="M306" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="307" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
         <v>883</v>
       </c>
@@ -15508,11 +16604,17 @@
       <c r="K307">
         <v>-98.997904044781507</v>
       </c>
+      <c r="L307" t="s">
+        <v>677</v>
+      </c>
       <c r="M307" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="308" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>884</v>
       </c>
@@ -15528,11 +16630,17 @@
       <c r="K308">
         <v>-98.964281356000001</v>
       </c>
+      <c r="L308" t="s">
+        <v>677</v>
+      </c>
       <c r="M308" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="309" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>886</v>
       </c>
@@ -15548,11 +16656,17 @@
       <c r="K309">
         <v>-98.959116036781097</v>
       </c>
+      <c r="L309" t="s">
+        <v>677</v>
+      </c>
       <c r="M309" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="310" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>887</v>
       </c>
@@ -15568,11 +16682,17 @@
       <c r="K310">
         <v>-98.952320356305407</v>
       </c>
+      <c r="L310" t="s">
+        <v>677</v>
+      </c>
       <c r="M310" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="311" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>888</v>
       </c>
@@ -15588,11 +16708,17 @@
       <c r="K311">
         <v>-98.960969024347094</v>
       </c>
+      <c r="L311" t="s">
+        <v>677</v>
+      </c>
       <c r="M311" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="312" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>889</v>
       </c>
@@ -15608,11 +16734,17 @@
       <c r="K312">
         <v>-98.963931614591502</v>
       </c>
+      <c r="L312" t="s">
+        <v>677</v>
+      </c>
       <c r="M312" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="313" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>890</v>
       </c>
@@ -15628,11 +16760,17 @@
       <c r="K313">
         <v>-98.964001967767302</v>
       </c>
+      <c r="L313" t="s">
+        <v>677</v>
+      </c>
       <c r="M313" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="314" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>891</v>
       </c>
@@ -15648,11 +16786,17 @@
       <c r="K314">
         <v>-98.964890308535402</v>
       </c>
+      <c r="L314" t="s">
+        <v>677</v>
+      </c>
       <c r="M314" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="315" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>892</v>
       </c>
@@ -15668,11 +16812,17 @@
       <c r="K315">
         <v>-98.968382834599097</v>
       </c>
+      <c r="L315" t="s">
+        <v>677</v>
+      </c>
       <c r="M315" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="316" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>893</v>
       </c>
@@ -15688,11 +16838,17 @@
       <c r="K316">
         <v>-98.973523511177902</v>
       </c>
+      <c r="L316" t="s">
+        <v>677</v>
+      </c>
       <c r="M316" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="317" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>890</v>
       </c>
@@ -15708,11 +16864,17 @@
       <c r="K317">
         <v>-98.979426763274503</v>
       </c>
+      <c r="L317" t="s">
+        <v>677</v>
+      </c>
       <c r="M317" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="318" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>894</v>
       </c>
@@ -15728,11 +16890,17 @@
       <c r="K318">
         <v>-98.989889007152897</v>
       </c>
+      <c r="L318" t="s">
+        <v>677</v>
+      </c>
       <c r="M318" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="319" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>895</v>
       </c>
@@ -15748,11 +16916,17 @@
       <c r="K319">
         <v>-99.007483839675999</v>
       </c>
+      <c r="L319" t="s">
+        <v>677</v>
+      </c>
       <c r="M319" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="320" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>896</v>
       </c>
@@ -15768,11 +16942,17 @@
       <c r="K320">
         <v>-99.021729685917407</v>
       </c>
+      <c r="L320" t="s">
+        <v>677</v>
+      </c>
       <c r="M320" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="321" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>897</v>
       </c>
@@ -15788,11 +16968,17 @@
       <c r="K321">
         <v>-99.032278775773307</v>
       </c>
+      <c r="L321" t="s">
+        <v>677</v>
+      </c>
       <c r="M321" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="322" spans="2:13" x14ac:dyDescent="0.2">
+        <v>913</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>898</v>
       </c>
@@ -15808,52 +16994,1026 @@
       <c r="K322">
         <v>-99.053183219789801</v>
       </c>
+      <c r="L322" t="s">
+        <v>677</v>
+      </c>
       <c r="M322" t="s">
-        <v>914</v>
+        <v>913</v>
+      </c>
+      <c r="N322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>916</v>
+      </c>
+      <c r="C323">
+        <v>75</v>
+      </c>
+      <c r="D323">
+        <v>170</v>
+      </c>
+      <c r="J323">
+        <v>19.521393246330199</v>
+      </c>
+      <c r="K323">
+        <v>-99.228331397570599</v>
+      </c>
+      <c r="L323" t="s">
+        <v>677</v>
+      </c>
+      <c r="M323" t="s">
+        <v>913</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
+        <v>917</v>
+      </c>
+      <c r="C324">
+        <v>75</v>
+      </c>
+      <c r="D324">
+        <v>171</v>
+      </c>
+      <c r="J324">
+        <v>19.528904058919299</v>
+      </c>
+      <c r="K324">
+        <v>-99.222574459741097</v>
+      </c>
+      <c r="L324" t="s">
+        <v>677</v>
+      </c>
+      <c r="M324" t="s">
+        <v>913</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
+        <v>918</v>
+      </c>
+      <c r="C325">
+        <v>75</v>
+      </c>
+      <c r="D325">
+        <v>172</v>
+      </c>
+      <c r="J325">
+        <v>19.534521757487301</v>
+      </c>
+      <c r="K325">
+        <v>-99.218309077622493</v>
+      </c>
+      <c r="L325" t="s">
+        <v>677</v>
+      </c>
+      <c r="M325" t="s">
+        <v>913</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B326" t="s">
+        <v>919</v>
+      </c>
+      <c r="C326">
+        <v>75</v>
+      </c>
+      <c r="D326">
+        <v>173</v>
+      </c>
+      <c r="J326">
+        <v>19.5394651446104</v>
+      </c>
+      <c r="K326">
+        <v>-99.214489579545798</v>
+      </c>
+      <c r="L326" t="s">
+        <v>677</v>
+      </c>
+      <c r="M326" t="s">
+        <v>913</v>
+      </c>
+      <c r="N326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
+        <v>920</v>
+      </c>
+      <c r="C327">
+        <v>75</v>
+      </c>
+      <c r="D327">
+        <v>174</v>
+      </c>
+      <c r="J327">
+        <v>19.543742307328198</v>
+      </c>
+      <c r="K327">
+        <v>-99.212568688089107</v>
+      </c>
+      <c r="L327" t="s">
+        <v>677</v>
+      </c>
+      <c r="M327" t="s">
+        <v>913</v>
+      </c>
+      <c r="N327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
+        <v>921</v>
+      </c>
+      <c r="C328">
+        <v>75</v>
+      </c>
+      <c r="D328">
+        <v>175</v>
+      </c>
+      <c r="J328">
+        <v>19.550581304002598</v>
+      </c>
+      <c r="K328">
+        <v>-99.207459057863801</v>
+      </c>
+      <c r="L328" t="s">
+        <v>677</v>
+      </c>
+      <c r="M328" t="s">
+        <v>913</v>
+      </c>
+      <c r="N328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
+        <v>922</v>
+      </c>
+      <c r="C329">
+        <v>75</v>
+      </c>
+      <c r="D329">
+        <v>176</v>
+      </c>
+      <c r="J329">
+        <v>19.555845670707399</v>
+      </c>
+      <c r="K329">
+        <v>-99.204372472163996</v>
+      </c>
+      <c r="L329" t="s">
+        <v>677</v>
+      </c>
+      <c r="M329" t="s">
+        <v>913</v>
+      </c>
+      <c r="N329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
+        <v>923</v>
+      </c>
+      <c r="C330">
+        <v>75</v>
+      </c>
+      <c r="D330">
+        <v>177</v>
+      </c>
+      <c r="J330">
+        <v>19.560269724833301</v>
+      </c>
+      <c r="K330">
+        <v>-99.2031792054851</v>
+      </c>
+      <c r="L330" t="s">
+        <v>677</v>
+      </c>
+      <c r="M330" t="s">
+        <v>913</v>
+      </c>
+      <c r="N330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B331" t="s">
+        <v>924</v>
+      </c>
+      <c r="C331">
+        <v>75</v>
+      </c>
+      <c r="D331">
+        <v>177</v>
+      </c>
+      <c r="J331">
+        <v>19.562355321191301</v>
+      </c>
+      <c r="K331">
+        <v>-99.203081357145194</v>
+      </c>
+      <c r="L331" t="s">
+        <v>677</v>
+      </c>
+      <c r="M331" t="s">
+        <v>913</v>
+      </c>
+      <c r="N331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
+        <v>925</v>
+      </c>
+      <c r="C332">
+        <v>75</v>
+      </c>
+      <c r="D332">
+        <v>178</v>
+      </c>
+      <c r="J332">
+        <v>19.5608380391716</v>
+      </c>
+      <c r="K332">
+        <v>-99.197850727168401</v>
+      </c>
+      <c r="L332" t="s">
+        <v>677</v>
+      </c>
+      <c r="M332" t="s">
+        <v>913</v>
+      </c>
+      <c r="N332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
+        <v>926</v>
+      </c>
+      <c r="C333">
+        <v>75</v>
+      </c>
+      <c r="D333">
+        <v>179</v>
+      </c>
+      <c r="J333">
+        <v>19.561210886799401</v>
+      </c>
+      <c r="K333">
+        <v>-99.194904592844694</v>
+      </c>
+      <c r="L333" t="s">
+        <v>677</v>
+      </c>
+      <c r="M333" t="s">
+        <v>913</v>
+      </c>
+      <c r="N333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
+        <v>927</v>
+      </c>
+      <c r="C334">
+        <v>75</v>
+      </c>
+      <c r="D334">
+        <v>180</v>
+      </c>
+      <c r="J334">
+        <v>19.5652984750812</v>
+      </c>
+      <c r="K334">
+        <v>-99.194951214253706</v>
+      </c>
+      <c r="L334" t="s">
+        <v>677</v>
+      </c>
+      <c r="M334" t="s">
+        <v>913</v>
+      </c>
+      <c r="N334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
+        <v>928</v>
+      </c>
+      <c r="C335">
+        <v>75</v>
+      </c>
+      <c r="D335">
+        <v>181</v>
+      </c>
+      <c r="J335">
+        <v>19.5711260781631</v>
+      </c>
+      <c r="K335">
+        <v>-99.194755825699801</v>
+      </c>
+      <c r="L335" t="s">
+        <v>677</v>
+      </c>
+      <c r="M335" t="s">
+        <v>913</v>
+      </c>
+      <c r="N335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B336" t="s">
+        <v>929</v>
+      </c>
+      <c r="C336">
+        <v>75</v>
+      </c>
+      <c r="D336">
+        <v>182</v>
+      </c>
+      <c r="J336">
+        <v>19.5751298743013</v>
+      </c>
+      <c r="K336">
+        <v>-99.196615926979007</v>
+      </c>
+      <c r="L336" t="s">
+        <v>677</v>
+      </c>
+      <c r="M336" t="s">
+        <v>913</v>
+      </c>
+      <c r="N336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
+        <v>930</v>
+      </c>
+      <c r="C337">
+        <v>75</v>
+      </c>
+      <c r="D337">
+        <v>183</v>
+      </c>
+      <c r="J337">
+        <v>19.587781795256902</v>
+      </c>
+      <c r="K337">
+        <v>-99.193395046764607</v>
+      </c>
+      <c r="L337" t="s">
+        <v>677</v>
+      </c>
+      <c r="M337" t="s">
+        <v>913</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
+        <v>931</v>
+      </c>
+      <c r="C338">
+        <v>75</v>
+      </c>
+      <c r="D338">
+        <v>184</v>
+      </c>
+      <c r="J338">
+        <v>19.593426470008499</v>
+      </c>
+      <c r="K338">
+        <v>-99.184153241163401</v>
+      </c>
+      <c r="L338" t="s">
+        <v>677</v>
+      </c>
+      <c r="M338" t="s">
+        <v>913</v>
+      </c>
+      <c r="N338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B339" t="s">
+        <v>932</v>
+      </c>
+      <c r="C339">
+        <v>75</v>
+      </c>
+      <c r="D339">
+        <v>185</v>
+      </c>
+      <c r="J339">
+        <v>19.599542952862201</v>
+      </c>
+      <c r="K339">
+        <v>-99.183511218660399</v>
+      </c>
+      <c r="L339" t="s">
+        <v>677</v>
+      </c>
+      <c r="M339" t="s">
+        <v>913</v>
+      </c>
+      <c r="N339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
+        <v>933</v>
+      </c>
+      <c r="C340">
+        <v>75</v>
+      </c>
+      <c r="D340" s="7">
+        <v>186</v>
+      </c>
+      <c r="J340">
+        <v>19.606474342971001</v>
+      </c>
+      <c r="K340">
+        <v>-99.182274434518803</v>
+      </c>
+      <c r="L340" t="s">
+        <v>677</v>
+      </c>
+      <c r="M340" t="s">
+        <v>913</v>
+      </c>
+      <c r="N340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
+        <v>934</v>
+      </c>
+      <c r="C341">
+        <v>75</v>
+      </c>
+      <c r="D341">
+        <v>187</v>
+      </c>
+      <c r="J341">
+        <v>19.614655710965</v>
+      </c>
+      <c r="K341">
+        <v>-99.180837010600001</v>
+      </c>
+      <c r="L341" t="s">
+        <v>677</v>
+      </c>
+      <c r="M341" t="s">
+        <v>913</v>
+      </c>
+      <c r="N341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B342" t="s">
+        <v>935</v>
+      </c>
+      <c r="C342">
+        <v>75</v>
+      </c>
+      <c r="D342">
+        <v>188</v>
+      </c>
+      <c r="J342">
+        <v>19.6172317219898</v>
+      </c>
+      <c r="K342">
+        <v>-99.178921650529901</v>
+      </c>
+      <c r="L342" t="s">
+        <v>677</v>
+      </c>
+      <c r="M342" t="s">
+        <v>913</v>
+      </c>
+      <c r="N342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
+        <v>936</v>
+      </c>
+      <c r="C343">
+        <v>75</v>
+      </c>
+      <c r="D343">
+        <v>189</v>
+      </c>
+      <c r="J343">
+        <v>19.6198424347943</v>
+      </c>
+      <c r="K343">
+        <v>-99.171568459305703</v>
+      </c>
+      <c r="L343" t="s">
+        <v>677</v>
+      </c>
+      <c r="M343" t="s">
+        <v>913</v>
+      </c>
+      <c r="N343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
+        <v>937</v>
+      </c>
+      <c r="C344">
+        <v>75</v>
+      </c>
+      <c r="D344">
+        <v>190</v>
+      </c>
+      <c r="J344">
+        <v>19.6208221515495</v>
+      </c>
+      <c r="K344">
+        <v>-99.167783531833607</v>
+      </c>
+      <c r="L344" t="s">
+        <v>677</v>
+      </c>
+      <c r="M344" t="s">
+        <v>913</v>
+      </c>
+      <c r="N344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
+        <v>938</v>
+      </c>
+      <c r="C345">
+        <v>75</v>
+      </c>
+      <c r="D345">
+        <v>191</v>
+      </c>
+      <c r="J345">
+        <v>19.622072795360001</v>
+      </c>
+      <c r="K345">
+        <v>-99.162987397300498</v>
+      </c>
+      <c r="L345" t="s">
+        <v>677</v>
+      </c>
+      <c r="M345" t="s">
+        <v>913</v>
+      </c>
+      <c r="N345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
+        <v>939</v>
+      </c>
+      <c r="C346">
+        <v>75</v>
+      </c>
+      <c r="D346">
+        <v>192</v>
+      </c>
+      <c r="J346">
+        <v>19.623557148366601</v>
+      </c>
+      <c r="K346">
+        <v>-99.157443978169098</v>
+      </c>
+      <c r="L346" t="s">
+        <v>677</v>
+      </c>
+      <c r="M346" t="s">
+        <v>913</v>
+      </c>
+      <c r="N346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>940</v>
+      </c>
+      <c r="C347">
+        <v>75</v>
+      </c>
+      <c r="D347">
+        <v>193</v>
+      </c>
+      <c r="J347">
+        <v>19.626051318763299</v>
+      </c>
+      <c r="K347">
+        <v>-99.147564069197799</v>
+      </c>
+      <c r="L347" t="s">
+        <v>677</v>
+      </c>
+      <c r="M347" t="s">
+        <v>913</v>
+      </c>
+      <c r="N347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>941</v>
+      </c>
+      <c r="C348">
+        <v>75</v>
+      </c>
+      <c r="D348">
+        <v>194</v>
+      </c>
+      <c r="J348">
+        <v>19.628867750307499</v>
+      </c>
+      <c r="K348">
+        <v>-99.135975910330401</v>
+      </c>
+      <c r="L348" t="s">
+        <v>677</v>
+      </c>
+      <c r="M348" t="s">
+        <v>913</v>
+      </c>
+      <c r="N348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
+        <v>942</v>
+      </c>
+      <c r="C349">
+        <v>75</v>
+      </c>
+      <c r="D349">
+        <v>195</v>
+      </c>
+      <c r="J349">
+        <v>19.629643099682099</v>
+      </c>
+      <c r="K349">
+        <v>-99.131210513956702</v>
+      </c>
+      <c r="L349" t="s">
+        <v>677</v>
+      </c>
+      <c r="M349" t="s">
+        <v>913</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
+        <v>943</v>
+      </c>
+      <c r="C350">
+        <v>75</v>
+      </c>
+      <c r="D350">
+        <v>196</v>
+      </c>
+      <c r="J350">
+        <v>19.630844151885899</v>
+      </c>
+      <c r="K350">
+        <v>-99.124549734005996</v>
+      </c>
+      <c r="L350" t="s">
+        <v>677</v>
+      </c>
+      <c r="M350" t="s">
+        <v>913</v>
+      </c>
+      <c r="N350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
+        <v>944</v>
+      </c>
+      <c r="C351">
+        <v>75</v>
+      </c>
+      <c r="D351">
+        <v>197</v>
+      </c>
+      <c r="J351">
+        <v>19.632814972026601</v>
+      </c>
+      <c r="K351">
+        <v>-99.119226176441799</v>
+      </c>
+      <c r="L351" t="s">
+        <v>677</v>
+      </c>
+      <c r="M351" t="s">
+        <v>913</v>
+      </c>
+      <c r="N351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
+        <v>945</v>
+      </c>
+      <c r="C352">
+        <v>75</v>
+      </c>
+      <c r="D352">
+        <v>198</v>
+      </c>
+      <c r="J352">
+        <v>19.635785902932799</v>
+      </c>
+      <c r="K352">
+        <v>-99.1060591532042</v>
+      </c>
+      <c r="L352" t="s">
+        <v>677</v>
+      </c>
+      <c r="M352" t="s">
+        <v>913</v>
+      </c>
+      <c r="N352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
+        <v>946</v>
+      </c>
+      <c r="C353">
+        <v>75</v>
+      </c>
+      <c r="D353">
+        <v>199</v>
+      </c>
+      <c r="J353">
+        <v>19.633932135351799</v>
+      </c>
+      <c r="K353">
+        <v>-99.096858327669594</v>
+      </c>
+      <c r="L353" t="s">
+        <v>677</v>
+      </c>
+      <c r="M353" t="s">
+        <v>913</v>
+      </c>
+      <c r="N353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B354" t="s">
+        <v>947</v>
+      </c>
+      <c r="C354">
+        <v>75</v>
+      </c>
+      <c r="D354">
+        <v>200</v>
+      </c>
+      <c r="J354">
+        <v>19.6316875590758</v>
+      </c>
+      <c r="K354">
+        <v>-99.090740098519902</v>
+      </c>
+      <c r="L354" t="s">
+        <v>677</v>
+      </c>
+      <c r="M354" t="s">
+        <v>913</v>
+      </c>
+      <c r="N354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B355" t="s">
+        <v>948</v>
+      </c>
+      <c r="C355">
+        <v>75</v>
+      </c>
+      <c r="D355">
+        <v>201</v>
+      </c>
+      <c r="J355">
+        <v>19.6248664277276</v>
+      </c>
+      <c r="K355">
+        <v>-99.077004198535406</v>
+      </c>
+      <c r="L355" t="s">
+        <v>677</v>
+      </c>
+      <c r="M355" t="s">
+        <v>913</v>
+      </c>
+      <c r="N355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B356" t="s">
+        <v>10</v>
+      </c>
+      <c r="C356">
+        <v>75</v>
+      </c>
+      <c r="D356">
+        <v>202</v>
+      </c>
+      <c r="J356">
+        <v>19.620122660930601</v>
+      </c>
+      <c r="K356">
+        <v>-99.069526660185403</v>
+      </c>
+      <c r="L356" t="s">
+        <v>677</v>
+      </c>
+      <c r="M356" t="s">
+        <v>913</v>
+      </c>
+      <c r="N356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
+        <v>949</v>
+      </c>
+      <c r="C357">
+        <v>75</v>
+      </c>
+      <c r="D357">
+        <v>203</v>
+      </c>
+      <c r="J357">
+        <v>19.611783817655599</v>
+      </c>
+      <c r="K357">
+        <v>-99.0594486572992</v>
+      </c>
+      <c r="L357" t="s">
+        <v>677</v>
+      </c>
+      <c r="M357" t="s">
+        <v>913</v>
+      </c>
+      <c r="N357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
+        <v>950</v>
+      </c>
+      <c r="C358">
+        <v>75</v>
+      </c>
+      <c r="D358">
+        <v>204</v>
+      </c>
+      <c r="J358">
+        <v>19.6137769849744</v>
+      </c>
+      <c r="K358">
+        <v>-99.039855254109298</v>
+      </c>
+      <c r="L358" t="s">
+        <v>677</v>
+      </c>
+      <c r="M358" t="s">
+        <v>913</v>
+      </c>
+      <c r="N358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
+        <v>951</v>
+      </c>
+      <c r="C359">
+        <v>75</v>
+      </c>
+      <c r="D359">
+        <v>205</v>
+      </c>
+      <c r="J359">
+        <v>19.603249717850201</v>
+      </c>
+      <c r="K359">
+        <v>-99.037189559542298</v>
+      </c>
+      <c r="L359" t="s">
+        <v>677</v>
+      </c>
+      <c r="M359" t="s">
+        <v>913</v>
+      </c>
+      <c r="N359">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K322" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K340" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="75"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="39">
-    <mergeCell ref="N188:N190"/>
-    <mergeCell ref="N160:N161"/>
-    <mergeCell ref="N162:N163"/>
-    <mergeCell ref="N166:N167"/>
-    <mergeCell ref="N181:N183"/>
-    <mergeCell ref="N147:N148"/>
-    <mergeCell ref="N151:N152"/>
-    <mergeCell ref="N154:N155"/>
-    <mergeCell ref="N157:N158"/>
-    <mergeCell ref="N124:N125"/>
-    <mergeCell ref="N128:N129"/>
-    <mergeCell ref="N130:N131"/>
-    <mergeCell ref="N134:N135"/>
-    <mergeCell ref="N144:N145"/>
-    <mergeCell ref="N104:N105"/>
-    <mergeCell ref="N106:N107"/>
-    <mergeCell ref="N109:N110"/>
-    <mergeCell ref="N120:N121"/>
-    <mergeCell ref="N122:N123"/>
-    <mergeCell ref="N94:N95"/>
-    <mergeCell ref="N96:N97"/>
-    <mergeCell ref="N98:N100"/>
-    <mergeCell ref="N101:N102"/>
-    <mergeCell ref="N79:N81"/>
-    <mergeCell ref="N82:N86"/>
-    <mergeCell ref="N87:N88"/>
-    <mergeCell ref="N90:N91"/>
-    <mergeCell ref="N92:N93"/>
-    <mergeCell ref="N71:N72"/>
-    <mergeCell ref="N75:N76"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="O98:O100"/>
+    <mergeCell ref="O101:O102"/>
+    <mergeCell ref="O79:O81"/>
+    <mergeCell ref="O82:O86"/>
+    <mergeCell ref="O87:O88"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="O120:O121"/>
+    <mergeCell ref="O122:O123"/>
+    <mergeCell ref="O147:O148"/>
+    <mergeCell ref="O151:O152"/>
+    <mergeCell ref="O154:O155"/>
+    <mergeCell ref="O157:O158"/>
+    <mergeCell ref="O124:O125"/>
+    <mergeCell ref="O128:O129"/>
+    <mergeCell ref="O130:O131"/>
+    <mergeCell ref="O134:O135"/>
+    <mergeCell ref="O144:O145"/>
+    <mergeCell ref="O188:O190"/>
+    <mergeCell ref="O160:O161"/>
+    <mergeCell ref="O162:O163"/>
+    <mergeCell ref="O166:O167"/>
+    <mergeCell ref="O181:O183"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15993,10 +18153,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D61F9FF-1099-874D-861D-4522CE1B5818}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E18" sqref="E18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16006,7 +18166,7 @@
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16031,8 +18191,11 @@
       <c r="H1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -16054,8 +18217,11 @@
       <c r="G2">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -16077,8 +18243,11 @@
       <c r="G3">
         <v>23.43</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -16100,8 +18269,11 @@
       <c r="G4">
         <v>23.61</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -16126,8 +18298,11 @@
       <c r="H5" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -16149,8 +18324,11 @@
       <c r="G6">
         <v>16.670000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -16172,8 +18350,11 @@
       <c r="G7">
         <v>13.95</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -16195,8 +18376,11 @@
       <c r="G8">
         <v>18.78</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -16218,8 +18402,11 @@
       <c r="G9">
         <v>20.079999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -16241,8 +18428,11 @@
       <c r="G10">
         <v>15.37</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -16264,8 +18454,11 @@
       <c r="G11">
         <v>17.190000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -16287,8 +18480,11 @@
       <c r="G12">
         <v>23.72</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -16310,8 +18506,11 @@
       <c r="G13">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>867</v>
       </c>
@@ -16333,8 +18532,11 @@
       <c r="G14">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>867</v>
       </c>
@@ -16356,8 +18558,11 @@
       <c r="G15">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>867</v>
       </c>
@@ -16379,8 +18584,11 @@
       <c r="G16">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>867</v>
       </c>
@@ -16402,8 +18610,11 @@
       <c r="G17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>867</v>
       </c>
@@ -16424,6 +18635,9 @@
       </c>
       <c r="G18">
         <v>40</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ETL/Data/data.xlsx
+++ b/ETL/Data/data.xlsx
@@ -8,24 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galigaribaldi/Documents/PPropios/API Tren/Apimetro/ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E762CC51-0BFB-F149-9769-446DE9C48BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5E478E-1FF7-394D-BA50-F43103248702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68800" yWindow="1120" windowWidth="38400" windowHeight="19400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estacion" sheetId="1" r:id="rId1"/>
-    <sheet name="Opcionales" sheetId="3" r:id="rId2"/>
-    <sheet name="Linea" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
+    <sheet name="Opcionales" sheetId="3" r:id="rId3"/>
+    <sheet name="Linea" sheetId="2" r:id="rId4"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estacion!$A$1:$K$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estacion!$A$1:$K$367</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja2!$A$1:$H$46</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="971">
   <si>
     <t>SISTEMA</t>
   </si>
@@ -2631,9 +2634,6 @@
     <t>STC Anillar</t>
   </si>
   <si>
-    <t>Periférico Exterior</t>
-  </si>
-  <si>
     <t>GRIS</t>
   </si>
   <si>
@@ -2881,6 +2881,66 @@
   </si>
   <si>
     <t>Periférico Exterior/Circuito Exterior Mexiquense</t>
+  </si>
+  <si>
+    <t>Exterior Mexiquense 1</t>
+  </si>
+  <si>
+    <t>Exterior Mexiquense 2</t>
+  </si>
+  <si>
+    <t>San Cristobal</t>
+  </si>
+  <si>
+    <t>Initec</t>
+  </si>
+  <si>
+    <t>Aragòn</t>
+  </si>
+  <si>
+    <t>Nueva Aragòn</t>
+  </si>
+  <si>
+    <t>Casa Colorada</t>
+  </si>
+  <si>
+    <t>Sonapi</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Linea</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Existe</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Periférico Exterior Sur</t>
+  </si>
+  <si>
+    <t>Periférico Exterior Poniente</t>
+  </si>
+  <si>
+    <t>Periférico Exterior Norte</t>
+  </si>
+  <si>
+    <t>Periférico Exterior Oriente</t>
   </si>
 </sst>
 </file>
@@ -2943,23 +3003,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3256,11 +3317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q359"/>
+  <dimension ref="A1:Q367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N331" sqref="N331:N359"/>
+    <sheetView topLeftCell="B340" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C366" sqref="C366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3311,13 +3371,13 @@
         <v>625</v>
       </c>
       <c r="M1" t="s">
+        <v>913</v>
+      </c>
+      <c r="N1" t="s">
         <v>914</v>
       </c>
-      <c r="N1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3361,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3405,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3449,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3493,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3537,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3581,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3628,7 +3688,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3673,7 +3733,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -3720,7 +3780,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3765,7 +3825,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3812,7 +3872,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3857,7 +3917,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3901,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3945,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3989,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4033,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4080,7 +4140,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4125,7 +4185,7 @@
       </c>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -4175,7 +4235,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4221,7 +4281,7 @@
       <c r="O21" s="5"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -4265,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -4309,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -4353,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -4397,7 +4457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4441,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -4485,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -4529,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -4573,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -4617,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -4661,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -4705,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -4749,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4793,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -4837,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -4881,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -4925,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -4969,7 +5029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -5013,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -5057,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -5101,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -5145,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -5189,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -5233,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -5277,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -5321,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -5365,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -5409,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -5456,7 +5516,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -5501,7 +5561,7 @@
       </c>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -5545,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -5589,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -5633,7 +5693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -5677,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -5721,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -5768,7 +5828,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -5813,7 +5873,7 @@
       </c>
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -5857,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -5901,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -5945,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -5989,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -6033,7 +6093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -6080,7 +6140,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -6125,7 +6185,7 @@
       </c>
       <c r="O64" s="5"/>
     </row>
-    <row r="65" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -6178,7 +6238,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -6225,7 +6285,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -6269,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -6313,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -6357,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -6401,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -6448,7 +6508,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -6493,7 +6553,7 @@
       </c>
       <c r="O72" s="5"/>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -6537,7 +6597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -6581,7 +6641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -6628,7 +6688,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -6673,7 +6733,7 @@
       </c>
       <c r="O76" s="5"/>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -6717,7 +6777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -6761,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -6808,7 +6868,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -6853,7 +6913,7 @@
       </c>
       <c r="O80" s="6"/>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -6898,7 +6958,7 @@
       </c>
       <c r="O81" s="6"/>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -6945,7 +7005,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -6990,7 +7050,7 @@
       </c>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -7035,7 +7095,7 @@
       </c>
       <c r="O84" s="6"/>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -7080,7 +7140,7 @@
       </c>
       <c r="O85" s="6"/>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -7125,7 +7185,7 @@
       </c>
       <c r="O86" s="6"/>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -7172,7 +7232,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -7217,7 +7277,7 @@
       </c>
       <c r="O88" s="5"/>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -7261,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -7308,7 +7368,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -7353,7 +7413,7 @@
       </c>
       <c r="O91" s="5"/>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -7400,7 +7460,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -7445,7 +7505,7 @@
       </c>
       <c r="O93" s="5"/>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -7492,7 +7552,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -7537,7 +7597,7 @@
       </c>
       <c r="O95" s="5"/>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -7584,7 +7644,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -7629,7 +7689,7 @@
       </c>
       <c r="O97" s="5"/>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -7676,7 +7736,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -7721,7 +7781,7 @@
       </c>
       <c r="O99" s="5"/>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -7766,7 +7826,7 @@
       </c>
       <c r="O100" s="5"/>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -7813,7 +7873,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -7861,7 +7921,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -7906,7 +7966,7 @@
       </c>
       <c r="P103" s="2"/>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -7953,7 +8013,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -7998,7 +8058,7 @@
       </c>
       <c r="O105" s="5"/>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -8045,7 +8105,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -8090,7 +8150,7 @@
       </c>
       <c r="O107" s="5"/>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -8134,7 +8194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>4</v>
       </c>
@@ -8181,7 +8241,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>4</v>
       </c>
@@ -8226,7 +8286,7 @@
       </c>
       <c r="O110" s="5"/>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -8270,7 +8330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -8314,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -8358,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -8402,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -8446,7 +8506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -8490,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -8534,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -8578,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -8622,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -8669,7 +8729,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -8714,7 +8774,7 @@
       </c>
       <c r="O121" s="5"/>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -8761,7 +8821,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -8806,7 +8866,7 @@
       </c>
       <c r="O123" s="5"/>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -8853,7 +8913,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -8898,7 +8958,7 @@
       </c>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -8942,7 +9002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -8986,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -9033,7 +9093,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -9078,7 +9138,7 @@
       </c>
       <c r="O129" s="5"/>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -9125,7 +9185,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -9170,7 +9230,7 @@
       </c>
       <c r="O131" s="5"/>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -9214,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -9258,7 +9318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -9305,7 +9365,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -9350,7 +9410,7 @@
       </c>
       <c r="O135" s="5"/>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -9394,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -9438,7 +9498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -9482,7 +9542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -9529,7 +9589,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -9573,7 +9633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -9617,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -9661,7 +9721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -9705,7 +9765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -9752,7 +9812,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -9797,7 +9857,7 @@
       </c>
       <c r="O145" s="5"/>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -9841,7 +9901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -9888,7 +9948,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -9936,7 +9996,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -9981,7 +10041,7 @@
       </c>
       <c r="P149" s="2"/>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -10025,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -10072,7 +10132,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -10117,7 +10177,7 @@
       </c>
       <c r="O152" s="5"/>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -10161,7 +10221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -10208,7 +10268,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -10253,7 +10313,7 @@
       </c>
       <c r="O155" s="5"/>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -10297,7 +10357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -10344,7 +10404,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -10389,7 +10449,7 @@
       </c>
       <c r="O158" s="5"/>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -10433,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -10483,7 +10543,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -10529,7 +10589,7 @@
       <c r="O161" s="5"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -10576,7 +10636,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -10621,7 +10681,7 @@
       </c>
       <c r="O163" s="5"/>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -10665,7 +10725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -10709,7 +10769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -10756,7 +10816,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -10801,7 +10861,7 @@
       </c>
       <c r="O167" s="5"/>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -10845,7 +10905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -10889,7 +10949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -10933,7 +10993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -10977,7 +11037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -11021,7 +11081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -11065,7 +11125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -11109,7 +11169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -11153,7 +11213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -11197,7 +11257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -11241,7 +11301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -11285,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -11329,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -11373,7 +11433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -11416,11 +11476,11 @@
       <c r="N181">
         <v>1</v>
       </c>
-      <c r="O181" s="4" t="s">
+      <c r="O181" s="7" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -11463,9 +11523,9 @@
       <c r="N182">
         <v>1</v>
       </c>
-      <c r="O182" s="4"/>
-    </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O182" s="7"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -11508,9 +11568,9 @@
       <c r="N183">
         <v>1</v>
       </c>
-      <c r="O183" s="4"/>
-    </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O183" s="7"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -11554,7 +11614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -11598,7 +11658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -11642,7 +11702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -11686,7 +11746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -11729,11 +11789,11 @@
       <c r="N188">
         <v>1</v>
       </c>
-      <c r="O188" s="4" t="s">
+      <c r="O188" s="7" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -11776,9 +11836,9 @@
       <c r="N189">
         <v>1</v>
       </c>
-      <c r="O189" s="4"/>
-    </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O189" s="7"/>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -11821,9 +11881,9 @@
       <c r="N190">
         <v>1</v>
       </c>
-      <c r="O190" s="4"/>
-    </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O190" s="7"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -11867,7 +11927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -11911,7 +11971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -11955,7 +12015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -11999,7 +12059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -12043,7 +12103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -12087,7 +12147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>867</v>
       </c>
@@ -12125,13 +12185,13 @@
         <v>677</v>
       </c>
       <c r="M197" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N197">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>867</v>
       </c>
@@ -12169,13 +12229,13 @@
         <v>677</v>
       </c>
       <c r="M198" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N198">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>867</v>
       </c>
@@ -12213,13 +12273,13 @@
         <v>677</v>
       </c>
       <c r="M199" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>867</v>
       </c>
@@ -12257,13 +12317,13 @@
         <v>677</v>
       </c>
       <c r="M200" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N200">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>867</v>
       </c>
@@ -12301,13 +12361,13 @@
         <v>677</v>
       </c>
       <c r="M201" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>867</v>
       </c>
@@ -12345,13 +12405,13 @@
         <v>677</v>
       </c>
       <c r="M202" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>867</v>
       </c>
@@ -12389,13 +12449,13 @@
         <v>677</v>
       </c>
       <c r="M203" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N203">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>867</v>
       </c>
@@ -12433,13 +12493,13 @@
         <v>677</v>
       </c>
       <c r="M204" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>867</v>
       </c>
@@ -12477,13 +12537,13 @@
         <v>677</v>
       </c>
       <c r="M205" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>867</v>
       </c>
@@ -12521,13 +12581,13 @@
         <v>677</v>
       </c>
       <c r="M206" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N206">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>867</v>
       </c>
@@ -12565,13 +12625,13 @@
         <v>677</v>
       </c>
       <c r="M207" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>867</v>
       </c>
@@ -12609,13 +12669,13 @@
         <v>677</v>
       </c>
       <c r="M208" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N208">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>867</v>
       </c>
@@ -12653,13 +12713,13 @@
         <v>677</v>
       </c>
       <c r="M209" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N209">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>867</v>
       </c>
@@ -12697,13 +12757,13 @@
         <v>677</v>
       </c>
       <c r="M210" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>867</v>
       </c>
@@ -12741,13 +12801,13 @@
         <v>677</v>
       </c>
       <c r="M211" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>867</v>
       </c>
@@ -12785,13 +12845,13 @@
         <v>677</v>
       </c>
       <c r="M212" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>867</v>
       </c>
@@ -12829,13 +12889,13 @@
         <v>677</v>
       </c>
       <c r="M213" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>867</v>
       </c>
@@ -12873,13 +12933,13 @@
         <v>677</v>
       </c>
       <c r="M214" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N214">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>867</v>
       </c>
@@ -12917,13 +12977,13 @@
         <v>677</v>
       </c>
       <c r="M215" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>867</v>
       </c>
@@ -12961,13 +13021,13 @@
         <v>677</v>
       </c>
       <c r="M216" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>867</v>
       </c>
@@ -13005,13 +13065,13 @@
         <v>677</v>
       </c>
       <c r="M217" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>867</v>
       </c>
@@ -13049,13 +13109,13 @@
         <v>677</v>
       </c>
       <c r="M218" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>867</v>
       </c>
@@ -13093,13 +13153,13 @@
         <v>677</v>
       </c>
       <c r="M219" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>867</v>
       </c>
@@ -13137,13 +13197,13 @@
         <v>677</v>
       </c>
       <c r="M220" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>867</v>
       </c>
@@ -13181,13 +13241,13 @@
         <v>677</v>
       </c>
       <c r="M221" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>867</v>
       </c>
@@ -13225,13 +13285,13 @@
         <v>677</v>
       </c>
       <c r="M222" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>867</v>
       </c>
@@ -13269,13 +13329,13 @@
         <v>677</v>
       </c>
       <c r="M223" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N223">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>867</v>
       </c>
@@ -13313,13 +13373,13 @@
         <v>677</v>
       </c>
       <c r="M224" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>867</v>
       </c>
@@ -13357,13 +13417,13 @@
         <v>677</v>
       </c>
       <c r="M225" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N225">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>867</v>
       </c>
@@ -13401,13 +13461,13 @@
         <v>677</v>
       </c>
       <c r="M226" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N226">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>867</v>
       </c>
@@ -13445,13 +13505,13 @@
         <v>677</v>
       </c>
       <c r="M227" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N227">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>867</v>
       </c>
@@ -13489,13 +13549,13 @@
         <v>677</v>
       </c>
       <c r="M228" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>867</v>
       </c>
@@ -13533,13 +13593,13 @@
         <v>677</v>
       </c>
       <c r="M229" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>867</v>
       </c>
@@ -13577,13 +13637,13 @@
         <v>677</v>
       </c>
       <c r="M230" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>867</v>
       </c>
@@ -13621,13 +13681,13 @@
         <v>677</v>
       </c>
       <c r="M231" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>867</v>
       </c>
@@ -13665,13 +13725,13 @@
         <v>677</v>
       </c>
       <c r="M232" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>867</v>
       </c>
@@ -13709,13 +13769,13 @@
         <v>677</v>
       </c>
       <c r="M233" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>867</v>
       </c>
@@ -13753,13 +13813,13 @@
         <v>677</v>
       </c>
       <c r="M234" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>867</v>
       </c>
@@ -13797,13 +13857,13 @@
         <v>677</v>
       </c>
       <c r="M235" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>867</v>
       </c>
@@ -13841,13 +13901,13 @@
         <v>677</v>
       </c>
       <c r="M236" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>867</v>
       </c>
@@ -13885,13 +13945,13 @@
         <v>677</v>
       </c>
       <c r="M237" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N237">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>867</v>
       </c>
@@ -13929,13 +13989,13 @@
         <v>677</v>
       </c>
       <c r="M238" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>867</v>
       </c>
@@ -13973,13 +14033,13 @@
         <v>677</v>
       </c>
       <c r="M239" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>867</v>
       </c>
@@ -14017,13 +14077,13 @@
         <v>677</v>
       </c>
       <c r="M240" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>867</v>
       </c>
@@ -14061,13 +14121,13 @@
         <v>677</v>
       </c>
       <c r="M241" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>867</v>
       </c>
@@ -14105,13 +14165,13 @@
         <v>677</v>
       </c>
       <c r="M242" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>867</v>
       </c>
@@ -14149,13 +14209,13 @@
         <v>677</v>
       </c>
       <c r="M243" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>867</v>
       </c>
@@ -14193,13 +14253,13 @@
         <v>677</v>
       </c>
       <c r="M244" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>867</v>
       </c>
@@ -14237,13 +14297,13 @@
         <v>677</v>
       </c>
       <c r="M245" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N245">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>867</v>
       </c>
@@ -14281,13 +14341,13 @@
         <v>677</v>
       </c>
       <c r="M246" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>867</v>
       </c>
@@ -14325,13 +14385,13 @@
         <v>677</v>
       </c>
       <c r="M247" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N247">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>867</v>
       </c>
@@ -14369,13 +14429,13 @@
         <v>677</v>
       </c>
       <c r="M248" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>867</v>
       </c>
@@ -14413,13 +14473,13 @@
         <v>677</v>
       </c>
       <c r="M249" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>867</v>
       </c>
@@ -14457,13 +14517,13 @@
         <v>677</v>
       </c>
       <c r="M250" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N250">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>867</v>
       </c>
@@ -14501,13 +14561,13 @@
         <v>677</v>
       </c>
       <c r="M251" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>867</v>
       </c>
@@ -14545,13 +14605,13 @@
         <v>677</v>
       </c>
       <c r="M252" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>867</v>
       </c>
@@ -14589,13 +14649,13 @@
         <v>677</v>
       </c>
       <c r="M253" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N253">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>867</v>
       </c>
@@ -14633,13 +14693,13 @@
         <v>677</v>
       </c>
       <c r="M254" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N254">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>867</v>
       </c>
@@ -14677,13 +14737,13 @@
         <v>677</v>
       </c>
       <c r="M255" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N255">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>867</v>
       </c>
@@ -14721,13 +14781,13 @@
         <v>677</v>
       </c>
       <c r="M256" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N256">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>867</v>
       </c>
@@ -14765,13 +14825,13 @@
         <v>677</v>
       </c>
       <c r="M257" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N257">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>867</v>
       </c>
@@ -14809,13 +14869,13 @@
         <v>677</v>
       </c>
       <c r="M258" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N258">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>867</v>
       </c>
@@ -14853,13 +14913,13 @@
         <v>677</v>
       </c>
       <c r="M259" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>867</v>
       </c>
@@ -14897,13 +14957,13 @@
         <v>677</v>
       </c>
       <c r="M260" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N260">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>867</v>
       </c>
@@ -14941,13 +15001,13 @@
         <v>677</v>
       </c>
       <c r="M261" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>867</v>
       </c>
@@ -14985,13 +15045,13 @@
         <v>677</v>
       </c>
       <c r="M262" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>867</v>
       </c>
@@ -15029,13 +15089,13 @@
         <v>677</v>
       </c>
       <c r="M263" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>867</v>
       </c>
@@ -15073,13 +15133,13 @@
         <v>677</v>
       </c>
       <c r="M264" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>867</v>
       </c>
@@ -15117,13 +15177,13 @@
         <v>677</v>
       </c>
       <c r="M265" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>867</v>
       </c>
@@ -15161,13 +15221,13 @@
         <v>677</v>
       </c>
       <c r="M266" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>867</v>
       </c>
@@ -15205,13 +15265,13 @@
         <v>677</v>
       </c>
       <c r="M267" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>867</v>
       </c>
@@ -15249,13 +15309,13 @@
         <v>677</v>
       </c>
       <c r="M268" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>867</v>
       </c>
@@ -15293,18 +15353,18 @@
         <v>677</v>
       </c>
       <c r="M269" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>867</v>
       </c>
       <c r="B270" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C270">
         <v>74</v>
@@ -15337,13 +15397,13 @@
         <v>677</v>
       </c>
       <c r="M270" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>867</v>
       </c>
@@ -15381,18 +15441,18 @@
         <v>677</v>
       </c>
       <c r="M271" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N271">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>867</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C272">
         <v>74</v>
@@ -15425,13 +15485,13 @@
         <v>677</v>
       </c>
       <c r="M272" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>867</v>
       </c>
@@ -15469,13 +15529,13 @@
         <v>677</v>
       </c>
       <c r="M273" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N273">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>867</v>
       </c>
@@ -15513,13 +15573,13 @@
         <v>677</v>
       </c>
       <c r="M274" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>867</v>
       </c>
@@ -15557,13 +15617,13 @@
         <v>677</v>
       </c>
       <c r="M275" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N275">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>867</v>
       </c>
@@ -15601,13 +15661,13 @@
         <v>677</v>
       </c>
       <c r="M276" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N276">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>867</v>
       </c>
@@ -15645,13 +15705,13 @@
         <v>677</v>
       </c>
       <c r="M277" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N277">
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>867</v>
       </c>
@@ -15689,13 +15749,13 @@
         <v>677</v>
       </c>
       <c r="M278" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N278">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>867</v>
       </c>
@@ -15733,13 +15793,13 @@
         <v>677</v>
       </c>
       <c r="M279" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N279">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>867</v>
       </c>
@@ -15777,13 +15837,13 @@
         <v>677</v>
       </c>
       <c r="M280" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N280">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>867</v>
       </c>
@@ -15821,13 +15881,13 @@
         <v>677</v>
       </c>
       <c r="M281" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N281">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>867</v>
       </c>
@@ -15865,13 +15925,13 @@
         <v>677</v>
       </c>
       <c r="M282" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N282">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>867</v>
       </c>
@@ -15909,13 +15969,13 @@
         <v>677</v>
       </c>
       <c r="M283" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>867</v>
       </c>
@@ -15953,13 +16013,13 @@
         <v>677</v>
       </c>
       <c r="M284" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>867</v>
       </c>
@@ -15997,13 +16057,13 @@
         <v>677</v>
       </c>
       <c r="M285" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>867</v>
       </c>
@@ -16041,7 +16101,7 @@
         <v>677</v>
       </c>
       <c r="M286" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N286">
         <v>0</v>
@@ -16049,7 +16109,7 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C287">
         <v>75</v>
@@ -16067,7 +16127,7 @@
         <v>677</v>
       </c>
       <c r="M287" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N287">
         <v>0</v>
@@ -16075,7 +16135,7 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C288">
         <v>75</v>
@@ -16093,7 +16153,7 @@
         <v>677</v>
       </c>
       <c r="M288" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N288">
         <v>0</v>
@@ -16101,7 +16161,7 @@
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C289">
         <v>75</v>
@@ -16119,7 +16179,7 @@
         <v>677</v>
       </c>
       <c r="M289" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N289">
         <v>0</v>
@@ -16127,7 +16187,7 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C290">
         <v>75</v>
@@ -16145,7 +16205,7 @@
         <v>677</v>
       </c>
       <c r="M290" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N290">
         <v>0</v>
@@ -16153,7 +16213,7 @@
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C291">
         <v>75</v>
@@ -16171,7 +16231,7 @@
         <v>677</v>
       </c>
       <c r="M291" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N291">
         <v>0</v>
@@ -16179,7 +16239,7 @@
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C292">
         <v>75</v>
@@ -16197,7 +16257,7 @@
         <v>677</v>
       </c>
       <c r="M292" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N292">
         <v>0</v>
@@ -16205,7 +16265,7 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C293">
         <v>75</v>
@@ -16223,7 +16283,7 @@
         <v>677</v>
       </c>
       <c r="M293" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N293">
         <v>0</v>
@@ -16231,7 +16291,7 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C294">
         <v>75</v>
@@ -16249,7 +16309,7 @@
         <v>677</v>
       </c>
       <c r="M294" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N294">
         <v>0</v>
@@ -16260,7 +16320,7 @@
         <v>867</v>
       </c>
       <c r="B295" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C295">
         <v>75</v>
@@ -16278,7 +16338,7 @@
         <v>677</v>
       </c>
       <c r="M295" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N295">
         <v>0</v>
@@ -16286,7 +16346,7 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C296">
         <v>75</v>
@@ -16304,7 +16364,7 @@
         <v>677</v>
       </c>
       <c r="M296" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N296">
         <v>0</v>
@@ -16312,7 +16372,7 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C297">
         <v>75</v>
@@ -16330,7 +16390,7 @@
         <v>677</v>
       </c>
       <c r="M297" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N297">
         <v>0</v>
@@ -16338,7 +16398,7 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C298">
         <v>75</v>
@@ -16356,7 +16416,7 @@
         <v>16</v>
       </c>
       <c r="H298" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I298">
         <v>2000</v>
@@ -16371,7 +16431,7 @@
         <v>677</v>
       </c>
       <c r="M298" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N298">
         <v>0</v>
@@ -16379,7 +16439,7 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C299">
         <v>75</v>
@@ -16397,7 +16457,7 @@
         <v>677</v>
       </c>
       <c r="M299" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N299">
         <v>0</v>
@@ -16405,7 +16465,7 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C300">
         <v>75</v>
@@ -16423,7 +16483,7 @@
         <v>677</v>
       </c>
       <c r="M300" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -16431,7 +16491,7 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C301">
         <v>75</v>
@@ -16449,7 +16509,7 @@
         <v>677</v>
       </c>
       <c r="M301" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N301">
         <v>0</v>
@@ -16457,10 +16517,10 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C302">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D302">
         <v>106</v>
@@ -16475,7 +16535,7 @@
         <v>677</v>
       </c>
       <c r="M302" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -16483,10 +16543,10 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C303">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D303">
         <v>107</v>
@@ -16501,7 +16561,7 @@
         <v>677</v>
       </c>
       <c r="M303" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N303">
         <v>0</v>
@@ -16509,10 +16569,10 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C304">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D304">
         <v>108</v>
@@ -16527,7 +16587,7 @@
         <v>677</v>
       </c>
       <c r="M304" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N304">
         <v>0</v>
@@ -16535,10 +16595,10 @@
     </row>
     <row r="305" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C305">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D305">
         <v>109</v>
@@ -16553,7 +16613,7 @@
         <v>677</v>
       </c>
       <c r="M305" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N305">
         <v>0</v>
@@ -16561,10 +16621,10 @@
     </row>
     <row r="306" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C306">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D306">
         <v>110</v>
@@ -16582,7 +16642,7 @@
         <v>677</v>
       </c>
       <c r="M306" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -16590,10 +16650,10 @@
     </row>
     <row r="307" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C307">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D307">
         <v>111</v>
@@ -16608,7 +16668,7 @@
         <v>677</v>
       </c>
       <c r="M307" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N307">
         <v>0</v>
@@ -16616,10 +16676,10 @@
     </row>
     <row r="308" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C308">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D308">
         <v>112</v>
@@ -16634,7 +16694,7 @@
         <v>677</v>
       </c>
       <c r="M308" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N308">
         <v>0</v>
@@ -16642,10 +16702,10 @@
     </row>
     <row r="309" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C309">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D309">
         <v>113</v>
@@ -16660,7 +16720,7 @@
         <v>677</v>
       </c>
       <c r="M309" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N309">
         <v>0</v>
@@ -16668,10 +16728,10 @@
     </row>
     <row r="310" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C310">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D310">
         <v>114</v>
@@ -16686,7 +16746,7 @@
         <v>677</v>
       </c>
       <c r="M310" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -16694,10 +16754,10 @@
     </row>
     <row r="311" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C311">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D311">
         <v>115</v>
@@ -16712,7 +16772,7 @@
         <v>677</v>
       </c>
       <c r="M311" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N311">
         <v>0</v>
@@ -16720,10 +16780,10 @@
     </row>
     <row r="312" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C312">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D312">
         <v>116</v>
@@ -16738,7 +16798,7 @@
         <v>677</v>
       </c>
       <c r="M312" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N312">
         <v>0</v>
@@ -16746,10 +16806,10 @@
     </row>
     <row r="313" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C313">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D313">
         <v>117</v>
@@ -16764,7 +16824,7 @@
         <v>677</v>
       </c>
       <c r="M313" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N313">
         <v>0</v>
@@ -16772,10 +16832,10 @@
     </row>
     <row r="314" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C314">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D314">
         <v>118</v>
@@ -16790,7 +16850,7 @@
         <v>677</v>
       </c>
       <c r="M314" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N314">
         <v>0</v>
@@ -16798,10 +16858,10 @@
     </row>
     <row r="315" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C315">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D315">
         <v>119</v>
@@ -16816,7 +16876,7 @@
         <v>677</v>
       </c>
       <c r="M315" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N315">
         <v>0</v>
@@ -16824,10 +16884,10 @@
     </row>
     <row r="316" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C316">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D316">
         <v>120</v>
@@ -16842,7 +16902,7 @@
         <v>677</v>
       </c>
       <c r="M316" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N316">
         <v>0</v>
@@ -16850,10 +16910,10 @@
     </row>
     <row r="317" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C317">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D317">
         <v>121</v>
@@ -16868,7 +16928,7 @@
         <v>677</v>
       </c>
       <c r="M317" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N317">
         <v>0</v>
@@ -16876,10 +16936,10 @@
     </row>
     <row r="318" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C318">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D318">
         <v>122</v>
@@ -16894,7 +16954,7 @@
         <v>677</v>
       </c>
       <c r="M318" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N318">
         <v>0</v>
@@ -16902,10 +16962,10 @@
     </row>
     <row r="319" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C319">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D319">
         <v>123</v>
@@ -16920,7 +16980,7 @@
         <v>677</v>
       </c>
       <c r="M319" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N319">
         <v>0</v>
@@ -16928,10 +16988,10 @@
     </row>
     <row r="320" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C320">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D320">
         <v>124</v>
@@ -16946,7 +17006,7 @@
         <v>677</v>
       </c>
       <c r="M320" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N320">
         <v>0</v>
@@ -16954,10 +17014,10 @@
     </row>
     <row r="321" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C321">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D321">
         <v>125</v>
@@ -16972,7 +17032,7 @@
         <v>677</v>
       </c>
       <c r="M321" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N321">
         <v>0</v>
@@ -16980,10 +17040,10 @@
     </row>
     <row r="322" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C322">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D322">
         <v>126</v>
@@ -16998,7 +17058,7 @@
         <v>677</v>
       </c>
       <c r="M322" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N322">
         <v>0</v>
@@ -17006,25 +17066,25 @@
     </row>
     <row r="323" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
-        <v>916</v>
+        <v>958</v>
       </c>
       <c r="C323">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D323">
         <v>170</v>
       </c>
       <c r="J323">
-        <v>19.521393246330199</v>
+        <v>19.484279572703599</v>
       </c>
       <c r="K323">
-        <v>-99.228331397570599</v>
+        <v>-99.029290055252204</v>
       </c>
       <c r="L323" t="s">
         <v>677</v>
       </c>
       <c r="M323" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N323">
         <v>0</v>
@@ -17032,25 +17092,25 @@
     </row>
     <row r="324" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>917</v>
+        <v>957</v>
       </c>
       <c r="C324">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D324">
         <v>171</v>
       </c>
       <c r="J324">
-        <v>19.528904058919299</v>
+        <v>19.488577785379601</v>
       </c>
       <c r="K324">
-        <v>-99.222574459741097</v>
+        <v>-99.015055667892696</v>
       </c>
       <c r="L324" t="s">
         <v>677</v>
       </c>
       <c r="M324" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N324">
         <v>0</v>
@@ -17058,25 +17118,25 @@
     </row>
     <row r="325" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
-        <v>918</v>
+        <v>956</v>
       </c>
       <c r="C325">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D325">
         <v>172</v>
       </c>
       <c r="J325">
-        <v>19.534521757487301</v>
+        <v>19.5072002817362</v>
       </c>
       <c r="K325">
-        <v>-99.218309077622493</v>
+        <v>-99.014561121666205</v>
       </c>
       <c r="L325" t="s">
         <v>677</v>
       </c>
       <c r="M325" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N325">
         <v>0</v>
@@ -17084,25 +17144,25 @@
     </row>
     <row r="326" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
-        <v>919</v>
+        <v>955</v>
       </c>
       <c r="C326">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D326">
         <v>173</v>
       </c>
       <c r="J326">
-        <v>19.5394651446104</v>
+        <v>19.528429904267899</v>
       </c>
       <c r="K326">
-        <v>-99.214489579545798</v>
+        <v>-99.014574184504497</v>
       </c>
       <c r="L326" t="s">
         <v>677</v>
       </c>
       <c r="M326" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N326">
         <v>0</v>
@@ -17110,25 +17170,25 @@
     </row>
     <row r="327" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
-        <v>920</v>
+        <v>954</v>
       </c>
       <c r="C327">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D327">
         <v>174</v>
       </c>
       <c r="J327">
-        <v>19.543742307328198</v>
+        <v>19.551089795602099</v>
       </c>
       <c r="K327">
-        <v>-99.212568688089107</v>
+        <v>-99.014013989055201</v>
       </c>
       <c r="L327" t="s">
         <v>677</v>
       </c>
       <c r="M327" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N327">
         <v>0</v>
@@ -17136,25 +17196,25 @@
     </row>
     <row r="328" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
-        <v>921</v>
+        <v>953</v>
       </c>
       <c r="C328">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D328">
         <v>175</v>
       </c>
       <c r="J328">
-        <v>19.550581304002598</v>
+        <v>19.5675346501306</v>
       </c>
       <c r="K328">
-        <v>-99.207459057863801</v>
+        <v>-99.015619693015196</v>
       </c>
       <c r="L328" t="s">
         <v>677</v>
       </c>
       <c r="M328" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N328">
         <v>0</v>
@@ -17162,25 +17222,25 @@
     </row>
     <row r="329" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
-        <v>922</v>
+        <v>952</v>
       </c>
       <c r="C329">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D329">
         <v>176</v>
       </c>
       <c r="J329">
-        <v>19.555845670707399</v>
+        <v>19.578816708525299</v>
       </c>
       <c r="K329">
-        <v>-99.204372472163996</v>
+        <v>-99.023883025077893</v>
       </c>
       <c r="L329" t="s">
         <v>677</v>
       </c>
       <c r="M329" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N329">
         <v>0</v>
@@ -17188,25 +17248,25 @@
     </row>
     <row r="330" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
-        <v>923</v>
+        <v>951</v>
       </c>
       <c r="C330">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D330">
         <v>177</v>
       </c>
       <c r="J330">
-        <v>19.560269724833301</v>
+        <v>19.591422339484598</v>
       </c>
       <c r="K330">
-        <v>-99.2031792054851</v>
+        <v>-99.030598924307398</v>
       </c>
       <c r="L330" t="s">
         <v>677</v>
       </c>
       <c r="M330" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N330">
         <v>0</v>
@@ -17214,25 +17274,25 @@
     </row>
     <row r="331" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
-        <v>924</v>
+        <v>950</v>
       </c>
       <c r="C331">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D331">
         <v>177</v>
       </c>
       <c r="J331">
-        <v>19.562355321191301</v>
+        <v>19.603249717850201</v>
       </c>
       <c r="K331">
-        <v>-99.203081357145194</v>
+        <v>-99.037189559542298</v>
       </c>
       <c r="L331" t="s">
         <v>677</v>
       </c>
       <c r="M331" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N331">
         <v>0</v>
@@ -17240,25 +17300,25 @@
     </row>
     <row r="332" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
-        <v>925</v>
+        <v>949</v>
       </c>
       <c r="C332">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D332">
         <v>178</v>
       </c>
       <c r="J332">
-        <v>19.5608380391716</v>
+        <v>19.6137769849744</v>
       </c>
       <c r="K332">
-        <v>-99.197850727168401</v>
+        <v>-99.039855254109298</v>
       </c>
       <c r="L332" t="s">
         <v>677</v>
       </c>
       <c r="M332" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N332">
         <v>0</v>
@@ -17266,25 +17326,25 @@
     </row>
     <row r="333" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
-        <v>926</v>
+        <v>948</v>
       </c>
       <c r="C333">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D333">
         <v>179</v>
       </c>
       <c r="J333">
-        <v>19.561210886799401</v>
+        <v>19.611783817655599</v>
       </c>
       <c r="K333">
-        <v>-99.194904592844694</v>
+        <v>-99.0594486572992</v>
       </c>
       <c r="L333" t="s">
         <v>677</v>
       </c>
       <c r="M333" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -17292,25 +17352,25 @@
     </row>
     <row r="334" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
-        <v>927</v>
+        <v>10</v>
       </c>
       <c r="C334">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D334">
         <v>180</v>
       </c>
       <c r="J334">
-        <v>19.5652984750812</v>
+        <v>19.620122660930601</v>
       </c>
       <c r="K334">
-        <v>-99.194951214253706</v>
+        <v>-99.069526660185403</v>
       </c>
       <c r="L334" t="s">
         <v>677</v>
       </c>
       <c r="M334" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N334">
         <v>0</v>
@@ -17318,25 +17378,25 @@
     </row>
     <row r="335" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="C335">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D335">
         <v>181</v>
       </c>
       <c r="J335">
-        <v>19.5711260781631</v>
+        <v>19.6248664277276</v>
       </c>
       <c r="K335">
-        <v>-99.194755825699801</v>
+        <v>-99.077004198535406</v>
       </c>
       <c r="L335" t="s">
         <v>677</v>
       </c>
       <c r="M335" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N335">
         <v>0</v>
@@ -17344,25 +17404,25 @@
     </row>
     <row r="336" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
-        <v>929</v>
+        <v>946</v>
       </c>
       <c r="C336">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D336">
         <v>182</v>
       </c>
       <c r="J336">
-        <v>19.5751298743013</v>
+        <v>19.6316875590758</v>
       </c>
       <c r="K336">
-        <v>-99.196615926979007</v>
+        <v>-99.090740098519902</v>
       </c>
       <c r="L336" t="s">
         <v>677</v>
       </c>
       <c r="M336" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N336">
         <v>0</v>
@@ -17370,25 +17430,25 @@
     </row>
     <row r="337" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="C337">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D337">
         <v>183</v>
       </c>
       <c r="J337">
-        <v>19.587781795256902</v>
+        <v>19.633932135351799</v>
       </c>
       <c r="K337">
-        <v>-99.193395046764607</v>
+        <v>-99.096858327669594</v>
       </c>
       <c r="L337" t="s">
         <v>677</v>
       </c>
       <c r="M337" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N337">
         <v>0</v>
@@ -17396,25 +17456,25 @@
     </row>
     <row r="338" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
       <c r="C338">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D338">
         <v>184</v>
       </c>
       <c r="J338">
-        <v>19.593426470008499</v>
+        <v>19.635785902932799</v>
       </c>
       <c r="K338">
-        <v>-99.184153241163401</v>
+        <v>-99.1060591532042</v>
       </c>
       <c r="L338" t="s">
         <v>677</v>
       </c>
       <c r="M338" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N338">
         <v>0</v>
@@ -17422,25 +17482,25 @@
     </row>
     <row r="339" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="C339">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D339">
         <v>185</v>
       </c>
       <c r="J339">
-        <v>19.599542952862201</v>
+        <v>19.632814972026601</v>
       </c>
       <c r="K339">
-        <v>-99.183511218660399</v>
+        <v>-99.119226176441799</v>
       </c>
       <c r="L339" t="s">
         <v>677</v>
       </c>
       <c r="M339" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N339">
         <v>0</v>
@@ -17448,25 +17508,25 @@
     </row>
     <row r="340" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
-        <v>933</v>
+        <v>942</v>
       </c>
       <c r="C340">
-        <v>75</v>
-      </c>
-      <c r="D340" s="7">
+        <v>77</v>
+      </c>
+      <c r="D340" s="4">
         <v>186</v>
       </c>
       <c r="J340">
-        <v>19.606474342971001</v>
+        <v>19.630844151885899</v>
       </c>
       <c r="K340">
-        <v>-99.182274434518803</v>
+        <v>-99.124549734005996</v>
       </c>
       <c r="L340" t="s">
         <v>677</v>
       </c>
       <c r="M340" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N340">
         <v>0</v>
@@ -17474,25 +17534,25 @@
     </row>
     <row r="341" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="C341">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D341">
         <v>187</v>
       </c>
       <c r="J341">
-        <v>19.614655710965</v>
+        <v>19.629643099682099</v>
       </c>
       <c r="K341">
-        <v>-99.180837010600001</v>
+        <v>-99.131210513956702</v>
       </c>
       <c r="L341" t="s">
         <v>677</v>
       </c>
       <c r="M341" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N341">
         <v>0</v>
@@ -17500,25 +17560,25 @@
     </row>
     <row r="342" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="C342">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D342">
         <v>188</v>
       </c>
       <c r="J342">
-        <v>19.6172317219898</v>
+        <v>19.628867750307499</v>
       </c>
       <c r="K342">
-        <v>-99.178921650529901</v>
+        <v>-99.135975910330401</v>
       </c>
       <c r="L342" t="s">
         <v>677</v>
       </c>
       <c r="M342" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N342">
         <v>0</v>
@@ -17526,25 +17586,25 @@
     </row>
     <row r="343" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="C343">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D343">
         <v>189</v>
       </c>
       <c r="J343">
-        <v>19.6198424347943</v>
+        <v>19.626051318763299</v>
       </c>
       <c r="K343">
-        <v>-99.171568459305703</v>
+        <v>-99.147564069197799</v>
       </c>
       <c r="L343" t="s">
         <v>677</v>
       </c>
       <c r="M343" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N343">
         <v>0</v>
@@ -17552,25 +17612,25 @@
     </row>
     <row r="344" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C344">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D344">
         <v>190</v>
       </c>
       <c r="J344">
-        <v>19.6208221515495</v>
+        <v>19.623557148366601</v>
       </c>
       <c r="K344">
-        <v>-99.167783531833607</v>
+        <v>-99.157443978169098</v>
       </c>
       <c r="L344" t="s">
         <v>677</v>
       </c>
       <c r="M344" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N344">
         <v>0</v>
@@ -17578,10 +17638,10 @@
     </row>
     <row r="345" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C345">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D345">
         <v>191</v>
@@ -17596,7 +17656,7 @@
         <v>677</v>
       </c>
       <c r="M345" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N345">
         <v>0</v>
@@ -17604,25 +17664,25 @@
     </row>
     <row r="346" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C346">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D346">
         <v>192</v>
       </c>
       <c r="J346">
-        <v>19.623557148366601</v>
+        <v>19.6208221515495</v>
       </c>
       <c r="K346">
-        <v>-99.157443978169098</v>
+        <v>-99.167783531833607</v>
       </c>
       <c r="L346" t="s">
         <v>677</v>
       </c>
       <c r="M346" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -17630,25 +17690,25 @@
     </row>
     <row r="347" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C347">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D347">
         <v>193</v>
       </c>
       <c r="J347">
-        <v>19.626051318763299</v>
+        <v>19.6198424347943</v>
       </c>
       <c r="K347">
-        <v>-99.147564069197799</v>
+        <v>-99.171568459305703</v>
       </c>
       <c r="L347" t="s">
         <v>677</v>
       </c>
       <c r="M347" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N347">
         <v>0</v>
@@ -17656,25 +17716,25 @@
     </row>
     <row r="348" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C348">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D348">
         <v>194</v>
       </c>
       <c r="J348">
-        <v>19.628867750307499</v>
+        <v>19.6172317219898</v>
       </c>
       <c r="K348">
-        <v>-99.135975910330401</v>
+        <v>-99.178921650529901</v>
       </c>
       <c r="L348" t="s">
         <v>677</v>
       </c>
       <c r="M348" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N348">
         <v>0</v>
@@ -17682,25 +17742,25 @@
     </row>
     <row r="349" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="C349">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D349">
         <v>195</v>
       </c>
       <c r="J349">
-        <v>19.629643099682099</v>
+        <v>19.614655710965</v>
       </c>
       <c r="K349">
-        <v>-99.131210513956702</v>
+        <v>-99.180837010600001</v>
       </c>
       <c r="L349" t="s">
         <v>677</v>
       </c>
       <c r="M349" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N349">
         <v>0</v>
@@ -17708,25 +17768,25 @@
     </row>
     <row r="350" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="C350">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D350">
         <v>196</v>
       </c>
       <c r="J350">
-        <v>19.630844151885899</v>
+        <v>19.606474342971001</v>
       </c>
       <c r="K350">
-        <v>-99.124549734005996</v>
+        <v>-99.182274434518803</v>
       </c>
       <c r="L350" t="s">
         <v>677</v>
       </c>
       <c r="M350" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N350">
         <v>0</v>
@@ -17734,25 +17794,25 @@
     </row>
     <row r="351" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="C351">
-        <v>75</v>
-      </c>
-      <c r="D351">
+        <v>77</v>
+      </c>
+      <c r="D351" s="8">
         <v>197</v>
       </c>
       <c r="J351">
-        <v>19.632814972026601</v>
+        <v>19.599542952862201</v>
       </c>
       <c r="K351">
-        <v>-99.119226176441799</v>
+        <v>-99.183511218660399</v>
       </c>
       <c r="L351" t="s">
         <v>677</v>
       </c>
       <c r="M351" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N351">
         <v>0</v>
@@ -17760,25 +17820,25 @@
     </row>
     <row r="352" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="C352">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D352">
         <v>198</v>
       </c>
       <c r="J352">
-        <v>19.635785902932799</v>
+        <v>19.593426470008499</v>
       </c>
       <c r="K352">
-        <v>-99.1060591532042</v>
+        <v>-99.184153241163401</v>
       </c>
       <c r="L352" t="s">
         <v>677</v>
       </c>
       <c r="M352" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N352">
         <v>0</v>
@@ -17786,25 +17846,25 @@
     </row>
     <row r="353" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="C353">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D353">
         <v>199</v>
       </c>
       <c r="J353">
-        <v>19.633932135351799</v>
+        <v>19.587781795256902</v>
       </c>
       <c r="K353">
-        <v>-99.096858327669594</v>
+        <v>-99.193395046764607</v>
       </c>
       <c r="L353" t="s">
         <v>677</v>
       </c>
       <c r="M353" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N353">
         <v>0</v>
@@ -17812,25 +17872,25 @@
     </row>
     <row r="354" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="C354">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D354">
         <v>200</v>
       </c>
       <c r="J354">
-        <v>19.6316875590758</v>
+        <v>19.5751298743013</v>
       </c>
       <c r="K354">
-        <v>-99.090740098519902</v>
+        <v>-99.196615926979007</v>
       </c>
       <c r="L354" t="s">
         <v>677</v>
       </c>
       <c r="M354" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N354">
         <v>0</v>
@@ -17838,25 +17898,25 @@
     </row>
     <row r="355" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="C355">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D355">
         <v>201</v>
       </c>
       <c r="J355">
-        <v>19.6248664277276</v>
+        <v>19.5711260781631</v>
       </c>
       <c r="K355">
-        <v>-99.077004198535406</v>
+        <v>-99.194755825699801</v>
       </c>
       <c r="L355" t="s">
         <v>677</v>
       </c>
       <c r="M355" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N355">
         <v>0</v>
@@ -17864,25 +17924,25 @@
     </row>
     <row r="356" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
-        <v>10</v>
+        <v>926</v>
       </c>
       <c r="C356">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D356">
         <v>202</v>
       </c>
       <c r="J356">
-        <v>19.620122660930601</v>
+        <v>19.5652984750812</v>
       </c>
       <c r="K356">
-        <v>-99.069526660185403</v>
+        <v>-99.194951214253706</v>
       </c>
       <c r="L356" t="s">
         <v>677</v>
       </c>
       <c r="M356" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N356">
         <v>0</v>
@@ -17890,25 +17950,25 @@
     </row>
     <row r="357" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
-        <v>949</v>
+        <v>925</v>
       </c>
       <c r="C357">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D357">
         <v>203</v>
       </c>
       <c r="J357">
-        <v>19.611783817655599</v>
+        <v>19.561210886799401</v>
       </c>
       <c r="K357">
-        <v>-99.0594486572992</v>
+        <v>-99.194904592844694</v>
       </c>
       <c r="L357" t="s">
         <v>677</v>
       </c>
       <c r="M357" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N357">
         <v>0</v>
@@ -17916,25 +17976,25 @@
     </row>
     <row r="358" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
-        <v>950</v>
+        <v>924</v>
       </c>
       <c r="C358">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D358">
         <v>204</v>
       </c>
       <c r="J358">
-        <v>19.6137769849744</v>
+        <v>19.5608380391716</v>
       </c>
       <c r="K358">
-        <v>-99.039855254109298</v>
+        <v>-99.197850727168401</v>
       </c>
       <c r="L358" t="s">
         <v>677</v>
       </c>
       <c r="M358" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N358">
         <v>0</v>
@@ -17942,50 +18002,260 @@
     </row>
     <row r="359" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
-        <v>951</v>
+        <v>922</v>
       </c>
       <c r="C359">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D359">
         <v>205</v>
       </c>
       <c r="J359">
-        <v>19.603249717850201</v>
+        <v>19.560269724833301</v>
       </c>
       <c r="K359">
-        <v>-99.037189559542298</v>
+        <v>-99.2031792054851</v>
       </c>
       <c r="L359" t="s">
         <v>677</v>
       </c>
       <c r="M359" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N359">
         <v>0</v>
       </c>
     </row>
+    <row r="360" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B360" t="s">
+        <v>923</v>
+      </c>
+      <c r="C360">
+        <v>77</v>
+      </c>
+      <c r="D360">
+        <v>206</v>
+      </c>
+      <c r="J360">
+        <v>19.562355321191301</v>
+      </c>
+      <c r="K360">
+        <v>-99.203081357145194</v>
+      </c>
+      <c r="L360" t="s">
+        <v>677</v>
+      </c>
+      <c r="M360" t="s">
+        <v>912</v>
+      </c>
+      <c r="N360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B361" t="s">
+        <v>921</v>
+      </c>
+      <c r="C361">
+        <v>77</v>
+      </c>
+      <c r="D361">
+        <v>207</v>
+      </c>
+      <c r="J361">
+        <v>19.555845670707399</v>
+      </c>
+      <c r="K361">
+        <v>-99.204372472163996</v>
+      </c>
+      <c r="L361" t="s">
+        <v>677</v>
+      </c>
+      <c r="M361" t="s">
+        <v>912</v>
+      </c>
+      <c r="N361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B362" t="s">
+        <v>920</v>
+      </c>
+      <c r="C362">
+        <v>77</v>
+      </c>
+      <c r="D362">
+        <v>208</v>
+      </c>
+      <c r="J362">
+        <v>19.550581304002598</v>
+      </c>
+      <c r="K362">
+        <v>-99.207459057863801</v>
+      </c>
+      <c r="L362" t="s">
+        <v>677</v>
+      </c>
+      <c r="M362" t="s">
+        <v>912</v>
+      </c>
+      <c r="N362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B363" t="s">
+        <v>919</v>
+      </c>
+      <c r="C363">
+        <v>77</v>
+      </c>
+      <c r="D363">
+        <v>209</v>
+      </c>
+      <c r="J363">
+        <v>19.543742307328198</v>
+      </c>
+      <c r="K363">
+        <v>-99.212568688089107</v>
+      </c>
+      <c r="L363" t="s">
+        <v>677</v>
+      </c>
+      <c r="M363" t="s">
+        <v>912</v>
+      </c>
+      <c r="N363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B364" t="s">
+        <v>918</v>
+      </c>
+      <c r="C364">
+        <v>77</v>
+      </c>
+      <c r="D364">
+        <v>210</v>
+      </c>
+      <c r="J364">
+        <v>19.5394651446104</v>
+      </c>
+      <c r="K364">
+        <v>-99.214489579545798</v>
+      </c>
+      <c r="L364" t="s">
+        <v>677</v>
+      </c>
+      <c r="M364" t="s">
+        <v>912</v>
+      </c>
+      <c r="N364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
+        <v>917</v>
+      </c>
+      <c r="C365">
+        <v>77</v>
+      </c>
+      <c r="D365">
+        <v>211</v>
+      </c>
+      <c r="J365">
+        <v>19.534521757487301</v>
+      </c>
+      <c r="K365">
+        <v>-99.218309077622493</v>
+      </c>
+      <c r="L365" t="s">
+        <v>677</v>
+      </c>
+      <c r="M365" t="s">
+        <v>912</v>
+      </c>
+      <c r="N365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B366" t="s">
+        <v>916</v>
+      </c>
+      <c r="C366">
+        <v>77</v>
+      </c>
+      <c r="D366">
+        <v>212</v>
+      </c>
+      <c r="J366">
+        <v>19.528904058919299</v>
+      </c>
+      <c r="K366">
+        <v>-99.222574459741097</v>
+      </c>
+      <c r="L366" t="s">
+        <v>677</v>
+      </c>
+      <c r="M366" t="s">
+        <v>912</v>
+      </c>
+      <c r="N366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B367" t="s">
+        <v>915</v>
+      </c>
+      <c r="C367">
+        <v>77</v>
+      </c>
+      <c r="D367">
+        <v>213</v>
+      </c>
+      <c r="J367">
+        <v>19.521393246330199</v>
+      </c>
+      <c r="K367">
+        <v>-99.228331397570599</v>
+      </c>
+      <c r="L367" t="s">
+        <v>677</v>
+      </c>
+      <c r="M367" t="s">
+        <v>912</v>
+      </c>
+      <c r="N367">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K340" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="75"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K367" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="39">
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="O188:O190"/>
+    <mergeCell ref="O160:O161"/>
+    <mergeCell ref="O162:O163"/>
+    <mergeCell ref="O166:O167"/>
+    <mergeCell ref="O181:O183"/>
+    <mergeCell ref="O147:O148"/>
+    <mergeCell ref="O151:O152"/>
+    <mergeCell ref="O154:O155"/>
+    <mergeCell ref="O157:O158"/>
+    <mergeCell ref="O124:O125"/>
+    <mergeCell ref="O128:O129"/>
+    <mergeCell ref="O130:O131"/>
+    <mergeCell ref="O134:O135"/>
+    <mergeCell ref="O144:O145"/>
+    <mergeCell ref="O104:O105"/>
+    <mergeCell ref="O106:O107"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="O120:O121"/>
+    <mergeCell ref="O122:O123"/>
     <mergeCell ref="O94:O95"/>
     <mergeCell ref="O96:O97"/>
     <mergeCell ref="O98:O100"/>
@@ -17995,25 +18265,17 @@
     <mergeCell ref="O87:O88"/>
     <mergeCell ref="O90:O91"/>
     <mergeCell ref="O92:O93"/>
-    <mergeCell ref="O104:O105"/>
-    <mergeCell ref="O106:O107"/>
-    <mergeCell ref="O109:O110"/>
-    <mergeCell ref="O120:O121"/>
-    <mergeCell ref="O122:O123"/>
-    <mergeCell ref="O147:O148"/>
-    <mergeCell ref="O151:O152"/>
-    <mergeCell ref="O154:O155"/>
-    <mergeCell ref="O157:O158"/>
-    <mergeCell ref="O124:O125"/>
-    <mergeCell ref="O128:O129"/>
-    <mergeCell ref="O130:O131"/>
-    <mergeCell ref="O134:O135"/>
-    <mergeCell ref="O144:O145"/>
-    <mergeCell ref="O188:O190"/>
-    <mergeCell ref="O160:O161"/>
-    <mergeCell ref="O162:O163"/>
-    <mergeCell ref="O166:O167"/>
-    <mergeCell ref="O181:O183"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18022,6 +18284,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B047C7DB-A107-BB46-A4F0-29B07EC7587D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A14F07-4ABF-0449-8FED-10274A7ADC0A}">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -18080,7 +18356,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C2">
         <v>75</v>
@@ -18097,7 +18373,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C3">
         <v>75</v>
@@ -18114,7 +18390,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C4">
         <v>75</v>
@@ -18131,7 +18407,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C5">
         <v>75</v>
@@ -18151,12 +18427,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D61F9FF-1099-874D-861D-4522CE1B5818}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18192,7 +18468,7 @@
         <v>640</v>
       </c>
       <c r="I1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -18524,10 +18800,10 @@
         <v>2012</v>
       </c>
       <c r="E14" t="s">
+        <v>868</v>
+      </c>
+      <c r="F14" t="s">
         <v>869</v>
-      </c>
-      <c r="F14" t="s">
-        <v>870</v>
       </c>
       <c r="G14">
         <v>40</v>
@@ -18622,21 +18898,99 @@
         <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>868</v>
+        <v>967</v>
       </c>
       <c r="D18">
         <v>2012</v>
       </c>
       <c r="E18" t="s">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="F18" t="s">
-        <v>841</v>
+        <v>869</v>
       </c>
       <c r="G18">
         <v>40</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>867</v>
+      </c>
+      <c r="B19">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>968</v>
+      </c>
+      <c r="D19">
+        <v>2012</v>
+      </c>
+      <c r="E19" t="s">
+        <v>840</v>
+      </c>
+      <c r="F19" t="s">
+        <v>841</v>
+      </c>
+      <c r="G19">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>867</v>
+      </c>
+      <c r="B20">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>969</v>
+      </c>
+      <c r="D20">
+        <v>2012</v>
+      </c>
+      <c r="E20" t="s">
+        <v>861</v>
+      </c>
+      <c r="F20" t="s">
+        <v>860</v>
+      </c>
+      <c r="G20">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>867</v>
+      </c>
+      <c r="B21">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>970</v>
+      </c>
+      <c r="D21">
+        <v>2012</v>
+      </c>
+      <c r="E21" t="s">
+        <v>863</v>
+      </c>
+      <c r="F21" t="s">
+        <v>862</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
     </row>
@@ -18645,4 +18999,1220 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EC9F66-F991-2C4D-B1CC-3E8748D15396}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D1" t="s">
+        <v>962</v>
+      </c>
+      <c r="E1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F1" t="s">
+        <v>964</v>
+      </c>
+      <c r="G1" t="s">
+        <v>966</v>
+      </c>
+      <c r="H1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>213</v>
+      </c>
+      <c r="D2">
+        <v>19.484279572703599</v>
+      </c>
+      <c r="E2">
+        <v>-99.029290055252204</v>
+      </c>
+      <c r="F2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G2" t="s">
+        <v>912</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>212</v>
+      </c>
+      <c r="D3">
+        <v>19.488577785379601</v>
+      </c>
+      <c r="E3">
+        <v>-99.015055667892696</v>
+      </c>
+      <c r="F3" t="s">
+        <v>677</v>
+      </c>
+      <c r="G3" t="s">
+        <v>912</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>956</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>211</v>
+      </c>
+      <c r="D4">
+        <v>19.5072002817362</v>
+      </c>
+      <c r="E4">
+        <v>-99.014561121666205</v>
+      </c>
+      <c r="F4" t="s">
+        <v>677</v>
+      </c>
+      <c r="G4" t="s">
+        <v>912</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>955</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>210</v>
+      </c>
+      <c r="D5">
+        <v>19.528429904267899</v>
+      </c>
+      <c r="E5">
+        <v>-99.014574184504497</v>
+      </c>
+      <c r="F5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G5" t="s">
+        <v>912</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>954</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>209</v>
+      </c>
+      <c r="D6">
+        <v>19.551089795602099</v>
+      </c>
+      <c r="E6">
+        <v>-99.014013989055201</v>
+      </c>
+      <c r="F6" t="s">
+        <v>677</v>
+      </c>
+      <c r="G6" t="s">
+        <v>912</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>953</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>208</v>
+      </c>
+      <c r="D7">
+        <v>19.5675346501306</v>
+      </c>
+      <c r="E7">
+        <v>-99.015619693015196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>677</v>
+      </c>
+      <c r="G7" t="s">
+        <v>912</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>952</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>207</v>
+      </c>
+      <c r="D8">
+        <v>19.578816708525299</v>
+      </c>
+      <c r="E8">
+        <v>-99.023883025077893</v>
+      </c>
+      <c r="F8" t="s">
+        <v>677</v>
+      </c>
+      <c r="G8" t="s">
+        <v>912</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>951</v>
+      </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>206</v>
+      </c>
+      <c r="D9">
+        <v>19.591422339484598</v>
+      </c>
+      <c r="E9">
+        <v>-99.030598924307398</v>
+      </c>
+      <c r="F9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G9" t="s">
+        <v>912</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>950</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>205</v>
+      </c>
+      <c r="D10">
+        <v>19.603249717850201</v>
+      </c>
+      <c r="E10">
+        <v>-99.037189559542298</v>
+      </c>
+      <c r="F10" t="s">
+        <v>677</v>
+      </c>
+      <c r="G10" t="s">
+        <v>912</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>949</v>
+      </c>
+      <c r="B11">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>204</v>
+      </c>
+      <c r="D11">
+        <v>19.6137769849744</v>
+      </c>
+      <c r="E11">
+        <v>-99.039855254109298</v>
+      </c>
+      <c r="F11" t="s">
+        <v>677</v>
+      </c>
+      <c r="G11" t="s">
+        <v>912</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>948</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>203</v>
+      </c>
+      <c r="D12">
+        <v>19.611783817655599</v>
+      </c>
+      <c r="E12">
+        <v>-99.0594486572992</v>
+      </c>
+      <c r="F12" t="s">
+        <v>677</v>
+      </c>
+      <c r="G12" t="s">
+        <v>912</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>202</v>
+      </c>
+      <c r="D13">
+        <v>19.620122660930601</v>
+      </c>
+      <c r="E13">
+        <v>-99.069526660185403</v>
+      </c>
+      <c r="F13" t="s">
+        <v>677</v>
+      </c>
+      <c r="G13" t="s">
+        <v>912</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>947</v>
+      </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>201</v>
+      </c>
+      <c r="D14">
+        <v>19.6248664277276</v>
+      </c>
+      <c r="E14">
+        <v>-99.077004198535406</v>
+      </c>
+      <c r="F14" t="s">
+        <v>677</v>
+      </c>
+      <c r="G14" t="s">
+        <v>912</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>946</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15">
+        <v>19.6316875590758</v>
+      </c>
+      <c r="E15">
+        <v>-99.090740098519902</v>
+      </c>
+      <c r="F15" t="s">
+        <v>677</v>
+      </c>
+      <c r="G15" t="s">
+        <v>912</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>945</v>
+      </c>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>199</v>
+      </c>
+      <c r="D16">
+        <v>19.633932135351799</v>
+      </c>
+      <c r="E16">
+        <v>-99.096858327669594</v>
+      </c>
+      <c r="F16" t="s">
+        <v>677</v>
+      </c>
+      <c r="G16" t="s">
+        <v>912</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>944</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>198</v>
+      </c>
+      <c r="D17">
+        <v>19.635785902932799</v>
+      </c>
+      <c r="E17">
+        <v>-99.1060591532042</v>
+      </c>
+      <c r="F17" t="s">
+        <v>677</v>
+      </c>
+      <c r="G17" t="s">
+        <v>912</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>943</v>
+      </c>
+      <c r="B18">
+        <v>75</v>
+      </c>
+      <c r="C18" s="8">
+        <v>197</v>
+      </c>
+      <c r="D18">
+        <v>19.632814972026601</v>
+      </c>
+      <c r="E18">
+        <v>-99.119226176441799</v>
+      </c>
+      <c r="F18" t="s">
+        <v>677</v>
+      </c>
+      <c r="G18" t="s">
+        <v>912</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>942</v>
+      </c>
+      <c r="B19">
+        <v>75</v>
+      </c>
+      <c r="C19" s="4">
+        <v>196</v>
+      </c>
+      <c r="D19">
+        <v>19.630844151885899</v>
+      </c>
+      <c r="E19">
+        <v>-99.124549734005996</v>
+      </c>
+      <c r="F19" t="s">
+        <v>677</v>
+      </c>
+      <c r="G19" t="s">
+        <v>912</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>941</v>
+      </c>
+      <c r="B20">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <v>195</v>
+      </c>
+      <c r="D20">
+        <v>19.629643099682099</v>
+      </c>
+      <c r="E20">
+        <v>-99.131210513956702</v>
+      </c>
+      <c r="F20" t="s">
+        <v>677</v>
+      </c>
+      <c r="G20" t="s">
+        <v>912</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>940</v>
+      </c>
+      <c r="B21">
+        <v>75</v>
+      </c>
+      <c r="C21">
+        <v>194</v>
+      </c>
+      <c r="D21">
+        <v>19.628867750307499</v>
+      </c>
+      <c r="E21">
+        <v>-99.135975910330401</v>
+      </c>
+      <c r="F21" t="s">
+        <v>677</v>
+      </c>
+      <c r="G21" t="s">
+        <v>912</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>939</v>
+      </c>
+      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>193</v>
+      </c>
+      <c r="D22">
+        <v>19.626051318763299</v>
+      </c>
+      <c r="E22">
+        <v>-99.147564069197799</v>
+      </c>
+      <c r="F22" t="s">
+        <v>677</v>
+      </c>
+      <c r="G22" t="s">
+        <v>912</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>938</v>
+      </c>
+      <c r="B23">
+        <v>75</v>
+      </c>
+      <c r="C23">
+        <v>192</v>
+      </c>
+      <c r="D23">
+        <v>19.623557148366601</v>
+      </c>
+      <c r="E23">
+        <v>-99.157443978169098</v>
+      </c>
+      <c r="F23" t="s">
+        <v>677</v>
+      </c>
+      <c r="G23" t="s">
+        <v>912</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>937</v>
+      </c>
+      <c r="B24">
+        <v>75</v>
+      </c>
+      <c r="C24">
+        <v>191</v>
+      </c>
+      <c r="D24">
+        <v>19.622072795360001</v>
+      </c>
+      <c r="E24">
+        <v>-99.162987397300498</v>
+      </c>
+      <c r="F24" t="s">
+        <v>677</v>
+      </c>
+      <c r="G24" t="s">
+        <v>912</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>936</v>
+      </c>
+      <c r="B25">
+        <v>75</v>
+      </c>
+      <c r="C25">
+        <v>190</v>
+      </c>
+      <c r="D25">
+        <v>19.6208221515495</v>
+      </c>
+      <c r="E25">
+        <v>-99.167783531833607</v>
+      </c>
+      <c r="F25" t="s">
+        <v>677</v>
+      </c>
+      <c r="G25" t="s">
+        <v>912</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>935</v>
+      </c>
+      <c r="B26">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>189</v>
+      </c>
+      <c r="D26">
+        <v>19.6198424347943</v>
+      </c>
+      <c r="E26">
+        <v>-99.171568459305703</v>
+      </c>
+      <c r="F26" t="s">
+        <v>677</v>
+      </c>
+      <c r="G26" t="s">
+        <v>912</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>934</v>
+      </c>
+      <c r="B27">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>188</v>
+      </c>
+      <c r="D27">
+        <v>19.6172317219898</v>
+      </c>
+      <c r="E27">
+        <v>-99.178921650529901</v>
+      </c>
+      <c r="F27" t="s">
+        <v>677</v>
+      </c>
+      <c r="G27" t="s">
+        <v>912</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>933</v>
+      </c>
+      <c r="B28">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>187</v>
+      </c>
+      <c r="D28">
+        <v>19.614655710965</v>
+      </c>
+      <c r="E28">
+        <v>-99.180837010600001</v>
+      </c>
+      <c r="F28" t="s">
+        <v>677</v>
+      </c>
+      <c r="G28" t="s">
+        <v>912</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>932</v>
+      </c>
+      <c r="B29">
+        <v>75</v>
+      </c>
+      <c r="C29" s="8">
+        <v>186</v>
+      </c>
+      <c r="D29">
+        <v>19.606474342971001</v>
+      </c>
+      <c r="E29">
+        <v>-99.182274434518803</v>
+      </c>
+      <c r="F29" t="s">
+        <v>677</v>
+      </c>
+      <c r="G29" t="s">
+        <v>912</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>931</v>
+      </c>
+      <c r="B30">
+        <v>75</v>
+      </c>
+      <c r="C30">
+        <v>185</v>
+      </c>
+      <c r="D30">
+        <v>19.599542952862201</v>
+      </c>
+      <c r="E30">
+        <v>-99.183511218660399</v>
+      </c>
+      <c r="F30" t="s">
+        <v>677</v>
+      </c>
+      <c r="G30" t="s">
+        <v>912</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>930</v>
+      </c>
+      <c r="B31">
+        <v>75</v>
+      </c>
+      <c r="C31">
+        <v>184</v>
+      </c>
+      <c r="D31">
+        <v>19.593426470008499</v>
+      </c>
+      <c r="E31">
+        <v>-99.184153241163401</v>
+      </c>
+      <c r="F31" t="s">
+        <v>677</v>
+      </c>
+      <c r="G31" t="s">
+        <v>912</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>929</v>
+      </c>
+      <c r="B32">
+        <v>75</v>
+      </c>
+      <c r="C32">
+        <v>183</v>
+      </c>
+      <c r="D32">
+        <v>19.587781795256902</v>
+      </c>
+      <c r="E32">
+        <v>-99.193395046764607</v>
+      </c>
+      <c r="F32" t="s">
+        <v>677</v>
+      </c>
+      <c r="G32" t="s">
+        <v>912</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>928</v>
+      </c>
+      <c r="B33">
+        <v>75</v>
+      </c>
+      <c r="C33">
+        <v>182</v>
+      </c>
+      <c r="D33">
+        <v>19.5751298743013</v>
+      </c>
+      <c r="E33">
+        <v>-99.196615926979007</v>
+      </c>
+      <c r="F33" t="s">
+        <v>677</v>
+      </c>
+      <c r="G33" t="s">
+        <v>912</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>927</v>
+      </c>
+      <c r="B34">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>181</v>
+      </c>
+      <c r="D34">
+        <v>19.5711260781631</v>
+      </c>
+      <c r="E34">
+        <v>-99.194755825699801</v>
+      </c>
+      <c r="F34" t="s">
+        <v>677</v>
+      </c>
+      <c r="G34" t="s">
+        <v>912</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>926</v>
+      </c>
+      <c r="B35">
+        <v>75</v>
+      </c>
+      <c r="C35">
+        <v>180</v>
+      </c>
+      <c r="D35">
+        <v>19.5652984750812</v>
+      </c>
+      <c r="E35">
+        <v>-99.194951214253706</v>
+      </c>
+      <c r="F35" t="s">
+        <v>677</v>
+      </c>
+      <c r="G35" t="s">
+        <v>912</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>925</v>
+      </c>
+      <c r="B36">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>179</v>
+      </c>
+      <c r="D36">
+        <v>19.561210886799401</v>
+      </c>
+      <c r="E36">
+        <v>-99.194904592844694</v>
+      </c>
+      <c r="F36" t="s">
+        <v>677</v>
+      </c>
+      <c r="G36" t="s">
+        <v>912</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>924</v>
+      </c>
+      <c r="B37">
+        <v>75</v>
+      </c>
+      <c r="C37">
+        <v>178</v>
+      </c>
+      <c r="D37">
+        <v>19.5608380391716</v>
+      </c>
+      <c r="E37">
+        <v>-99.197850727168401</v>
+      </c>
+      <c r="F37" t="s">
+        <v>677</v>
+      </c>
+      <c r="G37" t="s">
+        <v>912</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>922</v>
+      </c>
+      <c r="B38">
+        <v>75</v>
+      </c>
+      <c r="C38">
+        <v>177</v>
+      </c>
+      <c r="D38">
+        <v>19.560269724833301</v>
+      </c>
+      <c r="E38">
+        <v>-99.2031792054851</v>
+      </c>
+      <c r="F38" t="s">
+        <v>677</v>
+      </c>
+      <c r="G38" t="s">
+        <v>912</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>923</v>
+      </c>
+      <c r="B39">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>177</v>
+      </c>
+      <c r="D39">
+        <v>19.562355321191301</v>
+      </c>
+      <c r="E39">
+        <v>-99.203081357145194</v>
+      </c>
+      <c r="F39" t="s">
+        <v>677</v>
+      </c>
+      <c r="G39" t="s">
+        <v>912</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>921</v>
+      </c>
+      <c r="B40">
+        <v>75</v>
+      </c>
+      <c r="C40">
+        <v>176</v>
+      </c>
+      <c r="D40">
+        <v>19.555845670707399</v>
+      </c>
+      <c r="E40">
+        <v>-99.204372472163996</v>
+      </c>
+      <c r="F40" t="s">
+        <v>677</v>
+      </c>
+      <c r="G40" t="s">
+        <v>912</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>920</v>
+      </c>
+      <c r="B41">
+        <v>75</v>
+      </c>
+      <c r="C41">
+        <v>175</v>
+      </c>
+      <c r="D41">
+        <v>19.550581304002598</v>
+      </c>
+      <c r="E41">
+        <v>-99.207459057863801</v>
+      </c>
+      <c r="F41" t="s">
+        <v>677</v>
+      </c>
+      <c r="G41" t="s">
+        <v>912</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>919</v>
+      </c>
+      <c r="B42">
+        <v>75</v>
+      </c>
+      <c r="C42">
+        <v>174</v>
+      </c>
+      <c r="D42">
+        <v>19.543742307328198</v>
+      </c>
+      <c r="E42">
+        <v>-99.212568688089107</v>
+      </c>
+      <c r="F42" t="s">
+        <v>677</v>
+      </c>
+      <c r="G42" t="s">
+        <v>912</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>918</v>
+      </c>
+      <c r="B43">
+        <v>75</v>
+      </c>
+      <c r="C43">
+        <v>173</v>
+      </c>
+      <c r="D43">
+        <v>19.5394651446104</v>
+      </c>
+      <c r="E43">
+        <v>-99.214489579545798</v>
+      </c>
+      <c r="F43" t="s">
+        <v>677</v>
+      </c>
+      <c r="G43" t="s">
+        <v>912</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>917</v>
+      </c>
+      <c r="B44">
+        <v>75</v>
+      </c>
+      <c r="C44">
+        <v>172</v>
+      </c>
+      <c r="D44">
+        <v>19.534521757487301</v>
+      </c>
+      <c r="E44">
+        <v>-99.218309077622493</v>
+      </c>
+      <c r="F44" t="s">
+        <v>677</v>
+      </c>
+      <c r="G44" t="s">
+        <v>912</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>916</v>
+      </c>
+      <c r="B45">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <v>171</v>
+      </c>
+      <c r="D45">
+        <v>19.528904058919299</v>
+      </c>
+      <c r="E45">
+        <v>-99.222574459741097</v>
+      </c>
+      <c r="F45" t="s">
+        <v>677</v>
+      </c>
+      <c r="G45" t="s">
+        <v>912</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>915</v>
+      </c>
+      <c r="B46">
+        <v>75</v>
+      </c>
+      <c r="C46">
+        <v>170</v>
+      </c>
+      <c r="D46">
+        <v>19.521393246330199</v>
+      </c>
+      <c r="E46">
+        <v>-99.228331397570599</v>
+      </c>
+      <c r="F46" t="s">
+        <v>677</v>
+      </c>
+      <c r="G46" t="s">
+        <v>912</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H46" xr:uid="{37EC9F66-F991-2C4D-B1CC-3E8748D15396}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
+      <sortCondition descending="1" ref="C1:C46"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ETL/Data/data.xlsx
+++ b/ETL/Data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galigaribaldi/Documents/PPropios/API Tren/Apimetro/ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5983A8-8A5C-1940-8A6F-7C2E8624E641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF9EE27-F7DA-A043-A66A-CA549F0DC633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68800" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70720" yWindow="1520" windowWidth="20100" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estacion" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estacion!$A$1:$K$441</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estacion!$A$1:$K$455</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja2!$A$1:$H$46</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1047">
   <si>
     <t>SISTEMA</t>
   </si>
@@ -2889,9 +2889,6 @@
     <t>Tamaulipas</t>
   </si>
   <si>
-    <t>Santa fé</t>
-  </si>
-  <si>
     <t>Paseo de las Lomas</t>
   </si>
   <si>
@@ -3070,6 +3067,108 @@
   </si>
   <si>
     <t>darkred</t>
+  </si>
+  <si>
+    <t>InterUrbano</t>
+  </si>
+  <si>
+    <t>STC Suburbano</t>
+  </si>
+  <si>
+    <t>BuenaVista</t>
+  </si>
+  <si>
+    <t>Fortuna</t>
+  </si>
+  <si>
+    <t>Lechería</t>
+  </si>
+  <si>
+    <t>Tultitlán</t>
+  </si>
+  <si>
+    <t>Cuatitlán</t>
+  </si>
+  <si>
+    <t>STC InterUrbano</t>
+  </si>
+  <si>
+    <t>Suburbano L1</t>
+  </si>
+  <si>
+    <t>STC  InterUrbano</t>
+  </si>
+  <si>
+    <t>Vasco de Quiroga</t>
+  </si>
+  <si>
+    <t>Santa Fé</t>
+  </si>
+  <si>
+    <t>Lerma</t>
+  </si>
+  <si>
+    <t>Tecnológico/Aeropuerto</t>
+  </si>
+  <si>
+    <t>Zincantepec</t>
+  </si>
+  <si>
+    <t>Periférico/Santa Fé</t>
+  </si>
+  <si>
+    <t>Suburbano L2</t>
+  </si>
+  <si>
+    <t>Suburbano L3</t>
+  </si>
+  <si>
+    <t>Suburbano L1 - Ramal B</t>
+  </si>
+  <si>
+    <t>Cueyamil</t>
+  </si>
+  <si>
+    <t>Los Agaves</t>
+  </si>
+  <si>
+    <t>Nextlalpan</t>
+  </si>
+  <si>
+    <t>Jaltocan</t>
+  </si>
+  <si>
+    <t>AIFA</t>
+  </si>
+  <si>
+    <t>Villa Alta</t>
+  </si>
+  <si>
+    <t>La Quietitud</t>
+  </si>
+  <si>
+    <t>Felipe Neri</t>
+  </si>
+  <si>
+    <t>Nepopualco</t>
+  </si>
+  <si>
+    <t>Totoloapan</t>
+  </si>
+  <si>
+    <t>Tlayacapan</t>
+  </si>
+  <si>
+    <t>Oaxtepec</t>
+  </si>
+  <si>
+    <t>Cocoyoc</t>
+  </si>
+  <si>
+    <t>Cuatlixco</t>
+  </si>
+  <si>
+    <t>Cuautla</t>
   </si>
 </sst>
 </file>
@@ -3140,7 +3239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3158,7 +3257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3455,14 +3553,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q441"/>
+  <dimension ref="A1:Q472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C398" sqref="C398:C403"/>
+    <sheetView tabSelected="1" topLeftCell="D453" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J472" sqref="J472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.5" customWidth="1"/>
@@ -12330,8 +12429,11 @@
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>4</v>
+      </c>
       <c r="B198" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C198">
         <v>81</v>
@@ -12356,8 +12458,11 @@
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>4</v>
+      </c>
       <c r="B199" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C199">
         <v>81</v>
@@ -12382,8 +12487,11 @@
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>4</v>
+      </c>
       <c r="B200" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C200">
         <v>81</v>
@@ -12408,8 +12516,11 @@
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>4</v>
+      </c>
       <c r="B201" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C201">
         <v>81</v>
@@ -12434,8 +12545,11 @@
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>4</v>
+      </c>
       <c r="B202" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C202">
         <v>81</v>
@@ -12460,8 +12574,11 @@
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>4</v>
+      </c>
       <c r="B203" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C203">
         <v>81</v>
@@ -12486,8 +12603,11 @@
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>4</v>
+      </c>
       <c r="B204" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C204">
         <v>81</v>
@@ -12512,6 +12632,9 @@
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>4</v>
+      </c>
       <c r="B205" t="s">
         <v>639</v>
       </c>
@@ -12538,8 +12661,11 @@
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>4</v>
+      </c>
       <c r="B206" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C206">
         <v>81</v>
@@ -12564,8 +12690,11 @@
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>4</v>
+      </c>
       <c r="B207" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C207">
         <v>81</v>
@@ -12590,8 +12719,11 @@
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>4</v>
+      </c>
       <c r="B208" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C208">
         <v>81</v>
@@ -12616,8 +12748,11 @@
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>4</v>
+      </c>
       <c r="B209" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C209">
         <v>81</v>
@@ -12642,8 +12777,11 @@
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>4</v>
+      </c>
       <c r="B210" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C210">
         <v>81</v>
@@ -12668,8 +12806,11 @@
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>4</v>
+      </c>
       <c r="B211" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C211">
         <v>81</v>
@@ -12694,8 +12835,11 @@
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>4</v>
+      </c>
       <c r="B212" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C212">
         <v>81</v>
@@ -12720,8 +12864,11 @@
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
       <c r="B213" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C213">
         <v>81</v>
@@ -12746,8 +12893,11 @@
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>4</v>
+      </c>
       <c r="B214" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C214">
         <v>81</v>
@@ -12772,8 +12922,11 @@
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>4</v>
+      </c>
       <c r="B215" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C215">
         <v>81</v>
@@ -12798,8 +12951,11 @@
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>4</v>
+      </c>
       <c r="B216" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C216">
         <v>81</v>
@@ -12824,8 +12980,11 @@
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>4</v>
+      </c>
       <c r="B217" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C217">
         <v>81</v>
@@ -12850,8 +13009,11 @@
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
       <c r="B218" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C218">
         <v>81</v>
@@ -12876,8 +13038,11 @@
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
       <c r="B219" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C219">
         <v>81</v>
@@ -12902,8 +13067,11 @@
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>4</v>
+      </c>
       <c r="B220" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C220">
         <v>81</v>
@@ -12928,8 +13096,11 @@
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>4</v>
+      </c>
       <c r="B221" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C221">
         <v>81</v>
@@ -12943,8 +13114,14 @@
       <c r="K221">
         <v>-99.034488485493199</v>
       </c>
+      <c r="M221" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>4</v>
+      </c>
       <c r="B222" t="s">
         <v>831</v>
       </c>
@@ -12987,7 +13164,7 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>828</v>
+        <v>4</v>
       </c>
       <c r="B223" t="s">
         <v>711</v>
@@ -16990,8 +17167,11 @@
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>828</v>
+      </c>
       <c r="B314" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C314">
         <v>75</v>
@@ -17016,8 +17196,11 @@
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>828</v>
+      </c>
       <c r="B315" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C315">
         <v>75</v>
@@ -17042,8 +17225,11 @@
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>828</v>
+      </c>
       <c r="B316" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C316">
         <v>75</v>
@@ -17068,6 +17254,9 @@
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>828</v>
+      </c>
       <c r="B317" t="s">
         <v>869</v>
       </c>
@@ -17094,6 +17283,9 @@
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>828</v>
+      </c>
       <c r="B318" t="s">
         <v>868</v>
       </c>
@@ -17120,6 +17312,9 @@
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>828</v>
+      </c>
       <c r="B319" t="s">
         <v>867</v>
       </c>
@@ -17146,6 +17341,9 @@
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>828</v>
+      </c>
       <c r="B320" t="s">
         <v>866</v>
       </c>
@@ -17172,6 +17370,9 @@
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>828</v>
+      </c>
       <c r="B321" t="s">
         <v>865</v>
       </c>
@@ -17198,6 +17399,9 @@
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>828</v>
+      </c>
       <c r="B322" t="s">
         <v>864</v>
       </c>
@@ -17224,6 +17428,9 @@
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>828</v>
+      </c>
       <c r="B323" t="s">
         <v>859</v>
       </c>
@@ -17250,6 +17457,9 @@
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>828</v>
+      </c>
       <c r="B324" t="s">
         <v>858</v>
       </c>
@@ -17305,6 +17515,9 @@
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>828</v>
+      </c>
       <c r="B326" t="s">
         <v>838</v>
       </c>
@@ -17331,6 +17544,9 @@
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>828</v>
+      </c>
       <c r="B327" t="s">
         <v>837</v>
       </c>
@@ -17357,6 +17573,9 @@
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>828</v>
+      </c>
       <c r="B328" t="s">
         <v>831</v>
       </c>
@@ -17398,6 +17617,9 @@
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>828</v>
+      </c>
       <c r="B329" t="s">
         <v>832</v>
       </c>
@@ -17424,6 +17646,9 @@
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>828</v>
+      </c>
       <c r="B330" t="s">
         <v>833</v>
       </c>
@@ -17450,6 +17675,9 @@
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>828</v>
+      </c>
       <c r="B331" t="s">
         <v>834</v>
       </c>
@@ -17476,6 +17704,9 @@
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>828</v>
+      </c>
       <c r="B332" t="s">
         <v>835</v>
       </c>
@@ -17502,6 +17733,9 @@
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>828</v>
+      </c>
       <c r="B333" t="s">
         <v>840</v>
       </c>
@@ -17528,6 +17762,9 @@
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>828</v>
+      </c>
       <c r="B334" t="s">
         <v>844</v>
       </c>
@@ -17554,6 +17791,9 @@
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>828</v>
+      </c>
       <c r="B335" t="s">
         <v>841</v>
       </c>
@@ -17580,6 +17820,9 @@
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>828</v>
+      </c>
       <c r="B336" t="s">
         <v>836</v>
       </c>
@@ -17608,7 +17851,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>828</v>
+      </c>
       <c r="B337" t="s">
         <v>842</v>
       </c>
@@ -17634,7 +17880,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>828</v>
+      </c>
       <c r="B338" t="s">
         <v>843</v>
       </c>
@@ -17660,7 +17909,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>828</v>
+      </c>
       <c r="B339" t="s">
         <v>845</v>
       </c>
@@ -17686,7 +17938,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>828</v>
+      </c>
       <c r="B340" t="s">
         <v>846</v>
       </c>
@@ -17712,7 +17967,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>828</v>
+      </c>
       <c r="B341" t="s">
         <v>847</v>
       </c>
@@ -17738,7 +17996,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>828</v>
+      </c>
       <c r="B342" t="s">
         <v>848</v>
       </c>
@@ -17764,7 +18025,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>828</v>
+      </c>
       <c r="B343" t="s">
         <v>849</v>
       </c>
@@ -17790,7 +18054,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>828</v>
+      </c>
       <c r="B344" t="s">
         <v>850</v>
       </c>
@@ -17816,7 +18083,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>828</v>
+      </c>
       <c r="B345" t="s">
         <v>851</v>
       </c>
@@ -17842,7 +18112,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>828</v>
+      </c>
       <c r="B346" t="s">
         <v>852</v>
       </c>
@@ -17868,7 +18141,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>828</v>
+      </c>
       <c r="B347" t="s">
         <v>849</v>
       </c>
@@ -17894,7 +18170,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>828</v>
+      </c>
       <c r="B348" t="s">
         <v>853</v>
       </c>
@@ -17920,7 +18199,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>828</v>
+      </c>
       <c r="B349" t="s">
         <v>854</v>
       </c>
@@ -17946,7 +18228,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>828</v>
+      </c>
       <c r="B350" t="s">
         <v>855</v>
       </c>
@@ -17972,7 +18257,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>828</v>
+      </c>
       <c r="B351" t="s">
         <v>856</v>
       </c>
@@ -17998,7 +18286,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>828</v>
+      </c>
       <c r="B352" t="s">
         <v>857</v>
       </c>
@@ -18024,7 +18315,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>828</v>
+      </c>
       <c r="B353" t="s">
         <v>918</v>
       </c>
@@ -18050,7 +18344,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>828</v>
+      </c>
       <c r="B354" t="s">
         <v>917</v>
       </c>
@@ -18076,7 +18373,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>828</v>
+      </c>
       <c r="B355" t="s">
         <v>916</v>
       </c>
@@ -18102,7 +18402,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>828</v>
+      </c>
       <c r="B356" t="s">
         <v>915</v>
       </c>
@@ -18128,7 +18431,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>828</v>
+      </c>
       <c r="B357" t="s">
         <v>914</v>
       </c>
@@ -18154,7 +18460,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>828</v>
+      </c>
       <c r="B358" t="s">
         <v>913</v>
       </c>
@@ -18180,7 +18489,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>828</v>
+      </c>
       <c r="B359" t="s">
         <v>912</v>
       </c>
@@ -18206,7 +18518,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>828</v>
+      </c>
       <c r="B360" t="s">
         <v>911</v>
       </c>
@@ -18232,7 +18547,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>828</v>
+      </c>
       <c r="B361" t="s">
         <v>910</v>
       </c>
@@ -18258,7 +18576,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>828</v>
+      </c>
       <c r="B362" t="s">
         <v>909</v>
       </c>
@@ -18284,7 +18605,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>828</v>
+      </c>
       <c r="B363" t="s">
         <v>908</v>
       </c>
@@ -18310,7 +18634,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>828</v>
+      </c>
       <c r="B364" t="s">
         <v>9</v>
       </c>
@@ -18336,7 +18663,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>828</v>
+      </c>
       <c r="B365" t="s">
         <v>907</v>
       </c>
@@ -18362,7 +18692,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>828</v>
+      </c>
       <c r="B366" t="s">
         <v>906</v>
       </c>
@@ -18388,7 +18721,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>828</v>
+      </c>
       <c r="B367" t="s">
         <v>905</v>
       </c>
@@ -18414,7 +18750,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>828</v>
+      </c>
       <c r="B368" t="s">
         <v>904</v>
       </c>
@@ -18440,7 +18779,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>828</v>
+      </c>
       <c r="B369" t="s">
         <v>903</v>
       </c>
@@ -18466,7 +18808,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>828</v>
+      </c>
       <c r="B370" t="s">
         <v>902</v>
       </c>
@@ -18492,7 +18837,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>828</v>
+      </c>
       <c r="B371" t="s">
         <v>901</v>
       </c>
@@ -18518,7 +18866,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>828</v>
+      </c>
       <c r="B372" t="s">
         <v>900</v>
       </c>
@@ -18544,7 +18895,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>828</v>
+      </c>
       <c r="B373" t="s">
         <v>899</v>
       </c>
@@ -18570,7 +18924,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>828</v>
+      </c>
       <c r="B374" t="s">
         <v>898</v>
       </c>
@@ -18596,7 +18953,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>828</v>
+      </c>
       <c r="B375" t="s">
         <v>897</v>
       </c>
@@ -18622,7 +18982,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>828</v>
+      </c>
       <c r="B376" t="s">
         <v>896</v>
       </c>
@@ -18648,7 +19011,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>828</v>
+      </c>
       <c r="B377" t="s">
         <v>895</v>
       </c>
@@ -18674,7 +19040,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>828</v>
+      </c>
       <c r="B378" t="s">
         <v>894</v>
       </c>
@@ -18700,7 +19069,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>828</v>
+      </c>
       <c r="B379" t="s">
         <v>893</v>
       </c>
@@ -18726,7 +19098,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>828</v>
+      </c>
       <c r="B380" t="s">
         <v>892</v>
       </c>
@@ -18752,7 +19127,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>828</v>
+      </c>
       <c r="B381" t="s">
         <v>891</v>
       </c>
@@ -18778,7 +19156,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>828</v>
+      </c>
       <c r="B382" t="s">
         <v>890</v>
       </c>
@@ -18804,7 +19185,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>828</v>
+      </c>
       <c r="B383" t="s">
         <v>889</v>
       </c>
@@ -18830,7 +19214,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>828</v>
+      </c>
       <c r="B384" t="s">
         <v>888</v>
       </c>
@@ -18856,7 +19243,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>828</v>
+      </c>
       <c r="B385" t="s">
         <v>887</v>
       </c>
@@ -18882,7 +19272,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>828</v>
+      </c>
       <c r="B386" t="s">
         <v>886</v>
       </c>
@@ -18908,7 +19301,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>828</v>
+      </c>
       <c r="B387" t="s">
         <v>885</v>
       </c>
@@ -18934,7 +19330,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>828</v>
+      </c>
       <c r="B388" t="s">
         <v>884</v>
       </c>
@@ -18960,7 +19359,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>828</v>
+      </c>
       <c r="B389" t="s">
         <v>882</v>
       </c>
@@ -18986,7 +19388,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>828</v>
+      </c>
       <c r="B390" t="s">
         <v>883</v>
       </c>
@@ -19012,7 +19417,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>828</v>
+      </c>
       <c r="B391" t="s">
         <v>881</v>
       </c>
@@ -19038,7 +19446,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>828</v>
+      </c>
       <c r="B392" t="s">
         <v>880</v>
       </c>
@@ -19064,7 +19475,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>828</v>
+      </c>
       <c r="B393" t="s">
         <v>879</v>
       </c>
@@ -19090,7 +19504,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>828</v>
+      </c>
       <c r="B394" t="s">
         <v>878</v>
       </c>
@@ -19116,7 +19533,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>828</v>
+      </c>
       <c r="B395" t="s">
         <v>877</v>
       </c>
@@ -19142,7 +19562,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>828</v>
+      </c>
       <c r="B396" t="s">
         <v>876</v>
       </c>
@@ -19168,7 +19591,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>828</v>
+      </c>
       <c r="B397" t="s">
         <v>875</v>
       </c>
@@ -19194,7 +19620,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>828</v>
+      </c>
       <c r="B398" t="s">
         <v>654</v>
       </c>
@@ -19220,7 +19649,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>828</v>
+      </c>
       <c r="B399" t="s">
         <v>941</v>
       </c>
@@ -19246,7 +19678,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>828</v>
+      </c>
       <c r="B400" t="s">
         <v>942</v>
       </c>
@@ -19272,7 +19707,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>828</v>
+      </c>
       <c r="B401" t="s">
         <v>943</v>
       </c>
@@ -19298,7 +19736,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>828</v>
+      </c>
       <c r="B402" t="s">
         <v>944</v>
       </c>
@@ -19324,7 +19765,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>828</v>
+      </c>
       <c r="B403" t="s">
         <v>945</v>
       </c>
@@ -19350,7 +19794,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>828</v>
+      </c>
       <c r="B404" t="s">
         <v>946</v>
       </c>
@@ -19376,7 +19823,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>828</v>
+      </c>
       <c r="B405" t="s">
         <v>947</v>
       </c>
@@ -19402,7 +19852,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>828</v>
+      </c>
       <c r="B406" t="s">
         <v>948</v>
       </c>
@@ -19428,7 +19881,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>828</v>
+      </c>
       <c r="B407" t="s">
         <v>949</v>
       </c>
@@ -19454,7 +19910,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>828</v>
+      </c>
       <c r="B408" t="s">
         <v>950</v>
       </c>
@@ -19480,7 +19939,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>828</v>
+      </c>
       <c r="B409" t="s">
         <v>951</v>
       </c>
@@ -19506,7 +19968,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>828</v>
+      </c>
       <c r="B410" t="s">
         <v>952</v>
       </c>
@@ -19532,9 +19997,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>828</v>
+      </c>
       <c r="B411" t="s">
-        <v>953</v>
+        <v>1028</v>
       </c>
       <c r="C411">
         <v>78</v>
@@ -19558,9 +20026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>828</v>
+      </c>
       <c r="B412" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C412">
         <v>78</v>
@@ -19584,9 +20055,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>828</v>
+      </c>
       <c r="B413" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C413">
         <v>78</v>
@@ -19610,9 +20084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>828</v>
+      </c>
       <c r="B414" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C414">
         <v>78</v>
@@ -19636,9 +20113,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>828</v>
+      </c>
       <c r="B415" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C415">
         <v>78</v>
@@ -19662,9 +20142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>828</v>
+      </c>
       <c r="B416" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C416">
         <v>78</v>
@@ -19688,9 +20171,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>828</v>
+      </c>
       <c r="B417" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C417">
         <v>78</v>
@@ -19714,9 +20200,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>828</v>
+      </c>
       <c r="B418" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C418">
         <v>78</v>
@@ -19740,9 +20229,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>828</v>
+      </c>
       <c r="B419" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C419">
         <v>78</v>
@@ -19766,9 +20258,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>828</v>
+      </c>
       <c r="B420" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C420">
         <v>78</v>
@@ -19792,9 +20287,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>828</v>
+      </c>
       <c r="B421" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C421">
         <v>78</v>
@@ -19818,9 +20316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>828</v>
+      </c>
       <c r="B422" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C422">
         <v>78</v>
@@ -19844,9 +20345,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>828</v>
+      </c>
       <c r="B423" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C423">
         <v>78</v>
@@ -19870,9 +20374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>828</v>
+      </c>
       <c r="B424" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C424">
         <v>78</v>
@@ -19896,9 +20403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>828</v>
+      </c>
       <c r="B425" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C425">
         <v>78</v>
@@ -19922,9 +20432,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>828</v>
+      </c>
       <c r="B426" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C426">
         <v>78</v>
@@ -19948,9 +20461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>828</v>
+      </c>
       <c r="B427" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C427">
         <v>78</v>
@@ -19974,9 +20490,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>828</v>
+      </c>
       <c r="B428" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C428">
         <v>78</v>
@@ -20000,9 +20519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>828</v>
+      </c>
       <c r="B429" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C429">
         <v>78</v>
@@ -20026,9 +20548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>828</v>
+      </c>
       <c r="B430" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C430">
         <v>78</v>
@@ -20052,7 +20577,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>828</v>
+      </c>
       <c r="B431" t="s">
         <v>940</v>
       </c>
@@ -20078,7 +20606,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>828</v>
+      </c>
       <c r="B432" t="s">
         <v>937</v>
       </c>
@@ -20104,7 +20635,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>828</v>
+      </c>
       <c r="B433" t="s">
         <v>936</v>
       </c>
@@ -20130,7 +20664,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>828</v>
+      </c>
       <c r="B434" t="s">
         <v>935</v>
       </c>
@@ -20156,7 +20693,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>828</v>
+      </c>
       <c r="B435" t="s">
         <v>939</v>
       </c>
@@ -20182,7 +20722,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>828</v>
+      </c>
       <c r="B436" t="s">
         <v>938</v>
       </c>
@@ -20208,7 +20751,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>828</v>
+      </c>
       <c r="B437" t="s">
         <v>934</v>
       </c>
@@ -20234,7 +20780,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>828</v>
+      </c>
       <c r="B438" t="s">
         <v>933</v>
       </c>
@@ -20260,7 +20809,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>828</v>
+      </c>
       <c r="B439" t="s">
         <v>932</v>
       </c>
@@ -20286,7 +20838,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>828</v>
+      </c>
       <c r="B440" t="s">
         <v>931</v>
       </c>
@@ -20312,7 +20867,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>828</v>
+      </c>
       <c r="B441" t="s">
         <v>680</v>
       </c>
@@ -20338,8 +20896,814 @@
         <v>0</v>
       </c>
     </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C442">
+        <v>801</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="J442">
+        <v>19.449973382288199</v>
+      </c>
+      <c r="K442">
+        <v>-99.151629668868793</v>
+      </c>
+      <c r="L442" t="s">
+        <v>595</v>
+      </c>
+      <c r="M442" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C443">
+        <v>801</v>
+      </c>
+      <c r="D443">
+        <v>2</v>
+      </c>
+      <c r="J443">
+        <v>19.491990587663899</v>
+      </c>
+      <c r="K443">
+        <v>-99.171043415862599</v>
+      </c>
+      <c r="L443" t="s">
+        <v>595</v>
+      </c>
+      <c r="M443" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B444" t="s">
+        <v>683</v>
+      </c>
+      <c r="C444">
+        <v>801</v>
+      </c>
+      <c r="D444">
+        <v>3</v>
+      </c>
+      <c r="J444">
+        <v>19.5371489669722</v>
+      </c>
+      <c r="K444">
+        <v>-99.184059977459597</v>
+      </c>
+      <c r="L444" t="s">
+        <v>595</v>
+      </c>
+      <c r="M444" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B445" t="s">
+        <v>886</v>
+      </c>
+      <c r="C445">
+        <v>801</v>
+      </c>
+      <c r="D445">
+        <v>4</v>
+      </c>
+      <c r="J445">
+        <v>19.566523519002001</v>
+      </c>
+      <c r="K445">
+        <v>-99.194235330583993</v>
+      </c>
+      <c r="L445" t="s">
+        <v>595</v>
+      </c>
+      <c r="M445" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C446">
+        <v>801</v>
+      </c>
+      <c r="D446">
+        <v>5</v>
+      </c>
+      <c r="J446">
+        <v>19.599871706640702</v>
+      </c>
+      <c r="K446">
+        <v>-99.186785802766295</v>
+      </c>
+      <c r="L446" t="s">
+        <v>595</v>
+      </c>
+      <c r="M446" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C447">
+        <v>801</v>
+      </c>
+      <c r="D447">
+        <v>6</v>
+      </c>
+      <c r="J447">
+        <v>19.6366354601818</v>
+      </c>
+      <c r="K447">
+        <v>-99.1803271059552</v>
+      </c>
+      <c r="L447" t="s">
+        <v>595</v>
+      </c>
+      <c r="M447" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C448">
+        <v>801</v>
+      </c>
+      <c r="D448">
+        <v>7</v>
+      </c>
+      <c r="J448">
+        <v>19.667537523571799</v>
+      </c>
+      <c r="K448">
+        <v>-99.176142078220593</v>
+      </c>
+      <c r="L448" t="s">
+        <v>595</v>
+      </c>
+      <c r="M448" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B449" t="s">
+        <v>71</v>
+      </c>
+      <c r="C449">
+        <v>802</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="J449">
+        <v>19.398435507951302</v>
+      </c>
+      <c r="K449">
+        <v>-99.200402366607094</v>
+      </c>
+      <c r="L449" t="s">
+        <v>595</v>
+      </c>
+      <c r="M449" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C450">
+        <v>802</v>
+      </c>
+      <c r="D450">
+        <v>2</v>
+      </c>
+      <c r="J450">
+        <v>19.3849598478361</v>
+      </c>
+      <c r="K450">
+        <v>-99.227916419007002</v>
+      </c>
+      <c r="L450" t="s">
+        <v>595</v>
+      </c>
+      <c r="M450" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C451">
+        <v>802</v>
+      </c>
+      <c r="D451">
+        <v>3</v>
+      </c>
+      <c r="J451">
+        <v>19.3639627735107</v>
+      </c>
+      <c r="K451">
+        <v>-99.2686240919612</v>
+      </c>
+      <c r="L451" t="s">
+        <v>595</v>
+      </c>
+      <c r="M451" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C452">
+        <v>802</v>
+      </c>
+      <c r="D452">
+        <v>4</v>
+      </c>
+      <c r="J452">
+        <v>19.2788307273733</v>
+      </c>
+      <c r="K452">
+        <v>-99.514473612920597</v>
+      </c>
+      <c r="L452" t="s">
+        <v>596</v>
+      </c>
+      <c r="M452" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C453">
+        <v>802</v>
+      </c>
+      <c r="D453">
+        <v>5</v>
+      </c>
+      <c r="J453">
+        <v>19.277712791257699</v>
+      </c>
+      <c r="K453">
+        <v>-99.573972739564894</v>
+      </c>
+      <c r="L453" t="s">
+        <v>596</v>
+      </c>
+      <c r="M453" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B454" t="s">
+        <v>38</v>
+      </c>
+      <c r="C454">
+        <v>802</v>
+      </c>
+      <c r="D454">
+        <v>6</v>
+      </c>
+      <c r="J454">
+        <v>19.270498120963602</v>
+      </c>
+      <c r="K454">
+        <v>-99.641253102529106</v>
+      </c>
+      <c r="L454" t="s">
+        <v>596</v>
+      </c>
+      <c r="M454" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C455">
+        <v>802</v>
+      </c>
+      <c r="D455">
+        <v>7</v>
+      </c>
+      <c r="J455">
+        <v>19.280347769017201</v>
+      </c>
+      <c r="K455">
+        <v>-99.694366463037198</v>
+      </c>
+      <c r="L455" t="s">
+        <v>596</v>
+      </c>
+      <c r="M455" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C456">
+        <v>803</v>
+      </c>
+      <c r="D456">
+        <v>1</v>
+      </c>
+      <c r="J456">
+        <v>19.599390178775501</v>
+      </c>
+      <c r="K456">
+        <v>-99.186610539713499</v>
+      </c>
+      <c r="L456" t="s">
+        <v>596</v>
+      </c>
+      <c r="M456" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C457">
+        <v>803</v>
+      </c>
+      <c r="D457">
+        <v>2</v>
+      </c>
+      <c r="J457">
+        <v>19.632949390265999</v>
+      </c>
+      <c r="K457">
+        <v>-99.162055672594903</v>
+      </c>
+      <c r="L457" t="s">
+        <v>596</v>
+      </c>
+      <c r="M457" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C458">
+        <v>803</v>
+      </c>
+      <c r="D458">
+        <v>3</v>
+      </c>
+      <c r="J458">
+        <v>19.646522823466999</v>
+      </c>
+      <c r="K458">
+        <v>-99.145852584417497</v>
+      </c>
+      <c r="L458" t="s">
+        <v>596</v>
+      </c>
+      <c r="M458" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C459">
+        <v>803</v>
+      </c>
+      <c r="D459">
+        <v>4</v>
+      </c>
+      <c r="J459">
+        <v>19.7022270165225</v>
+      </c>
+      <c r="K459">
+        <v>-99.081762054838606</v>
+      </c>
+      <c r="L459" t="s">
+        <v>596</v>
+      </c>
+      <c r="M459" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C460">
+        <v>803</v>
+      </c>
+      <c r="D460">
+        <v>5</v>
+      </c>
+      <c r="J460">
+        <v>19.722922390600498</v>
+      </c>
+      <c r="K460">
+        <v>-99.057555709526099</v>
+      </c>
+      <c r="L460" t="s">
+        <v>596</v>
+      </c>
+      <c r="M460" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C461">
+        <v>803</v>
+      </c>
+      <c r="D461">
+        <v>6</v>
+      </c>
+      <c r="J461">
+        <v>19.7356220265202</v>
+      </c>
+      <c r="K461">
+        <v>-99.025941447146593</v>
+      </c>
+      <c r="L461" t="s">
+        <v>596</v>
+      </c>
+      <c r="M461" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C462">
+        <v>804</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="J462">
+        <v>19.192813674694701</v>
+      </c>
+      <c r="K462">
+        <v>-99.022856468650005</v>
+      </c>
+      <c r="L462" t="s">
+        <v>641</v>
+      </c>
+      <c r="M462" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B463" t="s">
+        <v>975</v>
+      </c>
+      <c r="C463">
+        <v>804</v>
+      </c>
+      <c r="D463">
+        <v>2</v>
+      </c>
+      <c r="J463">
+        <v>19.1719330241731</v>
+      </c>
+      <c r="K463">
+        <v>-99.003525021596602</v>
+      </c>
+      <c r="L463" t="s">
+        <v>641</v>
+      </c>
+      <c r="M463" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C464">
+        <v>804</v>
+      </c>
+      <c r="D464">
+        <v>3</v>
+      </c>
+      <c r="J464">
+        <v>19.1145403510756</v>
+      </c>
+      <c r="K464">
+        <v>-98.935911776218006</v>
+      </c>
+      <c r="L464" t="s">
+        <v>596</v>
+      </c>
+      <c r="M464" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C465">
+        <v>804</v>
+      </c>
+      <c r="D465">
+        <v>4</v>
+      </c>
+      <c r="J465">
+        <v>19.0361589566321</v>
+      </c>
+      <c r="K465">
+        <v>-98.940108415301495</v>
+      </c>
+      <c r="L465" t="s">
+        <v>231</v>
+      </c>
+      <c r="M465" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C466">
+        <v>804</v>
+      </c>
+      <c r="D466">
+        <v>5</v>
+      </c>
+      <c r="J466">
+        <v>19.0006411816147</v>
+      </c>
+      <c r="K466">
+        <v>-98.940799007593995</v>
+      </c>
+      <c r="L466" t="s">
+        <v>231</v>
+      </c>
+      <c r="M466" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C467">
+        <v>804</v>
+      </c>
+      <c r="D467">
+        <v>6</v>
+      </c>
+      <c r="J467">
+        <v>18.982122546837498</v>
+      </c>
+      <c r="K467">
+        <v>-98.926170356269196</v>
+      </c>
+      <c r="L467" t="s">
+        <v>231</v>
+      </c>
+      <c r="M467" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C468">
+        <v>804</v>
+      </c>
+      <c r="D468">
+        <v>7</v>
+      </c>
+      <c r="J468">
+        <v>18.949823850738401</v>
+      </c>
+      <c r="K468">
+        <v>-98.979190773419504</v>
+      </c>
+      <c r="L468" t="s">
+        <v>231</v>
+      </c>
+      <c r="M468" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C469">
+        <v>804</v>
+      </c>
+      <c r="D469">
+        <v>8</v>
+      </c>
+      <c r="J469">
+        <v>18.9120009439869</v>
+      </c>
+      <c r="K469">
+        <v>-98.972075026075501</v>
+      </c>
+      <c r="L469" t="s">
+        <v>231</v>
+      </c>
+      <c r="M469" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C470">
+        <v>804</v>
+      </c>
+      <c r="D470">
+        <v>9</v>
+      </c>
+      <c r="J470">
+        <v>18.882291433358901</v>
+      </c>
+      <c r="K470">
+        <v>-98.984987131457103</v>
+      </c>
+      <c r="L470" t="s">
+        <v>231</v>
+      </c>
+      <c r="M470" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C471">
+        <v>804</v>
+      </c>
+      <c r="D471">
+        <v>10</v>
+      </c>
+      <c r="J471">
+        <v>18.852515212540901</v>
+      </c>
+      <c r="K471">
+        <v>-98.936129754495497</v>
+      </c>
+      <c r="L471" t="s">
+        <v>231</v>
+      </c>
+      <c r="M471" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C472">
+        <v>804</v>
+      </c>
+      <c r="D472">
+        <v>11</v>
+      </c>
+      <c r="J472">
+        <v>18.817333701910702</v>
+      </c>
+      <c r="K472">
+        <v>-98.953995365398598</v>
+      </c>
+      <c r="L472" t="s">
+        <v>231</v>
+      </c>
+      <c r="M472" t="s">
+        <v>1013</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K441" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K455" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="39">
     <mergeCell ref="O188:O190"/>
     <mergeCell ref="O160:O161"/>
@@ -20391,9 +21755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B047C7DB-A107-BB46-A4F0-29B07EC7587D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -20819,10 +22181,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D61F9FF-1099-874D-861D-4522CE1B5818}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20877,8 +22239,8 @@
       <c r="E2" t="s">
         <v>605</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>1000</v>
+      <c r="F2" t="s">
+        <v>999</v>
       </c>
       <c r="G2">
         <v>18.8</v>
@@ -20903,8 +22265,8 @@
       <c r="E3" t="s">
         <v>608</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>1001</v>
+      <c r="F3" t="s">
+        <v>1000</v>
       </c>
       <c r="G3">
         <v>23.43</v>
@@ -20929,8 +22291,8 @@
       <c r="E4" t="s">
         <v>609</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>1002</v>
+      <c r="F4" t="s">
+        <v>1001</v>
       </c>
       <c r="G4">
         <v>23.61</v>
@@ -20955,8 +22317,8 @@
       <c r="E5" t="s">
         <v>611</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>1003</v>
+      <c r="F5" t="s">
+        <v>1002</v>
       </c>
       <c r="G5">
         <v>10.75</v>
@@ -20984,8 +22346,8 @@
       <c r="E6" t="s">
         <v>614</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>1004</v>
+      <c r="F6" t="s">
+        <v>1003</v>
       </c>
       <c r="G6">
         <v>16.670000000000002</v>
@@ -21010,8 +22372,8 @@
       <c r="E7" t="s">
         <v>615</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>1005</v>
+      <c r="F7" t="s">
+        <v>1004</v>
       </c>
       <c r="G7">
         <v>13.95</v>
@@ -21036,8 +22398,8 @@
       <c r="E8" t="s">
         <v>616</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>1006</v>
+      <c r="F8" t="s">
+        <v>1005</v>
       </c>
       <c r="G8">
         <v>18.78</v>
@@ -21062,8 +22424,8 @@
       <c r="E9" t="s">
         <v>617</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>1007</v>
+      <c r="F9" t="s">
+        <v>1006</v>
       </c>
       <c r="G9">
         <v>20.079999999999998</v>
@@ -21088,8 +22450,8 @@
       <c r="E10" t="s">
         <v>618</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>1008</v>
+      <c r="F10" t="s">
+        <v>1007</v>
       </c>
       <c r="G10">
         <v>15.37</v>
@@ -21114,8 +22476,8 @@
       <c r="E11" t="s">
         <v>631</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>1009</v>
+      <c r="F11" t="s">
+        <v>1008</v>
       </c>
       <c r="G11">
         <v>17.190000000000001</v>
@@ -21140,8 +22502,8 @@
       <c r="E12" t="s">
         <v>633</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>1002</v>
+      <c r="F12" t="s">
+        <v>1001</v>
       </c>
       <c r="G12">
         <v>23.72</v>
@@ -21166,8 +22528,8 @@
       <c r="E13" t="s">
         <v>619</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>1010</v>
+      <c r="F13" t="s">
+        <v>1009</v>
       </c>
       <c r="G13">
         <v>24.5</v>
@@ -21184,7 +22546,7 @@
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D14">
         <v>2012</v>
@@ -21192,8 +22554,8 @@
       <c r="E14" t="s">
         <v>617</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>1007</v>
+      <c r="F14" t="s">
+        <v>1006</v>
       </c>
       <c r="G14">
         <v>25.4</v>
@@ -21218,8 +22580,8 @@
       <c r="E15" t="s">
         <v>829</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>1011</v>
+      <c r="F15" t="s">
+        <v>1010</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -21244,8 +22606,8 @@
       <c r="E16" t="s">
         <v>804</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>1012</v>
+      <c r="F16" t="s">
+        <v>1011</v>
       </c>
       <c r="G16">
         <v>40</v>
@@ -21270,8 +22632,8 @@
       <c r="E17" t="s">
         <v>823</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>1013</v>
+      <c r="F17" t="s">
+        <v>1012</v>
       </c>
       <c r="G17">
         <v>40</v>
@@ -21296,8 +22658,8 @@
       <c r="E18" t="s">
         <v>824</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>1009</v>
+      <c r="F18" t="s">
+        <v>1008</v>
       </c>
       <c r="G18">
         <v>40</v>
@@ -21322,8 +22684,8 @@
       <c r="E19" t="s">
         <v>829</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>1007</v>
+      <c r="F19" t="s">
+        <v>1006</v>
       </c>
       <c r="G19">
         <v>40</v>
@@ -21348,8 +22710,8 @@
       <c r="E20" t="s">
         <v>804</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>1012</v>
+      <c r="F20" t="s">
+        <v>1011</v>
       </c>
       <c r="G20">
         <v>40</v>
@@ -21374,8 +22736,8 @@
       <c r="E21" t="s">
         <v>823</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>1013</v>
+      <c r="F21" t="s">
+        <v>1012</v>
       </c>
       <c r="G21">
         <v>40</v>
@@ -21400,13 +22762,117 @@
       <c r="E22" t="s">
         <v>824</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>1009</v>
+      <c r="F22" t="s">
+        <v>1008</v>
       </c>
       <c r="G22">
         <v>40</v>
       </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B23">
+        <v>801</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D23">
+        <v>2008</v>
+      </c>
+      <c r="E23" t="s">
+        <v>823</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B24">
+        <v>802</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D24">
+        <v>2008</v>
+      </c>
+      <c r="E24" t="s">
+        <v>823</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B25">
+        <v>803</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D25">
+        <v>2008</v>
+      </c>
+      <c r="E25" t="s">
+        <v>823</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G25">
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B26">
+        <v>804</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D26">
+        <v>2008</v>
+      </c>
+      <c r="E26" t="s">
+        <v>823</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G26">
+        <v>40</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
     </row>

--- a/ETL/Data/data.xlsx
+++ b/ETL/Data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galigaribaldi/Documents/PPropios/API Tren/Apimetro/ETL/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4907933-18D3-DD49-8AE2-8DC6BCEE9D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA20D7-ED2C-1048-966E-C835D9330391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estacion" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,15 @@
     <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estacion!$A$1:$K$495</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estacion!$A$1:$K$518</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja2!$A$1:$H$46</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="1172">
   <si>
     <t>SISTEMA</t>
   </si>
@@ -2878,9 +2877,6 @@
     <t>Centenario</t>
   </si>
   <si>
-    <t>Paseo de losPoetas</t>
-  </si>
-  <si>
     <t>Tamaulipas</t>
   </si>
   <si>
@@ -3341,6 +3337,213 @@
   </si>
   <si>
     <t>Ramal/Terminal</t>
+  </si>
+  <si>
+    <t>Quetzalcoatl</t>
+  </si>
+  <si>
+    <t>Torres Buenavista</t>
+  </si>
+  <si>
+    <t>Lomas de la Estancia</t>
+  </si>
+  <si>
+    <t>San Miguel Teotongo</t>
+  </si>
+  <si>
+    <t>Los Pinos/Constituyentes</t>
+  </si>
+  <si>
+    <t>Panteón de Dolores</t>
+  </si>
+  <si>
+    <t>Charrería</t>
+  </si>
+  <si>
+    <t>Colegio de Arquitectos</t>
+  </si>
+  <si>
+    <t>Cinetéca Chapultepec</t>
+  </si>
+  <si>
+    <t>Cablebús L2</t>
+  </si>
+  <si>
+    <t>Cablebús L3</t>
+  </si>
+  <si>
+    <t>Cablebús L4</t>
+  </si>
+  <si>
+    <t>Alborada</t>
+  </si>
+  <si>
+    <t>Fuentes Brotantes</t>
+  </si>
+  <si>
+    <t>Corregidora</t>
+  </si>
+  <si>
+    <t>Alfredo V Bonfil</t>
+  </si>
+  <si>
+    <t>Tekal</t>
+  </si>
+  <si>
+    <t>Heroes de Padierna</t>
+  </si>
+  <si>
+    <t>Bosques de Pedregal</t>
+  </si>
+  <si>
+    <t>Pedregal de San Nicolas</t>
+  </si>
+  <si>
+    <t>Cablebús L4 (R1)</t>
+  </si>
+  <si>
+    <t>Rincon del Mirador</t>
+  </si>
+  <si>
+    <t>Acachen</t>
+  </si>
+  <si>
+    <t>Pico de Turquino</t>
+  </si>
+  <si>
+    <t>Cablebús L4 (R2)</t>
+  </si>
+  <si>
+    <t>Cablebús L5</t>
+  </si>
+  <si>
+    <t>Lomas de Capúla</t>
+  </si>
+  <si>
+    <t>Presidentes</t>
+  </si>
+  <si>
+    <t>Jalalpa</t>
+  </si>
+  <si>
+    <t>Corpus Christi</t>
+  </si>
+  <si>
+    <t>Paseo de los Poetas</t>
+  </si>
+  <si>
+    <t>San Mateo Tlaltenango</t>
+  </si>
+  <si>
+    <t>Contadero</t>
+  </si>
+  <si>
+    <t>Rosa Torres</t>
+  </si>
+  <si>
+    <t>Zentlapatl</t>
+  </si>
+  <si>
+    <t>San Pablo Chimalpa</t>
+  </si>
+  <si>
+    <t>Cablebús L6</t>
+  </si>
+  <si>
+    <t>Cablebús L7</t>
+  </si>
+  <si>
+    <t>Transbordo/Intermedia</t>
+  </si>
+  <si>
+    <t>Río Mixcoac</t>
+  </si>
+  <si>
+    <t>Lomas de Tarango</t>
+  </si>
+  <si>
+    <t>San Clemente Sur</t>
+  </si>
+  <si>
+    <t>Tetelpan</t>
+  </si>
+  <si>
+    <t>San José del Olivar</t>
+  </si>
+  <si>
+    <t>Torres de Potrero</t>
+  </si>
+  <si>
+    <t>San Bartolo Ameyalco</t>
+  </si>
+  <si>
+    <t>Cablebús L7 (R1)</t>
+  </si>
+  <si>
+    <t>Atacaxco</t>
+  </si>
+  <si>
+    <t>La Magdalena</t>
+  </si>
+  <si>
+    <t>San Bernabè Ocotepec</t>
+  </si>
+  <si>
+    <t>Tierra Unida</t>
+  </si>
+  <si>
+    <t>Barrio San Francisco</t>
+  </si>
+  <si>
+    <t>Cablebús L8</t>
+  </si>
+  <si>
+    <t>Estadio Azteca</t>
+  </si>
+  <si>
+    <t>El Caminero</t>
+  </si>
+  <si>
+    <t>Pedregal de las Aguilas</t>
+  </si>
+  <si>
+    <t>Cumbres de Tepetongo</t>
+  </si>
+  <si>
+    <t>Cablebús L9</t>
+  </si>
+  <si>
+    <t>Xochitepec</t>
+  </si>
+  <si>
+    <t>Santiago Tepalcatlalpan</t>
+  </si>
+  <si>
+    <t>Zacatepec</t>
+  </si>
+  <si>
+    <t>San Mateo Xalpa</t>
+  </si>
+  <si>
+    <t>El Cedral</t>
+  </si>
+  <si>
+    <t>Terminal/Transbordo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tlalnepantla/Periférico Exterior</t>
+  </si>
+  <si>
+    <t>San Lucas Xochimanca</t>
+  </si>
+  <si>
+    <t>San Andrés Ahuyucan</t>
+  </si>
+  <si>
+    <t>Santa Cecilia Tepetlapa</t>
+  </si>
+  <si>
+    <t>Cablebús L9 (R1)</t>
   </si>
 </sst>
 </file>
@@ -3429,13 +3632,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3733,10 +3936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q502"/>
+  <dimension ref="A1:Q577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G503" sqref="G503"/>
+    <sheetView topLeftCell="A538" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A576" sqref="A576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4102,7 +4305,7 @@
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -4149,7 +4352,7 @@
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9" s="7"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -4194,7 +4397,7 @@
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -4241,7 +4444,7 @@
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11" s="7"/>
+      <c r="O11" s="8"/>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4286,7 +4489,7 @@
       <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -4333,7 +4536,7 @@
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" s="7"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -4554,7 +4757,7 @@
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -4601,7 +4804,7 @@
       <c r="N19">
         <v>1</v>
       </c>
-      <c r="O19" s="7"/>
+      <c r="O19" s="8"/>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -4646,7 +4849,7 @@
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="8" t="s">
         <v>601</v>
       </c>
       <c r="P20" s="2" t="s">
@@ -4696,7 +4899,7 @@
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="O21" s="7"/>
+      <c r="O21" s="8"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
@@ -5930,7 +6133,7 @@
       <c r="N49">
         <v>1</v>
       </c>
-      <c r="O49" s="7" t="s">
+      <c r="O49" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -5977,7 +6180,7 @@
       <c r="N50">
         <v>1</v>
       </c>
-      <c r="O50" s="7"/>
+      <c r="O50" s="8"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -6242,7 +6445,7 @@
       <c r="N56">
         <v>1</v>
       </c>
-      <c r="O56" s="7" t="s">
+      <c r="O56" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -6289,7 +6492,7 @@
       <c r="N57">
         <v>1</v>
       </c>
-      <c r="O57" s="7"/>
+      <c r="O57" s="8"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -6554,7 +6757,7 @@
       <c r="N63">
         <v>1</v>
       </c>
-      <c r="O63" s="7" t="s">
+      <c r="O63" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -6601,7 +6804,7 @@
       <c r="N64">
         <v>1</v>
       </c>
-      <c r="O64" s="7"/>
+      <c r="O64" s="8"/>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -6646,7 +6849,7 @@
       <c r="N65">
         <v>1</v>
       </c>
-      <c r="O65" s="7" t="s">
+      <c r="O65" s="8" t="s">
         <v>601</v>
       </c>
       <c r="P65" s="2" t="s">
@@ -6699,7 +6902,7 @@
       <c r="N66">
         <v>1</v>
       </c>
-      <c r="O66" s="7"/>
+      <c r="O66" s="8"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
@@ -6922,7 +7125,7 @@
       <c r="N71">
         <v>1</v>
       </c>
-      <c r="O71" s="7" t="s">
+      <c r="O71" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -6969,7 +7172,7 @@
       <c r="N72">
         <v>1</v>
       </c>
-      <c r="O72" s="7"/>
+      <c r="O72" s="8"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -7102,7 +7305,7 @@
       <c r="N75">
         <v>1</v>
       </c>
-      <c r="O75" s="7" t="s">
+      <c r="O75" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -7149,7 +7352,7 @@
       <c r="N76">
         <v>1</v>
       </c>
-      <c r="O76" s="7"/>
+      <c r="O76" s="8"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -7174,7 +7377,7 @@
         <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I77">
         <v>2040</v>
@@ -7201,7 +7404,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C78" s="1">
         <v>5</v>
@@ -7219,7 +7422,7 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I78">
         <v>2040</v>
@@ -7246,7 +7449,7 @@
         <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C79" s="1">
         <v>5</v>
@@ -7264,7 +7467,7 @@
         <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I79">
         <v>2040</v>
@@ -7291,7 +7494,7 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C80" s="1">
         <v>5</v>
@@ -7309,7 +7512,7 @@
         <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I80">
         <v>2040</v>
@@ -7336,7 +7539,7 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C81" s="1">
         <v>5</v>
@@ -7381,7 +7584,7 @@
         <v>826</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -7441,7 +7644,7 @@
         <v>251</v>
       </c>
       <c r="G83" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H83" t="s">
         <v>154</v>
@@ -7552,7 +7755,7 @@
       <c r="N85">
         <v>1</v>
       </c>
-      <c r="O85" s="8" t="s">
+      <c r="O85" s="9" t="s">
         <v>601</v>
       </c>
     </row>
@@ -7599,7 +7802,7 @@
       <c r="N86">
         <v>1</v>
       </c>
-      <c r="O86" s="8"/>
+      <c r="O86" s="9"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -7644,7 +7847,7 @@
       <c r="N87">
         <v>1</v>
       </c>
-      <c r="O87" s="8"/>
+      <c r="O87" s="9"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -7689,7 +7892,7 @@
       <c r="N88">
         <v>1</v>
       </c>
-      <c r="O88" s="8" t="s">
+      <c r="O88" s="9" t="s">
         <v>601</v>
       </c>
     </row>
@@ -7736,7 +7939,7 @@
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="O89" s="8"/>
+      <c r="O89" s="9"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -7752,7 +7955,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F90" t="s">
         <v>272</v>
@@ -7781,7 +7984,7 @@
       <c r="N90">
         <v>1</v>
       </c>
-      <c r="O90" s="8"/>
+      <c r="O90" s="9"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -7797,7 +8000,7 @@
         <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F91" t="s">
         <v>275</v>
@@ -7826,7 +8029,7 @@
       <c r="N91">
         <v>1</v>
       </c>
-      <c r="O91" s="8"/>
+      <c r="O91" s="9"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -7842,7 +8045,7 @@
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F92" t="s">
         <v>278</v>
@@ -7871,7 +8074,7 @@
       <c r="N92">
         <v>1</v>
       </c>
-      <c r="O92" s="8"/>
+      <c r="O92" s="9"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -7887,7 +8090,7 @@
         <v>17</v>
       </c>
       <c r="E93" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F93" t="s">
         <v>281</v>
@@ -7916,7 +8119,7 @@
       <c r="N93">
         <v>1</v>
       </c>
-      <c r="O93" s="7" t="s">
+      <c r="O93" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -7934,7 +8137,7 @@
         <v>18</v>
       </c>
       <c r="E94" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F94" t="s">
         <v>284</v>
@@ -7963,7 +8166,7 @@
       <c r="N94">
         <v>1</v>
       </c>
-      <c r="O94" s="7"/>
+      <c r="O94" s="8"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -7979,7 +8182,7 @@
         <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F95" t="s">
         <v>286</v>
@@ -8052,7 +8255,7 @@
       <c r="N96">
         <v>1</v>
       </c>
-      <c r="O96" s="7" t="s">
+      <c r="O96" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -8099,7 +8302,7 @@
       <c r="N97">
         <v>1</v>
       </c>
-      <c r="O97" s="7"/>
+      <c r="O97" s="8"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -8144,7 +8347,7 @@
       <c r="N98">
         <v>1</v>
       </c>
-      <c r="O98" s="7" t="s">
+      <c r="O98" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -8191,7 +8394,7 @@
       <c r="N99">
         <v>1</v>
       </c>
-      <c r="O99" s="7"/>
+      <c r="O99" s="8"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
@@ -8236,7 +8439,7 @@
       <c r="N100">
         <v>1</v>
       </c>
-      <c r="O100" s="7" t="s">
+      <c r="O100" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -8283,7 +8486,7 @@
       <c r="N101">
         <v>1</v>
       </c>
-      <c r="O101" s="7"/>
+      <c r="O101" s="8"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -8328,7 +8531,7 @@
       <c r="N102">
         <v>1</v>
       </c>
-      <c r="O102" s="7" t="s">
+      <c r="O102" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -8375,7 +8578,7 @@
       <c r="N103">
         <v>1</v>
       </c>
-      <c r="O103" s="7"/>
+      <c r="O103" s="8"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -8420,7 +8623,7 @@
       <c r="N104">
         <v>1</v>
       </c>
-      <c r="O104" s="7" t="s">
+      <c r="O104" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -8467,7 +8670,7 @@
       <c r="N105">
         <v>1</v>
       </c>
-      <c r="O105" s="7"/>
+      <c r="O105" s="8"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -8512,11 +8715,11 @@
       <c r="N106">
         <v>1</v>
       </c>
-      <c r="O106" s="7"/>
+      <c r="O106" s="8"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C107">
         <v>6</v>
@@ -8525,7 +8728,7 @@
         <v>12</v>
       </c>
       <c r="E107" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F107" t="s">
         <v>313</v>
@@ -8558,7 +8761,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C108">
         <v>6</v>
@@ -8567,7 +8770,7 @@
         <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F108" t="s">
         <v>316</v>
@@ -8600,7 +8803,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C109">
         <v>6</v>
@@ -8609,7 +8812,7 @@
         <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F109" t="s">
         <v>318</v>
@@ -8642,7 +8845,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C110">
         <v>6</v>
@@ -8651,13 +8854,13 @@
         <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F110" t="s">
         <v>313</v>
       </c>
       <c r="G110" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H110" t="s">
         <v>154</v>
@@ -8684,7 +8887,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C111">
         <v>6</v>
@@ -8693,7 +8896,7 @@
         <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F111" t="s">
         <v>316</v>
@@ -8735,7 +8938,7 @@
         <v>17</v>
       </c>
       <c r="E112" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F112" t="s">
         <v>318</v>
@@ -8768,7 +8971,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C113">
         <v>6</v>
@@ -8777,7 +8980,7 @@
         <v>18</v>
       </c>
       <c r="E113" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F113" t="s">
         <v>313</v>
@@ -8819,7 +9022,7 @@
         <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F114" t="s">
         <v>316</v>
@@ -8893,7 +9096,7 @@
       <c r="N115">
         <v>1</v>
       </c>
-      <c r="O115" s="7" t="s">
+      <c r="O115" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -8940,7 +9143,7 @@
       <c r="N116">
         <v>1</v>
       </c>
-      <c r="O116" s="7"/>
+      <c r="O116" s="8"/>
       <c r="P116" s="2" t="s">
         <v>601</v>
       </c>
@@ -9033,7 +9236,7 @@
       <c r="N118">
         <v>1</v>
       </c>
-      <c r="O118" s="7" t="s">
+      <c r="O118" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -9080,7 +9283,7 @@
       <c r="N119">
         <v>1</v>
       </c>
-      <c r="O119" s="7"/>
+      <c r="O119" s="8"/>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -9125,7 +9328,7 @@
       <c r="N120">
         <v>1</v>
       </c>
-      <c r="O120" s="7" t="s">
+      <c r="O120" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -9172,7 +9375,7 @@
       <c r="N121">
         <v>1</v>
       </c>
-      <c r="O121" s="7"/>
+      <c r="O121" s="8"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -9261,7 +9464,7 @@
       <c r="N123">
         <v>1</v>
       </c>
-      <c r="O123" s="7" t="s">
+      <c r="O123" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -9308,7 +9511,7 @@
       <c r="N124">
         <v>1</v>
       </c>
-      <c r="O124" s="7"/>
+      <c r="O124" s="8"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -9500,7 +9703,7 @@
         <v>4</v>
       </c>
       <c r="E129" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F129" t="s">
         <v>361</v>
@@ -9749,7 +9952,7 @@
       <c r="N134">
         <v>1</v>
       </c>
-      <c r="O134" s="7" t="s">
+      <c r="O134" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -9796,7 +9999,7 @@
       <c r="N135">
         <v>1</v>
       </c>
-      <c r="O135" s="7"/>
+      <c r="O135" s="8"/>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -9841,7 +10044,7 @@
       <c r="N136">
         <v>1</v>
       </c>
-      <c r="O136" s="7" t="s">
+      <c r="O136" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -9888,7 +10091,7 @@
       <c r="N137">
         <v>1</v>
       </c>
-      <c r="O137" s="7"/>
+      <c r="O137" s="8"/>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -9933,7 +10136,7 @@
       <c r="N138">
         <v>1</v>
       </c>
-      <c r="O138" s="7" t="s">
+      <c r="O138" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -9980,7 +10183,7 @@
       <c r="N139">
         <v>1</v>
       </c>
-      <c r="O139" s="7"/>
+      <c r="O139" s="8"/>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
@@ -10113,7 +10316,7 @@
       <c r="N142">
         <v>1</v>
       </c>
-      <c r="O142" s="7" t="s">
+      <c r="O142" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -10160,7 +10363,7 @@
       <c r="N143">
         <v>1</v>
       </c>
-      <c r="O143" s="7"/>
+      <c r="O143" s="8"/>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
@@ -10205,7 +10408,7 @@
       <c r="N144">
         <v>1</v>
       </c>
-      <c r="O144" s="7" t="s">
+      <c r="O144" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -10252,7 +10455,7 @@
       <c r="N145">
         <v>1</v>
       </c>
-      <c r="O145" s="7"/>
+      <c r="O145" s="8"/>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
@@ -10385,7 +10588,7 @@
       <c r="N148">
         <v>1</v>
       </c>
-      <c r="O148" s="7" t="s">
+      <c r="O148" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -10432,7 +10635,7 @@
       <c r="N149">
         <v>1</v>
       </c>
-      <c r="O149" s="7"/>
+      <c r="O149" s="8"/>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -10832,7 +11035,7 @@
       <c r="N158">
         <v>1</v>
       </c>
-      <c r="O158" s="7" t="s">
+      <c r="O158" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -10879,7 +11082,7 @@
       <c r="N159">
         <v>1</v>
       </c>
-      <c r="O159" s="7"/>
+      <c r="O159" s="8"/>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -10968,7 +11171,7 @@
       <c r="N161">
         <v>1</v>
       </c>
-      <c r="O161" s="7" t="s">
+      <c r="O161" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -11015,7 +11218,7 @@
       <c r="N162">
         <v>1</v>
       </c>
-      <c r="O162" s="7"/>
+      <c r="O162" s="8"/>
       <c r="P162" s="2" t="s">
         <v>601</v>
       </c>
@@ -11152,7 +11355,7 @@
       <c r="N165">
         <v>1</v>
       </c>
-      <c r="O165" s="7" t="s">
+      <c r="O165" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -11199,7 +11402,7 @@
       <c r="N166">
         <v>1</v>
       </c>
-      <c r="O166" s="7"/>
+      <c r="O166" s="8"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
@@ -11288,7 +11491,7 @@
       <c r="N168">
         <v>1</v>
       </c>
-      <c r="O168" s="7" t="s">
+      <c r="O168" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -11335,7 +11538,7 @@
       <c r="N169">
         <v>1</v>
       </c>
-      <c r="O169" s="7"/>
+      <c r="O169" s="8"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
@@ -11424,7 +11627,7 @@
       <c r="N171">
         <v>1</v>
       </c>
-      <c r="O171" s="7" t="s">
+      <c r="O171" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -11471,7 +11674,7 @@
       <c r="N172">
         <v>1</v>
       </c>
-      <c r="O172" s="7"/>
+      <c r="O172" s="8"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
@@ -11560,7 +11763,7 @@
       <c r="N174">
         <v>1</v>
       </c>
-      <c r="O174" s="7" t="s">
+      <c r="O174" s="8" t="s">
         <v>601</v>
       </c>
       <c r="P174" s="2" t="s">
@@ -11610,7 +11813,7 @@
       <c r="N175">
         <v>1</v>
       </c>
-      <c r="O175" s="7"/>
+      <c r="O175" s="8"/>
       <c r="P175" s="2"/>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
@@ -11656,7 +11859,7 @@
       <c r="N176">
         <v>1</v>
       </c>
-      <c r="O176" s="7" t="s">
+      <c r="O176" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -11703,7 +11906,7 @@
       <c r="N177">
         <v>1</v>
       </c>
-      <c r="O177" s="7"/>
+      <c r="O177" s="8"/>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -11798,7 +12001,7 @@
         <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C180">
         <v>12</v>
@@ -11807,7 +12010,7 @@
         <v>21</v>
       </c>
       <c r="E180" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F180">
         <v>5031</v>
@@ -11851,7 +12054,7 @@
         <v>22</v>
       </c>
       <c r="E181" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F181">
         <v>5032</v>
@@ -11895,7 +12098,7 @@
         <v>23</v>
       </c>
       <c r="E182" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F182">
         <v>5033</v>
@@ -11968,7 +12171,7 @@
       <c r="N183">
         <v>1</v>
       </c>
-      <c r="O183" s="7" t="s">
+      <c r="O183" s="8" t="s">
         <v>601</v>
       </c>
     </row>
@@ -12015,7 +12218,7 @@
       <c r="N184">
         <v>1</v>
       </c>
-      <c r="O184" s="7"/>
+      <c r="O184" s="8"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
@@ -12374,7 +12577,7 @@
         <v>4</v>
       </c>
       <c r="B193" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C193">
         <v>11</v>
@@ -12415,7 +12618,7 @@
         <v>4</v>
       </c>
       <c r="B194" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C194">
         <v>11</v>
@@ -12497,7 +12700,7 @@
         <v>4</v>
       </c>
       <c r="B196" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C196">
         <v>11</v>
@@ -12553,7 +12756,7 @@
         <v>5174</v>
       </c>
       <c r="G197" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H197" t="s">
         <v>66</v>
@@ -12582,7 +12785,7 @@
         <v>4</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C198">
         <v>11</v>
@@ -12884,7 +13087,7 @@
       <c r="N204">
         <v>1</v>
       </c>
-      <c r="O204" s="9" t="s">
+      <c r="O204" s="7" t="s">
         <v>634</v>
       </c>
     </row>
@@ -12931,7 +13134,7 @@
       <c r="N205">
         <v>1</v>
       </c>
-      <c r="O205" s="9"/>
+      <c r="O205" s="7"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
@@ -12976,7 +13179,7 @@
       <c r="N206">
         <v>1</v>
       </c>
-      <c r="O206" s="9"/>
+      <c r="O206" s="7"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
@@ -13197,7 +13400,7 @@
       <c r="N211">
         <v>1</v>
       </c>
-      <c r="O211" s="9" t="s">
+      <c r="O211" s="7" t="s">
         <v>634</v>
       </c>
     </row>
@@ -13244,7 +13447,7 @@
       <c r="N212">
         <v>1</v>
       </c>
-      <c r="O212" s="9"/>
+      <c r="O212" s="7"/>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
@@ -13289,7 +13492,7 @@
       <c r="N213">
         <v>1</v>
       </c>
-      <c r="O213" s="9"/>
+      <c r="O213" s="7"/>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
@@ -13349,7 +13552,7 @@
         <v>23</v>
       </c>
       <c r="E215" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F215" t="s">
         <v>581</v>
@@ -13592,7 +13795,7 @@
         <v>4</v>
       </c>
       <c r="B221" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C221">
         <v>81</v>
@@ -13621,7 +13824,7 @@
         <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C222">
         <v>81</v>
@@ -13650,7 +13853,7 @@
         <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C223">
         <v>81</v>
@@ -13679,7 +13882,7 @@
         <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C224">
         <v>81</v>
@@ -13708,7 +13911,7 @@
         <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C225">
         <v>81</v>
@@ -13737,7 +13940,7 @@
         <v>4</v>
       </c>
       <c r="B226" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C226">
         <v>81</v>
@@ -13766,7 +13969,7 @@
         <v>4</v>
       </c>
       <c r="B227" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C227">
         <v>81</v>
@@ -13824,7 +14027,7 @@
         <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C229">
         <v>81</v>
@@ -13853,7 +14056,7 @@
         <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C230">
         <v>81</v>
@@ -13882,7 +14085,7 @@
         <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C231">
         <v>81</v>
@@ -13911,7 +14114,7 @@
         <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C232">
         <v>81</v>
@@ -13940,7 +14143,7 @@
         <v>4</v>
       </c>
       <c r="B233" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C233">
         <v>81</v>
@@ -13969,7 +14172,7 @@
         <v>4</v>
       </c>
       <c r="B234" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C234">
         <v>81</v>
@@ -13998,7 +14201,7 @@
         <v>4</v>
       </c>
       <c r="B235" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C235">
         <v>81</v>
@@ -14027,7 +14230,7 @@
         <v>4</v>
       </c>
       <c r="B236" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C236">
         <v>81</v>
@@ -14056,7 +14259,7 @@
         <v>4</v>
       </c>
       <c r="B237" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C237">
         <v>81</v>
@@ -14085,7 +14288,7 @@
         <v>4</v>
       </c>
       <c r="B238" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C238">
         <v>81</v>
@@ -14114,7 +14317,7 @@
         <v>4</v>
       </c>
       <c r="B239" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C239">
         <v>81</v>
@@ -14143,7 +14346,7 @@
         <v>4</v>
       </c>
       <c r="B240" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C240">
         <v>81</v>
@@ -14172,7 +14375,7 @@
         <v>4</v>
       </c>
       <c r="B241" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C241">
         <v>81</v>
@@ -14201,7 +14404,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C242">
         <v>81</v>
@@ -14230,7 +14433,7 @@
         <v>4</v>
       </c>
       <c r="B243" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C243">
         <v>81</v>
@@ -14259,7 +14462,7 @@
         <v>4</v>
       </c>
       <c r="B244" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C244">
         <v>81</v>
@@ -15673,10 +15876,10 @@
         <v>572</v>
       </c>
       <c r="J276">
-        <v>19.3721116793307</v>
+        <v>19.3721026926363</v>
       </c>
       <c r="K276">
-        <v>-99.191988389200802</v>
+        <v>-99.193938817374004</v>
       </c>
       <c r="L276" t="s">
         <v>640</v>
@@ -16969,7 +17172,7 @@
         <v>826</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C306">
         <v>73</v>
@@ -18333,7 +18536,7 @@
         <v>826</v>
       </c>
       <c r="B337" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C337">
         <v>75</v>
@@ -18362,7 +18565,7 @@
         <v>826</v>
       </c>
       <c r="B338" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C338">
         <v>75</v>
@@ -18391,7 +18594,7 @@
         <v>826</v>
       </c>
       <c r="B339" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C339">
         <v>75</v>
@@ -21106,7 +21309,7 @@
         <v>826</v>
       </c>
       <c r="B432" t="s">
-        <v>949</v>
+        <v>1133</v>
       </c>
       <c r="C432">
         <v>78</v>
@@ -21135,7 +21338,7 @@
         <v>826</v>
       </c>
       <c r="B433" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C433">
         <v>78</v>
@@ -21164,7 +21367,7 @@
         <v>826</v>
       </c>
       <c r="B434" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C434">
         <v>78</v>
@@ -21193,7 +21396,7 @@
         <v>826</v>
       </c>
       <c r="B435" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C435">
         <v>78</v>
@@ -21222,7 +21425,7 @@
         <v>826</v>
       </c>
       <c r="B436" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C436">
         <v>78</v>
@@ -21251,7 +21454,7 @@
         <v>826</v>
       </c>
       <c r="B437" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C437">
         <v>78</v>
@@ -21280,7 +21483,7 @@
         <v>826</v>
       </c>
       <c r="B438" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C438">
         <v>78</v>
@@ -21309,7 +21512,7 @@
         <v>826</v>
       </c>
       <c r="B439" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C439">
         <v>78</v>
@@ -21338,7 +21541,7 @@
         <v>826</v>
       </c>
       <c r="B440" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C440">
         <v>78</v>
@@ -21367,7 +21570,7 @@
         <v>826</v>
       </c>
       <c r="B441" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C441">
         <v>78</v>
@@ -21396,7 +21599,7 @@
         <v>826</v>
       </c>
       <c r="B442" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C442">
         <v>78</v>
@@ -21425,7 +21628,7 @@
         <v>826</v>
       </c>
       <c r="B443" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C443">
         <v>78</v>
@@ -21454,7 +21657,7 @@
         <v>826</v>
       </c>
       <c r="B444" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C444">
         <v>78</v>
@@ -21483,7 +21686,7 @@
         <v>826</v>
       </c>
       <c r="B445" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C445">
         <v>78</v>
@@ -21512,7 +21715,7 @@
         <v>826</v>
       </c>
       <c r="B446" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C446">
         <v>78</v>
@@ -21541,7 +21744,7 @@
         <v>826</v>
       </c>
       <c r="B447" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C447">
         <v>78</v>
@@ -21570,7 +21773,7 @@
         <v>826</v>
       </c>
       <c r="B448" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C448">
         <v>78</v>
@@ -21599,7 +21802,7 @@
         <v>826</v>
       </c>
       <c r="B449" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C449">
         <v>78</v>
@@ -21628,7 +21831,7 @@
         <v>826</v>
       </c>
       <c r="B450" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C450">
         <v>78</v>
@@ -21657,7 +21860,7 @@
         <v>826</v>
       </c>
       <c r="B451" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C451">
         <v>78</v>
@@ -21686,7 +21889,7 @@
         <v>826</v>
       </c>
       <c r="B452" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C452">
         <v>78</v>
@@ -21715,7 +21918,7 @@
         <v>826</v>
       </c>
       <c r="B453" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C453">
         <v>78</v>
@@ -22060,10 +22263,10 @@
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B465" t="s">
         <v>1012</v>
-      </c>
-      <c r="B465" t="s">
-        <v>1013</v>
       </c>
       <c r="C465">
         <v>801</v>
@@ -22081,7 +22284,7 @@
         <v>594</v>
       </c>
       <c r="M465" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N465">
         <v>1</v>
@@ -22089,10 +22292,10 @@
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B466" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C466">
         <v>801</v>
@@ -22110,7 +22313,7 @@
         <v>594</v>
       </c>
       <c r="M466" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N466">
         <v>1</v>
@@ -22118,7 +22321,7 @@
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B467" t="s">
         <v>682</v>
@@ -22139,7 +22342,7 @@
         <v>594</v>
       </c>
       <c r="M467" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N467">
         <v>1</v>
@@ -22147,7 +22350,7 @@
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B468" t="s">
         <v>884</v>
@@ -22168,7 +22371,7 @@
         <v>594</v>
       </c>
       <c r="M468" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N468">
         <v>1</v>
@@ -22176,10 +22379,10 @@
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B469" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C469">
         <v>801</v>
@@ -22197,7 +22400,7 @@
         <v>594</v>
       </c>
       <c r="M469" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N469">
         <v>1</v>
@@ -22205,10 +22408,10 @@
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B470" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C470">
         <v>801</v>
@@ -22226,7 +22429,7 @@
         <v>594</v>
       </c>
       <c r="M470" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N470">
         <v>1</v>
@@ -22234,10 +22437,10 @@
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B471" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C471">
         <v>801</v>
@@ -22255,7 +22458,7 @@
         <v>594</v>
       </c>
       <c r="M471" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N471">
         <v>1</v>
@@ -22263,7 +22466,7 @@
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B472" t="s">
         <v>71</v>
@@ -22284,7 +22487,7 @@
         <v>594</v>
       </c>
       <c r="M472" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N472">
         <v>1</v>
@@ -22292,10 +22495,10 @@
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B473" t="s">
         <v>1020</v>
-      </c>
-      <c r="B473" t="s">
-        <v>1021</v>
       </c>
       <c r="C473">
         <v>802</v>
@@ -22313,7 +22516,7 @@
         <v>594</v>
       </c>
       <c r="M473" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N473">
         <v>1</v>
@@ -22321,10 +22524,10 @@
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B474" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C474">
         <v>802</v>
@@ -22342,7 +22545,7 @@
         <v>594</v>
       </c>
       <c r="M474" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N474">
         <v>1</v>
@@ -22350,10 +22553,10 @@
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B475" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C475">
         <v>802</v>
@@ -22371,7 +22574,7 @@
         <v>595</v>
       </c>
       <c r="M475" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N475">
         <v>1</v>
@@ -22379,10 +22582,10 @@
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B476" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C476">
         <v>802</v>
@@ -22400,7 +22603,7 @@
         <v>595</v>
       </c>
       <c r="M476" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N476">
         <v>1</v>
@@ -22408,7 +22611,7 @@
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B477" t="s">
         <v>38</v>
@@ -22429,7 +22632,7 @@
         <v>595</v>
       </c>
       <c r="M477" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N477">
         <v>1</v>
@@ -22437,10 +22640,10 @@
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B478" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C478">
         <v>802</v>
@@ -22458,7 +22661,7 @@
         <v>595</v>
       </c>
       <c r="M478" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N478">
         <v>1</v>
@@ -22466,10 +22669,10 @@
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B479" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C479">
         <v>803</v>
@@ -22487,7 +22690,7 @@
         <v>595</v>
       </c>
       <c r="M479" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N479">
         <v>1</v>
@@ -22495,10 +22698,10 @@
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B480" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C480">
         <v>803</v>
@@ -22516,7 +22719,7 @@
         <v>595</v>
       </c>
       <c r="M480" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N480">
         <v>1</v>
@@ -22524,10 +22727,10 @@
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B481" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C481">
         <v>803</v>
@@ -22545,7 +22748,7 @@
         <v>595</v>
       </c>
       <c r="M481" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N481">
         <v>1</v>
@@ -22553,10 +22756,10 @@
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B482" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C482">
         <v>803</v>
@@ -22574,7 +22777,7 @@
         <v>595</v>
       </c>
       <c r="M482" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N482">
         <v>1</v>
@@ -22582,10 +22785,10 @@
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B483" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C483">
         <v>803</v>
@@ -22603,7 +22806,7 @@
         <v>595</v>
       </c>
       <c r="M483" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N483">
         <v>1</v>
@@ -22611,10 +22814,10 @@
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B484" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C484">
         <v>803</v>
@@ -22632,7 +22835,7 @@
         <v>595</v>
       </c>
       <c r="M484" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N484">
         <v>1</v>
@@ -22640,10 +22843,10 @@
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B485" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C485">
         <v>804</v>
@@ -22661,7 +22864,7 @@
         <v>640</v>
       </c>
       <c r="M485" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N485">
         <v>0</v>
@@ -22669,10 +22872,10 @@
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B486" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C486">
         <v>804</v>
@@ -22690,7 +22893,7 @@
         <v>640</v>
       </c>
       <c r="M486" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N486">
         <v>0</v>
@@ -22698,10 +22901,10 @@
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B487" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C487">
         <v>804</v>
@@ -22719,7 +22922,7 @@
         <v>595</v>
       </c>
       <c r="M487" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N487">
         <v>0</v>
@@ -22727,10 +22930,10 @@
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B488" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C488">
         <v>804</v>
@@ -22748,7 +22951,7 @@
         <v>231</v>
       </c>
       <c r="M488" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N488">
         <v>0</v>
@@ -22756,10 +22959,10 @@
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B489" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C489">
         <v>804</v>
@@ -22767,6 +22970,9 @@
       <c r="D489">
         <v>5</v>
       </c>
+      <c r="G489" t="s">
+        <v>14</v>
+      </c>
       <c r="J489">
         <v>19.0006411816147</v>
       </c>
@@ -22777,7 +22983,7 @@
         <v>231</v>
       </c>
       <c r="M489" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -22785,10 +22991,10 @@
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B490" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C490">
         <v>804</v>
@@ -22796,6 +23002,9 @@
       <c r="D490">
         <v>6</v>
       </c>
+      <c r="G490" t="s">
+        <v>14</v>
+      </c>
       <c r="J490">
         <v>18.982122546837498</v>
       </c>
@@ -22806,7 +23015,7 @@
         <v>231</v>
       </c>
       <c r="M490" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N490">
         <v>0</v>
@@ -22814,10 +23023,10 @@
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B491" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C491">
         <v>804</v>
@@ -22825,6 +23034,9 @@
       <c r="D491">
         <v>7</v>
       </c>
+      <c r="G491" t="s">
+        <v>14</v>
+      </c>
       <c r="J491">
         <v>18.949823850738401</v>
       </c>
@@ -22835,7 +23047,7 @@
         <v>231</v>
       </c>
       <c r="M491" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N491">
         <v>0</v>
@@ -22843,10 +23055,10 @@
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B492" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C492">
         <v>804</v>
@@ -22854,6 +23066,9 @@
       <c r="D492">
         <v>8</v>
       </c>
+      <c r="G492" t="s">
+        <v>14</v>
+      </c>
       <c r="J492">
         <v>18.9120009439869</v>
       </c>
@@ -22864,7 +23079,7 @@
         <v>231</v>
       </c>
       <c r="M492" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N492">
         <v>0</v>
@@ -22872,10 +23087,10 @@
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B493" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C493">
         <v>804</v>
@@ -22883,6 +23098,9 @@
       <c r="D493">
         <v>9</v>
       </c>
+      <c r="G493" t="s">
+        <v>14</v>
+      </c>
       <c r="J493">
         <v>18.882291433358901</v>
       </c>
@@ -22893,7 +23111,7 @@
         <v>231</v>
       </c>
       <c r="M493" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N493">
         <v>0</v>
@@ -22901,10 +23119,10 @@
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B494" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C494">
         <v>804</v>
@@ -22912,6 +23130,9 @@
       <c r="D494">
         <v>10</v>
       </c>
+      <c r="G494" t="s">
+        <v>14</v>
+      </c>
       <c r="J494">
         <v>18.852515212540901</v>
       </c>
@@ -22922,7 +23143,7 @@
         <v>231</v>
       </c>
       <c r="M494" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N494">
         <v>0</v>
@@ -22930,10 +23151,10 @@
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B495" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C495">
         <v>804</v>
@@ -22941,6 +23162,9 @@
       <c r="D495">
         <v>11</v>
       </c>
+      <c r="G495" t="s">
+        <v>74</v>
+      </c>
       <c r="J495">
         <v>18.817333701910702</v>
       </c>
@@ -22951,7 +23175,7 @@
         <v>231</v>
       </c>
       <c r="M495" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N495">
         <v>0</v>
@@ -22959,7 +23183,7 @@
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B496" t="s">
         <v>151</v>
@@ -22970,6 +23194,9 @@
       <c r="D496">
         <v>1</v>
       </c>
+      <c r="G496" t="s">
+        <v>14</v>
+      </c>
       <c r="J496">
         <v>19.495398656598699</v>
       </c>
@@ -22980,7 +23207,7 @@
         <v>594</v>
       </c>
       <c r="M496" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N496">
         <v>1</v>
@@ -22988,10 +23215,10 @@
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B497" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C497">
         <v>910</v>
@@ -22999,6 +23226,9 @@
       <c r="D497">
         <v>2</v>
       </c>
+      <c r="G497" t="s">
+        <v>14</v>
+      </c>
       <c r="J497">
         <v>19.511399964852998</v>
       </c>
@@ -23009,7 +23239,7 @@
         <v>594</v>
       </c>
       <c r="M497" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N497">
         <v>1</v>
@@ -23017,10 +23247,10 @@
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B498" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C498">
         <v>910</v>
@@ -23028,6 +23258,9 @@
       <c r="D498">
         <v>3</v>
       </c>
+      <c r="G498" t="s">
+        <v>14</v>
+      </c>
       <c r="J498">
         <v>19.528101033018299</v>
       </c>
@@ -23038,7 +23271,7 @@
         <v>594</v>
       </c>
       <c r="M498" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N498">
         <v>1</v>
@@ -23046,10 +23279,10 @@
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B499" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C499">
         <v>910</v>
@@ -23057,6 +23290,9 @@
       <c r="D499">
         <v>4</v>
       </c>
+      <c r="G499" t="s">
+        <v>14</v>
+      </c>
       <c r="J499">
         <v>19.541449212393701</v>
       </c>
@@ -23067,7 +23303,7 @@
         <v>594</v>
       </c>
       <c r="M499" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N499">
         <v>1</v>
@@ -23075,10 +23311,10 @@
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B500" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C500">
         <v>910</v>
@@ -23086,6 +23322,9 @@
       <c r="D500">
         <v>5</v>
       </c>
+      <c r="G500" t="s">
+        <v>74</v>
+      </c>
       <c r="J500">
         <v>19.559161160040901</v>
       </c>
@@ -23096,7 +23335,7 @@
         <v>594</v>
       </c>
       <c r="M500" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N500">
         <v>1</v>
@@ -23104,10 +23343,10 @@
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B501" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C501">
         <v>911</v>
@@ -23116,7 +23355,7 @@
         <v>1</v>
       </c>
       <c r="G501" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="J501">
         <v>19.542175898526398</v>
@@ -23128,7 +23367,7 @@
         <v>594</v>
       </c>
       <c r="M501" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N501">
         <v>1</v>
@@ -23136,10 +23375,10 @@
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B502" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C502">
         <v>911</v>
@@ -23148,7 +23387,7 @@
         <v>2</v>
       </c>
       <c r="G502" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J502">
         <v>19.5458966325502</v>
@@ -23160,20 +23399,2491 @@
         <v>594</v>
       </c>
       <c r="M502" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="N502">
         <v>1</v>
       </c>
     </row>
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B503" t="s">
+        <v>410</v>
+      </c>
+      <c r="C503">
+        <v>920</v>
+      </c>
+      <c r="D503">
+        <v>1</v>
+      </c>
+      <c r="G503" t="s">
+        <v>14</v>
+      </c>
+      <c r="J503">
+        <v>19.3455414468676</v>
+      </c>
+      <c r="K503">
+        <v>-99.064124250226399</v>
+      </c>
+      <c r="L503" t="s">
+        <v>594</v>
+      </c>
+      <c r="M503" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C504">
+        <v>920</v>
+      </c>
+      <c r="D504">
+        <v>2</v>
+      </c>
+      <c r="G504" t="s">
+        <v>14</v>
+      </c>
+      <c r="J504">
+        <v>19.3282454948267</v>
+      </c>
+      <c r="K504">
+        <v>-99.043510581198802</v>
+      </c>
+      <c r="M504" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C505">
+        <v>920</v>
+      </c>
+      <c r="D505">
+        <v>3</v>
+      </c>
+      <c r="G505" t="s">
+        <v>14</v>
+      </c>
+      <c r="J505">
+        <v>19.332001518630602</v>
+      </c>
+      <c r="K505">
+        <v>-99.030804326134302</v>
+      </c>
+      <c r="M505" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B506" t="s">
+        <v>933</v>
+      </c>
+      <c r="C506">
+        <v>920</v>
+      </c>
+      <c r="D506">
+        <v>4</v>
+      </c>
+      <c r="G506" t="s">
+        <v>14</v>
+      </c>
+      <c r="H506" t="s">
+        <v>392</v>
+      </c>
+      <c r="J506">
+        <v>19.336259918469</v>
+      </c>
+      <c r="K506">
+        <v>-99.018925740117993</v>
+      </c>
+      <c r="L506" t="s">
+        <v>594</v>
+      </c>
+      <c r="M506" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C507">
+        <v>920</v>
+      </c>
+      <c r="D507">
+        <v>5</v>
+      </c>
+      <c r="G507" t="s">
+        <v>14</v>
+      </c>
+      <c r="H507" t="s">
+        <v>392</v>
+      </c>
+      <c r="J507">
+        <v>19.340746001310698</v>
+      </c>
+      <c r="K507">
+        <v>-99.008525609927005</v>
+      </c>
+      <c r="L507" t="s">
+        <v>594</v>
+      </c>
+      <c r="M507" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C508">
+        <v>920</v>
+      </c>
+      <c r="D508">
+        <v>6</v>
+      </c>
+      <c r="G508" t="s">
+        <v>14</v>
+      </c>
+      <c r="H508" t="s">
+        <v>392</v>
+      </c>
+      <c r="J508">
+        <v>19.343732210281001</v>
+      </c>
+      <c r="K508">
+        <v>-98.989279609023995</v>
+      </c>
+      <c r="L508" t="s">
+        <v>594</v>
+      </c>
+      <c r="M508" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B509" t="s">
+        <v>217</v>
+      </c>
+      <c r="C509">
+        <v>920</v>
+      </c>
+      <c r="D509">
+        <v>7</v>
+      </c>
+      <c r="G509" t="s">
+        <v>74</v>
+      </c>
+      <c r="H509" t="s">
+        <v>392</v>
+      </c>
+      <c r="J509">
+        <v>19.360296200398</v>
+      </c>
+      <c r="K509">
+        <v>-98.993903830706202</v>
+      </c>
+      <c r="L509" t="s">
+        <v>594</v>
+      </c>
+      <c r="M509" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C510">
+        <v>930</v>
+      </c>
+      <c r="D510">
+        <v>1</v>
+      </c>
+      <c r="G510" t="s">
+        <v>14</v>
+      </c>
+      <c r="J510">
+        <v>19.4179379699072</v>
+      </c>
+      <c r="K510">
+        <v>-99.1948212702859</v>
+      </c>
+      <c r="L510" t="s">
+        <v>594</v>
+      </c>
+      <c r="M510" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C511">
+        <v>930</v>
+      </c>
+      <c r="D511">
+        <v>2</v>
+      </c>
+      <c r="G511" t="s">
+        <v>14</v>
+      </c>
+      <c r="J511">
+        <v>19.4068167148769</v>
+      </c>
+      <c r="K511">
+        <v>-99.203469098110304</v>
+      </c>
+      <c r="L511" t="s">
+        <v>594</v>
+      </c>
+      <c r="M511" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C512">
+        <v>930</v>
+      </c>
+      <c r="D512">
+        <v>3</v>
+      </c>
+      <c r="G512" t="s">
+        <v>14</v>
+      </c>
+      <c r="J512">
+        <v>19.399319848376301</v>
+      </c>
+      <c r="K512">
+        <v>-99.214236955538297</v>
+      </c>
+      <c r="M512" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C513">
+        <v>930</v>
+      </c>
+      <c r="D513">
+        <v>4</v>
+      </c>
+      <c r="G513" t="s">
+        <v>14</v>
+      </c>
+      <c r="J513">
+        <v>19.395631264387301</v>
+      </c>
+      <c r="K513">
+        <v>-99.224089978384896</v>
+      </c>
+      <c r="M513" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C514">
+        <v>930</v>
+      </c>
+      <c r="D514">
+        <v>5</v>
+      </c>
+      <c r="G514" t="s">
+        <v>14</v>
+      </c>
+      <c r="J514">
+        <v>19.389183144140699</v>
+      </c>
+      <c r="K514">
+        <v>-99.228486225477994</v>
+      </c>
+      <c r="M514" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C515">
+        <v>930</v>
+      </c>
+      <c r="D515">
+        <v>6</v>
+      </c>
+      <c r="G515" t="s">
+        <v>74</v>
+      </c>
+      <c r="J515">
+        <v>19.3849598478361</v>
+      </c>
+      <c r="K515">
+        <v>-99.227916419007002</v>
+      </c>
+      <c r="M515" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B516" t="s">
+        <v>214</v>
+      </c>
+      <c r="C516">
+        <v>940</v>
+      </c>
+      <c r="D516">
+        <v>1</v>
+      </c>
+      <c r="G516" t="s">
+        <v>74</v>
+      </c>
+      <c r="J516">
+        <v>19.324999589801799</v>
+      </c>
+      <c r="K516">
+        <v>-99.173738971480105</v>
+      </c>
+      <c r="M516" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C517">
+        <v>940</v>
+      </c>
+      <c r="D517">
+        <v>2</v>
+      </c>
+      <c r="G517" t="s">
+        <v>14</v>
+      </c>
+      <c r="J517">
+        <v>19.310264135920601</v>
+      </c>
+      <c r="K517">
+        <v>-99.1739900523296</v>
+      </c>
+      <c r="L517" t="s">
+        <v>594</v>
+      </c>
+      <c r="M517" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B518" t="s">
+        <v>804</v>
+      </c>
+      <c r="C518">
+        <v>940</v>
+      </c>
+      <c r="D518">
+        <v>3</v>
+      </c>
+      <c r="G518" t="s">
+        <v>14</v>
+      </c>
+      <c r="H518" t="s">
+        <v>643</v>
+      </c>
+      <c r="J518">
+        <v>19.3031599255714</v>
+      </c>
+      <c r="K518">
+        <v>-99.185859752788303</v>
+      </c>
+      <c r="L518" t="s">
+        <v>594</v>
+      </c>
+      <c r="M518" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C519">
+        <v>940</v>
+      </c>
+      <c r="D519">
+        <v>4</v>
+      </c>
+      <c r="G519" t="s">
+        <v>14</v>
+      </c>
+      <c r="H519" t="s">
+        <v>643</v>
+      </c>
+      <c r="J519">
+        <v>19.288112921202401</v>
+      </c>
+      <c r="K519">
+        <v>-99.174563712548704</v>
+      </c>
+      <c r="L519" t="s">
+        <v>594</v>
+      </c>
+      <c r="M519" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C520">
+        <v>940</v>
+      </c>
+      <c r="D520">
+        <v>5</v>
+      </c>
+      <c r="G520" t="s">
+        <v>14</v>
+      </c>
+      <c r="H520" t="s">
+        <v>643</v>
+      </c>
+      <c r="J520">
+        <v>19.281558536477601</v>
+      </c>
+      <c r="K520">
+        <v>-99.187051815494996</v>
+      </c>
+      <c r="L520" t="s">
+        <v>594</v>
+      </c>
+      <c r="M520" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C521">
+        <v>940</v>
+      </c>
+      <c r="D521">
+        <v>6</v>
+      </c>
+      <c r="G521" t="s">
+        <v>14</v>
+      </c>
+      <c r="H521" t="s">
+        <v>643</v>
+      </c>
+      <c r="J521">
+        <v>19.283240473155001</v>
+      </c>
+      <c r="K521">
+        <v>-99.203791868546503</v>
+      </c>
+      <c r="L521" t="s">
+        <v>594</v>
+      </c>
+      <c r="M521" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N521">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C522">
+        <v>940</v>
+      </c>
+      <c r="D522">
+        <v>7</v>
+      </c>
+      <c r="G522" t="s">
+        <v>14</v>
+      </c>
+      <c r="H522" t="s">
+        <v>643</v>
+      </c>
+      <c r="J522">
+        <v>19.283844497096599</v>
+      </c>
+      <c r="K522">
+        <v>-99.217361068571293</v>
+      </c>
+      <c r="L522" t="s">
+        <v>594</v>
+      </c>
+      <c r="M522" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C523">
+        <v>940</v>
+      </c>
+      <c r="D523">
+        <v>8</v>
+      </c>
+      <c r="G523" t="s">
+        <v>14</v>
+      </c>
+      <c r="H523" t="s">
+        <v>643</v>
+      </c>
+      <c r="J523">
+        <v>19.283158918871798</v>
+      </c>
+      <c r="K523">
+        <v>-99.228809351801402</v>
+      </c>
+      <c r="L523" t="s">
+        <v>594</v>
+      </c>
+      <c r="M523" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C524">
+        <v>940</v>
+      </c>
+      <c r="D524">
+        <v>9</v>
+      </c>
+      <c r="G524" t="s">
+        <v>74</v>
+      </c>
+      <c r="H524" t="s">
+        <v>643</v>
+      </c>
+      <c r="J524">
+        <v>19.279604718484599</v>
+      </c>
+      <c r="K524">
+        <v>-99.240976562271499</v>
+      </c>
+      <c r="L524" t="s">
+        <v>594</v>
+      </c>
+      <c r="M524" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C525">
+        <v>941</v>
+      </c>
+      <c r="D525">
+        <v>1</v>
+      </c>
+      <c r="G525" t="s">
+        <v>74</v>
+      </c>
+      <c r="H525" t="s">
+        <v>643</v>
+      </c>
+      <c r="J525">
+        <v>19.2942845093771</v>
+      </c>
+      <c r="K525">
+        <v>-99.232703950492606</v>
+      </c>
+      <c r="L525" t="s">
+        <v>594</v>
+      </c>
+      <c r="M525" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C526">
+        <v>941</v>
+      </c>
+      <c r="D526">
+        <v>2</v>
+      </c>
+      <c r="G526" t="s">
+        <v>14</v>
+      </c>
+      <c r="H526" t="s">
+        <v>643</v>
+      </c>
+      <c r="J526">
+        <v>19.283158918871798</v>
+      </c>
+      <c r="K526">
+        <v>-99.228809351801402</v>
+      </c>
+      <c r="L526" t="s">
+        <v>594</v>
+      </c>
+      <c r="M526" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C527">
+        <v>941</v>
+      </c>
+      <c r="D527">
+        <v>3</v>
+      </c>
+      <c r="G527" t="s">
+        <v>74</v>
+      </c>
+      <c r="H527" t="s">
+        <v>643</v>
+      </c>
+      <c r="J527">
+        <v>19.2681313691089</v>
+      </c>
+      <c r="K527">
+        <v>-99.222029836489298</v>
+      </c>
+      <c r="L527" t="s">
+        <v>594</v>
+      </c>
+      <c r="M527" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C528">
+        <v>942</v>
+      </c>
+      <c r="D528">
+        <v>1</v>
+      </c>
+      <c r="G528" t="s">
+        <v>74</v>
+      </c>
+      <c r="J528">
+        <v>19.283844497096599</v>
+      </c>
+      <c r="K528">
+        <v>-99.217361068571293</v>
+      </c>
+      <c r="L528" t="s">
+        <v>594</v>
+      </c>
+      <c r="M528" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N528">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C529">
+        <v>942</v>
+      </c>
+      <c r="D529">
+        <v>2</v>
+      </c>
+      <c r="G529" t="s">
+        <v>14</v>
+      </c>
+      <c r="J529">
+        <v>19.290060074944201</v>
+      </c>
+      <c r="K529">
+        <v>-99.2175824270265</v>
+      </c>
+      <c r="L529" t="s">
+        <v>594</v>
+      </c>
+      <c r="M529" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N529">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C530">
+        <v>942</v>
+      </c>
+      <c r="D530">
+        <v>3</v>
+      </c>
+      <c r="G530" t="s">
+        <v>14</v>
+      </c>
+      <c r="J530">
+        <v>19.296918938619498</v>
+      </c>
+      <c r="K530">
+        <v>-99.213157182534502</v>
+      </c>
+      <c r="L530" t="s">
+        <v>594</v>
+      </c>
+      <c r="M530" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N530">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C531">
+        <v>942</v>
+      </c>
+      <c r="D531">
+        <v>4</v>
+      </c>
+      <c r="E531">
+        <v>0</v>
+      </c>
+      <c r="F531">
+        <v>0</v>
+      </c>
+      <c r="G531" t="s">
+        <v>31</v>
+      </c>
+      <c r="H531" t="s">
+        <v>147</v>
+      </c>
+      <c r="I531">
+        <v>1967</v>
+      </c>
+      <c r="J531">
+        <v>19.305818198780699</v>
+      </c>
+      <c r="K531">
+        <v>-99.204757323956002</v>
+      </c>
+      <c r="L531" t="s">
+        <v>594</v>
+      </c>
+      <c r="M531" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N531">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C532">
+        <v>950</v>
+      </c>
+      <c r="D532">
+        <v>1</v>
+      </c>
+      <c r="E532">
+        <v>0</v>
+      </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
+      <c r="G532" t="s">
+        <v>74</v>
+      </c>
+      <c r="H532" t="s">
+        <v>75</v>
+      </c>
+      <c r="I532">
+        <v>2040</v>
+      </c>
+      <c r="J532">
+        <v>19.381899041106202</v>
+      </c>
+      <c r="K532">
+        <v>-99.199912653855307</v>
+      </c>
+      <c r="L532" t="s">
+        <v>594</v>
+      </c>
+      <c r="M532" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N532">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C533">
+        <v>950</v>
+      </c>
+      <c r="D533">
+        <v>2</v>
+      </c>
+      <c r="E533">
+        <v>0</v>
+      </c>
+      <c r="F533">
+        <v>0</v>
+      </c>
+      <c r="G533" t="s">
+        <v>14</v>
+      </c>
+      <c r="J533">
+        <v>19.3790239066117</v>
+      </c>
+      <c r="K533">
+        <v>-99.213241145871706</v>
+      </c>
+      <c r="L533" t="s">
+        <v>594</v>
+      </c>
+      <c r="M533" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C534">
+        <v>950</v>
+      </c>
+      <c r="D534">
+        <v>3</v>
+      </c>
+      <c r="G534" t="s">
+        <v>14</v>
+      </c>
+      <c r="J534">
+        <v>19.373501384906799</v>
+      </c>
+      <c r="K534">
+        <v>-99.224781424289404</v>
+      </c>
+      <c r="L534" t="s">
+        <v>594</v>
+      </c>
+      <c r="M534" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C535">
+        <v>950</v>
+      </c>
+      <c r="D535">
+        <v>4</v>
+      </c>
+      <c r="G535" t="s">
+        <v>14</v>
+      </c>
+      <c r="J535">
+        <v>19.368412148427598</v>
+      </c>
+      <c r="K535">
+        <v>-99.243490800547605</v>
+      </c>
+      <c r="L535" t="s">
+        <v>594</v>
+      </c>
+      <c r="M535" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C536">
+        <v>950</v>
+      </c>
+      <c r="D536">
+        <v>5</v>
+      </c>
+      <c r="G536" t="s">
+        <v>14</v>
+      </c>
+      <c r="J536">
+        <v>19.361165717156201</v>
+      </c>
+      <c r="K536">
+        <v>-99.251146980787595</v>
+      </c>
+      <c r="L536" t="s">
+        <v>594</v>
+      </c>
+      <c r="M536" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C537">
+        <v>950</v>
+      </c>
+      <c r="D537">
+        <v>6</v>
+      </c>
+      <c r="G537" t="s">
+        <v>14</v>
+      </c>
+      <c r="J537">
+        <v>19.3502554029469</v>
+      </c>
+      <c r="K537">
+        <v>-99.259738245970297</v>
+      </c>
+      <c r="L537" t="s">
+        <v>594</v>
+      </c>
+      <c r="M537" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C538">
+        <v>950</v>
+      </c>
+      <c r="D538">
+        <v>7</v>
+      </c>
+      <c r="G538" t="s">
+        <v>74</v>
+      </c>
+      <c r="J538">
+        <v>19.342732933806101</v>
+      </c>
+      <c r="K538">
+        <v>-99.280907300764895</v>
+      </c>
+      <c r="L538" t="s">
+        <v>594</v>
+      </c>
+      <c r="M538" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C539">
+        <v>960</v>
+      </c>
+      <c r="D539">
+        <v>1</v>
+      </c>
+      <c r="G539" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J539">
+        <v>19.3639627735107</v>
+      </c>
+      <c r="K539">
+        <v>-99.2686240919612</v>
+      </c>
+      <c r="L539" t="s">
+        <v>594</v>
+      </c>
+      <c r="M539" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N539">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C540">
+        <v>960</v>
+      </c>
+      <c r="D540">
+        <v>2</v>
+      </c>
+      <c r="G540" t="s">
+        <v>14</v>
+      </c>
+      <c r="J540">
+        <v>19.357426868230199</v>
+      </c>
+      <c r="K540">
+        <v>-99.277565774426293</v>
+      </c>
+      <c r="L540" t="s">
+        <v>594</v>
+      </c>
+      <c r="M540" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N540">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C541">
+        <v>960</v>
+      </c>
+      <c r="D541">
+        <v>3</v>
+      </c>
+      <c r="G541" t="s">
+        <v>14</v>
+      </c>
+      <c r="J541">
+        <v>19.359689984716201</v>
+      </c>
+      <c r="K541">
+        <v>-99.289223561574701</v>
+      </c>
+      <c r="L541" t="s">
+        <v>594</v>
+      </c>
+      <c r="M541" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N541">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C542">
+        <v>960</v>
+      </c>
+      <c r="D542">
+        <v>4</v>
+      </c>
+      <c r="G542" t="s">
+        <v>14</v>
+      </c>
+      <c r="J542">
+        <v>19.3539171626235</v>
+      </c>
+      <c r="K542">
+        <v>-99.30833621088</v>
+      </c>
+      <c r="L542" t="s">
+        <v>594</v>
+      </c>
+      <c r="M542" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C543">
+        <v>960</v>
+      </c>
+      <c r="D543">
+        <v>5</v>
+      </c>
+      <c r="G543" t="s">
+        <v>74</v>
+      </c>
+      <c r="J543">
+        <v>19.354062088100001</v>
+      </c>
+      <c r="K543">
+        <v>-99.320356545103195</v>
+      </c>
+      <c r="L543" t="s">
+        <v>594</v>
+      </c>
+      <c r="M543" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B544" t="s">
+        <v>354</v>
+      </c>
+      <c r="C544">
+        <v>970</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="G544" t="s">
+        <v>14</v>
+      </c>
+      <c r="J544">
+        <v>19.376169567321401</v>
+      </c>
+      <c r="K544">
+        <v>-99.187828205475697</v>
+      </c>
+      <c r="L544" t="s">
+        <v>594</v>
+      </c>
+      <c r="M544" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B545" t="s">
+        <v>661</v>
+      </c>
+      <c r="C545">
+        <v>970</v>
+      </c>
+      <c r="D545">
+        <v>2</v>
+      </c>
+      <c r="G545" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J545">
+        <v>19.372218014210301</v>
+      </c>
+      <c r="K545">
+        <v>-99.193882396131002</v>
+      </c>
+      <c r="L545" t="s">
+        <v>594</v>
+      </c>
+      <c r="M545" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N545">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C546">
+        <v>970</v>
+      </c>
+      <c r="D546">
+        <v>3</v>
+      </c>
+      <c r="G546" t="s">
+        <v>14</v>
+      </c>
+      <c r="J546">
+        <v>19.368813962008101</v>
+      </c>
+      <c r="K546">
+        <v>-99.203214734017493</v>
+      </c>
+      <c r="L546" t="s">
+        <v>594</v>
+      </c>
+      <c r="M546" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C547">
+        <v>970</v>
+      </c>
+      <c r="D547">
+        <v>4</v>
+      </c>
+      <c r="G547" t="s">
+        <v>14</v>
+      </c>
+      <c r="J547">
+        <v>19.365972078212302</v>
+      </c>
+      <c r="K547">
+        <v>-99.215809345691</v>
+      </c>
+      <c r="L547" t="s">
+        <v>594</v>
+      </c>
+      <c r="M547" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C548">
+        <v>970</v>
+      </c>
+      <c r="D548">
+        <v>5</v>
+      </c>
+      <c r="G548" t="s">
+        <v>14</v>
+      </c>
+      <c r="J548">
+        <v>19.348660381186999</v>
+      </c>
+      <c r="K548">
+        <v>-99.228473092146203</v>
+      </c>
+      <c r="L548" t="s">
+        <v>594</v>
+      </c>
+      <c r="M548" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N548">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C549">
+        <v>970</v>
+      </c>
+      <c r="D549">
+        <v>6</v>
+      </c>
+      <c r="G549" t="s">
+        <v>14</v>
+      </c>
+      <c r="J549">
+        <v>19.3419895095711</v>
+      </c>
+      <c r="K549">
+        <v>-99.227617795076995</v>
+      </c>
+      <c r="L549" t="s">
+        <v>594</v>
+      </c>
+      <c r="M549" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C550">
+        <v>970</v>
+      </c>
+      <c r="D550">
+        <v>7</v>
+      </c>
+      <c r="G550" t="s">
+        <v>14</v>
+      </c>
+      <c r="J550">
+        <v>19.334806676704801</v>
+      </c>
+      <c r="K550">
+        <v>-99.234713185070504</v>
+      </c>
+      <c r="L550" t="s">
+        <v>594</v>
+      </c>
+      <c r="M550" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C551">
+        <v>970</v>
+      </c>
+      <c r="D551">
+        <v>8</v>
+      </c>
+      <c r="G551" t="s">
+        <v>14</v>
+      </c>
+      <c r="J551">
+        <v>19.330593668195799</v>
+      </c>
+      <c r="K551">
+        <v>-99.248972999773898</v>
+      </c>
+      <c r="L551" t="s">
+        <v>594</v>
+      </c>
+      <c r="M551" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B552" t="s">
+        <v>944</v>
+      </c>
+      <c r="C552">
+        <v>970</v>
+      </c>
+      <c r="D552">
+        <v>9</v>
+      </c>
+      <c r="G552" t="s">
+        <v>14</v>
+      </c>
+      <c r="J552">
+        <v>19.330808344988501</v>
+      </c>
+      <c r="K552">
+        <v>-99.257569588913796</v>
+      </c>
+      <c r="L552" t="s">
+        <v>594</v>
+      </c>
+      <c r="M552" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N552">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C553">
+        <v>970</v>
+      </c>
+      <c r="D553">
+        <v>10</v>
+      </c>
+      <c r="G553" t="s">
+        <v>14</v>
+      </c>
+      <c r="J553">
+        <v>19.332926703417101</v>
+      </c>
+      <c r="K553">
+        <v>-99.274708365627106</v>
+      </c>
+      <c r="L553" t="s">
+        <v>594</v>
+      </c>
+      <c r="M553" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C554">
+        <v>971</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="G554" t="s">
+        <v>14</v>
+      </c>
+      <c r="J554">
+        <v>19.330593668195799</v>
+      </c>
+      <c r="K554">
+        <v>-99.248972999773898</v>
+      </c>
+      <c r="L554" t="s">
+        <v>594</v>
+      </c>
+      <c r="M554" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B555" t="s">
+        <v>942</v>
+      </c>
+      <c r="C555">
+        <v>971</v>
+      </c>
+      <c r="D555">
+        <v>2</v>
+      </c>
+      <c r="G555" t="s">
+        <v>14</v>
+      </c>
+      <c r="J555">
+        <v>19.324550113807899</v>
+      </c>
+      <c r="K555">
+        <v>-99.246699669269603</v>
+      </c>
+      <c r="L555" t="s">
+        <v>594</v>
+      </c>
+      <c r="M555" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C556">
+        <v>971</v>
+      </c>
+      <c r="D556">
+        <v>3</v>
+      </c>
+      <c r="G556" t="s">
+        <v>14</v>
+      </c>
+      <c r="J556">
+        <v>19.316433238540199</v>
+      </c>
+      <c r="K556">
+        <v>-99.253310492798207</v>
+      </c>
+      <c r="L556" t="s">
+        <v>594</v>
+      </c>
+      <c r="M556" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C557">
+        <v>971</v>
+      </c>
+      <c r="D557">
+        <v>4</v>
+      </c>
+      <c r="G557" t="s">
+        <v>74</v>
+      </c>
+      <c r="J557">
+        <v>19.3088954406734</v>
+      </c>
+      <c r="K557">
+        <v>-99.241269402347598</v>
+      </c>
+      <c r="L557" t="s">
+        <v>594</v>
+      </c>
+      <c r="M557" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C558">
+        <v>971</v>
+      </c>
+      <c r="D558">
+        <v>5</v>
+      </c>
+      <c r="G558" t="s">
+        <v>74</v>
+      </c>
+      <c r="J558">
+        <v>19.302311898743501</v>
+      </c>
+      <c r="K558">
+        <v>-99.245834441538705</v>
+      </c>
+      <c r="L558" t="s">
+        <v>594</v>
+      </c>
+      <c r="M558" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N558">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C559">
+        <v>972</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+      <c r="G559" t="s">
+        <v>14</v>
+      </c>
+      <c r="J559">
+        <v>19.316433238540199</v>
+      </c>
+      <c r="K559">
+        <v>-99.253310492798207</v>
+      </c>
+      <c r="L559" t="s">
+        <v>594</v>
+      </c>
+      <c r="M559" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C560">
+        <v>972</v>
+      </c>
+      <c r="D560">
+        <v>2</v>
+      </c>
+      <c r="G560" t="s">
+        <v>14</v>
+      </c>
+      <c r="J560">
+        <v>19.312705786790598</v>
+      </c>
+      <c r="K560">
+        <v>-99.259544767273098</v>
+      </c>
+      <c r="L560" t="s">
+        <v>594</v>
+      </c>
+      <c r="M560" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C561">
+        <v>972</v>
+      </c>
+      <c r="D561">
+        <v>3</v>
+      </c>
+      <c r="G561" t="s">
+        <v>74</v>
+      </c>
+      <c r="J561">
+        <v>19.3055120056809</v>
+      </c>
+      <c r="K561">
+        <v>-99.268449501858399</v>
+      </c>
+      <c r="L561" t="s">
+        <v>594</v>
+      </c>
+      <c r="M561" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C562">
+        <v>980</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
+      </c>
+      <c r="G562" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J562">
+        <v>19.301858133900101</v>
+      </c>
+      <c r="K562">
+        <v>-99.147158845586603</v>
+      </c>
+      <c r="L562" t="s">
+        <v>594</v>
+      </c>
+      <c r="M562" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B563" t="s">
+        <v>803</v>
+      </c>
+      <c r="C563">
+        <v>980</v>
+      </c>
+      <c r="D563">
+        <v>2</v>
+      </c>
+      <c r="G563" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J563">
+        <v>19.290400734483299</v>
+      </c>
+      <c r="K563">
+        <v>-99.152082688174602</v>
+      </c>
+      <c r="L563" t="s">
+        <v>594</v>
+      </c>
+      <c r="M563" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N563">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C564">
+        <v>980</v>
+      </c>
+      <c r="D564">
+        <v>3</v>
+      </c>
+      <c r="G564" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J564">
+        <v>19.2783759089616</v>
+      </c>
+      <c r="K564">
+        <v>-99.168866914789504</v>
+      </c>
+      <c r="L564" t="s">
+        <v>594</v>
+      </c>
+      <c r="M564" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C565">
+        <v>980</v>
+      </c>
+      <c r="D565">
+        <v>4</v>
+      </c>
+      <c r="G565" t="s">
+        <v>14</v>
+      </c>
+      <c r="J565">
+        <v>19.270612235466601</v>
+      </c>
+      <c r="K565">
+        <v>-99.176736726574305</v>
+      </c>
+      <c r="L565" t="s">
+        <v>594</v>
+      </c>
+      <c r="M565" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C566">
+        <v>980</v>
+      </c>
+      <c r="D566">
+        <v>5</v>
+      </c>
+      <c r="G566" t="s">
+        <v>74</v>
+      </c>
+      <c r="J566">
+        <v>19.270469414889298</v>
+      </c>
+      <c r="K566">
+        <v>-99.185138501379498</v>
+      </c>
+      <c r="L566" t="s">
+        <v>594</v>
+      </c>
+      <c r="M566" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B567" t="s">
+        <v>981</v>
+      </c>
+      <c r="C567">
+        <v>990</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+      <c r="G567" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J567">
+        <v>19.261086953307199</v>
+      </c>
+      <c r="K567">
+        <v>-99.112410072223398</v>
+      </c>
+      <c r="L567" t="s">
+        <v>594</v>
+      </c>
+      <c r="M567" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C568">
+        <v>990</v>
+      </c>
+      <c r="D568">
+        <v>2</v>
+      </c>
+      <c r="G568" t="s">
+        <v>14</v>
+      </c>
+      <c r="J568">
+        <v>19.2558482527431</v>
+      </c>
+      <c r="K568">
+        <v>-99.124766088263598</v>
+      </c>
+      <c r="L568" t="s">
+        <v>594</v>
+      </c>
+      <c r="M568" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N568">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C569">
+        <v>990</v>
+      </c>
+      <c r="D569">
+        <v>3</v>
+      </c>
+      <c r="G569" t="s">
+        <v>14</v>
+      </c>
+      <c r="J569">
+        <v>19.2485024743157</v>
+      </c>
+      <c r="K569">
+        <v>-99.123549283236699</v>
+      </c>
+      <c r="L569" t="s">
+        <v>594</v>
+      </c>
+      <c r="M569" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C570">
+        <v>990</v>
+      </c>
+      <c r="D570">
+        <v>4</v>
+      </c>
+      <c r="G570" t="s">
+        <v>14</v>
+      </c>
+      <c r="J570">
+        <v>19.2371041096273</v>
+      </c>
+      <c r="K570">
+        <v>-99.124111904143405</v>
+      </c>
+      <c r="L570" t="s">
+        <v>594</v>
+      </c>
+      <c r="M570" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N570">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C571">
+        <v>990</v>
+      </c>
+      <c r="D571">
+        <v>5</v>
+      </c>
+      <c r="G571" t="s">
+        <v>14</v>
+      </c>
+      <c r="J571">
+        <v>19.2280279365703</v>
+      </c>
+      <c r="K571">
+        <v>-99.119086999485006</v>
+      </c>
+      <c r="L571" t="s">
+        <v>594</v>
+      </c>
+      <c r="M571" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C572">
+        <v>990</v>
+      </c>
+      <c r="D572">
+        <v>6</v>
+      </c>
+      <c r="G572" t="s">
+        <v>14</v>
+      </c>
+      <c r="J572">
+        <v>19.217921970518901</v>
+      </c>
+      <c r="K572">
+        <v>-99.118574340256899</v>
+      </c>
+      <c r="L572" t="s">
+        <v>594</v>
+      </c>
+      <c r="M572" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N572">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C573">
+        <v>990</v>
+      </c>
+      <c r="D573">
+        <v>7</v>
+      </c>
+      <c r="G573" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J573">
+        <v>19.198808560435399</v>
+      </c>
+      <c r="K573">
+        <v>-99.122319491152496</v>
+      </c>
+      <c r="L573" t="s">
+        <v>594</v>
+      </c>
+      <c r="M573" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N573">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C574">
+        <v>991</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="G574" t="s">
+        <v>14</v>
+      </c>
+      <c r="J574">
+        <v>19.2485024743157</v>
+      </c>
+      <c r="K574">
+        <v>-99.123549283236699</v>
+      </c>
+      <c r="L574" t="s">
+        <v>594</v>
+      </c>
+      <c r="M574" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N574">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C575">
+        <v>991</v>
+      </c>
+      <c r="D575">
+        <v>2</v>
+      </c>
+      <c r="G575" t="s">
+        <v>14</v>
+      </c>
+      <c r="J575">
+        <v>19.2409182416324</v>
+      </c>
+      <c r="K575">
+        <v>-99.112475801588104</v>
+      </c>
+      <c r="L575" t="s">
+        <v>594</v>
+      </c>
+      <c r="M575" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N575">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C576">
+        <v>991</v>
+      </c>
+      <c r="D576">
+        <v>3</v>
+      </c>
+      <c r="G576" t="s">
+        <v>14</v>
+      </c>
+      <c r="J576">
+        <v>19.223726562392201</v>
+      </c>
+      <c r="K576">
+        <v>-99.105169056868903</v>
+      </c>
+      <c r="L576" t="s">
+        <v>594</v>
+      </c>
+      <c r="M576" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N576">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C577">
+        <v>991</v>
+      </c>
+      <c r="D577">
+        <v>4</v>
+      </c>
+      <c r="G577" t="s">
+        <v>14</v>
+      </c>
+      <c r="J577">
+        <v>19.2182283427477</v>
+      </c>
+      <c r="K577">
+        <v>-99.096213591864895</v>
+      </c>
+      <c r="L577" t="s">
+        <v>594</v>
+      </c>
+      <c r="M577" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N577">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K495" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K518" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="39">
-    <mergeCell ref="O211:O213"/>
-    <mergeCell ref="O174:O175"/>
-    <mergeCell ref="O176:O177"/>
-    <mergeCell ref="O183:O184"/>
-    <mergeCell ref="O204:O206"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="O102:O103"/>
+    <mergeCell ref="O104:O106"/>
+    <mergeCell ref="O115:O116"/>
+    <mergeCell ref="O85:O87"/>
+    <mergeCell ref="O88:O92"/>
+    <mergeCell ref="O93:O94"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="O118:O119"/>
+    <mergeCell ref="O120:O121"/>
+    <mergeCell ref="O123:O124"/>
+    <mergeCell ref="O134:O135"/>
+    <mergeCell ref="O136:O137"/>
     <mergeCell ref="O161:O162"/>
     <mergeCell ref="O165:O166"/>
     <mergeCell ref="O168:O169"/>
@@ -23183,31 +25893,11 @@
     <mergeCell ref="O144:O145"/>
     <mergeCell ref="O148:O149"/>
     <mergeCell ref="O158:O159"/>
-    <mergeCell ref="O118:O119"/>
-    <mergeCell ref="O120:O121"/>
-    <mergeCell ref="O123:O124"/>
-    <mergeCell ref="O134:O135"/>
-    <mergeCell ref="O136:O137"/>
-    <mergeCell ref="O100:O101"/>
-    <mergeCell ref="O102:O103"/>
-    <mergeCell ref="O104:O106"/>
-    <mergeCell ref="O115:O116"/>
-    <mergeCell ref="O85:O87"/>
-    <mergeCell ref="O88:O92"/>
-    <mergeCell ref="O93:O94"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O211:O213"/>
+    <mergeCell ref="O174:O175"/>
+    <mergeCell ref="O176:O177"/>
+    <mergeCell ref="O183:O184"/>
+    <mergeCell ref="O204:O206"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23230,12 +25920,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -23243,7 +25933,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -23251,7 +25941,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -23259,7 +25949,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -23272,7 +25962,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:N28"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23685,10 +26375,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D61F9FF-1099-874D-861D-4522CE1B5818}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23727,10 +26417,10 @@
         <v>872</v>
       </c>
       <c r="J1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K1" t="s">
         <v>1097</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -23750,7 +26440,7 @@
         <v>604</v>
       </c>
       <c r="F2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G2">
         <v>18.8</v>
@@ -23779,7 +26469,7 @@
         <v>607</v>
       </c>
       <c r="F3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G3">
         <v>23.43</v>
@@ -23808,7 +26498,7 @@
         <v>608</v>
       </c>
       <c r="F4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G4">
         <v>23.61</v>
@@ -23837,7 +26527,7 @@
         <v>610</v>
       </c>
       <c r="F5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G5">
         <v>10.75</v>
@@ -23869,7 +26559,7 @@
         <v>613</v>
       </c>
       <c r="F6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G6">
         <v>16.670000000000002</v>
@@ -23898,7 +26588,7 @@
         <v>614</v>
       </c>
       <c r="F7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G7">
         <v>13.95</v>
@@ -23927,7 +26617,7 @@
         <v>615</v>
       </c>
       <c r="F8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G8">
         <v>18.78</v>
@@ -23956,7 +26646,7 @@
         <v>616</v>
       </c>
       <c r="F9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G9">
         <v>20.079999999999998</v>
@@ -23985,7 +26675,7 @@
         <v>617</v>
       </c>
       <c r="F10" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G10">
         <v>15.37</v>
@@ -24014,7 +26704,7 @@
         <v>630</v>
       </c>
       <c r="F11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G11">
         <v>17.190000000000001</v>
@@ -24043,7 +26733,7 @@
         <v>632</v>
       </c>
       <c r="F12" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G12">
         <v>23.72</v>
@@ -24072,7 +26762,7 @@
         <v>618</v>
       </c>
       <c r="F13" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G13">
         <v>24.5</v>
@@ -24092,7 +26782,7 @@
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D14">
         <v>2012</v>
@@ -24101,7 +26791,7 @@
         <v>616</v>
       </c>
       <c r="F14" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G14">
         <v>25.4</v>
@@ -24130,7 +26820,7 @@
         <v>827</v>
       </c>
       <c r="F15" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G15">
         <v>40</v>
@@ -24159,7 +26849,7 @@
         <v>802</v>
       </c>
       <c r="F16" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G16">
         <v>40</v>
@@ -24188,7 +26878,7 @@
         <v>821</v>
       </c>
       <c r="F17" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G17">
         <v>40</v>
@@ -24217,7 +26907,7 @@
         <v>822</v>
       </c>
       <c r="F18" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G18">
         <v>40</v>
@@ -24246,7 +26936,7 @@
         <v>827</v>
       </c>
       <c r="F19" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="G19">
         <v>40</v>
@@ -24275,7 +26965,7 @@
         <v>802</v>
       </c>
       <c r="F20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G20">
         <v>40</v>
@@ -24304,7 +26994,7 @@
         <v>821</v>
       </c>
       <c r="F21" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G21">
         <v>40</v>
@@ -24333,7 +27023,7 @@
         <v>822</v>
       </c>
       <c r="F22" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G22">
         <v>40</v>
@@ -24347,13 +27037,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B23">
         <v>801</v>
       </c>
       <c r="C23" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D23">
         <v>2008</v>
@@ -24362,7 +27052,7 @@
         <v>821</v>
       </c>
       <c r="F23" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G23">
         <v>40</v>
@@ -24376,13 +27066,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B24">
         <v>802</v>
       </c>
       <c r="C24" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D24">
         <v>2008</v>
@@ -24391,7 +27081,7 @@
         <v>821</v>
       </c>
       <c r="F24" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G24">
         <v>40</v>
@@ -24405,13 +27095,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B25">
         <v>803</v>
       </c>
       <c r="C25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D25">
         <v>2008</v>
@@ -24420,7 +27110,7 @@
         <v>821</v>
       </c>
       <c r="F25" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G25">
         <v>40</v>
@@ -24434,13 +27124,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B26">
         <v>804</v>
       </c>
       <c r="C26" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D26">
         <v>2008</v>
@@ -24449,7 +27139,7 @@
         <v>821</v>
       </c>
       <c r="F26" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="G26">
         <v>40</v>
@@ -24463,13 +27153,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B27">
         <v>910</v>
       </c>
       <c r="C27" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D27">
         <v>2021</v>
@@ -24478,7 +27168,7 @@
         <v>610</v>
       </c>
       <c r="F27" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G27">
         <v>9.1999999999999993</v>
@@ -24492,13 +27182,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B28">
         <v>911</v>
       </c>
       <c r="C28" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D28">
         <v>2021</v>
@@ -24507,7 +27197,7 @@
         <v>610</v>
       </c>
       <c r="F28" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G28">
         <v>9.1999999999999993</v>
@@ -24520,6 +27210,365 @@
       </c>
       <c r="K28">
         <v>910</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B29">
+        <v>920</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D29">
+        <v>2024</v>
+      </c>
+      <c r="E29" t="s">
+        <v>610</v>
+      </c>
+      <c r="F29" t="s">
+        <v>999</v>
+      </c>
+      <c r="G29">
+        <v>5.5</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B30">
+        <v>930</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D30">
+        <v>2024</v>
+      </c>
+      <c r="E30" t="s">
+        <v>610</v>
+      </c>
+      <c r="F30" t="s">
+        <v>999</v>
+      </c>
+      <c r="G30">
+        <v>5.5</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B31">
+        <v>940</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D31">
+        <v>2024</v>
+      </c>
+      <c r="E31" t="s">
+        <v>610</v>
+      </c>
+      <c r="F31" t="s">
+        <v>999</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B32">
+        <v>941</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D32">
+        <v>2024</v>
+      </c>
+      <c r="E32" t="s">
+        <v>610</v>
+      </c>
+      <c r="F32" t="s">
+        <v>999</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B33">
+        <v>942</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D33">
+        <v>2024</v>
+      </c>
+      <c r="E33" t="s">
+        <v>610</v>
+      </c>
+      <c r="F33" t="s">
+        <v>999</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B34">
+        <v>950</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D34">
+        <v>2024</v>
+      </c>
+      <c r="E34" t="s">
+        <v>610</v>
+      </c>
+      <c r="F34" t="s">
+        <v>999</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B35">
+        <v>960</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D35">
+        <v>2024</v>
+      </c>
+      <c r="E35" t="s">
+        <v>610</v>
+      </c>
+      <c r="F35" t="s">
+        <v>999</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B36">
+        <v>970</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D36">
+        <v>2024</v>
+      </c>
+      <c r="E36" t="s">
+        <v>610</v>
+      </c>
+      <c r="F36" t="s">
+        <v>999</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B37">
+        <v>971</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D37">
+        <v>2024</v>
+      </c>
+      <c r="E37" t="s">
+        <v>610</v>
+      </c>
+      <c r="F37" t="s">
+        <v>999</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B38">
+        <v>972</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D38">
+        <v>2024</v>
+      </c>
+      <c r="E38" t="s">
+        <v>610</v>
+      </c>
+      <c r="F38" t="s">
+        <v>999</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B39">
+        <v>980</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D39">
+        <v>2025</v>
+      </c>
+      <c r="E39" t="s">
+        <v>610</v>
+      </c>
+      <c r="F39" t="s">
+        <v>999</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B40">
+        <v>990</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D40">
+        <v>2025</v>
+      </c>
+      <c r="E40" t="s">
+        <v>610</v>
+      </c>
+      <c r="F40" t="s">
+        <v>999</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B41">
+        <v>991</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D41">
+        <v>2025</v>
+      </c>
+      <c r="E41" t="s">
+        <v>610</v>
+      </c>
+      <c r="F41" t="s">
+        <v>999</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>990</v>
       </c>
     </row>
   </sheetData>

--- a/ETL/Data/data.xlsx
+++ b/ETL/Data/data.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galigaribaldi/Documents/PPropios/API Tren/Apimetro/ETL/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\galigaribaldi\code\Apimetro\ETL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CA20D7-ED2C-1048-966E-C835D9330391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFA0174-D78B-4BDB-B940-F7254124D06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estacion" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
-    <sheet name="Opcionales" sheetId="3" r:id="rId3"/>
-    <sheet name="Linea" sheetId="2" r:id="rId4"/>
-    <sheet name="Hoja2" sheetId="5" r:id="rId5"/>
+    <sheet name="Descripcion_linea" sheetId="6" r:id="rId2"/>
+    <sheet name="Linea" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="Opcionales" sheetId="3" r:id="rId5"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Estacion!$A$1:$K$518</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja2!$A$1:$H$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Hoja2!$A$1:$H$46</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4339" uniqueCount="1225">
   <si>
     <t>SISTEMA</t>
   </si>
@@ -3544,6 +3545,165 @@
   </si>
   <si>
     <t>Cablebús L9 (R1)</t>
+  </si>
+  <si>
+    <t>Terminal 1</t>
+  </si>
+  <si>
+    <t>Tipo 1</t>
+  </si>
+  <si>
+    <t>Direccion 1</t>
+  </si>
+  <si>
+    <t>Descripcion 1</t>
+  </si>
+  <si>
+    <t>Terminal 2</t>
+  </si>
+  <si>
+    <t>Inicio 2</t>
+  </si>
+  <si>
+    <t>Inicio 1</t>
+  </si>
+  <si>
+    <t>Tipo 3</t>
+  </si>
+  <si>
+    <t>Tipo 2</t>
+  </si>
+  <si>
+    <t>Direccion 2</t>
+  </si>
+  <si>
+    <t>Descripcion 2</t>
+  </si>
+  <si>
+    <t>Terminal 3</t>
+  </si>
+  <si>
+    <t>Inicio 3</t>
+  </si>
+  <si>
+    <t>Direccion 3</t>
+  </si>
+  <si>
+    <t>Descripcion 3</t>
+  </si>
+  <si>
+    <t>Terminal 4</t>
+  </si>
+  <si>
+    <t>Inicio 4</t>
+  </si>
+  <si>
+    <t>Tipo 4</t>
+  </si>
+  <si>
+    <t>Direccion 4</t>
+  </si>
+  <si>
+    <t>Descripcion 4</t>
+  </si>
+  <si>
+    <t>Terminal 5</t>
+  </si>
+  <si>
+    <t>Inicio 5</t>
+  </si>
+  <si>
+    <t>Tipo 5</t>
+  </si>
+  <si>
+    <t>Direccion 5</t>
+  </si>
+  <si>
+    <t>Descripcion 5</t>
+  </si>
+  <si>
+    <t>Terminal 6</t>
+  </si>
+  <si>
+    <t>Inicio 6</t>
+  </si>
+  <si>
+    <t>Tipo 6</t>
+  </si>
+  <si>
+    <t>Direccion 6</t>
+  </si>
+  <si>
+    <t>Descripcion 6</t>
+  </si>
+  <si>
+    <t>Terminal 7</t>
+  </si>
+  <si>
+    <t>Inicio 7</t>
+  </si>
+  <si>
+    <t>Tipo 7</t>
+  </si>
+  <si>
+    <t>Direccion 7</t>
+  </si>
+  <si>
+    <t>Descripcion 7</t>
+  </si>
+  <si>
+    <t>Terminal 8</t>
+  </si>
+  <si>
+    <t>Inicio 8</t>
+  </si>
+  <si>
+    <t>Tipo 8</t>
+  </si>
+  <si>
+    <t>Direccion 8</t>
+  </si>
+  <si>
+    <t>Descripcion 8</t>
+  </si>
+  <si>
+    <t>Terminal 9</t>
+  </si>
+  <si>
+    <t>Inicio 9</t>
+  </si>
+  <si>
+    <t>Tipo 9</t>
+  </si>
+  <si>
+    <t>Direccion 9</t>
+  </si>
+  <si>
+    <t>Descripcion 9</t>
+  </si>
+  <si>
+    <t>TERMINAL_ORIGINAL</t>
+  </si>
+  <si>
+    <t>INICIO_ORIGINAL</t>
+  </si>
+  <si>
+    <t>TIPO_LINEA</t>
+  </si>
+  <si>
+    <t>ANIO_INICIO_AMPLIACION</t>
+  </si>
+  <si>
+    <t>ANIO_FIN_AMPLIACION</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>LINEA_BASE</t>
   </si>
 </sst>
 </file>
@@ -3938,23 +4098,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q577"/>
   <sheetViews>
-    <sheetView topLeftCell="A538" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A576" sqref="A576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B542" sqref="B542"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3998,7 +4158,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4042,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4086,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4130,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4174,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4218,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4262,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4309,7 +4469,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4354,7 +4514,7 @@
       </c>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4401,7 +4561,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4446,7 +4606,7 @@
       </c>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4493,7 +4653,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4538,7 +4698,7 @@
       </c>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4582,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4626,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4670,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4714,7 +4874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4761,7 +4921,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4806,7 +4966,7 @@
       </c>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -4856,7 +5016,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4902,7 +5062,7 @@
       <c r="O21" s="8"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -4946,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -4990,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -5034,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -5078,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -5122,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -5166,7 +5326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -5210,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -5254,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -5298,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -5342,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -5386,7 +5546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -5430,7 +5590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -5474,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -5518,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -5562,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -5606,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -5650,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -5694,7 +5854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -5738,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -5782,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -5826,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -5870,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -5914,7 +6074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -5958,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -6002,7 +6162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -6046,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -6090,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -6137,7 +6297,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -6182,7 +6342,7 @@
       </c>
       <c r="O50" s="8"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -6226,7 +6386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -6270,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -6314,7 +6474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -6358,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -6402,7 +6562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -6449,7 +6609,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -6494,7 +6654,7 @@
       </c>
       <c r="O57" s="8"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -6538,7 +6698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -6582,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -6626,7 +6786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -6670,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -6714,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -6761,7 +6921,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -6806,7 +6966,7 @@
       </c>
       <c r="O64" s="8"/>
     </row>
-    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -6859,7 +7019,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -6906,7 +7066,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -6950,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -6994,7 +7154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -7038,7 +7198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -7082,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -7129,7 +7289,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -7174,7 +7334,7 @@
       </c>
       <c r="O72" s="8"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -7218,7 +7378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -7262,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -7309,7 +7469,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -7354,7 +7514,7 @@
       </c>
       <c r="O76" s="8"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -7399,7 +7559,7 @@
       </c>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -7444,7 +7604,7 @@
       </c>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -7489,7 +7649,7 @@
       </c>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -7534,7 +7694,7 @@
       </c>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -7579,7 +7739,7 @@
       </c>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>826</v>
       </c>
@@ -7624,7 +7784,7 @@
       </c>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -7668,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -7712,7 +7872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -7759,7 +7919,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -7804,7 +7964,7 @@
       </c>
       <c r="O86" s="9"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -7849,7 +8009,7 @@
       </c>
       <c r="O87" s="9"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -7896,7 +8056,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -7941,7 +8101,7 @@
       </c>
       <c r="O89" s="9"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -7986,7 +8146,7 @@
       </c>
       <c r="O90" s="9"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -8031,7 +8191,7 @@
       </c>
       <c r="O91" s="9"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -8076,7 +8236,7 @@
       </c>
       <c r="O92" s="9"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -8123,7 +8283,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -8168,7 +8328,7 @@
       </c>
       <c r="O94" s="8"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -8212,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -8259,7 +8419,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -8304,7 +8464,7 @@
       </c>
       <c r="O97" s="8"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -8351,7 +8511,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -8396,7 +8556,7 @@
       </c>
       <c r="O99" s="8"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -8443,7 +8603,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -8488,7 +8648,7 @@
       </c>
       <c r="O101" s="8"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -8535,7 +8695,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -8580,7 +8740,7 @@
       </c>
       <c r="O103" s="8"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -8627,7 +8787,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -8672,7 +8832,7 @@
       </c>
       <c r="O105" s="8"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -8717,7 +8877,7 @@
       </c>
       <c r="O106" s="8"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>1070</v>
       </c>
@@ -8759,7 +8919,7 @@
       </c>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>1071</v>
       </c>
@@ -8801,7 +8961,7 @@
       </c>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>1072</v>
       </c>
@@ -8843,7 +9003,7 @@
       </c>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>1073</v>
       </c>
@@ -8885,7 +9045,7 @@
       </c>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>1074</v>
       </c>
@@ -8927,7 +9087,7 @@
       </c>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>566</v>
       </c>
@@ -8969,7 +9129,7 @@
       </c>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>1082</v>
       </c>
@@ -9011,7 +9171,7 @@
       </c>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>869</v>
       </c>
@@ -9053,7 +9213,7 @@
       </c>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -9100,7 +9260,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -9148,7 +9308,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -9193,7 +9353,7 @@
       </c>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -9240,7 +9400,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -9285,7 +9445,7 @@
       </c>
       <c r="O119" s="8"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -9332,7 +9492,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -9377,7 +9537,7 @@
       </c>
       <c r="O121" s="8"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -9421,7 +9581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -9468,7 +9628,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -9513,7 +9673,7 @@
       </c>
       <c r="O124" s="8"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -9557,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -9601,7 +9761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -9645,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -9689,7 +9849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -9733,7 +9893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -9777,7 +9937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -9821,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -9865,7 +10025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -9909,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -9956,7 +10116,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -10001,7 +10161,7 @@
       </c>
       <c r="O135" s="8"/>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -10048,7 +10208,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -10093,7 +10253,7 @@
       </c>
       <c r="O137" s="8"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -10140,7 +10300,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -10185,7 +10345,7 @@
       </c>
       <c r="O139" s="8"/>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -10229,7 +10389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -10273,7 +10433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -10320,7 +10480,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -10365,7 +10525,7 @@
       </c>
       <c r="O143" s="8"/>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -10412,7 +10572,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -10457,7 +10617,7 @@
       </c>
       <c r="O145" s="8"/>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -10501,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -10545,7 +10705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -10592,7 +10752,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -10637,7 +10797,7 @@
       </c>
       <c r="O149" s="8"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -10681,7 +10841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -10725,7 +10885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -10769,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -10816,7 +10976,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -10860,7 +11020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -10904,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -10948,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -10992,7 +11152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -11039,7 +11199,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -11084,7 +11244,7 @@
       </c>
       <c r="O159" s="8"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -11128,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -11175,7 +11335,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -11223,7 +11383,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -11268,7 +11428,7 @@
       </c>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -11312,7 +11472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -11359,7 +11519,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -11404,7 +11564,7 @@
       </c>
       <c r="O166" s="8"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -11448,7 +11608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -11495,7 +11655,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -11540,7 +11700,7 @@
       </c>
       <c r="O169" s="8"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -11584,7 +11744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -11631,7 +11791,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -11676,7 +11836,7 @@
       </c>
       <c r="O172" s="8"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -11720,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -11770,7 +11930,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -11816,7 +11976,7 @@
       <c r="O175" s="8"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -11863,7 +12023,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -11908,7 +12068,7 @@
       </c>
       <c r="O177" s="8"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -11952,7 +12112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -11996,7 +12156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -12040,7 +12200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -12084,7 +12244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -12128,7 +12288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -12175,7 +12335,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -12220,7 +12380,7 @@
       </c>
       <c r="O184" s="8"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -12264,7 +12424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -12308,7 +12468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -12352,7 +12512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -12396,7 +12556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -12440,7 +12600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -12484,7 +12644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -12528,7 +12688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -12572,7 +12732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -12613,7 +12773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -12654,7 +12814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -12695,7 +12855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -12736,7 +12896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -12780,7 +12940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -12824,7 +12984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -12868,7 +13028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -12912,7 +13072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -12956,7 +13116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -13000,7 +13160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -13044,7 +13204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -13091,7 +13251,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -13136,7 +13296,7 @@
       </c>
       <c r="O205" s="7"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -13181,7 +13341,7 @@
       </c>
       <c r="O206" s="7"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -13225,7 +13385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -13269,7 +13429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -13313,7 +13473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -13357,7 +13517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -13404,7 +13564,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -13449,7 +13609,7 @@
       </c>
       <c r="O212" s="7"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -13494,7 +13654,7 @@
       </c>
       <c r="O213" s="7"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -13538,7 +13698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -13582,7 +13742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -13626,7 +13786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -13667,7 +13827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -13708,7 +13868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -13749,7 +13909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -13790,7 +13950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -13819,7 +13979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -13848,7 +14008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -13877,7 +14037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -13906,7 +14066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -13935,7 +14095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -13964,7 +14124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -13993,7 +14153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -14022,7 +14182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -14051,7 +14211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -14080,7 +14240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -14109,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -14138,7 +14298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -14167,7 +14327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -14196,7 +14356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -14225,7 +14385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -14254,7 +14414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -14283,7 +14443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -14312,7 +14472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -14341,7 +14501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -14370,7 +14530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -14399,7 +14559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -14428,7 +14588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -14457,7 +14617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -14483,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -14527,7 +14687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -14571,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>826</v>
       </c>
@@ -14615,7 +14775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>826</v>
       </c>
@@ -14659,7 +14819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>826</v>
       </c>
@@ -14703,7 +14863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>826</v>
       </c>
@@ -14747,7 +14907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>826</v>
       </c>
@@ -14791,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>826</v>
       </c>
@@ -14835,7 +14995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>826</v>
       </c>
@@ -14879,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>826</v>
       </c>
@@ -14923,7 +15083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>826</v>
       </c>
@@ -14967,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>826</v>
       </c>
@@ -15011,7 +15171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>826</v>
       </c>
@@ -15055,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>826</v>
       </c>
@@ -15099,7 +15259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>826</v>
       </c>
@@ -15143,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>826</v>
       </c>
@@ -15187,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>826</v>
       </c>
@@ -15231,7 +15391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>826</v>
       </c>
@@ -15275,7 +15435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>826</v>
       </c>
@@ -15319,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>826</v>
       </c>
@@ -15363,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>826</v>
       </c>
@@ -15407,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>826</v>
       </c>
@@ -15451,7 +15611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>826</v>
       </c>
@@ -15495,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>826</v>
       </c>
@@ -15539,7 +15699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>826</v>
       </c>
@@ -15583,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>826</v>
       </c>
@@ -15627,7 +15787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>826</v>
       </c>
@@ -15671,7 +15831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>826</v>
       </c>
@@ -15715,7 +15875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>826</v>
       </c>
@@ -15759,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>826</v>
       </c>
@@ -15803,7 +15963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>826</v>
       </c>
@@ -15847,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>826</v>
       </c>
@@ -15891,7 +16051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>826</v>
       </c>
@@ -15935,7 +16095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>826</v>
       </c>
@@ -15979,7 +16139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>826</v>
       </c>
@@ -16023,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>826</v>
       </c>
@@ -16067,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>826</v>
       </c>
@@ -16111,7 +16271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>826</v>
       </c>
@@ -16155,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>826</v>
       </c>
@@ -16199,7 +16359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>826</v>
       </c>
@@ -16243,7 +16403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>826</v>
       </c>
@@ -16287,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>826</v>
       </c>
@@ -16331,7 +16491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>826</v>
       </c>
@@ -16375,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>826</v>
       </c>
@@ -16419,7 +16579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>826</v>
       </c>
@@ -16463,7 +16623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>826</v>
       </c>
@@ -16507,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>826</v>
       </c>
@@ -16551,7 +16711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>826</v>
       </c>
@@ -16595,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>826</v>
       </c>
@@ -16639,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>826</v>
       </c>
@@ -16683,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>826</v>
       </c>
@@ -16727,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>826</v>
       </c>
@@ -16771,7 +16931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>826</v>
       </c>
@@ -16815,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>826</v>
       </c>
@@ -16859,7 +17019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>826</v>
       </c>
@@ -16903,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>826</v>
       </c>
@@ -16947,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>826</v>
       </c>
@@ -16991,7 +17151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>826</v>
       </c>
@@ -17035,7 +17195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>826</v>
       </c>
@@ -17079,7 +17239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>826</v>
       </c>
@@ -17123,7 +17283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>826</v>
       </c>
@@ -17167,7 +17327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>826</v>
       </c>
@@ -17211,7 +17371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>826</v>
       </c>
@@ -17255,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>826</v>
       </c>
@@ -17299,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>826</v>
       </c>
@@ -17343,7 +17503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>826</v>
       </c>
@@ -17387,7 +17547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>826</v>
       </c>
@@ -17431,7 +17591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>826</v>
       </c>
@@ -17475,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>826</v>
       </c>
@@ -17519,7 +17679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>826</v>
       </c>
@@ -17563,7 +17723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>826</v>
       </c>
@@ -17607,7 +17767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>826</v>
       </c>
@@ -17651,7 +17811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>826</v>
       </c>
@@ -17695,7 +17855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>826</v>
       </c>
@@ -17739,7 +17899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>826</v>
       </c>
@@ -17783,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>826</v>
       </c>
@@ -17827,7 +17987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>826</v>
       </c>
@@ -17871,7 +18031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>826</v>
       </c>
@@ -17915,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>826</v>
       </c>
@@ -17959,7 +18119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>826</v>
       </c>
@@ -18003,7 +18163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>826</v>
       </c>
@@ -18047,7 +18207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>826</v>
       </c>
@@ -18091,7 +18251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>826</v>
       </c>
@@ -18135,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>826</v>
       </c>
@@ -18179,7 +18339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>826</v>
       </c>
@@ -18223,7 +18383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>826</v>
       </c>
@@ -18267,7 +18427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>826</v>
       </c>
@@ -18311,7 +18471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>826</v>
       </c>
@@ -18355,7 +18515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>826</v>
       </c>
@@ -18399,7 +18559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>826</v>
       </c>
@@ -18443,7 +18603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>826</v>
       </c>
@@ -18487,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>826</v>
       </c>
@@ -18531,7 +18691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>826</v>
       </c>
@@ -18560,7 +18720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>826</v>
       </c>
@@ -18589,7 +18749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>826</v>
       </c>
@@ -18618,7 +18778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>826</v>
       </c>
@@ -18647,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>826</v>
       </c>
@@ -18676,7 +18836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>826</v>
       </c>
@@ -18705,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>826</v>
       </c>
@@ -18734,7 +18894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>826</v>
       </c>
@@ -18763,7 +18923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>826</v>
       </c>
@@ -18792,7 +18952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>826</v>
       </c>
@@ -18821,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>826</v>
       </c>
@@ -18850,7 +19010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>826</v>
       </c>
@@ -18879,7 +19039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>826</v>
       </c>
@@ -18908,7 +19068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>826</v>
       </c>
@@ -18937,7 +19097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>826</v>
       </c>
@@ -18981,7 +19141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>826</v>
       </c>
@@ -19010,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>826</v>
       </c>
@@ -19039,7 +19199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>826</v>
       </c>
@@ -19068,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>826</v>
       </c>
@@ -19097,7 +19257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>826</v>
       </c>
@@ -19126,7 +19286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>826</v>
       </c>
@@ -19155,7 +19315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>826</v>
       </c>
@@ -19184,7 +19344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>826</v>
       </c>
@@ -19216,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>826</v>
       </c>
@@ -19245,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>826</v>
       </c>
@@ -19274,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>826</v>
       </c>
@@ -19303,7 +19463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>826</v>
       </c>
@@ -19332,7 +19492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>826</v>
       </c>
@@ -19361,7 +19521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>826</v>
       </c>
@@ -19390,7 +19550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>826</v>
       </c>
@@ -19419,7 +19579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>826</v>
       </c>
@@ -19448,7 +19608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>826</v>
       </c>
@@ -19477,7 +19637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>826</v>
       </c>
@@ -19506,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>826</v>
       </c>
@@ -19535,7 +19695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>826</v>
       </c>
@@ -19564,7 +19724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>826</v>
       </c>
@@ -19593,7 +19753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>826</v>
       </c>
@@ -19622,7 +19782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>826</v>
       </c>
@@ -19651,7 +19811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>826</v>
       </c>
@@ -19680,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>826</v>
       </c>
@@ -19709,7 +19869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>826</v>
       </c>
@@ -19738,7 +19898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>826</v>
       </c>
@@ -19767,7 +19927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>826</v>
       </c>
@@ -19796,7 +19956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>826</v>
       </c>
@@ -19825,7 +19985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>826</v>
       </c>
@@ -19854,7 +20014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>826</v>
       </c>
@@ -19883,7 +20043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>826</v>
       </c>
@@ -19912,7 +20072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>826</v>
       </c>
@@ -19941,7 +20101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>826</v>
       </c>
@@ -19970,7 +20130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>826</v>
       </c>
@@ -19999,7 +20159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>826</v>
       </c>
@@ -20028,7 +20188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>826</v>
       </c>
@@ -20057,7 +20217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>826</v>
       </c>
@@ -20086,7 +20246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>826</v>
       </c>
@@ -20115,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>826</v>
       </c>
@@ -20144,7 +20304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>826</v>
       </c>
@@ -20173,7 +20333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>826</v>
       </c>
@@ -20202,7 +20362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>826</v>
       </c>
@@ -20231,7 +20391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>826</v>
       </c>
@@ -20260,7 +20420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>826</v>
       </c>
@@ -20289,7 +20449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>826</v>
       </c>
@@ -20318,7 +20478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>826</v>
       </c>
@@ -20347,7 +20507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>826</v>
       </c>
@@ -20376,7 +20536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>826</v>
       </c>
@@ -20405,7 +20565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>826</v>
       </c>
@@ -20434,7 +20594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>826</v>
       </c>
@@ -20463,7 +20623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>826</v>
       </c>
@@ -20492,7 +20652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>826</v>
       </c>
@@ -20521,7 +20681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>826</v>
       </c>
@@ -20550,7 +20710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>826</v>
       </c>
@@ -20579,7 +20739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>826</v>
       </c>
@@ -20608,7 +20768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>826</v>
       </c>
@@ -20637,7 +20797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>826</v>
       </c>
@@ -20666,7 +20826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>826</v>
       </c>
@@ -20695,7 +20855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>826</v>
       </c>
@@ -20724,7 +20884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>826</v>
       </c>
@@ -20753,7 +20913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>826</v>
       </c>
@@ -20782,7 +20942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>826</v>
       </c>
@@ -20811,7 +20971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>826</v>
       </c>
@@ -20840,7 +21000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>826</v>
       </c>
@@ -20869,7 +21029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>826</v>
       </c>
@@ -20898,7 +21058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>826</v>
       </c>
@@ -20927,7 +21087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>826</v>
       </c>
@@ -20956,7 +21116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>826</v>
       </c>
@@ -20985,7 +21145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>826</v>
       </c>
@@ -21014,7 +21174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>826</v>
       </c>
@@ -21043,7 +21203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>826</v>
       </c>
@@ -21072,7 +21232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>826</v>
       </c>
@@ -21101,7 +21261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>826</v>
       </c>
@@ -21130,7 +21290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>826</v>
       </c>
@@ -21159,7 +21319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>826</v>
       </c>
@@ -21188,7 +21348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>826</v>
       </c>
@@ -21217,7 +21377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>826</v>
       </c>
@@ -21246,7 +21406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>826</v>
       </c>
@@ -21275,7 +21435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>826</v>
       </c>
@@ -21304,7 +21464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>826</v>
       </c>
@@ -21333,7 +21493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>826</v>
       </c>
@@ -21362,7 +21522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>826</v>
       </c>
@@ -21391,7 +21551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>826</v>
       </c>
@@ -21420,7 +21580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>826</v>
       </c>
@@ -21449,7 +21609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>826</v>
       </c>
@@ -21478,7 +21638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>826</v>
       </c>
@@ -21507,7 +21667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>826</v>
       </c>
@@ -21536,7 +21696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>826</v>
       </c>
@@ -21565,7 +21725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>826</v>
       </c>
@@ -21594,7 +21754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>826</v>
       </c>
@@ -21623,7 +21783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>826</v>
       </c>
@@ -21652,7 +21812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>826</v>
       </c>
@@ -21681,7 +21841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>826</v>
       </c>
@@ -21710,7 +21870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>826</v>
       </c>
@@ -21739,7 +21899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>826</v>
       </c>
@@ -21768,7 +21928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>826</v>
       </c>
@@ -21797,7 +21957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>826</v>
       </c>
@@ -21826,7 +21986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>826</v>
       </c>
@@ -21855,7 +22015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>826</v>
       </c>
@@ -21884,7 +22044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>826</v>
       </c>
@@ -21913,7 +22073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>826</v>
       </c>
@@ -21942,7 +22102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>826</v>
       </c>
@@ -21971,7 +22131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>826</v>
       </c>
@@ -22000,7 +22160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>826</v>
       </c>
@@ -22029,7 +22189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>826</v>
       </c>
@@ -22058,7 +22218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>826</v>
       </c>
@@ -22087,7 +22247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>826</v>
       </c>
@@ -22116,7 +22276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>826</v>
       </c>
@@ -22145,7 +22305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>826</v>
       </c>
@@ -22174,7 +22334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>826</v>
       </c>
@@ -22203,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>826</v>
       </c>
@@ -22232,7 +22392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>826</v>
       </c>
@@ -22261,7 +22421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1011</v>
       </c>
@@ -22290,7 +22450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1011</v>
       </c>
@@ -22319,7 +22479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1011</v>
       </c>
@@ -22348,7 +22508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1011</v>
       </c>
@@ -22377,7 +22537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1011</v>
       </c>
@@ -22406,7 +22566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1011</v>
       </c>
@@ -22435,7 +22595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1011</v>
       </c>
@@ -22464,7 +22624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1019</v>
       </c>
@@ -22493,7 +22653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1019</v>
       </c>
@@ -22522,7 +22682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1019</v>
       </c>
@@ -22551,7 +22711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1019</v>
       </c>
@@ -22580,7 +22740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1019</v>
       </c>
@@ -22609,7 +22769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1019</v>
       </c>
@@ -22638,7 +22798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1019</v>
       </c>
@@ -22667,7 +22827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1019</v>
       </c>
@@ -22696,7 +22856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1019</v>
       </c>
@@ -22725,7 +22885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1019</v>
       </c>
@@ -22754,7 +22914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1019</v>
       </c>
@@ -22783,7 +22943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1019</v>
       </c>
@@ -22812,7 +22972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1019</v>
       </c>
@@ -22841,7 +23001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1019</v>
       </c>
@@ -22870,7 +23030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1019</v>
       </c>
@@ -22899,7 +23059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1019</v>
       </c>
@@ -22928,7 +23088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1019</v>
       </c>
@@ -22957,7 +23117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1019</v>
       </c>
@@ -22989,7 +23149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1019</v>
       </c>
@@ -23021,7 +23181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1019</v>
       </c>
@@ -23053,7 +23213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1019</v>
       </c>
@@ -23085,7 +23245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1019</v>
       </c>
@@ -23117,7 +23277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1019</v>
       </c>
@@ -23149,7 +23309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1019</v>
       </c>
@@ -23181,7 +23341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1088</v>
       </c>
@@ -23213,7 +23373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1088</v>
       </c>
@@ -23245,7 +23405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1088</v>
       </c>
@@ -23277,7 +23437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1088</v>
       </c>
@@ -23309,7 +23469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1088</v>
       </c>
@@ -23341,7 +23501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1088</v>
       </c>
@@ -23373,7 +23533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1088</v>
       </c>
@@ -23405,7 +23565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1088</v>
       </c>
@@ -23437,7 +23597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1088</v>
       </c>
@@ -23466,7 +23626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1088</v>
       </c>
@@ -23495,7 +23655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1088</v>
       </c>
@@ -23530,7 +23690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1088</v>
       </c>
@@ -23565,7 +23725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1088</v>
       </c>
@@ -23600,7 +23760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1088</v>
       </c>
@@ -23635,7 +23795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1088</v>
       </c>
@@ -23667,7 +23827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1088</v>
       </c>
@@ -23699,7 +23859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1088</v>
       </c>
@@ -23728,7 +23888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1088</v>
       </c>
@@ -23757,7 +23917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1088</v>
       </c>
@@ -23786,7 +23946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1088</v>
       </c>
@@ -23815,7 +23975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1088</v>
       </c>
@@ -23844,7 +24004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1088</v>
       </c>
@@ -23876,7 +24036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1088</v>
       </c>
@@ -23911,7 +24071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1088</v>
       </c>
@@ -23946,7 +24106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1088</v>
       </c>
@@ -23981,7 +24141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1088</v>
       </c>
@@ -24016,7 +24176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1088</v>
       </c>
@@ -24051,7 +24211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1088</v>
       </c>
@@ -24086,7 +24246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1088</v>
       </c>
@@ -24121,7 +24281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1088</v>
       </c>
@@ -24156,7 +24316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1088</v>
       </c>
@@ -24191,7 +24351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1088</v>
       </c>
@@ -24226,7 +24386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1088</v>
       </c>
@@ -24258,7 +24418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1088</v>
       </c>
@@ -24290,7 +24450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1088</v>
       </c>
@@ -24322,7 +24482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1088</v>
       </c>
@@ -24366,7 +24526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1088</v>
       </c>
@@ -24410,7 +24570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1088</v>
       </c>
@@ -24448,7 +24608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1088</v>
       </c>
@@ -24480,7 +24640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1088</v>
       </c>
@@ -24512,7 +24672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1088</v>
       </c>
@@ -24544,7 +24704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1088</v>
       </c>
@@ -24576,7 +24736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1088</v>
       </c>
@@ -24608,7 +24768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1088</v>
       </c>
@@ -24640,7 +24800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1088</v>
       </c>
@@ -24672,7 +24832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1088</v>
       </c>
@@ -24704,7 +24864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1088</v>
       </c>
@@ -24736,7 +24896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1088</v>
       </c>
@@ -24768,7 +24928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1088</v>
       </c>
@@ -24800,7 +24960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1088</v>
       </c>
@@ -24832,7 +24992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1088</v>
       </c>
@@ -24864,7 +25024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1088</v>
       </c>
@@ -24896,7 +25056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1088</v>
       </c>
@@ -24928,7 +25088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1088</v>
       </c>
@@ -24960,7 +25120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1088</v>
       </c>
@@ -24992,7 +25152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1088</v>
       </c>
@@ -25024,7 +25184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1088</v>
       </c>
@@ -25056,7 +25216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1088</v>
       </c>
@@ -25088,7 +25248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1088</v>
       </c>
@@ -25120,7 +25280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1088</v>
       </c>
@@ -25152,7 +25312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1088</v>
       </c>
@@ -25184,7 +25344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1088</v>
       </c>
@@ -25216,7 +25376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1088</v>
       </c>
@@ -25248,7 +25408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1088</v>
       </c>
@@ -25280,7 +25440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1088</v>
       </c>
@@ -25312,7 +25472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1088</v>
       </c>
@@ -25344,7 +25504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1088</v>
       </c>
@@ -25376,7 +25536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1088</v>
       </c>
@@ -25408,7 +25568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1088</v>
       </c>
@@ -25440,7 +25600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1088</v>
       </c>
@@ -25472,7 +25632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1088</v>
       </c>
@@ -25504,7 +25664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1088</v>
       </c>
@@ -25536,7 +25696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1088</v>
       </c>
@@ -25568,7 +25728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1088</v>
       </c>
@@ -25600,7 +25760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1088</v>
       </c>
@@ -25632,7 +25792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1088</v>
       </c>
@@ -25664,7 +25824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1088</v>
       </c>
@@ -25696,7 +25856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1088</v>
       </c>
@@ -25728,7 +25888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1088</v>
       </c>
@@ -25760,7 +25920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1088</v>
       </c>
@@ -25792,7 +25952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1088</v>
       </c>
@@ -25824,7 +25984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1088</v>
       </c>
@@ -25906,6 +26066,1496 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943BEAF5-AAA4-473A-8C79-E06777B404A6}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D2">
+        <v>1979</v>
+      </c>
+      <c r="E2">
+        <v>1986</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D3">
+        <v>1981</v>
+      </c>
+      <c r="E3">
+        <v>1988</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D4">
+        <v>1983</v>
+      </c>
+      <c r="E4">
+        <v>1990</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D5">
+        <v>1985</v>
+      </c>
+      <c r="E5">
+        <v>1992</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D6">
+        <v>1987</v>
+      </c>
+      <c r="E6">
+        <v>1994</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D7">
+        <v>1989</v>
+      </c>
+      <c r="E7">
+        <v>1996</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D8">
+        <v>1991</v>
+      </c>
+      <c r="E8">
+        <v>1998</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D9">
+        <v>1993</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D10">
+        <v>1995</v>
+      </c>
+      <c r="E10">
+        <v>2002</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D61F9FF-1099-874D-861D-4522CE1B5818}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1" t="s">
+        <v>611</v>
+      </c>
+      <c r="I1" t="s">
+        <v>872</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D2">
+        <v>1969</v>
+      </c>
+      <c r="E2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F2" t="s">
+        <v>996</v>
+      </c>
+      <c r="G2">
+        <v>18.8</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D3">
+        <v>1970</v>
+      </c>
+      <c r="E3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F3" t="s">
+        <v>997</v>
+      </c>
+      <c r="G3">
+        <v>23.43</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D4">
+        <v>1970</v>
+      </c>
+      <c r="E4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F4" t="s">
+        <v>998</v>
+      </c>
+      <c r="G4">
+        <v>23.61</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D5">
+        <v>1981</v>
+      </c>
+      <c r="E5" t="s">
+        <v>610</v>
+      </c>
+      <c r="F5" t="s">
+        <v>999</v>
+      </c>
+      <c r="G5">
+        <v>10.75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>612</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D6">
+        <v>1981</v>
+      </c>
+      <c r="E6" t="s">
+        <v>613</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D7">
+        <v>1983</v>
+      </c>
+      <c r="E7" t="s">
+        <v>614</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G7">
+        <v>13.95</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>625</v>
+      </c>
+      <c r="D8">
+        <v>1984</v>
+      </c>
+      <c r="E8" t="s">
+        <v>615</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G8">
+        <v>18.78</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>626</v>
+      </c>
+      <c r="D9">
+        <v>1994</v>
+      </c>
+      <c r="E9" t="s">
+        <v>616</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G9">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D10">
+        <v>1987</v>
+      </c>
+      <c r="E10" t="s">
+        <v>617</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G10">
+        <v>15.37</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D11">
+        <v>1991</v>
+      </c>
+      <c r="E11" t="s">
+        <v>630</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G11">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>631</v>
+      </c>
+      <c r="D12">
+        <v>1999</v>
+      </c>
+      <c r="E12" t="s">
+        <v>632</v>
+      </c>
+      <c r="F12" t="s">
+        <v>998</v>
+      </c>
+      <c r="G12">
+        <v>23.72</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>628</v>
+      </c>
+      <c r="D13">
+        <v>2012</v>
+      </c>
+      <c r="E13" t="s">
+        <v>618</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G13">
+        <v>24.5</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>985</v>
+      </c>
+      <c r="D14">
+        <v>2012</v>
+      </c>
+      <c r="E14" t="s">
+        <v>616</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G14">
+        <v>25.4</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>826</v>
+      </c>
+      <c r="B15">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
+        <v>817</v>
+      </c>
+      <c r="D15">
+        <v>2012</v>
+      </c>
+      <c r="E15" t="s">
+        <v>827</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>826</v>
+      </c>
+      <c r="B16">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>818</v>
+      </c>
+      <c r="D16">
+        <v>2012</v>
+      </c>
+      <c r="E16" t="s">
+        <v>802</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>826</v>
+      </c>
+      <c r="B17">
+        <v>73</v>
+      </c>
+      <c r="C17" t="s">
+        <v>820</v>
+      </c>
+      <c r="D17">
+        <v>2012</v>
+      </c>
+      <c r="E17" t="s">
+        <v>821</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>826</v>
+      </c>
+      <c r="B18">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>819</v>
+      </c>
+      <c r="D18">
+        <v>2012</v>
+      </c>
+      <c r="E18" t="s">
+        <v>822</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>826</v>
+      </c>
+      <c r="B19">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>925</v>
+      </c>
+      <c r="D19">
+        <v>2012</v>
+      </c>
+      <c r="E19" t="s">
+        <v>827</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G19">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>826</v>
+      </c>
+      <c r="B20">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>926</v>
+      </c>
+      <c r="D20">
+        <v>2012</v>
+      </c>
+      <c r="E20" t="s">
+        <v>802</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G20">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>826</v>
+      </c>
+      <c r="B21">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D21">
+        <v>2012</v>
+      </c>
+      <c r="E21" t="s">
+        <v>821</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>826</v>
+      </c>
+      <c r="B22">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>928</v>
+      </c>
+      <c r="D22">
+        <v>2012</v>
+      </c>
+      <c r="E22" t="s">
+        <v>822</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G22">
+        <v>40</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B23">
+        <v>801</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D23">
+        <v>2008</v>
+      </c>
+      <c r="E23" t="s">
+        <v>821</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B24">
+        <v>802</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D24">
+        <v>2008</v>
+      </c>
+      <c r="E24" t="s">
+        <v>821</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B25">
+        <v>803</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D25">
+        <v>2008</v>
+      </c>
+      <c r="E25" t="s">
+        <v>821</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G25">
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B26">
+        <v>804</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D26">
+        <v>2008</v>
+      </c>
+      <c r="E26" t="s">
+        <v>821</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G26">
+        <v>40</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B27">
+        <v>910</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D27">
+        <v>2021</v>
+      </c>
+      <c r="E27" t="s">
+        <v>610</v>
+      </c>
+      <c r="F27" t="s">
+        <v>999</v>
+      </c>
+      <c r="G27">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B28">
+        <v>911</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D28">
+        <v>2021</v>
+      </c>
+      <c r="E28" t="s">
+        <v>610</v>
+      </c>
+      <c r="F28" t="s">
+        <v>999</v>
+      </c>
+      <c r="G28">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B29">
+        <v>920</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D29">
+        <v>2024</v>
+      </c>
+      <c r="E29" t="s">
+        <v>610</v>
+      </c>
+      <c r="F29" t="s">
+        <v>999</v>
+      </c>
+      <c r="G29">
+        <v>5.5</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B30">
+        <v>930</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D30">
+        <v>2024</v>
+      </c>
+      <c r="E30" t="s">
+        <v>610</v>
+      </c>
+      <c r="F30" t="s">
+        <v>999</v>
+      </c>
+      <c r="G30">
+        <v>5.5</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B31">
+        <v>940</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D31">
+        <v>2024</v>
+      </c>
+      <c r="E31" t="s">
+        <v>610</v>
+      </c>
+      <c r="F31" t="s">
+        <v>999</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B32">
+        <v>941</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D32">
+        <v>2024</v>
+      </c>
+      <c r="E32" t="s">
+        <v>610</v>
+      </c>
+      <c r="F32" t="s">
+        <v>999</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B33">
+        <v>942</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D33">
+        <v>2024</v>
+      </c>
+      <c r="E33" t="s">
+        <v>610</v>
+      </c>
+      <c r="F33" t="s">
+        <v>999</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B34">
+        <v>950</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D34">
+        <v>2024</v>
+      </c>
+      <c r="E34" t="s">
+        <v>610</v>
+      </c>
+      <c r="F34" t="s">
+        <v>999</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B35">
+        <v>960</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D35">
+        <v>2024</v>
+      </c>
+      <c r="E35" t="s">
+        <v>610</v>
+      </c>
+      <c r="F35" t="s">
+        <v>999</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B36">
+        <v>970</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D36">
+        <v>2024</v>
+      </c>
+      <c r="E36" t="s">
+        <v>610</v>
+      </c>
+      <c r="F36" t="s">
+        <v>999</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B37">
+        <v>971</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D37">
+        <v>2024</v>
+      </c>
+      <c r="E37" t="s">
+        <v>610</v>
+      </c>
+      <c r="F37" t="s">
+        <v>999</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B38">
+        <v>972</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D38">
+        <v>2024</v>
+      </c>
+      <c r="E38" t="s">
+        <v>610</v>
+      </c>
+      <c r="F38" t="s">
+        <v>999</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B39">
+        <v>980</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D39">
+        <v>2025</v>
+      </c>
+      <c r="E39" t="s">
+        <v>610</v>
+      </c>
+      <c r="F39" t="s">
+        <v>999</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B40">
+        <v>990</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D40">
+        <v>2025</v>
+      </c>
+      <c r="E40" t="s">
+        <v>610</v>
+      </c>
+      <c r="F40" t="s">
+        <v>999</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B41">
+        <v>991</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D41">
+        <v>2025</v>
+      </c>
+      <c r="E41" t="s">
+        <v>610</v>
+      </c>
+      <c r="F41" t="s">
+        <v>999</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>990</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B047C7DB-A107-BB46-A4F0-29B07EC7587D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -25913,22 +27563,22 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -25936,7 +27586,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -25944,7 +27594,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -25957,7 +27607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A14F07-4ABF-0449-8FED-10274A7ADC0A}">
   <dimension ref="A1:N28"/>
   <sheetViews>
@@ -25965,15 +27615,15 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26014,7 +27664,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>861</v>
       </c>
@@ -26031,7 +27681,7 @@
         <v>-99.241298909999998</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>860</v>
       </c>
@@ -26048,7 +27698,7 @@
         <v>-99.200923410000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>859</v>
       </c>
@@ -26065,7 +27715,7 @@
         <v>-99.181187019999996</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>858</v>
       </c>
@@ -26082,7 +27732,7 @@
         <v>-99.16069985</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>938</v>
       </c>
@@ -26108,7 +27758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>935</v>
       </c>
@@ -26134,7 +27784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>934</v>
       </c>
@@ -26160,7 +27810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>933</v>
       </c>
@@ -26186,7 +27836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>937</v>
       </c>
@@ -26212,7 +27862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>936</v>
       </c>
@@ -26238,7 +27888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>932</v>
       </c>
@@ -26264,7 +27914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>931</v>
       </c>
@@ -26290,7 +27940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>930</v>
       </c>
@@ -26316,7 +27966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>929</v>
       </c>
@@ -26342,7 +27992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>679</v>
       </c>
@@ -26373,1212 +28023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D61F9FF-1099-874D-861D-4522CE1B5818}">
-  <dimension ref="A1:K41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>606</v>
-      </c>
-      <c r="E1" t="s">
-        <v>602</v>
-      </c>
-      <c r="F1" t="s">
-        <v>603</v>
-      </c>
-      <c r="G1" t="s">
-        <v>609</v>
-      </c>
-      <c r="H1" t="s">
-        <v>611</v>
-      </c>
-      <c r="I1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>619</v>
-      </c>
-      <c r="D2">
-        <v>1969</v>
-      </c>
-      <c r="E2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F2" t="s">
-        <v>996</v>
-      </c>
-      <c r="G2">
-        <v>18.8</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>620</v>
-      </c>
-      <c r="D3">
-        <v>1970</v>
-      </c>
-      <c r="E3" t="s">
-        <v>607</v>
-      </c>
-      <c r="F3" t="s">
-        <v>997</v>
-      </c>
-      <c r="G3">
-        <v>23.43</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>621</v>
-      </c>
-      <c r="D4">
-        <v>1970</v>
-      </c>
-      <c r="E4" t="s">
-        <v>608</v>
-      </c>
-      <c r="F4" t="s">
-        <v>998</v>
-      </c>
-      <c r="G4">
-        <v>23.61</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>622</v>
-      </c>
-      <c r="D5">
-        <v>1981</v>
-      </c>
-      <c r="E5" t="s">
-        <v>610</v>
-      </c>
-      <c r="F5" t="s">
-        <v>999</v>
-      </c>
-      <c r="G5">
-        <v>10.75</v>
-      </c>
-      <c r="H5" t="s">
-        <v>612</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>623</v>
-      </c>
-      <c r="D6">
-        <v>1981</v>
-      </c>
-      <c r="E6" t="s">
-        <v>613</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1000</v>
-      </c>
-      <c r="G6">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>624</v>
-      </c>
-      <c r="D7">
-        <v>1983</v>
-      </c>
-      <c r="E7" t="s">
-        <v>614</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G7">
-        <v>13.95</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>625</v>
-      </c>
-      <c r="D8">
-        <v>1984</v>
-      </c>
-      <c r="E8" t="s">
-        <v>615</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G8">
-        <v>18.78</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>626</v>
-      </c>
-      <c r="D9">
-        <v>1994</v>
-      </c>
-      <c r="E9" t="s">
-        <v>616</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G9">
-        <v>20.079999999999998</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>627</v>
-      </c>
-      <c r="D10">
-        <v>1987</v>
-      </c>
-      <c r="E10" t="s">
-        <v>617</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G10">
-        <v>15.37</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>629</v>
-      </c>
-      <c r="D11">
-        <v>1991</v>
-      </c>
-      <c r="E11" t="s">
-        <v>630</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G11">
-        <v>17.190000000000001</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>631</v>
-      </c>
-      <c r="D12">
-        <v>1999</v>
-      </c>
-      <c r="E12" t="s">
-        <v>632</v>
-      </c>
-      <c r="F12" t="s">
-        <v>998</v>
-      </c>
-      <c r="G12">
-        <v>23.72</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>628</v>
-      </c>
-      <c r="D13">
-        <v>2012</v>
-      </c>
-      <c r="E13" t="s">
-        <v>618</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G13">
-        <v>24.5</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>985</v>
-      </c>
-      <c r="D14">
-        <v>2012</v>
-      </c>
-      <c r="E14" t="s">
-        <v>616</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G14">
-        <v>25.4</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>826</v>
-      </c>
-      <c r="B15">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>817</v>
-      </c>
-      <c r="D15">
-        <v>2012</v>
-      </c>
-      <c r="E15" t="s">
-        <v>827</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G15">
-        <v>40</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>826</v>
-      </c>
-      <c r="B16">
-        <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>818</v>
-      </c>
-      <c r="D16">
-        <v>2012</v>
-      </c>
-      <c r="E16" t="s">
-        <v>802</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G16">
-        <v>40</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>826</v>
-      </c>
-      <c r="B17">
-        <v>73</v>
-      </c>
-      <c r="C17" t="s">
-        <v>820</v>
-      </c>
-      <c r="D17">
-        <v>2012</v>
-      </c>
-      <c r="E17" t="s">
-        <v>821</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G17">
-        <v>40</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>826</v>
-      </c>
-      <c r="B18">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>819</v>
-      </c>
-      <c r="D18">
-        <v>2012</v>
-      </c>
-      <c r="E18" t="s">
-        <v>822</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G18">
-        <v>40</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>826</v>
-      </c>
-      <c r="B19">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>925</v>
-      </c>
-      <c r="D19">
-        <v>2012</v>
-      </c>
-      <c r="E19" t="s">
-        <v>827</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G19">
-        <v>40</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>826</v>
-      </c>
-      <c r="B20">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>926</v>
-      </c>
-      <c r="D20">
-        <v>2012</v>
-      </c>
-      <c r="E20" t="s">
-        <v>802</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G20">
-        <v>40</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>826</v>
-      </c>
-      <c r="B21">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>927</v>
-      </c>
-      <c r="D21">
-        <v>2012</v>
-      </c>
-      <c r="E21" t="s">
-        <v>821</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G21">
-        <v>40</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>826</v>
-      </c>
-      <c r="B22">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>928</v>
-      </c>
-      <c r="D22">
-        <v>2012</v>
-      </c>
-      <c r="E22" t="s">
-        <v>822</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1005</v>
-      </c>
-      <c r="G22">
-        <v>40</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B23">
-        <v>801</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D23">
-        <v>2008</v>
-      </c>
-      <c r="E23" t="s">
-        <v>821</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G23">
-        <v>40</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B24">
-        <v>802</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D24">
-        <v>2008</v>
-      </c>
-      <c r="E24" t="s">
-        <v>821</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G24">
-        <v>40</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B25">
-        <v>803</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D25">
-        <v>2008</v>
-      </c>
-      <c r="E25" t="s">
-        <v>821</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G25">
-        <v>40</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B26">
-        <v>804</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D26">
-        <v>2008</v>
-      </c>
-      <c r="E26" t="s">
-        <v>821</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G26">
-        <v>40</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B27">
-        <v>910</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D27">
-        <v>2021</v>
-      </c>
-      <c r="E27" t="s">
-        <v>610</v>
-      </c>
-      <c r="F27" t="s">
-        <v>999</v>
-      </c>
-      <c r="G27">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B28">
-        <v>911</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D28">
-        <v>2021</v>
-      </c>
-      <c r="E28" t="s">
-        <v>610</v>
-      </c>
-      <c r="F28" t="s">
-        <v>999</v>
-      </c>
-      <c r="G28">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B29">
-        <v>920</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D29">
-        <v>2024</v>
-      </c>
-      <c r="E29" t="s">
-        <v>610</v>
-      </c>
-      <c r="F29" t="s">
-        <v>999</v>
-      </c>
-      <c r="G29">
-        <v>5.5</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B30">
-        <v>930</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D30">
-        <v>2024</v>
-      </c>
-      <c r="E30" t="s">
-        <v>610</v>
-      </c>
-      <c r="F30" t="s">
-        <v>999</v>
-      </c>
-      <c r="G30">
-        <v>5.5</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B31">
-        <v>940</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D31">
-        <v>2024</v>
-      </c>
-      <c r="E31" t="s">
-        <v>610</v>
-      </c>
-      <c r="F31" t="s">
-        <v>999</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B32">
-        <v>941</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D32">
-        <v>2024</v>
-      </c>
-      <c r="E32" t="s">
-        <v>610</v>
-      </c>
-      <c r="F32" t="s">
-        <v>999</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B33">
-        <v>942</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D33">
-        <v>2024</v>
-      </c>
-      <c r="E33" t="s">
-        <v>610</v>
-      </c>
-      <c r="F33" t="s">
-        <v>999</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-      <c r="J33">
-        <v>2</v>
-      </c>
-      <c r="K33">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B34">
-        <v>950</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D34">
-        <v>2024</v>
-      </c>
-      <c r="E34" t="s">
-        <v>610</v>
-      </c>
-      <c r="F34" t="s">
-        <v>999</v>
-      </c>
-      <c r="I34">
-        <v>2</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B35">
-        <v>960</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D35">
-        <v>2024</v>
-      </c>
-      <c r="E35" t="s">
-        <v>610</v>
-      </c>
-      <c r="F35" t="s">
-        <v>999</v>
-      </c>
-      <c r="I35">
-        <v>2</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B36">
-        <v>970</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D36">
-        <v>2024</v>
-      </c>
-      <c r="E36" t="s">
-        <v>610</v>
-      </c>
-      <c r="F36" t="s">
-        <v>999</v>
-      </c>
-      <c r="I36">
-        <v>2</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B37">
-        <v>971</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D37">
-        <v>2024</v>
-      </c>
-      <c r="E37" t="s">
-        <v>610</v>
-      </c>
-      <c r="F37" t="s">
-        <v>999</v>
-      </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B38">
-        <v>972</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D38">
-        <v>2024</v>
-      </c>
-      <c r="E38" t="s">
-        <v>610</v>
-      </c>
-      <c r="F38" t="s">
-        <v>999</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B39">
-        <v>980</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D39">
-        <v>2025</v>
-      </c>
-      <c r="E39" t="s">
-        <v>610</v>
-      </c>
-      <c r="F39" t="s">
-        <v>999</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B40">
-        <v>990</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D40">
-        <v>2025</v>
-      </c>
-      <c r="E40" t="s">
-        <v>610</v>
-      </c>
-      <c r="F40" t="s">
-        <v>999</v>
-      </c>
-      <c r="I40">
-        <v>2</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B41">
-        <v>991</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D41">
-        <v>2025</v>
-      </c>
-      <c r="E41" t="s">
-        <v>610</v>
-      </c>
-      <c r="F41" t="s">
-        <v>999</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>990</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EC9F66-F991-2C4D-B1CC-3E8748D15396}">
   <dimension ref="A1:H46"/>
   <sheetViews>
@@ -27586,9 +28031,9 @@
       <selection activeCell="A2" sqref="A2:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>917</v>
       </c>
@@ -27614,7 +28059,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>916</v>
       </c>
@@ -27640,7 +28085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>915</v>
       </c>
@@ -27666,7 +28111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>914</v>
       </c>
@@ -27692,7 +28137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>913</v>
       </c>
@@ -27718,7 +28163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>912</v>
       </c>
@@ -27744,7 +28189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>911</v>
       </c>
@@ -27770,7 +28215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>910</v>
       </c>
@@ -27796,7 +28241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>909</v>
       </c>
@@ -27822,7 +28267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>908</v>
       </c>
@@ -27848,7 +28293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>907</v>
       </c>
@@ -27874,7 +28319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>906</v>
       </c>
@@ -27900,7 +28345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -27926,7 +28371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>905</v>
       </c>
@@ -27952,7 +28397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>904</v>
       </c>
@@ -27978,7 +28423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>903</v>
       </c>
@@ -28004,7 +28449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>902</v>
       </c>
@@ -28030,7 +28475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>901</v>
       </c>
@@ -28056,7 +28501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>900</v>
       </c>
@@ -28082,7 +28527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>899</v>
       </c>
@@ -28108,7 +28553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>898</v>
       </c>
@@ -28134,7 +28579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>897</v>
       </c>
@@ -28160,7 +28605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>896</v>
       </c>
@@ -28186,7 +28631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>895</v>
       </c>
@@ -28212,7 +28657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>894</v>
       </c>
@@ -28238,7 +28683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>893</v>
       </c>
@@ -28264,7 +28709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>892</v>
       </c>
@@ -28290,7 +28735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>891</v>
       </c>
@@ -28316,7 +28761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>890</v>
       </c>
@@ -28342,7 +28787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>889</v>
       </c>
@@ -28368,7 +28813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>888</v>
       </c>
@@ -28394,7 +28839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>887</v>
       </c>
@@ -28420,7 +28865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>886</v>
       </c>
@@ -28446,7 +28891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>885</v>
       </c>
@@ -28472,7 +28917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>884</v>
       </c>
@@ -28498,7 +28943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>883</v>
       </c>
@@ -28524,7 +28969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>882</v>
       </c>
@@ -28550,7 +28995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>880</v>
       </c>
@@ -28576,7 +29021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>881</v>
       </c>
@@ -28602,7 +29047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>879</v>
       </c>
@@ -28628,7 +29073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>878</v>
       </c>
@@ -28654,7 +29099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>877</v>
       </c>
@@ -28680,7 +29125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>876</v>
       </c>
@@ -28706,7 +29151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>875</v>
       </c>
@@ -28732,7 +29177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>874</v>
       </c>
@@ -28758,7 +29203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>873</v>
       </c>

--- a/ETL/Data/data.xlsx
+++ b/ETL/Data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\galigaribaldi\code\Apimetro\ETL\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFA0174-D78B-4BDB-B940-F7254124D06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA25A753-8ADD-4918-8793-A0830D20ECAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estacion" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4339" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4344" uniqueCount="1203">
   <si>
     <t>SISTEMA</t>
   </si>
@@ -3547,141 +3547,6 @@
     <t>Cablebús L9 (R1)</t>
   </si>
   <si>
-    <t>Terminal 1</t>
-  </si>
-  <si>
-    <t>Tipo 1</t>
-  </si>
-  <si>
-    <t>Direccion 1</t>
-  </si>
-  <si>
-    <t>Descripcion 1</t>
-  </si>
-  <si>
-    <t>Terminal 2</t>
-  </si>
-  <si>
-    <t>Inicio 2</t>
-  </si>
-  <si>
-    <t>Inicio 1</t>
-  </si>
-  <si>
-    <t>Tipo 3</t>
-  </si>
-  <si>
-    <t>Tipo 2</t>
-  </si>
-  <si>
-    <t>Direccion 2</t>
-  </si>
-  <si>
-    <t>Descripcion 2</t>
-  </si>
-  <si>
-    <t>Terminal 3</t>
-  </si>
-  <si>
-    <t>Inicio 3</t>
-  </si>
-  <si>
-    <t>Direccion 3</t>
-  </si>
-  <si>
-    <t>Descripcion 3</t>
-  </si>
-  <si>
-    <t>Terminal 4</t>
-  </si>
-  <si>
-    <t>Inicio 4</t>
-  </si>
-  <si>
-    <t>Tipo 4</t>
-  </si>
-  <si>
-    <t>Direccion 4</t>
-  </si>
-  <si>
-    <t>Descripcion 4</t>
-  </si>
-  <si>
-    <t>Terminal 5</t>
-  </si>
-  <si>
-    <t>Inicio 5</t>
-  </si>
-  <si>
-    <t>Tipo 5</t>
-  </si>
-  <si>
-    <t>Direccion 5</t>
-  </si>
-  <si>
-    <t>Descripcion 5</t>
-  </si>
-  <si>
-    <t>Terminal 6</t>
-  </si>
-  <si>
-    <t>Inicio 6</t>
-  </si>
-  <si>
-    <t>Tipo 6</t>
-  </si>
-  <si>
-    <t>Direccion 6</t>
-  </si>
-  <si>
-    <t>Descripcion 6</t>
-  </si>
-  <si>
-    <t>Terminal 7</t>
-  </si>
-  <si>
-    <t>Inicio 7</t>
-  </si>
-  <si>
-    <t>Tipo 7</t>
-  </si>
-  <si>
-    <t>Direccion 7</t>
-  </si>
-  <si>
-    <t>Descripcion 7</t>
-  </si>
-  <si>
-    <t>Terminal 8</t>
-  </si>
-  <si>
-    <t>Inicio 8</t>
-  </si>
-  <si>
-    <t>Tipo 8</t>
-  </si>
-  <si>
-    <t>Direccion 8</t>
-  </si>
-  <si>
-    <t>Descripcion 8</t>
-  </si>
-  <si>
-    <t>Terminal 9</t>
-  </si>
-  <si>
-    <t>Inicio 9</t>
-  </si>
-  <si>
-    <t>Tipo 9</t>
-  </si>
-  <si>
-    <t>Direccion 9</t>
-  </si>
-  <si>
-    <t>Descripcion 9</t>
-  </si>
-  <si>
     <t>TERMINAL_ORIGINAL</t>
   </si>
   <si>
@@ -3704,13 +3569,108 @@
   </si>
   <si>
     <t>LINEA_BASE</t>
+  </si>
+  <si>
+    <t>Subterráneo</t>
+  </si>
+  <si>
+    <t>Juanacatlan</t>
+  </si>
+  <si>
+    <t>Estaciones inauguradas: 16.
+Kilómetros inaugurados: 12.660.
+Kilómetros acumulados en la Línea: 12.660.</t>
+  </si>
+  <si>
+    <t>Estaciones inauguradas: 1.
+Kilómetros inaugurados: 1.046.
+Kilómetros acumulados en la Línea: 13.706.</t>
+  </si>
+  <si>
+    <t>Estaciones inauguradas: 1. 
+Kilómetros inaugurados: 1.140.
+Kilómetros acumulados en la Línea: 14.846.</t>
+  </si>
+  <si>
+    <t>Estaciones inauguradas: 1.
+Kilómetros inaugurados: 1.705.
+Kilómetros acumulados en la Línea: 2.277.</t>
+  </si>
+  <si>
+    <t>Estaciones inauguradas: 1.
+Kilómetros inaugurados: 16.551.
+Kilómetros acumulados en la Línea: 18.828.</t>
+  </si>
+  <si>
+    <t>ZARAGOZA-CHAPULTEPEC (Inauguración)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAPULTEPEC-JUANACATLAN (Ampliación) </t>
+  </si>
+  <si>
+    <t>JUANACATLAN-TACUBAYA (Ampliación)</t>
+  </si>
+  <si>
+    <t>TACUBAYA-OBSERVATORIO (Ampliación)</t>
+  </si>
+  <si>
+    <t>ZARAGOZA-PANTITLÁN (Ampliación)</t>
+  </si>
+  <si>
+    <t>OBSERVATORIO-PANTITLÁN (Actual)</t>
+  </si>
+  <si>
+    <t>Longitud: 18 Kilómetros con 828 metros.
+En servicio 16 Km. 654 m., el resto para maniobras.
+Total de estaciones: 20
+7 de correspondencia (una es Terminal),
+12 de paso y
+1 Terminal.</t>
+  </si>
+  <si>
+    <t>Sobre la calle/Subterráneo</t>
+  </si>
+  <si>
+    <t>Estaciones inauguradas: 11
+Kilómetros inaugurados: 11.321
+Kilómetros acumulados: 11.321</t>
+  </si>
+  <si>
+    <t>Estaciones inauguradas: 11
+Kilómetros inaugurados: 8.101
+Kilómetros acumulados: 19.422</t>
+  </si>
+  <si>
+    <t>Estaciones inauguradas: 2
+Kilómetros inaugurados: 4.009
+Kilómetros acumulados: 23.431</t>
+  </si>
+  <si>
+    <t>Longitud: 23 Kilómetros con 431 metros.
+En servicio 20 Km. 713 m., el resto para maniobras.
+Total de estaciones: 24
+6 son de correspondencia,
+16 de paso y
+2 son Terminales.</t>
+  </si>
+  <si>
+    <t>TASQUEÑA-PINO SUÁREZ (Inauguración)</t>
+  </si>
+  <si>
+    <t>PINO SUÁREZ-TACUBA (Ampliación)</t>
+  </si>
+  <si>
+    <t>TACUBA-CUATRO CAMINOS (Ampliación)</t>
+  </si>
+  <si>
+    <t>TASQUEÑA-CUATRO CAMINOS (Actual)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3735,6 +3695,20 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3781,7 +3755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3792,14 +3766,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4102,19 +4081,19 @@
       <selection activeCell="B542" sqref="B542"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4158,7 +4137,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4202,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4246,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4290,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4334,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4378,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4422,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4465,11 +4444,11 @@
       <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4512,9 +4491,9 @@
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4557,11 +4536,11 @@
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4604,9 +4583,9 @@
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4649,11 +4628,11 @@
       <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4696,9 +4675,9 @@
       <c r="N13">
         <v>1</v>
       </c>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4742,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4786,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4830,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4874,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4917,11 +4896,11 @@
       <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4964,9 +4943,9 @@
       <c r="N19">
         <v>1</v>
       </c>
-      <c r="O19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -5009,14 +4988,14 @@
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="7" t="s">
         <v>601</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5059,10 +5038,10 @@
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="O21" s="8"/>
+      <c r="O21" s="7"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -5106,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -5150,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -5194,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -5238,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -5282,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -5326,7 +5305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -5370,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -5414,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -5458,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -5502,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -5546,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -5590,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -5634,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -5678,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -5722,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -5766,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -5810,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -5854,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -5898,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -5942,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -5986,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -6030,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -6074,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -6118,7 +6097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -6162,7 +6141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -6206,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -6250,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -6293,11 +6272,11 @@
       <c r="N49">
         <v>1</v>
       </c>
-      <c r="O49" s="8" t="s">
+      <c r="O49" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -6340,9 +6319,9 @@
       <c r="N50">
         <v>1</v>
       </c>
-      <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -6386,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -6430,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -6474,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -6518,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -6562,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -6605,11 +6584,11 @@
       <c r="N56">
         <v>1</v>
       </c>
-      <c r="O56" s="8" t="s">
+      <c r="O56" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -6652,9 +6631,9 @@
       <c r="N57">
         <v>1</v>
       </c>
-      <c r="O57" s="8"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -6698,7 +6677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -6742,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -6786,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -6830,7 +6809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -6874,7 +6853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -6917,11 +6896,11 @@
       <c r="N63">
         <v>1</v>
       </c>
-      <c r="O63" s="8" t="s">
+      <c r="O63" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -6964,9 +6943,9 @@
       <c r="N64">
         <v>1</v>
       </c>
-      <c r="O64" s="8"/>
-    </row>
-    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O64" s="7"/>
+    </row>
+    <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -7009,7 +6988,7 @@
       <c r="N65">
         <v>1</v>
       </c>
-      <c r="O65" s="8" t="s">
+      <c r="O65" s="7" t="s">
         <v>601</v>
       </c>
       <c r="P65" s="2" t="s">
@@ -7019,7 +6998,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -7062,11 +7041,11 @@
       <c r="N66">
         <v>1</v>
       </c>
-      <c r="O66" s="8"/>
+      <c r="O66" s="7"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -7110,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -7154,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -7198,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -7242,7 +7221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -7285,11 +7264,11 @@
       <c r="N71">
         <v>1</v>
       </c>
-      <c r="O71" s="8" t="s">
+      <c r="O71" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -7332,9 +7311,9 @@
       <c r="N72">
         <v>1</v>
       </c>
-      <c r="O72" s="8"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -7378,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -7422,7 +7401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -7465,11 +7444,11 @@
       <c r="N75">
         <v>1</v>
       </c>
-      <c r="O75" s="8" t="s">
+      <c r="O75" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -7512,9 +7491,9 @@
       <c r="N76">
         <v>1</v>
       </c>
-      <c r="O76" s="8"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O76" s="7"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -7559,7 +7538,7 @@
       </c>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -7604,7 +7583,7 @@
       </c>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -7649,7 +7628,7 @@
       </c>
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -7694,7 +7673,7 @@
       </c>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -7739,7 +7718,7 @@
       </c>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>826</v>
       </c>
@@ -7784,7 +7763,7 @@
       </c>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -7828,7 +7807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -7872,7 +7851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -7915,11 +7894,11 @@
       <c r="N85">
         <v>1</v>
       </c>
-      <c r="O85" s="9" t="s">
+      <c r="O85" s="8" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -7962,9 +7941,9 @@
       <c r="N86">
         <v>1</v>
       </c>
-      <c r="O86" s="9"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O86" s="8"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -8007,9 +7986,9 @@
       <c r="N87">
         <v>1</v>
       </c>
-      <c r="O87" s="9"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O87" s="8"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -8052,11 +8031,11 @@
       <c r="N88">
         <v>1</v>
       </c>
-      <c r="O88" s="9" t="s">
+      <c r="O88" s="8" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -8099,9 +8078,9 @@
       <c r="N89">
         <v>1</v>
       </c>
-      <c r="O89" s="9"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O89" s="8"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -8144,9 +8123,9 @@
       <c r="N90">
         <v>1</v>
       </c>
-      <c r="O90" s="9"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O90" s="8"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -8189,9 +8168,9 @@
       <c r="N91">
         <v>1</v>
       </c>
-      <c r="O91" s="9"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O91" s="8"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -8234,9 +8213,9 @@
       <c r="N92">
         <v>1</v>
       </c>
-      <c r="O92" s="9"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O92" s="8"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -8279,11 +8258,11 @@
       <c r="N93">
         <v>1</v>
       </c>
-      <c r="O93" s="8" t="s">
+      <c r="O93" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -8326,9 +8305,9 @@
       <c r="N94">
         <v>1</v>
       </c>
-      <c r="O94" s="8"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O94" s="7"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -8372,7 +8351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -8415,11 +8394,11 @@
       <c r="N96">
         <v>1</v>
       </c>
-      <c r="O96" s="8" t="s">
+      <c r="O96" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -8462,9 +8441,9 @@
       <c r="N97">
         <v>1</v>
       </c>
-      <c r="O97" s="8"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O97" s="7"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -8507,11 +8486,11 @@
       <c r="N98">
         <v>1</v>
       </c>
-      <c r="O98" s="8" t="s">
+      <c r="O98" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -8554,9 +8533,9 @@
       <c r="N99">
         <v>1</v>
       </c>
-      <c r="O99" s="8"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O99" s="7"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -8599,11 +8578,11 @@
       <c r="N100">
         <v>1</v>
       </c>
-      <c r="O100" s="8" t="s">
+      <c r="O100" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -8646,9 +8625,9 @@
       <c r="N101">
         <v>1</v>
       </c>
-      <c r="O101" s="8"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O101" s="7"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -8691,11 +8670,11 @@
       <c r="N102">
         <v>1</v>
       </c>
-      <c r="O102" s="8" t="s">
+      <c r="O102" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -8738,9 +8717,9 @@
       <c r="N103">
         <v>1</v>
       </c>
-      <c r="O103" s="8"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O103" s="7"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -8783,11 +8762,11 @@
       <c r="N104">
         <v>1</v>
       </c>
-      <c r="O104" s="8" t="s">
+      <c r="O104" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -8830,9 +8809,9 @@
       <c r="N105">
         <v>1</v>
       </c>
-      <c r="O105" s="8"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O105" s="7"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -8875,9 +8854,9 @@
       <c r="N106">
         <v>1</v>
       </c>
-      <c r="O106" s="8"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O106" s="7"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>1070</v>
       </c>
@@ -8919,7 +8898,7 @@
       </c>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>1071</v>
       </c>
@@ -8961,7 +8940,7 @@
       </c>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>1072</v>
       </c>
@@ -9003,7 +8982,7 @@
       </c>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>1073</v>
       </c>
@@ -9045,7 +9024,7 @@
       </c>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>1074</v>
       </c>
@@ -9087,7 +9066,7 @@
       </c>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>566</v>
       </c>
@@ -9129,7 +9108,7 @@
       </c>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>1082</v>
       </c>
@@ -9171,7 +9150,7 @@
       </c>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>869</v>
       </c>
@@ -9213,7 +9192,7 @@
       </c>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -9256,11 +9235,11 @@
       <c r="N115">
         <v>1</v>
       </c>
-      <c r="O115" s="8" t="s">
+      <c r="O115" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -9303,12 +9282,12 @@
       <c r="N116">
         <v>1</v>
       </c>
-      <c r="O116" s="8"/>
+      <c r="O116" s="7"/>
       <c r="P116" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -9353,7 +9332,7 @@
       </c>
       <c r="P117" s="2"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -9396,11 +9375,11 @@
       <c r="N118">
         <v>1</v>
       </c>
-      <c r="O118" s="8" t="s">
+      <c r="O118" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -9443,9 +9422,9 @@
       <c r="N119">
         <v>1</v>
       </c>
-      <c r="O119" s="8"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O119" s="7"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -9488,11 +9467,11 @@
       <c r="N120">
         <v>1</v>
       </c>
-      <c r="O120" s="8" t="s">
+      <c r="O120" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -9535,9 +9514,9 @@
       <c r="N121">
         <v>1</v>
       </c>
-      <c r="O121" s="8"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O121" s="7"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -9581,7 +9560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -9624,11 +9603,11 @@
       <c r="N123">
         <v>1</v>
       </c>
-      <c r="O123" s="8" t="s">
+      <c r="O123" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -9671,9 +9650,9 @@
       <c r="N124">
         <v>1</v>
       </c>
-      <c r="O124" s="8"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O124" s="7"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>4</v>
       </c>
@@ -9717,7 +9696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>4</v>
       </c>
@@ -9761,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>4</v>
       </c>
@@ -9805,7 +9784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -9849,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -9893,7 +9872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -9937,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
@@ -9981,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>4</v>
       </c>
@@ -10025,7 +10004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -10069,7 +10048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
@@ -10112,11 +10091,11 @@
       <c r="N134">
         <v>1</v>
       </c>
-      <c r="O134" s="8" t="s">
+      <c r="O134" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -10159,9 +10138,9 @@
       <c r="N135">
         <v>1</v>
       </c>
-      <c r="O135" s="8"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O135" s="7"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -10204,11 +10183,11 @@
       <c r="N136">
         <v>1</v>
       </c>
-      <c r="O136" s="8" t="s">
+      <c r="O136" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -10251,9 +10230,9 @@
       <c r="N137">
         <v>1</v>
       </c>
-      <c r="O137" s="8"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O137" s="7"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>4</v>
       </c>
@@ -10296,11 +10275,11 @@
       <c r="N138">
         <v>1</v>
       </c>
-      <c r="O138" s="8" t="s">
+      <c r="O138" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>4</v>
       </c>
@@ -10343,9 +10322,9 @@
       <c r="N139">
         <v>1</v>
       </c>
-      <c r="O139" s="8"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O139" s="7"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>4</v>
       </c>
@@ -10389,7 +10368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>4</v>
       </c>
@@ -10433,7 +10412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>4</v>
       </c>
@@ -10476,11 +10455,11 @@
       <c r="N142">
         <v>1</v>
       </c>
-      <c r="O142" s="8" t="s">
+      <c r="O142" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -10523,9 +10502,9 @@
       <c r="N143">
         <v>1</v>
       </c>
-      <c r="O143" s="8"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O143" s="7"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -10568,11 +10547,11 @@
       <c r="N144">
         <v>1</v>
       </c>
-      <c r="O144" s="8" t="s">
+      <c r="O144" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -10615,9 +10594,9 @@
       <c r="N145">
         <v>1</v>
       </c>
-      <c r="O145" s="8"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O145" s="7"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -10661,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -10705,7 +10684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -10748,11 +10727,11 @@
       <c r="N148">
         <v>1</v>
       </c>
-      <c r="O148" s="8" t="s">
+      <c r="O148" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -10795,9 +10774,9 @@
       <c r="N149">
         <v>1</v>
       </c>
-      <c r="O149" s="8"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O149" s="7"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -10841,7 +10820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -10885,7 +10864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -10929,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -10976,7 +10955,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -11020,7 +10999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -11064,7 +11043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -11108,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -11152,7 +11131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -11195,11 +11174,11 @@
       <c r="N158">
         <v>1</v>
       </c>
-      <c r="O158" s="8" t="s">
+      <c r="O158" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -11242,9 +11221,9 @@
       <c r="N159">
         <v>1</v>
       </c>
-      <c r="O159" s="8"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O159" s="7"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -11288,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -11331,11 +11310,11 @@
       <c r="N161">
         <v>1</v>
       </c>
-      <c r="O161" s="8" t="s">
+      <c r="O161" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -11378,12 +11357,12 @@
       <c r="N162">
         <v>1</v>
       </c>
-      <c r="O162" s="8"/>
+      <c r="O162" s="7"/>
       <c r="P162" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -11428,7 +11407,7 @@
       </c>
       <c r="P163" s="2"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -11472,7 +11451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -11515,11 +11494,11 @@
       <c r="N165">
         <v>1</v>
       </c>
-      <c r="O165" s="8" t="s">
+      <c r="O165" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -11562,9 +11541,9 @@
       <c r="N166">
         <v>1</v>
       </c>
-      <c r="O166" s="8"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O166" s="7"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -11608,7 +11587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -11651,11 +11630,11 @@
       <c r="N168">
         <v>1</v>
       </c>
-      <c r="O168" s="8" t="s">
+      <c r="O168" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -11698,9 +11677,9 @@
       <c r="N169">
         <v>1</v>
       </c>
-      <c r="O169" s="8"/>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O169" s="7"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -11744,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -11787,11 +11766,11 @@
       <c r="N171">
         <v>1</v>
       </c>
-      <c r="O171" s="8" t="s">
+      <c r="O171" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -11834,9 +11813,9 @@
       <c r="N172">
         <v>1</v>
       </c>
-      <c r="O172" s="8"/>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O172" s="7"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -11880,7 +11859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -11923,14 +11902,14 @@
       <c r="N174">
         <v>1</v>
       </c>
-      <c r="O174" s="8" t="s">
+      <c r="O174" s="7" t="s">
         <v>601</v>
       </c>
       <c r="P174" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -11973,10 +11952,10 @@
       <c r="N175">
         <v>1</v>
       </c>
-      <c r="O175" s="8"/>
+      <c r="O175" s="7"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -12019,11 +11998,11 @@
       <c r="N176">
         <v>1</v>
       </c>
-      <c r="O176" s="8" t="s">
+      <c r="O176" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -12066,9 +12045,9 @@
       <c r="N177">
         <v>1</v>
       </c>
-      <c r="O177" s="8"/>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O177" s="7"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -12112,7 +12091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -12156,7 +12135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -12200,7 +12179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -12244,7 +12223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -12288,7 +12267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -12331,11 +12310,11 @@
       <c r="N183">
         <v>1</v>
       </c>
-      <c r="O183" s="8" t="s">
+      <c r="O183" s="7" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -12378,9 +12357,9 @@
       <c r="N184">
         <v>1</v>
       </c>
-      <c r="O184" s="8"/>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O184" s="7"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -12424,7 +12403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -12468,7 +12447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -12512,7 +12491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -12556,7 +12535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -12600,7 +12579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -12644,7 +12623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -12688,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -12732,7 +12711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -12773,7 +12752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -12814,7 +12793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -12855,7 +12834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -12896,7 +12875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -12940,7 +12919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -12984,7 +12963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -13028,7 +13007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -13072,7 +13051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -13116,7 +13095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -13160,7 +13139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -13204,7 +13183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -13247,11 +13226,11 @@
       <c r="N204">
         <v>1</v>
       </c>
-      <c r="O204" s="7" t="s">
+      <c r="O204" s="9" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -13294,9 +13273,9 @@
       <c r="N205">
         <v>1</v>
       </c>
-      <c r="O205" s="7"/>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O205" s="9"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -13339,9 +13318,9 @@
       <c r="N206">
         <v>1</v>
       </c>
-      <c r="O206" s="7"/>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O206" s="9"/>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -13385,7 +13364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -13429,7 +13408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -13473,7 +13452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -13517,7 +13496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -13560,11 +13539,11 @@
       <c r="N211">
         <v>1</v>
       </c>
-      <c r="O211" s="7" t="s">
+      <c r="O211" s="9" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -13607,9 +13586,9 @@
       <c r="N212">
         <v>1</v>
       </c>
-      <c r="O212" s="7"/>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O212" s="9"/>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -13652,9 +13631,9 @@
       <c r="N213">
         <v>1</v>
       </c>
-      <c r="O213" s="7"/>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O213" s="9"/>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -13698,7 +13677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -13742,7 +13721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -13786,7 +13765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -13827,7 +13806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -13868,7 +13847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -13909,7 +13888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -13950,7 +13929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -13979,7 +13958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -14008,7 +13987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -14037,7 +14016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -14066,7 +14045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -14095,7 +14074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -14124,7 +14103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -14153,7 +14132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -14182,7 +14161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -14211,7 +14190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -14240,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -14269,7 +14248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -14298,7 +14277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -14327,7 +14306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -14356,7 +14335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>4</v>
       </c>
@@ -14385,7 +14364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>4</v>
       </c>
@@ -14414,7 +14393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -14443,7 +14422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -14472,7 +14451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -14501,7 +14480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -14530,7 +14509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -14559,7 +14538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>4</v>
       </c>
@@ -14588,7 +14567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -14617,7 +14596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>4</v>
       </c>
@@ -14643,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>4</v>
       </c>
@@ -14687,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>4</v>
       </c>
@@ -14731,7 +14710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>826</v>
       </c>
@@ -14775,7 +14754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>826</v>
       </c>
@@ -14819,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>826</v>
       </c>
@@ -14863,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>826</v>
       </c>
@@ -14907,7 +14886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>826</v>
       </c>
@@ -14951,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>826</v>
       </c>
@@ -14995,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>826</v>
       </c>
@@ -15039,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>826</v>
       </c>
@@ -15083,7 +15062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>826</v>
       </c>
@@ -15127,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>826</v>
       </c>
@@ -15171,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>826</v>
       </c>
@@ -15215,7 +15194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>826</v>
       </c>
@@ -15259,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>826</v>
       </c>
@@ -15303,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>826</v>
       </c>
@@ -15347,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>826</v>
       </c>
@@ -15391,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>826</v>
       </c>
@@ -15435,7 +15414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>826</v>
       </c>
@@ -15479,7 +15458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>826</v>
       </c>
@@ -15523,7 +15502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>826</v>
       </c>
@@ -15567,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>826</v>
       </c>
@@ -15611,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>826</v>
       </c>
@@ -15655,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>826</v>
       </c>
@@ -15699,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>826</v>
       </c>
@@ -15743,7 +15722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>826</v>
       </c>
@@ -15787,7 +15766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>826</v>
       </c>
@@ -15831,7 +15810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>826</v>
       </c>
@@ -15875,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>826</v>
       </c>
@@ -15919,7 +15898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>826</v>
       </c>
@@ -15963,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>826</v>
       </c>
@@ -16007,7 +15986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>826</v>
       </c>
@@ -16051,7 +16030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>826</v>
       </c>
@@ -16095,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>826</v>
       </c>
@@ -16139,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>826</v>
       </c>
@@ -16183,7 +16162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>826</v>
       </c>
@@ -16227,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>826</v>
       </c>
@@ -16271,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>826</v>
       </c>
@@ -16315,7 +16294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>826</v>
       </c>
@@ -16359,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>826</v>
       </c>
@@ -16403,7 +16382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>826</v>
       </c>
@@ -16447,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>826</v>
       </c>
@@ -16491,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>826</v>
       </c>
@@ -16535,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>826</v>
       </c>
@@ -16579,7 +16558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>826</v>
       </c>
@@ -16623,7 +16602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>826</v>
       </c>
@@ -16667,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>826</v>
       </c>
@@ -16711,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>826</v>
       </c>
@@ -16755,7 +16734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>826</v>
       </c>
@@ -16799,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>826</v>
       </c>
@@ -16843,7 +16822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>826</v>
       </c>
@@ -16887,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>826</v>
       </c>
@@ -16931,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>826</v>
       </c>
@@ -16975,7 +16954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>826</v>
       </c>
@@ -17019,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>826</v>
       </c>
@@ -17063,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>826</v>
       </c>
@@ -17107,7 +17086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>826</v>
       </c>
@@ -17151,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>826</v>
       </c>
@@ -17195,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>826</v>
       </c>
@@ -17239,7 +17218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>826</v>
       </c>
@@ -17283,7 +17262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>826</v>
       </c>
@@ -17327,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>826</v>
       </c>
@@ -17371,7 +17350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>826</v>
       </c>
@@ -17415,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>826</v>
       </c>
@@ -17459,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>826</v>
       </c>
@@ -17503,7 +17482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>826</v>
       </c>
@@ -17547,7 +17526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>826</v>
       </c>
@@ -17591,7 +17570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>826</v>
       </c>
@@ -17635,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>826</v>
       </c>
@@ -17679,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>826</v>
       </c>
@@ -17723,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>826</v>
       </c>
@@ -17767,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>826</v>
       </c>
@@ -17811,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>826</v>
       </c>
@@ -17855,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>826</v>
       </c>
@@ -17899,7 +17878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>826</v>
       </c>
@@ -17943,7 +17922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>826</v>
       </c>
@@ -17987,7 +17966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>826</v>
       </c>
@@ -18031,7 +18010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>826</v>
       </c>
@@ -18075,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>826</v>
       </c>
@@ -18119,7 +18098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>826</v>
       </c>
@@ -18163,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>826</v>
       </c>
@@ -18207,7 +18186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>826</v>
       </c>
@@ -18251,7 +18230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>826</v>
       </c>
@@ -18295,7 +18274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>826</v>
       </c>
@@ -18339,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>826</v>
       </c>
@@ -18383,7 +18362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>826</v>
       </c>
@@ -18427,7 +18406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>826</v>
       </c>
@@ -18471,7 +18450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>826</v>
       </c>
@@ -18515,7 +18494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>826</v>
       </c>
@@ -18559,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>826</v>
       </c>
@@ -18603,7 +18582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>826</v>
       </c>
@@ -18647,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>826</v>
       </c>
@@ -18691,7 +18670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>826</v>
       </c>
@@ -18720,7 +18699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>826</v>
       </c>
@@ -18749,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>826</v>
       </c>
@@ -18778,7 +18757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>826</v>
       </c>
@@ -18807,7 +18786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>826</v>
       </c>
@@ -18836,7 +18815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>826</v>
       </c>
@@ -18865,7 +18844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>826</v>
       </c>
@@ -18894,7 +18873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>826</v>
       </c>
@@ -18923,7 +18902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>826</v>
       </c>
@@ -18952,7 +18931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>826</v>
       </c>
@@ -18981,7 +18960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>826</v>
       </c>
@@ -19010,7 +18989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>826</v>
       </c>
@@ -19039,7 +19018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>826</v>
       </c>
@@ -19068,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>826</v>
       </c>
@@ -19097,7 +19076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>826</v>
       </c>
@@ -19141,7 +19120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>826</v>
       </c>
@@ -19170,7 +19149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>826</v>
       </c>
@@ -19199,7 +19178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>826</v>
       </c>
@@ -19228,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>826</v>
       </c>
@@ -19257,7 +19236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>826</v>
       </c>
@@ -19286,7 +19265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>826</v>
       </c>
@@ -19315,7 +19294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>826</v>
       </c>
@@ -19344,7 +19323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>826</v>
       </c>
@@ -19376,7 +19355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>826</v>
       </c>
@@ -19405,7 +19384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>826</v>
       </c>
@@ -19434,7 +19413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>826</v>
       </c>
@@ -19463,7 +19442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>826</v>
       </c>
@@ -19492,7 +19471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>826</v>
       </c>
@@ -19521,7 +19500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>826</v>
       </c>
@@ -19550,7 +19529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>826</v>
       </c>
@@ -19579,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>826</v>
       </c>
@@ -19608,7 +19587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>826</v>
       </c>
@@ -19637,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>826</v>
       </c>
@@ -19666,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>826</v>
       </c>
@@ -19695,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>826</v>
       </c>
@@ -19724,7 +19703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>826</v>
       </c>
@@ -19753,7 +19732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>826</v>
       </c>
@@ -19782,7 +19761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>826</v>
       </c>
@@ -19811,7 +19790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>826</v>
       </c>
@@ -19840,7 +19819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>826</v>
       </c>
@@ -19869,7 +19848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>826</v>
       </c>
@@ -19898,7 +19877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>826</v>
       </c>
@@ -19927,7 +19906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>826</v>
       </c>
@@ -19956,7 +19935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>826</v>
       </c>
@@ -19985,7 +19964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>826</v>
       </c>
@@ -20014,7 +19993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>826</v>
       </c>
@@ -20043,7 +20022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>826</v>
       </c>
@@ -20072,7 +20051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>826</v>
       </c>
@@ -20101,7 +20080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>826</v>
       </c>
@@ -20130,7 +20109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>826</v>
       </c>
@@ -20159,7 +20138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>826</v>
       </c>
@@ -20188,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>826</v>
       </c>
@@ -20217,7 +20196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>826</v>
       </c>
@@ -20246,7 +20225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>826</v>
       </c>
@@ -20275,7 +20254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>826</v>
       </c>
@@ -20304,7 +20283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>826</v>
       </c>
@@ -20333,7 +20312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>826</v>
       </c>
@@ -20362,7 +20341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>826</v>
       </c>
@@ -20391,7 +20370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>826</v>
       </c>
@@ -20420,7 +20399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>826</v>
       </c>
@@ -20449,7 +20428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>826</v>
       </c>
@@ -20478,7 +20457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>826</v>
       </c>
@@ -20507,7 +20486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>826</v>
       </c>
@@ -20536,7 +20515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>826</v>
       </c>
@@ -20565,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>826</v>
       </c>
@@ -20594,7 +20573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>826</v>
       </c>
@@ -20623,7 +20602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>826</v>
       </c>
@@ -20652,7 +20631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>826</v>
       </c>
@@ -20681,7 +20660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>826</v>
       </c>
@@ -20710,7 +20689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>826</v>
       </c>
@@ -20739,7 +20718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>826</v>
       </c>
@@ -20768,7 +20747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>826</v>
       </c>
@@ -20797,7 +20776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>826</v>
       </c>
@@ -20826,7 +20805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>826</v>
       </c>
@@ -20855,7 +20834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>826</v>
       </c>
@@ -20884,7 +20863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>826</v>
       </c>
@@ -20913,7 +20892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>826</v>
       </c>
@@ -20942,7 +20921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>826</v>
       </c>
@@ -20971,7 +20950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>826</v>
       </c>
@@ -21000,7 +20979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>826</v>
       </c>
@@ -21029,7 +21008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>826</v>
       </c>
@@ -21058,7 +21037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>826</v>
       </c>
@@ -21087,7 +21066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>826</v>
       </c>
@@ -21116,7 +21095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>826</v>
       </c>
@@ -21145,7 +21124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>826</v>
       </c>
@@ -21174,7 +21153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>826</v>
       </c>
@@ -21203,7 +21182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>826</v>
       </c>
@@ -21232,7 +21211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>826</v>
       </c>
@@ -21261,7 +21240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>826</v>
       </c>
@@ -21290,7 +21269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>826</v>
       </c>
@@ -21319,7 +21298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>826</v>
       </c>
@@ -21348,7 +21327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>826</v>
       </c>
@@ -21377,7 +21356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>826</v>
       </c>
@@ -21406,7 +21385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>826</v>
       </c>
@@ -21435,7 +21414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>826</v>
       </c>
@@ -21464,7 +21443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>826</v>
       </c>
@@ -21493,7 +21472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>826</v>
       </c>
@@ -21522,7 +21501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>826</v>
       </c>
@@ -21551,7 +21530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>826</v>
       </c>
@@ -21580,7 +21559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>826</v>
       </c>
@@ -21609,7 +21588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>826</v>
       </c>
@@ -21638,7 +21617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>826</v>
       </c>
@@ -21667,7 +21646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>826</v>
       </c>
@@ -21696,7 +21675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>826</v>
       </c>
@@ -21725,7 +21704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>826</v>
       </c>
@@ -21754,7 +21733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>826</v>
       </c>
@@ -21783,7 +21762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>826</v>
       </c>
@@ -21812,7 +21791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>826</v>
       </c>
@@ -21841,7 +21820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>826</v>
       </c>
@@ -21870,7 +21849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>826</v>
       </c>
@@ -21899,7 +21878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>826</v>
       </c>
@@ -21928,7 +21907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>826</v>
       </c>
@@ -21957,7 +21936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>826</v>
       </c>
@@ -21986,7 +21965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>826</v>
       </c>
@@ -22015,7 +21994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>826</v>
       </c>
@@ -22044,7 +22023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>826</v>
       </c>
@@ -22073,7 +22052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>826</v>
       </c>
@@ -22102,7 +22081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>826</v>
       </c>
@@ -22131,7 +22110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>826</v>
       </c>
@@ -22160,7 +22139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>826</v>
       </c>
@@ -22189,7 +22168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>826</v>
       </c>
@@ -22218,7 +22197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>826</v>
       </c>
@@ -22247,7 +22226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>826</v>
       </c>
@@ -22276,7 +22255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>826</v>
       </c>
@@ -22305,7 +22284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>826</v>
       </c>
@@ -22334,7 +22313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>826</v>
       </c>
@@ -22363,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>826</v>
       </c>
@@ -22392,7 +22371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>826</v>
       </c>
@@ -22421,7 +22400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1011</v>
       </c>
@@ -22450,7 +22429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1011</v>
       </c>
@@ -22479,7 +22458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1011</v>
       </c>
@@ -22508,7 +22487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1011</v>
       </c>
@@ -22537,7 +22516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1011</v>
       </c>
@@ -22566,7 +22545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>1011</v>
       </c>
@@ -22595,7 +22574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>1011</v>
       </c>
@@ -22624,7 +22603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1019</v>
       </c>
@@ -22653,7 +22632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1019</v>
       </c>
@@ -22682,7 +22661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1019</v>
       </c>
@@ -22711,7 +22690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1019</v>
       </c>
@@ -22740,7 +22719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1019</v>
       </c>
@@ -22769,7 +22748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1019</v>
       </c>
@@ -22798,7 +22777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>1019</v>
       </c>
@@ -22827,7 +22806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>1019</v>
       </c>
@@ -22856,7 +22835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>1019</v>
       </c>
@@ -22885,7 +22864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>1019</v>
       </c>
@@ -22914,7 +22893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>1019</v>
       </c>
@@ -22943,7 +22922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>1019</v>
       </c>
@@ -22972,7 +22951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1019</v>
       </c>
@@ -23001,7 +22980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>1019</v>
       </c>
@@ -23030,7 +23009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>1019</v>
       </c>
@@ -23059,7 +23038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>1019</v>
       </c>
@@ -23088,7 +23067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>1019</v>
       </c>
@@ -23117,7 +23096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>1019</v>
       </c>
@@ -23149,7 +23128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>1019</v>
       </c>
@@ -23181,7 +23160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>1019</v>
       </c>
@@ -23213,7 +23192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>1019</v>
       </c>
@@ -23245,7 +23224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>1019</v>
       </c>
@@ -23277,7 +23256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>1019</v>
       </c>
@@ -23309,7 +23288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>1019</v>
       </c>
@@ -23341,7 +23320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>1088</v>
       </c>
@@ -23373,7 +23352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>1088</v>
       </c>
@@ -23405,7 +23384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>1088</v>
       </c>
@@ -23437,7 +23416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>1088</v>
       </c>
@@ -23469,7 +23448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>1088</v>
       </c>
@@ -23501,7 +23480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>1088</v>
       </c>
@@ -23533,7 +23512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>1088</v>
       </c>
@@ -23565,7 +23544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>1088</v>
       </c>
@@ -23597,7 +23576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>1088</v>
       </c>
@@ -23626,7 +23605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>1088</v>
       </c>
@@ -23655,7 +23634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>1088</v>
       </c>
@@ -23690,7 +23669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>1088</v>
       </c>
@@ -23725,7 +23704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>1088</v>
       </c>
@@ -23760,7 +23739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>1088</v>
       </c>
@@ -23795,7 +23774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>1088</v>
       </c>
@@ -23827,7 +23806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>1088</v>
       </c>
@@ -23859,7 +23838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>1088</v>
       </c>
@@ -23888,7 +23867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>1088</v>
       </c>
@@ -23917,7 +23896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1088</v>
       </c>
@@ -23946,7 +23925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>1088</v>
       </c>
@@ -23975,7 +23954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1088</v>
       </c>
@@ -24004,7 +23983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>1088</v>
       </c>
@@ -24036,7 +24015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>1088</v>
       </c>
@@ -24071,7 +24050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>1088</v>
       </c>
@@ -24106,7 +24085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>1088</v>
       </c>
@@ -24141,7 +24120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>1088</v>
       </c>
@@ -24176,7 +24155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>1088</v>
       </c>
@@ -24211,7 +24190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>1088</v>
       </c>
@@ -24246,7 +24225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>1088</v>
       </c>
@@ -24281,7 +24260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>1088</v>
       </c>
@@ -24316,7 +24295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>1088</v>
       </c>
@@ -24351,7 +24330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>1088</v>
       </c>
@@ -24386,7 +24365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>1088</v>
       </c>
@@ -24418,7 +24397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>1088</v>
       </c>
@@ -24450,7 +24429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>1088</v>
       </c>
@@ -24482,7 +24461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>1088</v>
       </c>
@@ -24526,7 +24505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>1088</v>
       </c>
@@ -24570,7 +24549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>1088</v>
       </c>
@@ -24608,7 +24587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>1088</v>
       </c>
@@ -24640,7 +24619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>1088</v>
       </c>
@@ -24672,7 +24651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>1088</v>
       </c>
@@ -24704,7 +24683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>1088</v>
       </c>
@@ -24736,7 +24715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>1088</v>
       </c>
@@ -24768,7 +24747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>1088</v>
       </c>
@@ -24800,7 +24779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>1088</v>
       </c>
@@ -24832,7 +24811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>1088</v>
       </c>
@@ -24864,7 +24843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>1088</v>
       </c>
@@ -24896,7 +24875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>1088</v>
       </c>
@@ -24928,7 +24907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>1088</v>
       </c>
@@ -24960,7 +24939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>1088</v>
       </c>
@@ -24992,7 +24971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>1088</v>
       </c>
@@ -25024,7 +25003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>1088</v>
       </c>
@@ -25056,7 +25035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>1088</v>
       </c>
@@ -25088,7 +25067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1088</v>
       </c>
@@ -25120,7 +25099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>1088</v>
       </c>
@@ -25152,7 +25131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>1088</v>
       </c>
@@ -25184,7 +25163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>1088</v>
       </c>
@@ -25216,7 +25195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>1088</v>
       </c>
@@ -25248,7 +25227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>1088</v>
       </c>
@@ -25280,7 +25259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>1088</v>
       </c>
@@ -25312,7 +25291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>1088</v>
       </c>
@@ -25344,7 +25323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>1088</v>
       </c>
@@ -25376,7 +25355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>1088</v>
       </c>
@@ -25408,7 +25387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>1088</v>
       </c>
@@ -25440,7 +25419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>1088</v>
       </c>
@@ -25472,7 +25451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>1088</v>
       </c>
@@ -25504,7 +25483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>1088</v>
       </c>
@@ -25536,7 +25515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>1088</v>
       </c>
@@ -25568,7 +25547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>1088</v>
       </c>
@@ -25600,7 +25579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>1088</v>
       </c>
@@ -25632,7 +25611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>1088</v>
       </c>
@@ -25664,7 +25643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>1088</v>
       </c>
@@ -25696,7 +25675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>1088</v>
       </c>
@@ -25728,7 +25707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>1088</v>
       </c>
@@ -25760,7 +25739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>1088</v>
       </c>
@@ -25792,7 +25771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>1088</v>
       </c>
@@ -25824,7 +25803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>1088</v>
       </c>
@@ -25856,7 +25835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>1088</v>
       </c>
@@ -25888,7 +25867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>1088</v>
       </c>
@@ -25920,7 +25899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>1088</v>
       </c>
@@ -25952,7 +25931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>1088</v>
       </c>
@@ -25984,7 +25963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>1088</v>
       </c>
@@ -26019,17 +25998,25 @@
   </sheetData>
   <autoFilter ref="A1:K518" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="39">
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O71:O72"/>
-    <mergeCell ref="O75:O76"/>
-    <mergeCell ref="O56:O57"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="O63:O64"/>
-    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="O211:O213"/>
+    <mergeCell ref="O174:O175"/>
+    <mergeCell ref="O176:O177"/>
+    <mergeCell ref="O183:O184"/>
+    <mergeCell ref="O204:O206"/>
+    <mergeCell ref="O161:O162"/>
+    <mergeCell ref="O165:O166"/>
+    <mergeCell ref="O168:O169"/>
+    <mergeCell ref="O171:O172"/>
+    <mergeCell ref="O138:O139"/>
+    <mergeCell ref="O142:O143"/>
+    <mergeCell ref="O144:O145"/>
+    <mergeCell ref="O148:O149"/>
+    <mergeCell ref="O158:O159"/>
+    <mergeCell ref="O118:O119"/>
+    <mergeCell ref="O120:O121"/>
+    <mergeCell ref="O123:O124"/>
+    <mergeCell ref="O134:O135"/>
+    <mergeCell ref="O136:O137"/>
     <mergeCell ref="O100:O101"/>
     <mergeCell ref="O102:O103"/>
     <mergeCell ref="O104:O106"/>
@@ -26039,25 +26026,17 @@
     <mergeCell ref="O93:O94"/>
     <mergeCell ref="O96:O97"/>
     <mergeCell ref="O98:O99"/>
-    <mergeCell ref="O118:O119"/>
-    <mergeCell ref="O120:O121"/>
-    <mergeCell ref="O123:O124"/>
-    <mergeCell ref="O134:O135"/>
-    <mergeCell ref="O136:O137"/>
-    <mergeCell ref="O161:O162"/>
-    <mergeCell ref="O165:O166"/>
-    <mergeCell ref="O168:O169"/>
-    <mergeCell ref="O171:O172"/>
-    <mergeCell ref="O138:O139"/>
-    <mergeCell ref="O142:O143"/>
-    <mergeCell ref="O144:O145"/>
-    <mergeCell ref="O148:O149"/>
-    <mergeCell ref="O158:O159"/>
-    <mergeCell ref="O211:O213"/>
-    <mergeCell ref="O174:O175"/>
-    <mergeCell ref="O176:O177"/>
-    <mergeCell ref="O183:O184"/>
-    <mergeCell ref="O204:O206"/>
+    <mergeCell ref="O71:O72"/>
+    <mergeCell ref="O75:O76"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="O63:O64"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26067,281 +26046,293 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943BEAF5-AAA4-473A-8C79-E06777B404A6}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="41.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1217</v>
+        <v>1172</v>
       </c>
       <c r="B1" t="s">
-        <v>1218</v>
+        <v>1173</v>
       </c>
       <c r="C1" t="s">
-        <v>1219</v>
+        <v>1174</v>
       </c>
       <c r="D1" t="s">
-        <v>1220</v>
+        <v>1175</v>
       </c>
       <c r="E1" t="s">
-        <v>1221</v>
+        <v>1176</v>
       </c>
       <c r="F1" t="s">
-        <v>1222</v>
+        <v>1177</v>
       </c>
       <c r="G1" t="s">
-        <v>1223</v>
+        <v>1178</v>
       </c>
       <c r="H1" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1172</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>1178</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D2">
-        <v>1979</v>
-      </c>
-      <c r="E2">
-        <v>1986</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1175</v>
+        <v>1180</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1969</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1969</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>1182</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1176</v>
+        <v>1181</v>
       </c>
       <c r="B3" t="s">
-        <v>1177</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>1180</v>
       </c>
       <c r="D3">
-        <v>1981</v>
+        <v>1969</v>
       </c>
       <c r="E3">
-        <v>1988</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1182</v>
+        <v>1970</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>1183</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D4">
+        <v>1970</v>
+      </c>
+      <c r="E4">
+        <v>1970</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D5">
+        <v>1971</v>
+      </c>
+      <c r="E5">
+        <v>1972</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E6">
+        <v>1984</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1970</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1970</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D4">
-        <v>1983</v>
-      </c>
-      <c r="E4">
-        <v>1990</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1186</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D5">
-        <v>1985</v>
-      </c>
-      <c r="E5">
-        <v>1992</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1190</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1970</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1970</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E10">
+        <v>1984</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>1194</v>
       </c>
-      <c r="D6">
-        <v>1987</v>
-      </c>
-      <c r="E6">
-        <v>1994</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F11" s="11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>1198</v>
       </c>
-      <c r="C7" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D7">
-        <v>1989</v>
-      </c>
-      <c r="E7">
-        <v>1996</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1201</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D8">
-        <v>1991</v>
-      </c>
-      <c r="E8">
-        <v>1998</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1205</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1206</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D9">
-        <v>1993</v>
-      </c>
-      <c r="E9">
-        <v>2000</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1210</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D10">
-        <v>1995</v>
-      </c>
-      <c r="E10">
-        <v>2002</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1215</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -26358,14 +26349,14 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26400,7 +26391,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -26429,7 +26420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -26458,7 +26449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -26487,7 +26478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -26519,7 +26510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -26548,7 +26539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -26577,7 +26568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -26606,7 +26597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -26635,7 +26626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -26664,7 +26655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -26693,7 +26684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -26722,7 +26713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -26751,7 +26742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -26780,7 +26771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>826</v>
       </c>
@@ -26809,7 +26800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>826</v>
       </c>
@@ -26838,7 +26829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>826</v>
       </c>
@@ -26867,7 +26858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>826</v>
       </c>
@@ -26896,7 +26887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>826</v>
       </c>
@@ -26925,7 +26916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>826</v>
       </c>
@@ -26954,7 +26945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>826</v>
       </c>
@@ -26983,7 +26974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>826</v>
       </c>
@@ -27012,7 +27003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1017</v>
       </c>
@@ -27041,7 +27032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1017</v>
       </c>
@@ -27070,7 +27061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1017</v>
       </c>
@@ -27099,7 +27090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1017</v>
       </c>
@@ -27128,7 +27119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1095</v>
       </c>
@@ -27157,7 +27148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1095</v>
       </c>
@@ -27189,7 +27180,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1095</v>
       </c>
@@ -27218,7 +27209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1095</v>
       </c>
@@ -27247,7 +27238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1095</v>
       </c>
@@ -27273,7 +27264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1095</v>
       </c>
@@ -27302,7 +27293,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1095</v>
       </c>
@@ -27331,7 +27322,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1095</v>
       </c>
@@ -27357,7 +27348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1095</v>
       </c>
@@ -27383,7 +27374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1095</v>
       </c>
@@ -27409,7 +27400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1095</v>
       </c>
@@ -27438,7 +27429,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1095</v>
       </c>
@@ -27467,7 +27458,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1095</v>
       </c>
@@ -27493,7 +27484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1095</v>
       </c>
@@ -27519,7 +27510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1095</v>
       </c>
@@ -27563,22 +27554,22 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -27586,7 +27577,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -27594,7 +27585,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -27615,15 +27606,15 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27664,7 +27655,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>861</v>
       </c>
@@ -27681,7 +27672,7 @@
         <v>-99.241298909999998</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>860</v>
       </c>
@@ -27698,7 +27689,7 @@
         <v>-99.200923410000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>859</v>
       </c>
@@ -27715,7 +27706,7 @@
         <v>-99.181187019999996</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>858</v>
       </c>
@@ -27732,7 +27723,7 @@
         <v>-99.16069985</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>938</v>
       </c>
@@ -27758,7 +27749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>935</v>
       </c>
@@ -27784,7 +27775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>934</v>
       </c>
@@ -27810,7 +27801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>933</v>
       </c>
@@ -27836,7 +27827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>937</v>
       </c>
@@ -27862,7 +27853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>936</v>
       </c>
@@ -27888,7 +27879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>932</v>
       </c>
@@ -27914,7 +27905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>931</v>
       </c>
@@ -27940,7 +27931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>930</v>
       </c>
@@ -27966,7 +27957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>929</v>
       </c>
@@ -27992,7 +27983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>679</v>
       </c>
@@ -28031,9 +28022,9 @@
       <selection activeCell="A2" sqref="A2:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>917</v>
       </c>
@@ -28059,7 +28050,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>916</v>
       </c>
@@ -28085,7 +28076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>915</v>
       </c>
@@ -28111,7 +28102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>914</v>
       </c>
@@ -28137,7 +28128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>913</v>
       </c>
@@ -28163,7 +28154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>912</v>
       </c>
@@ -28189,7 +28180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>911</v>
       </c>
@@ -28215,7 +28206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>910</v>
       </c>
@@ -28241,7 +28232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>909</v>
       </c>
@@ -28267,7 +28258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>908</v>
       </c>
@@ -28293,7 +28284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>907</v>
       </c>
@@ -28319,7 +28310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>906</v>
       </c>
@@ -28345,7 +28336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -28371,7 +28362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>905</v>
       </c>
@@ -28397,7 +28388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>904</v>
       </c>
@@ -28423,7 +28414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>903</v>
       </c>
@@ -28449,7 +28440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>902</v>
       </c>
@@ -28475,7 +28466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>901</v>
       </c>
@@ -28501,7 +28492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>900</v>
       </c>
@@ -28527,7 +28518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>899</v>
       </c>
@@ -28553,7 +28544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>898</v>
       </c>
@@ -28579,7 +28570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>897</v>
       </c>
@@ -28605,7 +28596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>896</v>
       </c>
@@ -28631,7 +28622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>895</v>
       </c>
@@ -28657,7 +28648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>894</v>
       </c>
@@ -28683,7 +28674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>893</v>
       </c>
@@ -28709,7 +28700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>892</v>
       </c>
@@ -28735,7 +28726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>891</v>
       </c>
@@ -28761,7 +28752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>890</v>
       </c>
@@ -28787,7 +28778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>889</v>
       </c>
@@ -28813,7 +28804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>888</v>
       </c>
@@ -28839,7 +28830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>887</v>
       </c>
@@ -28865,7 +28856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>886</v>
       </c>
@@ -28891,7 +28882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>885</v>
       </c>
@@ -28917,7 +28908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>884</v>
       </c>
@@ -28943,7 +28934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>883</v>
       </c>
@@ -28969,7 +28960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>882</v>
       </c>
@@ -28995,7 +28986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>880</v>
       </c>
@@ -29021,7 +29012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>881</v>
       </c>
@@ -29047,7 +29038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>879</v>
       </c>
@@ -29073,7 +29064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>878</v>
       </c>
@@ -29099,7 +29090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>877</v>
       </c>
@@ -29125,7 +29116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>876</v>
       </c>
@@ -29151,7 +29142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>875</v>
       </c>
@@ -29177,7 +29168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>874</v>
       </c>
@@ -29203,7 +29194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>873</v>
       </c>
